--- a/Data/cleaned/Manufacturing_filled.xlsx
+++ b/Data/cleaned/Manufacturing_filled.xlsx
@@ -11148,7 +11148,7 @@
         <v>1080060319096.752</v>
       </c>
       <c r="M2">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="N2">
         <v>31.97506997026333</v>
@@ -11192,7 +11192,7 @@
         <v>1243212055648.438</v>
       </c>
       <c r="M3">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="N3">
         <v>32.09392432867769</v>
@@ -11236,7 +11236,7 @@
         <v>1446864352020.468</v>
       </c>
       <c r="M4">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="N4">
         <v>32.45232805659434</v>
@@ -11280,7 +11280,7 @@
         <v>1810542998093.986</v>
       </c>
       <c r="M5">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="N5">
         <v>32.38335311644068</v>
@@ -11324,7 +11324,7 @@
         <v>2286747160116.281</v>
       </c>
       <c r="M6">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="N6">
         <v>32.11941160334752</v>
@@ -11368,7 +11368,7 @@
         <v>2554946777468.748</v>
       </c>
       <c r="M7">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="N7">
         <v>31.59623809103104</v>
@@ -11875,7 +11875,7 @@
         <v>69.99140475588121</v>
       </c>
       <c r="F19">
-        <v>143.8155463696435</v>
+        <v>143.8155463696434</v>
       </c>
       <c r="G19">
         <v>2.894901043785465</v>
@@ -11896,7 +11896,7 @@
         <v>4393454792660.693</v>
       </c>
       <c r="M19">
-        <v>6.652950196607194</v>
+        <v>6.652950196607193</v>
       </c>
       <c r="N19">
         <v>27.43772961721378</v>
@@ -16993,7 +16993,7 @@
         <v>33.50310345353751</v>
       </c>
       <c r="C2">
-        <v>1.610600824157397</v>
+        <v>1.610600824157396</v>
       </c>
       <c r="D2">
         <v>3770.548034667971</v>
@@ -17037,7 +17037,7 @@
         <v>41.3400001525879</v>
       </c>
       <c r="C3">
-        <v>1.610600824157397</v>
+        <v>1.610600824157396</v>
       </c>
       <c r="D3">
         <v>3770.548034667971</v>
@@ -17081,7 +17081,7 @@
         <v>41</v>
       </c>
       <c r="C4">
-        <v>1.610600824157397</v>
+        <v>1.610600824157396</v>
       </c>
       <c r="D4">
         <v>3770.548034667971</v>
@@ -17125,7 +17125,7 @@
         <v>40.6599998474121</v>
       </c>
       <c r="C5">
-        <v>1.610600824157397</v>
+        <v>1.610600824157396</v>
       </c>
       <c r="D5">
         <v>3770.548034667971</v>
@@ -17169,7 +17169,7 @@
         <v>38.939998626709</v>
       </c>
       <c r="C6">
-        <v>1.610600824157397</v>
+        <v>1.610600824157396</v>
       </c>
       <c r="D6">
         <v>3770.548034667971</v>
@@ -17213,7 +17213,7 @@
         <v>38.4000015258789</v>
       </c>
       <c r="C7">
-        <v>1.610600824157397</v>
+        <v>1.610600824157396</v>
       </c>
       <c r="D7">
         <v>3770.548034667971</v>
@@ -18313,7 +18313,7 @@
         <v>33.50310345353751</v>
       </c>
       <c r="C32">
-        <v>1.610600824157397</v>
+        <v>1.610600824157396</v>
       </c>
       <c r="D32">
         <v>3770.548034667971</v>
@@ -18357,7 +18357,7 @@
         <v>33.50310345353751</v>
       </c>
       <c r="C33">
-        <v>1.610600824157397</v>
+        <v>1.610600824157396</v>
       </c>
       <c r="D33">
         <v>3770.548034667971</v>
@@ -18372,7 +18372,7 @@
         <v>3.812286684094758</v>
       </c>
       <c r="H33">
-        <v>5637.119960567888</v>
+        <v>5637.119960567889</v>
       </c>
       <c r="I33">
         <v>8492100.326052006</v>
@@ -26295,7 +26295,7 @@
         <v>0.9587291335344367</v>
       </c>
       <c r="H43">
-        <v>942.1436104697207</v>
+        <v>942.1436104697204</v>
       </c>
       <c r="I43">
         <v>9111306.96190476</v>
@@ -32969,7 +32969,7 @@
         <v>3373095791123.574</v>
       </c>
       <c r="M2">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N2">
         <v>23.46921539563932</v>
@@ -33013,7 +33013,7 @@
         <v>3761198219001.569</v>
       </c>
       <c r="M3">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N3">
         <v>23.47176597231475</v>
@@ -33057,7 +33057,7 @@
         <v>3327988556625.308</v>
       </c>
       <c r="M4">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N4">
         <v>23.36115643732072</v>
@@ -33101,7 +33101,7 @@
         <v>3050631080519.279</v>
       </c>
       <c r="M5">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N5">
         <v>23.35048737419174</v>
@@ -33145,7 +33145,7 @@
         <v>2814130520307.428</v>
       </c>
       <c r="M6">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N6">
         <v>22.83664375633507</v>
@@ -33189,7 +33189,7 @@
         <v>3259750076378.232</v>
       </c>
       <c r="M7">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N7">
         <v>22.40186384416154</v>
@@ -33233,7 +33233,7 @@
         <v>3488679586695.185</v>
       </c>
       <c r="M8">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N8">
         <v>22.45220880818845</v>
@@ -33277,7 +33277,7 @@
         <v>3134526849169.21</v>
       </c>
       <c r="M9">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N9">
         <v>21.11971716938407</v>
@@ -33321,7 +33321,7 @@
         <v>3046675120426.197</v>
       </c>
       <c r="M10">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N10">
         <v>20.71470204605068</v>
@@ -33365,7 +33365,7 @@
         <v>3287238805004.593</v>
       </c>
       <c r="M11">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N11">
         <v>20.91713129374546</v>
@@ -33409,7 +33409,7 @@
         <v>3545239525662.474</v>
       </c>
       <c r="M12">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N12">
         <v>21.12059121924424</v>
@@ -33453,7 +33453,7 @@
         <v>3505028207682.579</v>
       </c>
       <c r="M13">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N13">
         <v>21.42337238571039</v>
@@ -33497,7 +33497,7 @@
         <v>3341916073441.542</v>
       </c>
       <c r="M14">
-        <v>0.2283290883278704</v>
+        <v>0.2283290883278703</v>
       </c>
       <c r="N14">
         <v>21.3992856851895</v>
@@ -34080,7 +34080,7 @@
         <v>2020</v>
       </c>
       <c r="B28">
-        <v>35.48961522028996</v>
+        <v>35.48961522028997</v>
       </c>
       <c r="C28">
         <v>3.26317000389099</v>
@@ -39990,7 +39990,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C2">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D2">
         <v>5422.810414632161</v>
@@ -40020,7 +40020,7 @@
         <v>7155338912.903522</v>
       </c>
       <c r="M2">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N2">
         <v>26.52611559513869</v>
@@ -40034,7 +40034,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C3">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D3">
         <v>5422.810414632161</v>
@@ -40064,7 +40064,7 @@
         <v>8124089295.722025</v>
       </c>
       <c r="M3">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N3">
         <v>25.7581049024776</v>
@@ -40078,7 +40078,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C4">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D4">
         <v>5422.810414632161</v>
@@ -40108,7 +40108,7 @@
         <v>9082027737.018982</v>
       </c>
       <c r="M4">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N4">
         <v>22.29291490588914</v>
@@ -40122,7 +40122,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C5">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D5">
         <v>5422.810414632161</v>
@@ -40152,7 +40152,7 @@
         <v>9679906542.056074</v>
       </c>
       <c r="M5">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N5">
         <v>21.46434389615849</v>
@@ -40166,7 +40166,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C6">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D6">
         <v>5422.810414632161</v>
@@ -40196,7 +40196,7 @@
         <v>10693942262.18646</v>
       </c>
       <c r="M6">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N6">
         <v>21.40238291509307</v>
@@ -40210,7 +40210,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C7">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D7">
         <v>5422.810414632161</v>
@@ -40240,7 +40240,7 @@
         <v>11138812057.5688</v>
       </c>
       <c r="M7">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N7">
         <v>20.11536164922619</v>
@@ -40254,7 +40254,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C8">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D8">
         <v>5422.810414632161</v>
@@ -40284,7 +40284,7 @@
         <v>11013181219.0355</v>
       </c>
       <c r="M8">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N8">
         <v>22.61381615789615</v>
@@ -40298,7 +40298,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C9">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D9">
         <v>5422.810414632161</v>
@@ -40328,7 +40328,7 @@
         <v>12267704601.81868</v>
       </c>
       <c r="M9">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N9">
         <v>24.09005587328071</v>
@@ -40342,7 +40342,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C10">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D10">
         <v>5422.810414632161</v>
@@ -40372,7 +40372,7 @@
         <v>14288888888.88889</v>
       </c>
       <c r="M10">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N10">
         <v>26.07842073053191</v>
@@ -40386,7 +40386,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C11">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D11">
         <v>5422.810414632161</v>
@@ -40416,7 +40416,7 @@
         <v>16926505664.87776</v>
       </c>
       <c r="M11">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N11">
         <v>25.30122250585156</v>
@@ -40430,7 +40430,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C12">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D12">
         <v>5422.810414632161</v>
@@ -40460,7 +40460,7 @@
         <v>19552222734.96385</v>
       </c>
       <c r="M12">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N12">
         <v>24.40422570975837</v>
@@ -40474,7 +40474,7 @@
         <v>36.560001373291</v>
       </c>
       <c r="C13">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D13">
         <v>5422.810414632161</v>
@@ -40504,7 +40504,7 @@
         <v>23865354558.61071</v>
       </c>
       <c r="M13">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N13">
         <v>25.45987665323874</v>
@@ -40518,7 +40518,7 @@
         <v>36.189998626709</v>
       </c>
       <c r="C14">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D14">
         <v>5422.810414632161</v>
@@ -40548,7 +40548,7 @@
         <v>27188643339.47207</v>
       </c>
       <c r="M14">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N14">
         <v>24.34968358529537</v>
@@ -40562,7 +40562,7 @@
         <v>36.0699996948242</v>
       </c>
       <c r="C15">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D15">
         <v>5422.810414632161</v>
@@ -40592,7 +40592,7 @@
         <v>31898811734.12551</v>
       </c>
       <c r="M15">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N15">
         <v>24.47185597678178</v>
@@ -40606,7 +40606,7 @@
         <v>35.4199981689453</v>
       </c>
       <c r="C16">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D16">
         <v>5422.810414632161</v>
@@ -40636,7 +40636,7 @@
         <v>37684758412.9894</v>
       </c>
       <c r="M16">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N16">
         <v>23.62472169260649</v>
@@ -40650,7 +40650,7 @@
         <v>34.6699981689453</v>
       </c>
       <c r="C17">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D17">
         <v>5422.810414632161</v>
@@ -40680,7 +40680,7 @@
         <v>43132707774.79893</v>
       </c>
       <c r="M17">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N17">
         <v>23.98506226333385</v>
@@ -40724,7 +40724,7 @@
         <v>47546595744.68085</v>
       </c>
       <c r="M18">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N18">
         <v>23.16721806017505</v>
@@ -40768,7 +40768,7 @@
         <v>48600282866.37931</v>
       </c>
       <c r="M19">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N19">
         <v>22.15150365521268</v>
@@ -40812,7 +40812,7 @@
         <v>41960623804.97132</v>
       </c>
       <c r="M20">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N20">
         <v>22.68745264851204</v>
@@ -40856,7 +40856,7 @@
         <v>44252330383.48083</v>
       </c>
       <c r="M21">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N21">
         <v>22.85068631305447</v>
@@ -40900,7 +40900,7 @@
         <v>50304002320.18562</v>
       </c>
       <c r="M22">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N22">
         <v>25.8614860377559</v>
@@ -40944,7 +40944,7 @@
         <v>51950773008.87425</v>
       </c>
       <c r="M23">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N23">
         <v>23.39469784741456</v>
@@ -40988,7 +40988,7 @@
         <v>53693007930.3027</v>
       </c>
       <c r="M24">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N24">
         <v>24.73764032297293</v>
@@ -41032,7 +41032,7 @@
         <v>55608540925.26691</v>
       </c>
       <c r="M25">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N25">
         <v>24.76541269319689</v>
@@ -41076,7 +41076,7 @@
         <v>60183232753.52029</v>
       </c>
       <c r="M26">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N26">
         <v>27.11936759706429</v>
@@ -41120,7 +41120,7 @@
         <v>63577925979.33189</v>
       </c>
       <c r="M27">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N27">
         <v>27.07676179820706</v>
@@ -41750,7 +41750,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C42">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D42">
         <v>5422.810414632161</v>
@@ -41794,7 +41794,7 @@
         <v>28.13827573842016</v>
       </c>
       <c r="C43">
-        <v>1.97105332215627</v>
+        <v>1.971053322156271</v>
       </c>
       <c r="D43">
         <v>5422.810414632161</v>
@@ -41824,7 +41824,7 @@
         <v>168800000000</v>
       </c>
       <c r="M43">
-        <v>7.912250304722815</v>
+        <v>7.912250304722816</v>
       </c>
       <c r="N43">
         <v>21.07415385601889</v>
@@ -49396,7 +49396,7 @@
         <v>3.45018005371094</v>
       </c>
       <c r="D25">
-        <v>3936.797055451768</v>
+        <v>3936.797055451767</v>
       </c>
       <c r="E25">
         <v>64.9973268643096</v>
@@ -56243,7 +56243,7 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C2">
         <v>1.122195997834206</v>
@@ -56287,7 +56287,7 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C3">
         <v>1.122195997834206</v>
@@ -56331,7 +56331,7 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C4">
         <v>1.122195997834206</v>
@@ -56375,7 +56375,7 @@
         <v>1983</v>
       </c>
       <c r="B5">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C5">
         <v>1.122195997834206</v>
@@ -56419,7 +56419,7 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C6">
         <v>1.122195997834206</v>
@@ -56463,7 +56463,7 @@
         <v>1985</v>
       </c>
       <c r="B7">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C7">
         <v>1.122195997834206</v>
@@ -56507,7 +56507,7 @@
         <v>1986</v>
       </c>
       <c r="B8">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C8">
         <v>1.122195997834206</v>
@@ -56551,7 +56551,7 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C9">
         <v>1.122195997834206</v>
@@ -56595,7 +56595,7 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C10">
         <v>1.122195997834206</v>
@@ -56639,7 +56639,7 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C11">
         <v>1.122195997834206</v>
@@ -56683,7 +56683,7 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C12">
         <v>1.122195997834206</v>
@@ -58003,7 +58003,7 @@
         <v>2020</v>
       </c>
       <c r="B42">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C42">
         <v>1.122195997834206</v>
@@ -58047,7 +58047,7 @@
         <v>2021</v>
       </c>
       <c r="B43">
-        <v>28.28000009470973</v>
+        <v>28.28000009470972</v>
       </c>
       <c r="C43">
         <v>1.122195997834206</v>
@@ -58062,7 +58062,7 @@
         <v>20.54229020320603</v>
       </c>
       <c r="G43">
-        <v>2.19214940663726</v>
+        <v>2.192149406637261</v>
       </c>
       <c r="H43">
         <v>1338.945431054144</v>

--- a/Data/cleaned/Manufacturing_filled.xlsx
+++ b/Data/cleaned/Manufacturing_filled.xlsx
@@ -2996,7 +2996,7 @@
         <v>195374231904.4572</v>
       </c>
       <c r="I3">
-        <v>30.07694078621605</v>
+        <v>30.18430948209948</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3025,7 +3025,7 @@
         <v>206662795827.6493</v>
       </c>
       <c r="I4">
-        <v>30.93340086759664</v>
+        <v>32.25920381119727</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3054,7 +3054,7 @@
         <v>193240709065.3867</v>
       </c>
       <c r="I5">
-        <v>31.26072739183277</v>
+        <v>31.96205941340536</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3083,7 +3083,7 @@
         <v>185314472865.4727</v>
       </c>
       <c r="I6">
-        <v>32.08720126869112</v>
+        <v>34.27124671763331</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3112,7 +3112,7 @@
         <v>174371569064.1351</v>
       </c>
       <c r="I7">
-        <v>32.18183490146002</v>
+        <v>32.47170291984406</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3141,7 +3141,7 @@
         <v>174976209581.6233</v>
       </c>
       <c r="I8">
-        <v>31.84097054674756</v>
+        <v>30.67637054548271</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3170,7 +3170,7 @@
         <v>176819857327.8909</v>
       </c>
       <c r="I9">
-        <v>31.42536059589894</v>
+        <v>29.88182258893424</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3199,7 +3199,7 @@
         <v>181473529583.8157</v>
       </c>
       <c r="I10">
-        <v>31.13390317825468</v>
+        <v>29.978592167725</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3228,7 +3228,7 @@
         <v>193100256758.4717</v>
       </c>
       <c r="I11">
-        <v>30.77190881075381</v>
+        <v>29.26089572859051</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3257,7 +3257,7 @@
         <v>214402118994.078</v>
       </c>
       <c r="I12">
-        <v>29.28734309167074</v>
+        <v>22.82812987817549</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3286,7 +3286,7 @@
         <v>224923449450.7816</v>
       </c>
       <c r="I13">
-        <v>27.93300324435539</v>
+        <v>21.83906737688613</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3315,7 +3315,7 @@
         <v>230785934248.3313</v>
       </c>
       <c r="I14">
-        <v>27.11082264043185</v>
+        <v>23.30859761087759</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3344,7 +3344,7 @@
         <v>240481224846.0844</v>
       </c>
       <c r="I15">
-        <v>26.92563127467595</v>
+        <v>26.04973651086909</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3373,7 +3373,7 @@
         <v>269132757936.4491</v>
       </c>
       <c r="I16">
-        <v>26.37486412004555</v>
+        <v>23.72123370088062</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3402,7 +3402,7 @@
         <v>333960062561.2844</v>
       </c>
       <c r="I17">
-        <v>24.36675032230772</v>
+        <v>14.54227915106878</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3431,7 +3431,7 @@
         <v>399137099437.4576</v>
       </c>
       <c r="I18">
-        <v>22.46922349664165</v>
+        <v>13.06719123672183</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3460,7 +3460,7 @@
         <v>457434566156.3689</v>
       </c>
       <c r="I19">
-        <v>20.89607548032324</v>
+        <v>13.01862537321251</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3489,7 +3489,7 @@
         <v>502037521992.5721</v>
       </c>
       <c r="I20">
-        <v>19.4516833201195</v>
+        <v>12.1551371940101</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3518,7 +3518,7 @@
         <v>502766241171.9091</v>
       </c>
       <c r="I21">
-        <v>18.27852123523999</v>
+        <v>12.3085333305115</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3547,7 +3547,7 @@
         <v>509893461316.6142</v>
       </c>
       <c r="I22">
-        <v>17.43802791421175</v>
+        <v>13.13465959355212</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3576,7 +3576,7 @@
         <v>502965513882.1829</v>
       </c>
       <c r="I23">
-        <v>16.7305340161953</v>
+        <v>13.0895379354002</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3605,7 +3605,7 @@
         <v>488955213344.9305</v>
       </c>
       <c r="I24">
-        <v>16.02150847682697</v>
+        <v>12.35696266737341</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3634,7 +3634,7 @@
         <v>482939283645.3229</v>
       </c>
       <c r="I25">
-        <v>15.76763064835732</v>
+        <v>14.45076456305325</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3663,7 +3663,7 @@
         <v>489971536319.3779</v>
       </c>
       <c r="I26">
-        <v>15.65991823096308</v>
+        <v>15.09953015638708</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3692,7 +3692,7 @@
         <v>525033072501.5744</v>
       </c>
       <c r="I27">
-        <v>15.51164425464771</v>
+        <v>14.73828114102268</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3721,7 +3721,7 @@
         <v>582088026363.9293</v>
       </c>
       <c r="I28">
-        <v>15.28637702838451</v>
+        <v>14.10894587564269</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3750,7 +3750,7 @@
         <v>665327185427.9628</v>
       </c>
       <c r="I29">
-        <v>15.1048356232167</v>
+        <v>14.1542648058524</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3779,7 +3779,7 @@
         <v>772168600125.4423</v>
       </c>
       <c r="I30">
-        <v>14.92071119369695</v>
+        <v>13.95517690387126</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3808,7 +3808,7 @@
         <v>866276180361.4604</v>
       </c>
       <c r="I31">
-        <v>14.62293480131983</v>
+        <v>13.05946215179974</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3837,7 +3837,7 @@
         <v>1007580189917.463</v>
       </c>
       <c r="I32">
-        <v>14.31905529969605</v>
+        <v>12.72185960924913</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3866,7 +3866,7 @@
         <v>1176523215730.196</v>
       </c>
       <c r="I33">
-        <v>13.9141048852013</v>
+        <v>11.78379767126887</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3895,7 +3895,7 @@
         <v>1303304317260.128</v>
       </c>
       <c r="I34">
-        <v>13.39720371930519</v>
+        <v>10.67594230844642</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3924,7 +3924,7 @@
         <v>1413386545810.143</v>
       </c>
       <c r="I35">
-        <v>12.93171873163953</v>
+        <v>10.47961229213965</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3953,7 +3953,7 @@
         <v>1509604756640.731</v>
       </c>
       <c r="I36">
-        <v>12.51794411468795</v>
+        <v>10.33709739950734</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3982,7 +3982,7 @@
         <v>1509540467415.122</v>
       </c>
       <c r="I37">
-        <v>12.19959141291112</v>
+        <v>10.52093744973542</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4011,7 +4011,7 @@
         <v>1511161005010.411</v>
       </c>
       <c r="I38">
-        <v>11.97438585445035</v>
+        <v>10.78645112033017</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4040,7 +4040,7 @@
         <v>1548718735875.297</v>
       </c>
       <c r="I39">
-        <v>11.7747712263678</v>
+        <v>10.72149801387266</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4069,7 +4069,7 @@
         <v>1560076684905.937</v>
       </c>
       <c r="I40">
-        <v>11.57624767351443</v>
+        <v>10.52845738117833</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4098,7 +4098,7 @@
         <v>1565588499886.227</v>
       </c>
       <c r="I41">
-        <v>11.37816960979231</v>
+        <v>10.33250053589602</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4127,7 +4127,7 @@
         <v>1508594781783.9</v>
       </c>
       <c r="I42">
-        <v>11.10512228711614</v>
+        <v>9.663418179444509</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4156,7 +4156,7 @@
         <v>1473501715088.326</v>
       </c>
       <c r="I43">
-        <v>10.87270547129039</v>
+        <v>9.645341701464915</v>
       </c>
     </row>
   </sheetData>
@@ -9790,7 +9790,7 @@
         <v>23.09259302894455</v>
       </c>
       <c r="M3">
-        <v>16.1579415417277</v>
+        <v>16.25312719621408</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9831,7 +9831,7 @@
         <v>23.10334961289513</v>
       </c>
       <c r="M4">
-        <v>16.51836704590237</v>
+        <v>17.07630687844336</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9872,7 +9872,7 @@
         <v>23.16274339558781</v>
       </c>
       <c r="M5">
-        <v>16.67940217339765</v>
+        <v>17.02443712519088</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9913,7 +9913,7 @@
         <v>23.1345372408789</v>
       </c>
       <c r="M6">
-        <v>16.50352220810002</v>
+        <v>16.03874062392151</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9954,7 +9954,7 @@
         <v>23.15803244393678</v>
       </c>
       <c r="M7">
-        <v>16.30798884574871</v>
+        <v>15.70905941004635</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9995,7 +9995,7 @@
         <v>23.11545834281907</v>
       </c>
       <c r="M8">
-        <v>15.93559101623515</v>
+        <v>14.66325348159223</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -10036,7 +10036,7 @@
         <v>23.1015719716451</v>
       </c>
       <c r="M9">
-        <v>15.58767434420469</v>
+        <v>14.29554309123741</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -10077,7 +10077,7 @@
         <v>23.01865922207205</v>
       </c>
       <c r="M10">
-        <v>15.14187402426635</v>
+        <v>13.37476161969874</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10118,7 +10118,7 @@
         <v>22.84304363683616</v>
       </c>
       <c r="M11">
-        <v>14.64738865553799</v>
+        <v>12.58334034935793</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -10159,7 +10159,7 @@
         <v>22.623820484763</v>
       </c>
       <c r="M12">
-        <v>14.13449583715371</v>
+        <v>11.90294486771548</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -10200,7 +10200,7 @@
         <v>22.41219973414514</v>
       </c>
       <c r="M13">
-        <v>13.4939023027973</v>
+        <v>10.6115120938541</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10241,7 +10241,7 @@
         <v>22.03489055224605</v>
       </c>
       <c r="M14">
-        <v>12.8835959353262</v>
+        <v>10.06119641018396</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -10282,7 +10282,7 @@
         <v>21.70592053125486</v>
       </c>
       <c r="M15">
-        <v>12.38506113434206</v>
+        <v>10.02715411219138</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -10323,7 +10323,7 @@
         <v>21.46255434463776</v>
       </c>
       <c r="M16">
-        <v>11.96745388464431</v>
+        <v>9.95539617251473</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -10364,7 +10364,7 @@
         <v>21.29241019978602</v>
       </c>
       <c r="M17">
-        <v>11.63697894279775</v>
+        <v>10.02016741416535</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -10405,7 +10405,7 @@
         <v>21.13079333470959</v>
       </c>
       <c r="M18">
-        <v>11.29297806482158</v>
+        <v>9.588492358255939</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -10446,7 +10446,7 @@
         <v>20.97252418086288</v>
       </c>
       <c r="M19">
-        <v>10.98222571532752</v>
+        <v>9.426150823826994</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -10487,7 +10487,7 @@
         <v>20.79860033936346</v>
       </c>
       <c r="M20">
-        <v>10.8158570075973</v>
+        <v>9.975422544339398</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -10528,7 +10528,7 @@
         <v>20.61324359345382</v>
       </c>
       <c r="M21">
-        <v>10.67003964013981</v>
+        <v>9.928004135207868</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -10569,7 +10569,7 @@
         <v>20.43624458149656</v>
       </c>
       <c r="M22">
-        <v>10.50901746588651</v>
+        <v>9.68457578828024</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -10610,7 +10610,7 @@
         <v>20.295307618437</v>
       </c>
       <c r="M23">
-        <v>10.40441097320735</v>
+        <v>9.866071588318858</v>
       </c>
     </row>
   </sheetData>
@@ -16272,7 +16272,7 @@
         <v>23.2061772874827</v>
       </c>
       <c r="N3">
-        <v>32.03963327617753</v>
+        <v>32.09392432867769</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16316,7 +16316,7 @@
         <v>23.98868159447977</v>
       </c>
       <c r="N4">
-        <v>32.20160119717283</v>
+        <v>32.45232805659434</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16360,7 +16360,7 @@
         <v>24.88326302406991</v>
       </c>
       <c r="N5">
-        <v>32.25943596095289</v>
+        <v>32.38335311644068</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -16404,7 +16404,7 @@
         <v>25.51927396221542</v>
       </c>
       <c r="N6">
-        <v>32.22099525981109</v>
+        <v>32.11941160334752</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -16448,7 +16448,7 @@
         <v>26.08060657927769</v>
       </c>
       <c r="N7">
-        <v>32.06722988506488</v>
+        <v>31.59623809103104</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -16492,7 +16492,7 @@
         <v>26.67368479106428</v>
       </c>
       <c r="N8">
-        <v>31.96434365046443</v>
+        <v>31.61282168200608</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -16536,7 +16536,7 @@
         <v>27.27325396621711</v>
       </c>
       <c r="N9">
-        <v>31.98565240119783</v>
+        <v>32.06479118642368</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -16580,7 +16580,7 @@
         <v>27.88300418147474</v>
       </c>
       <c r="N10">
-        <v>31.89357286648235</v>
+        <v>31.52857786597396</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -16624,7 +16624,7 @@
         <v>28.31148092742302</v>
       </c>
       <c r="N11">
-        <v>31.65728893204115</v>
+        <v>30.67100807217443</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -16668,7 +16668,7 @@
         <v>28.60834976188531</v>
       </c>
       <c r="N12">
-        <v>31.42165714092846</v>
+        <v>30.39644420551544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -16712,7 +16712,7 @@
         <v>28.71229450549637</v>
       </c>
       <c r="N13">
-        <v>30.97253289370306</v>
+        <v>28.95167057872186</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -16756,7 +16756,7 @@
         <v>28.72788767246302</v>
       </c>
       <c r="N14">
-        <v>30.45638768111448</v>
+        <v>28.06944223771233</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -16800,7 +16800,7 @@
         <v>28.62004784143775</v>
       </c>
       <c r="N15">
-        <v>30.04668708343107</v>
+        <v>28.10893687151002</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -16844,7 +16844,7 @@
         <v>28.56847600612184</v>
       </c>
       <c r="N16">
-        <v>29.66757874013625</v>
+        <v>27.84101115441765</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -16888,7 +16888,7 @@
         <v>28.37356759286269</v>
       </c>
       <c r="N17">
-        <v>29.17663055420902</v>
+        <v>26.77472170589195</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -16932,7 +16932,7 @@
         <v>28.37356759286269</v>
       </c>
       <c r="N18">
-        <v>28.69107282842753</v>
+        <v>26.28518884296746</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -16976,7 +16976,7 @@
         <v>28.37356759286269</v>
       </c>
       <c r="N19">
-        <v>28.48244112483208</v>
+        <v>27.43772961721378</v>
       </c>
     </row>
   </sheetData>
@@ -22696,7 +22696,7 @@
         <v>968826606686.5703</v>
       </c>
       <c r="I3">
-        <v>16.44850078237692</v>
+        <v>16.26393514474525</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -22725,7 +22725,7 @@
         <v>999562257226.1707</v>
       </c>
       <c r="I4">
-        <v>16.29054641573794</v>
+        <v>16.04603255128911</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -22754,7 +22754,7 @@
         <v>981873133502.3846</v>
       </c>
       <c r="I5">
-        <v>16.09685726757748</v>
+        <v>15.68185759056369</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -22783,7 +22783,7 @@
         <v>989474479779.6333</v>
       </c>
       <c r="I6">
-        <v>16.18112407945276</v>
+        <v>16.40380812564748</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -22812,7 +22812,7 @@
         <v>1014809297249.361</v>
       </c>
       <c r="I7">
-        <v>16.00906245692902</v>
+        <v>15.48202825036215</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -22841,7 +22841,7 @@
         <v>1045869633923.56</v>
       </c>
       <c r="I8">
-        <v>15.83984019621249</v>
+        <v>15.26167400687671</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -22870,7 +22870,7 @@
         <v>1095659167145.42</v>
       </c>
       <c r="I9">
-        <v>15.67415469832507</v>
+        <v>15.05881364917567</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -22899,7 +22899,7 @@
         <v>1150493514142.809</v>
       </c>
       <c r="I10">
-        <v>15.42667700383479</v>
+        <v>14.44569766346996</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -22928,7 +22928,7 @@
         <v>1200206890729.615</v>
       </c>
       <c r="I11">
-        <v>15.12177153035328</v>
+        <v>13.84905515513882</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -22957,7 +22957,7 @@
         <v>1235055797050.353</v>
       </c>
       <c r="I12">
-        <v>14.78880553314205</v>
+        <v>13.34010013654984</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -22986,7 +22986,7 @@
         <v>1261732284800.569</v>
       </c>
       <c r="I13">
-        <v>14.36361606570722</v>
+        <v>12.45044977202736</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -23015,7 +23015,7 @@
         <v>1305505004415.546</v>
       </c>
       <c r="I14">
-        <v>13.96920492487548</v>
+        <v>12.14522622183988</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -23044,7 +23044,7 @@
         <v>1380976104728.689</v>
       </c>
       <c r="I15">
-        <v>13.55687779136067</v>
+        <v>11.60670492154575</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -23073,7 +23073,7 @@
         <v>1497537521271.844</v>
       </c>
       <c r="I16">
-        <v>13.11399521993829</v>
+        <v>10.98015943513545</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -23102,7 +23102,7 @@
         <v>1608868332202.343</v>
       </c>
       <c r="I17">
-        <v>12.67322367623283</v>
+        <v>10.51679841332442</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -23131,7 +23131,7 @@
         <v>1722060101613.731</v>
       </c>
       <c r="I18">
-        <v>12.25713914453797</v>
+        <v>10.19548703141146</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -23160,7 +23160,7 @@
         <v>1867861398291.052</v>
       </c>
       <c r="I19">
-        <v>11.82247505184268</v>
+        <v>9.645919083782617</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -23189,7 +23189,7 @@
         <v>1970177038886.968</v>
       </c>
       <c r="I20">
-        <v>11.4397691544274</v>
+        <v>9.506477552490942</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -23218,7 +23218,7 @@
         <v>1991415483125.303</v>
       </c>
       <c r="I21">
-        <v>11.05661379492729</v>
+        <v>9.106812577065352</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -23247,7 +23247,7 @@
         <v>2015281555365.763</v>
       </c>
       <c r="I22">
-        <v>10.80185651362313</v>
+        <v>9.497486346254641</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -23276,7 +23276,7 @@
         <v>2058064405462.653</v>
       </c>
       <c r="I23">
-        <v>10.56378876922757</v>
+        <v>9.338613927807517</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -23305,7 +23305,7 @@
         <v>2100484028243.209</v>
       </c>
       <c r="I24">
-        <v>10.35807957258906</v>
+        <v>9.294886876908018</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -23334,7 +23334,7 @@
         <v>2145474393747.462</v>
       </c>
       <c r="I25">
-        <v>10.22031086923364</v>
+        <v>9.505703634097443</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -23363,7 +23363,7 @@
         <v>2218660478093.089</v>
       </c>
       <c r="I26">
-        <v>10.07612952279249</v>
+        <v>9.326007029243744</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -23392,7 +23392,7 @@
         <v>2260584433316.324</v>
       </c>
       <c r="I27">
-        <v>9.9373258229068</v>
+        <v>9.213357502950581</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -23421,7 +23421,7 @@
         <v>2264103074729.017</v>
       </c>
       <c r="I28">
-        <v>9.786019586916433</v>
+        <v>8.995169187528946</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -23450,7 +23450,7 @@
         <v>2260416341113.059</v>
       </c>
       <c r="I29">
-        <v>9.651573918174114</v>
+        <v>8.947601570326869</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -23479,7 +23479,7 @@
         <v>2285411677067.813</v>
       </c>
       <c r="I30">
-        <v>9.522713860398451</v>
+        <v>8.846981668337641</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -23508,7 +23508,7 @@
         <v>2302277061330.745</v>
       </c>
       <c r="I31">
-        <v>9.419844253411824</v>
+        <v>8.879728176020482</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -23537,7 +23537,7 @@
         <v>2300581434593.752</v>
       </c>
       <c r="I32">
-        <v>9.304436910867821</v>
+        <v>8.697854008196687</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -23566,7 +23566,7 @@
         <v>2358357623937.854</v>
       </c>
       <c r="I33">
-        <v>9.218578802574678</v>
+        <v>8.76690832410466</v>
       </c>
     </row>
   </sheetData>
@@ -31807,7 +31807,7 @@
         <v>164618916446.1386</v>
       </c>
       <c r="I3">
-        <v>16.76219055646029</v>
+        <v>16.77044375204378</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -31836,7 +31836,7 @@
         <v>167221002267.2843</v>
       </c>
       <c r="I4">
-        <v>16.6082682145897</v>
+        <v>16.36999593737045</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -31865,7 +31865,7 @@
         <v>173486422587.7294</v>
       </c>
       <c r="I5">
-        <v>16.62614715469235</v>
+        <v>16.6644546925096</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -31894,7 +31894,7 @@
         <v>175343424765.3197</v>
       </c>
       <c r="I6">
-        <v>16.64856419038807</v>
+        <v>16.70780360032094</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -31923,7 +31923,7 @@
         <v>180205583617.306</v>
       </c>
       <c r="I7">
-        <v>16.59182084581052</v>
+        <v>16.41801286266626</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -31952,7 +31952,7 @@
         <v>187158633677.7142</v>
       </c>
       <c r="I8">
-        <v>16.50799248552229</v>
+        <v>16.22158380961347</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -31981,7 +31981,7 @@
         <v>196810007208.562</v>
       </c>
       <c r="I9">
-        <v>16.4446813227413</v>
+        <v>16.20954935388915</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -32010,7 +32010,7 @@
         <v>205991085495.4053</v>
       </c>
       <c r="I10">
-        <v>16.37555306206962</v>
+        <v>16.1015348492608</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -32039,7 +32039,7 @@
         <v>211800509318.9793</v>
       </c>
       <c r="I11">
-        <v>16.47746244643743</v>
+        <v>16.90284589656693</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -32068,7 +32068,7 @@
         <v>219223668475.1895</v>
       </c>
       <c r="I12">
-        <v>16.49991357622742</v>
+        <v>16.59759644222204</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -32097,7 +32097,7 @@
         <v>217718086810.6188</v>
       </c>
       <c r="I13">
-        <v>16.35014647790887</v>
+        <v>15.67626016051273</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -32126,7 +32126,7 @@
         <v>218290704543.7021</v>
       </c>
       <c r="I14">
-        <v>16.25247724100342</v>
+        <v>15.80079981708075</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -32155,7 +32155,7 @@
         <v>217460447335.0319</v>
       </c>
       <c r="I15">
-        <v>16.19370162118217</v>
+        <v>15.91571210784389</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -32184,7 +32184,7 @@
         <v>222428022138.0149</v>
       </c>
       <c r="I16">
-        <v>16.2917474117174</v>
+        <v>16.76413813082256</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -32213,7 +32213,7 @@
         <v>230073127384.1966</v>
       </c>
       <c r="I17">
-        <v>16.55888923515084</v>
+        <v>17.86585059655905</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -32242,7 +32242,7 @@
         <v>240846157554.6897</v>
       </c>
       <c r="I18">
-        <v>16.73310772995555</v>
+        <v>17.59634080064139</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -32271,7 +32271,7 @@
         <v>252632778215.7068</v>
       </c>
       <c r="I19">
-        <v>16.69739716635569</v>
+        <v>16.51857853000575</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -32300,7 +32300,7 @@
         <v>263606462238.2941</v>
       </c>
       <c r="I20">
-        <v>16.53577461523395</v>
+        <v>15.71931601640516</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -32329,7 +32329,7 @@
         <v>277721847043.7659</v>
       </c>
       <c r="I21">
-        <v>16.31319581948077</v>
+        <v>15.18053671327382</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -32358,7 +32358,7 @@
         <v>290269352826.7561</v>
       </c>
       <c r="I22">
-        <v>16.25009621011312</v>
+        <v>15.92702301820897</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -32387,7 +32387,7 @@
         <v>302995763898.1909</v>
       </c>
       <c r="I23">
-        <v>16.0966590952876</v>
+        <v>15.30702128315309</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -32416,7 +32416,7 @@
         <v>315937214348.1737</v>
       </c>
       <c r="I24">
-        <v>16.0094476419473</v>
+        <v>15.5587017264204</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -32445,7 +32445,7 @@
         <v>335965530164.7773</v>
       </c>
       <c r="I25">
-        <v>15.94123032943233</v>
+        <v>15.58738664870186</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -32474,7 +32474,7 @@
         <v>360409733277.4534</v>
       </c>
       <c r="I26">
-        <v>15.92285351970556</v>
+        <v>15.82724574050271</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -32503,7 +32503,7 @@
         <v>391838933536.4448</v>
       </c>
       <c r="I27">
-        <v>15.93092388210554</v>
+        <v>15.97301704470109</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -32532,7 +32532,7 @@
         <v>428440134375.7665</v>
       </c>
       <c r="I28">
-        <v>16.15137822925226</v>
+        <v>17.30365333111118</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -32561,7 +32561,7 @@
         <v>487774175493.1616</v>
       </c>
       <c r="I29">
-        <v>16.26574271520098</v>
+        <v>16.86456777544126</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -32590,7 +32590,7 @@
         <v>538714435928.2015</v>
       </c>
       <c r="I30">
-        <v>16.39914145561749</v>
+        <v>17.09867414895781</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -32619,7 +32619,7 @@
         <v>597266552422.5969</v>
       </c>
       <c r="I31">
-        <v>16.51824186849018</v>
+        <v>17.14357766689418</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -32648,7 +32648,7 @@
         <v>677854050540.1602</v>
       </c>
       <c r="I32">
-        <v>16.60003391247245</v>
+        <v>17.02993424949175</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -32677,7 +32677,7 @@
         <v>765529584790.2051</v>
       </c>
       <c r="I33">
-        <v>16.52644800802931</v>
+        <v>16.13933744469147</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -32706,7 +32706,7 @@
         <v>839219322548.9177</v>
       </c>
       <c r="I34">
-        <v>16.41318800595085</v>
+        <v>15.81692300717572</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -32735,7 +32735,7 @@
         <v>906587668842.408</v>
       </c>
       <c r="I35">
-        <v>16.22809028065897</v>
+        <v>15.25302269276287</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -32764,7 +32764,7 @@
         <v>984987146233.4086</v>
       </c>
       <c r="I36">
-        <v>16.04269855050394</v>
+        <v>15.06557011109184</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -32793,7 +32793,7 @@
         <v>1060813035642.445</v>
       </c>
       <c r="I37">
-        <v>15.96955196654591</v>
+        <v>15.58385458634904</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -32822,7 +32822,7 @@
         <v>1146305237595.177</v>
       </c>
       <c r="I38">
-        <v>15.84089397776481</v>
+        <v>15.16223713314817</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -32851,7 +32851,7 @@
         <v>1257236792301.17</v>
       </c>
       <c r="I39">
-        <v>15.70982556766246</v>
+        <v>15.01823875014704</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -32880,7 +32880,7 @@
         <v>1358835646255.215</v>
       </c>
       <c r="I40">
-        <v>15.57788765568653</v>
+        <v>14.88153066744756</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -32909,7 +32909,7 @@
         <v>1466755561725.093</v>
       </c>
       <c r="I41">
-        <v>15.24276355766292</v>
+        <v>13.47361810745156</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -32938,7 +32938,7 @@
         <v>1542678738197.258</v>
       </c>
       <c r="I42">
-        <v>14.99445697885486</v>
+        <v>13.68338528944649</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -32967,7 +32967,7 @@
         <v>1654153447524.668</v>
       </c>
       <c r="I43">
-        <v>14.84730682110094</v>
+        <v>14.07022547391186</v>
       </c>
     </row>
   </sheetData>
@@ -39830,7 +39830,7 @@
         <v>33.92382511487565</v>
       </c>
       <c r="K3">
-        <v>23.47060090362027</v>
+        <v>23.47176597231475</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -39865,7 +39865,7 @@
         <v>33.73001656299088</v>
       </c>
       <c r="K4">
-        <v>23.42764787025969</v>
+        <v>23.36115643732072</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -39900,7 +39900,7 @@
         <v>33.58045338876676</v>
       </c>
       <c r="K5">
-        <v>23.40309484720927</v>
+        <v>23.35048737419174</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -39935,7 +39935,7 @@
         <v>33.20697025979833</v>
       </c>
       <c r="K6">
-        <v>23.24758778066654</v>
+        <v>22.83664375633507</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -39970,7 +39970,7 @@
         <v>32.87545378704878</v>
       </c>
       <c r="K7">
-        <v>23.03943801540259</v>
+        <v>22.40186384416154</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -40005,7 +40005,7 @@
         <v>32.54591274679727</v>
       </c>
       <c r="K8">
-        <v>22.90647870355265</v>
+        <v>22.45220880818845</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -40040,7 +40040,7 @@
         <v>32.15432446178674</v>
       </c>
       <c r="K9">
-        <v>22.52743848332199</v>
+        <v>21.11971716938407</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -40075,7 +40075,7 @@
         <v>31.70823984918676</v>
       </c>
       <c r="K10">
-        <v>22.16225531330797</v>
+        <v>20.71470204605068</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -40110,7 +40110,7 @@
         <v>31.21381119414976</v>
       </c>
       <c r="K11">
-        <v>21.92161137886848</v>
+        <v>20.91713129374546</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -40145,7 +40145,7 @@
         <v>30.69356129177244</v>
       </c>
       <c r="K12">
-        <v>21.77191347320349</v>
+        <v>21.12059121924424</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -40180,7 +40180,7 @@
         <v>30.20014711830775</v>
       </c>
       <c r="K13">
-        <v>21.7085373172589</v>
+        <v>21.42337238571039</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -40215,7 +40215,7 @@
         <v>29.76275351749336</v>
       </c>
       <c r="K14">
-        <v>21.65355496627773</v>
+        <v>21.3992856851895</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -40250,7 +40250,7 @@
         <v>29.36783513848653</v>
       </c>
       <c r="K15">
-        <v>21.69229206021303</v>
+        <v>21.87550588124908</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -40285,7 +40285,7 @@
         <v>28.99351212122239</v>
       </c>
       <c r="K16">
-        <v>21.62040200056681</v>
+        <v>21.27403122026707</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -40320,7 +40320,7 @@
         <v>28.51093821994325</v>
       </c>
       <c r="K17">
-        <v>21.18378468383177</v>
+        <v>19.04768350970545</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -40355,7 +40355,7 @@
         <v>28.01538919858745</v>
       </c>
       <c r="K18">
-        <v>21.11366013928977</v>
+        <v>20.76620089862018</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -40390,7 +40390,7 @@
         <v>27.57004352674472</v>
       </c>
       <c r="K19">
-        <v>20.85096839956568</v>
+        <v>19.53555430517587</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -40425,7 +40425,7 @@
         <v>27.18997401153385</v>
       </c>
       <c r="K20">
-        <v>20.65527592766397</v>
+        <v>19.66670842701939</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -40460,7 +40460,7 @@
         <v>26.87300291756091</v>
       </c>
       <c r="K21">
-        <v>20.43745892830462</v>
+        <v>19.32903165437587</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -40495,7 +40495,7 @@
         <v>26.58003099376241</v>
       </c>
       <c r="K22">
-        <v>20.29957613092259</v>
+        <v>19.59360923342026</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -40530,7 +40530,7 @@
         <v>26.31808084668788</v>
       </c>
       <c r="K23">
-        <v>20.32607882148164</v>
+        <v>20.46247037584918</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -40565,7 +40565,7 @@
         <v>26.05576430658391</v>
       </c>
       <c r="K24">
-        <v>20.31991189086566</v>
+        <v>20.2880385682684</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -40600,7 +40600,7 @@
         <v>25.82531925697797</v>
       </c>
       <c r="K25">
-        <v>20.33866638344315</v>
+        <v>20.43594606860216</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -40635,7 +40635,7 @@
         <v>25.60036331226464</v>
       </c>
       <c r="K26">
-        <v>20.3839863765954</v>
+        <v>20.61976962533107</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -40670,7 +40670,7 @@
         <v>25.37828885246373</v>
       </c>
       <c r="K27">
-        <v>20.33166621281502</v>
+        <v>20.05877621706484</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -40705,7 +40705,7 @@
         <v>25.37828885246373</v>
       </c>
       <c r="K28">
-        <v>20.23789531364902</v>
+        <v>19.74777174028171</v>
       </c>
     </row>
   </sheetData>
@@ -47999,7 +47999,7 @@
         <v>7681577312.191724</v>
       </c>
       <c r="I3">
-        <v>26.10892172898884</v>
+        <v>25.7581049024776</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -48028,7 +48028,7 @@
         <v>8231203947.976085</v>
       </c>
       <c r="I4">
-        <v>24.61127571801408</v>
+        <v>22.29291490588914</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -48057,7 +48057,7 @@
         <v>8692191499.874823</v>
       </c>
       <c r="I5">
-        <v>23.60989945039531</v>
+        <v>21.46434389615849</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -48086,7 +48086,7 @@
         <v>9241729481.197008</v>
       </c>
       <c r="I6">
-        <v>23.00387286437597</v>
+        <v>21.40238291509307</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -48115,7 +48115,7 @@
         <v>9708639871.116875</v>
       </c>
       <c r="I7">
-        <v>22.29295183513281</v>
+        <v>20.11536164922619</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -48144,7 +48144,7 @@
         <v>10004011623.35298</v>
       </c>
       <c r="I8">
-        <v>22.36560132025329</v>
+        <v>22.61381615789615</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -48173,7 +48173,7 @@
         <v>10484227180.20483</v>
       </c>
       <c r="I9">
-        <v>22.73142385507824</v>
+        <v>24.09005587328071</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -48202,7 +48202,7 @@
         <v>11250691843.81564</v>
       </c>
       <c r="I10">
-        <v>23.40569006602563</v>
+        <v>26.07842073053191</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -48231,7 +48231,7 @@
         <v>12347650980.08413</v>
       </c>
       <c r="I11">
-        <v>23.77203781694098</v>
+        <v>25.30122250585156</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -48260,7 +48260,7 @@
         <v>13694070654.99534</v>
       </c>
       <c r="I12">
-        <v>23.89018366184196</v>
+        <v>24.40422570975837</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -48289,7 +48289,7 @@
         <v>15543542347.03808</v>
       </c>
       <c r="I13">
-        <v>24.17560512685036</v>
+        <v>25.45987665323874</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -48318,7 +48318,7 @@
         <v>17613943805.20548</v>
       </c>
       <c r="I14">
-        <v>24.20655481929478</v>
+        <v>24.34968358529537</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -48347,7 +48347,7 @@
         <v>20107081852.81091</v>
       </c>
       <c r="I15">
-        <v>24.25285783120191</v>
+        <v>24.47185597678178</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -48376,7 +48376,7 @@
         <v>23128307116.25302</v>
       </c>
       <c r="I16">
-        <v>24.14489471307829</v>
+        <v>23.62472169260649</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -48405,7 +48405,7 @@
         <v>26523263762.09367</v>
       </c>
       <c r="I17">
-        <v>24.11776946965096</v>
+        <v>23.98506226333385</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -48434,7 +48434,7 @@
         <v>30053696772.77023</v>
       </c>
       <c r="I18">
-        <v>23.95814405550927</v>
+        <v>23.16721806017505</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -48463,7 +48463,7 @@
         <v>33140964344.78851</v>
       </c>
       <c r="I19">
-        <v>23.65741041676937</v>
+        <v>22.15150365521268</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -48492,7 +48492,7 @@
         <v>34598364747.66082</v>
       </c>
       <c r="I20">
-        <v>23.49713020996442</v>
+        <v>22.68745264851204</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -48521,7 +48521,7 @@
         <v>36183893046.68164</v>
       </c>
       <c r="I21">
-        <v>23.3909608769727</v>
+        <v>22.85068631305447</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -48550,7 +48550,7 @@
         <v>38491081373.90788</v>
       </c>
       <c r="I22">
-        <v>23.79463812214626</v>
+        <v>25.8614860377559</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -48579,7 +48579,7 @@
         <v>40680956421.87209</v>
       </c>
       <c r="I23">
-        <v>23.72956833807813</v>
+        <v>23.39469784741456</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -48608,7 +48608,7 @@
         <v>42790417112.74172</v>
       </c>
       <c r="I24">
-        <v>23.89299285452158</v>
+        <v>24.73764032297293</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -48637,7 +48637,7 @@
         <v>44862198139.58057</v>
       </c>
       <c r="I25">
-        <v>24.03400123419093</v>
+        <v>24.76541269319689</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -48666,7 +48666,7 @@
         <v>47332284144.72869</v>
       </c>
       <c r="I26">
-        <v>24.53142979993245</v>
+        <v>27.11936759706429</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -48695,7 +48695,7 @@
         <v>49945900652.68385</v>
       </c>
       <c r="I27">
-        <v>24.94092557711665</v>
+        <v>27.07676179820706</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -48724,7 +48724,7 @@
         <v>53385224296.53539</v>
       </c>
       <c r="I28">
-        <v>25.20383353249344</v>
+        <v>26.57800598580277</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -48753,7 +48753,7 @@
         <v>58143143685.62563</v>
       </c>
       <c r="I29">
-        <v>24.98235226187157</v>
+        <v>23.82265190452721</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -48782,7 +48782,7 @@
         <v>64355108413.73589</v>
       </c>
       <c r="I30">
-        <v>24.27819760704941</v>
+        <v>20.58566497384844</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -48811,7 +48811,7 @@
         <v>69289660390.50447</v>
       </c>
       <c r="I31">
-        <v>23.63747668488977</v>
+        <v>20.27337642907351</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -48840,7 +48840,7 @@
         <v>75858245615.56296</v>
       </c>
       <c r="I32">
-        <v>23.1797343442764</v>
+        <v>20.77383302531255</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -48869,7 +48869,7 @@
         <v>84200992382.44701</v>
       </c>
       <c r="I33">
-        <v>22.60516524950705</v>
+        <v>19.58255150797782</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -48898,7 +48898,7 @@
         <v>92505287291.29024</v>
       </c>
       <c r="I34">
-        <v>22.04832825930663</v>
+        <v>19.11682198006619</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -48927,7 +48927,7 @@
         <v>100848578333.784</v>
       </c>
       <c r="I35">
-        <v>21.34475101860852</v>
+        <v>17.63840961487545</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -48956,7 +48956,7 @@
         <v>108472981400.6946</v>
       </c>
       <c r="I36">
-        <v>20.81131337167575</v>
+        <v>17.99976889212852</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -48985,7 +48985,7 @@
         <v>114429340188.3851</v>
       </c>
       <c r="I37">
-        <v>20.37738852707008</v>
+        <v>18.08932985487341</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -49014,7 +49014,7 @@
         <v>119934551695.9196</v>
       </c>
       <c r="I38">
-        <v>19.92014866002594</v>
+        <v>17.50825828041602</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -49043,7 +49043,7 @@
         <v>125653054510.1098</v>
       </c>
       <c r="I39">
-        <v>19.7071646113331</v>
+        <v>18.58334720710878</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -49072,7 +49072,7 @@
         <v>132305685993.5466</v>
       </c>
       <c r="I40">
-        <v>19.87109507583754</v>
+        <v>20.73630601356827</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -49101,7 +49101,7 @@
         <v>138628137658.4117</v>
       </c>
       <c r="I41">
-        <v>19.80129978232698</v>
+        <v>19.43284515107672</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -49130,7 +49130,7 @@
         <v>141265603922.3244</v>
       </c>
       <c r="I42">
-        <v>19.82577153424094</v>
+        <v>19.95498366095388</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -49159,7 +49159,7 @@
         <v>145649452238.2707</v>
       </c>
       <c r="I43">
-        <v>20.02453088685374</v>
+        <v>21.07415385601889</v>
       </c>
     </row>
   </sheetData>
@@ -51632,7 +51632,7 @@
         <v>236547639088.2532</v>
       </c>
       <c r="I3">
-        <v>13.12874963367436</v>
+        <v>12.5698102029463</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -51661,7 +51661,7 @@
         <v>243366219099.9384</v>
       </c>
       <c r="I4">
-        <v>12.91344740877454</v>
+        <v>12.58015887642892</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -51690,7 +51690,7 @@
         <v>242607636858.0856</v>
       </c>
       <c r="I5">
-        <v>12.90063526753748</v>
+        <v>12.87318388719052</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -51719,7 +51719,7 @@
         <v>243434482072.473</v>
       </c>
       <c r="I6">
-        <v>12.98419759119866</v>
+        <v>13.20501995208072</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -51748,7 +51748,7 @@
         <v>252296206245.1093</v>
       </c>
       <c r="I7">
-        <v>13.01852626155324</v>
+        <v>13.12367686560688</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -51777,7 +51777,7 @@
         <v>263871117883.5829</v>
       </c>
       <c r="I8">
-        <v>12.9560099803495</v>
+        <v>12.7424163318427</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -51806,7 +51806,7 @@
         <v>277018183289.4625</v>
       </c>
       <c r="I9">
-        <v>12.81762283037062</v>
+        <v>12.30366539207597</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -51835,7 +51835,7 @@
         <v>281731863619.3082</v>
       </c>
       <c r="I10">
-        <v>12.74774341064499</v>
+        <v>12.47074767085228</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -51864,7 +51864,7 @@
         <v>284629602492.8141</v>
       </c>
       <c r="I11">
-        <v>12.59411155880093</v>
+        <v>11.95283158647435</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -51893,7 +51893,7 @@
         <v>290359863058.4034</v>
       </c>
       <c r="I12">
-        <v>12.40274301890553</v>
+        <v>11.57011554701219</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -51922,7 +51922,7 @@
         <v>290285157991.4052</v>
       </c>
       <c r="I13">
-        <v>12.14640817980561</v>
+        <v>10.99301372481012</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -51951,7 +51951,7 @@
         <v>291783717222.7343</v>
       </c>
       <c r="I14">
-        <v>11.86353116883582</v>
+        <v>10.55534894431952</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -51980,7 +51980,7 @@
         <v>302960484210.9167</v>
       </c>
       <c r="I15">
-        <v>11.68876359051984</v>
+        <v>10.86216994180758</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -52009,7 +52009,7 @@
         <v>330691535388.2836</v>
       </c>
       <c r="I16">
-        <v>11.55012524425204</v>
+        <v>10.88215706600108</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -52038,7 +52038,7 @@
         <v>363312530004.72</v>
       </c>
       <c r="I17">
-        <v>11.34388237418907</v>
+        <v>10.33486230097914</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -52067,7 +52067,7 @@
         <v>395596014406.7808</v>
       </c>
       <c r="I18">
-        <v>11.10008076837578</v>
+        <v>9.892071199355792</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -52096,7 +52096,7 @@
         <v>435087644463.8364</v>
       </c>
       <c r="I19">
-        <v>10.79888538948852</v>
+        <v>9.290666490144647</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -52125,7 +52125,7 @@
         <v>492079414784.8815</v>
       </c>
       <c r="I20">
-        <v>10.53504169913785</v>
+        <v>9.202198922938425</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -52154,7 +52154,7 @@
         <v>521511864814.442</v>
       </c>
       <c r="I21">
-        <v>10.19318210223858</v>
+        <v>8.453526785289274</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -52183,7 +52183,7 @@
         <v>575266406781.6953</v>
       </c>
       <c r="I22">
-        <v>9.834337373917158</v>
+        <v>7.997034212477491</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -52212,7 +52212,7 @@
         <v>646551379938.2046</v>
       </c>
       <c r="I23">
-        <v>9.433150840287663</v>
+        <v>7.368513108841397</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -52241,7 +52241,7 @@
         <v>723346896404.3483</v>
       </c>
       <c r="I24">
-        <v>9.046877847958847</v>
+        <v>7.05045459273345</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -52270,7 +52270,7 @@
         <v>793491408431.3381</v>
       </c>
       <c r="I25">
-        <v>8.652738223501778</v>
+        <v>6.608333214010963</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -52299,7 +52299,7 @@
         <v>839562534131.5189</v>
       </c>
       <c r="I26">
-        <v>8.284490748508516</v>
+        <v>6.368634633947076</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -52328,7 +52328,7 @@
         <v>867892381695.4492</v>
       </c>
       <c r="I27">
-        <v>7.965223314532585</v>
+        <v>6.299997474136078</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -52357,7 +52357,7 @@
         <v>877467150286.043</v>
       </c>
       <c r="I28">
-        <v>7.66334786172523</v>
+        <v>6.085499329208853</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -52386,7 +52386,7 @@
         <v>897166384809.141</v>
       </c>
       <c r="I29">
-        <v>7.36434570872386</v>
+        <v>5.798737462442747</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -52415,7 +52415,7 @@
         <v>925269878761.1543</v>
       </c>
       <c r="I30">
-        <v>7.110166734904319</v>
+        <v>5.777271824567839</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -52444,7 +52444,7 @@
         <v>942518773967.6179</v>
       </c>
       <c r="I31">
-        <v>6.870977787296279</v>
+        <v>5.615118064276127</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -52473,7 +52473,7 @@
         <v>948507002490.8365</v>
       </c>
       <c r="I32">
-        <v>6.675987322125715</v>
+        <v>5.651114209643661</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -52502,7 +52502,7 @@
         <v>977069662381.1323</v>
       </c>
       <c r="I33">
-        <v>6.498631706095741</v>
+        <v>5.565623775405053</v>
       </c>
     </row>
   </sheetData>
@@ -55677,7 +55677,7 @@
         <v>25.01592479855228</v>
       </c>
       <c r="M3">
-        <v>15.91723184697844</v>
+        <v>15.7743252610376</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -55718,7 +55718,7 @@
         <v>24.88801119744297</v>
       </c>
       <c r="M4">
-        <v>15.7374185160794</v>
+        <v>15.45906690508512</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -55759,7 +55759,7 @@
         <v>24.74545099234462</v>
       </c>
       <c r="M5">
-        <v>15.53938434440333</v>
+        <v>15.11507499065894</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -55800,7 +55800,7 @@
         <v>24.4694258023791</v>
       </c>
       <c r="M6">
-        <v>15.09462731974386</v>
+        <v>13.91930940251579</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -55841,7 +55841,7 @@
         <v>24.04624033758899</v>
       </c>
       <c r="M7">
-        <v>14.69055951976806</v>
+        <v>13.45287764024212</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -55882,7 +55882,7 @@
         <v>23.68482283180807</v>
       </c>
       <c r="M8">
-        <v>14.37945025763016</v>
+        <v>13.3165117541749</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -55923,7 +55923,7 @@
         <v>23.41014143012656</v>
       </c>
       <c r="M9">
-        <v>14.12376672898742</v>
+        <v>13.17418108165371</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -55964,7 +55964,7 @@
         <v>23.17844078065623</v>
       </c>
       <c r="M10">
-        <v>13.89401897379103</v>
+        <v>12.98331951941368</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -56005,7 +56005,7 @@
         <v>23.01832889302361</v>
       </c>
       <c r="M11">
-        <v>13.71943975580039</v>
+        <v>12.99072266531401</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -56046,7 +56046,7 @@
         <v>22.8541831027345</v>
       </c>
       <c r="M12">
-        <v>13.54195910664396</v>
+        <v>12.76975661036177</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -56087,7 +56087,7 @@
         <v>22.60067490261858</v>
       </c>
       <c r="M13">
-        <v>13.30098919857568</v>
+        <v>12.21673020060782</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -56128,7 +56128,7 @@
         <v>22.13829667901199</v>
       </c>
       <c r="M14">
-        <v>13.01613152336305</v>
+        <v>11.69878959461227</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -56169,7 +56169,7 @@
         <v>21.70226884470966</v>
       </c>
       <c r="M15">
-        <v>12.82239511693506</v>
+        <v>11.90608509753218</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -56210,7 +56210,7 @@
         <v>21.35984044067043</v>
       </c>
       <c r="M16">
-        <v>12.67197591345377</v>
+        <v>11.94724683215558</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -56251,7 +56251,7 @@
         <v>21.08493648627728</v>
       </c>
       <c r="M17">
-        <v>12.53376109635915</v>
+        <v>11.85756063027308</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -56292,7 +56292,7 @@
         <v>20.89434754699846</v>
       </c>
       <c r="M18">
-        <v>12.4102248220376</v>
+        <v>11.79811646038965</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -56333,7 +56333,7 @@
         <v>20.74214503757736</v>
       </c>
       <c r="M19">
-        <v>12.28458913220243</v>
+        <v>11.65547548994952</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -56374,7 +56374,7 @@
         <v>20.59637550424849</v>
       </c>
       <c r="M20">
-        <v>12.18176148191147</v>
+        <v>11.66231343029535</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -56415,7 +56415,7 @@
         <v>20.46229740362683</v>
       </c>
       <c r="M21">
-        <v>12.02440313983962</v>
+        <v>11.22363791652988</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -56456,7 +56456,7 @@
         <v>20.3426418793581</v>
       </c>
       <c r="M22">
-        <v>11.89866374617484</v>
+        <v>11.25487168998816</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -56497,7 +56497,7 @@
         <v>20.26574377140114</v>
       </c>
       <c r="M23">
-        <v>11.80812739153032</v>
+        <v>11.34219756039769</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -56538,7 +56538,7 @@
         <v>20.2080720181665</v>
       </c>
       <c r="M24">
-        <v>11.68873185831397</v>
+        <v>11.07164491768661</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -56579,7 +56579,7 @@
         <v>20.2080720181665</v>
       </c>
       <c r="M25">
-        <v>11.60776312384001</v>
+        <v>11.18777772755131</v>
       </c>
     </row>
   </sheetData>

--- a/Data/cleaned/Manufacturing_filled.xlsx
+++ b/Data/cleaned/Manufacturing_filled.xlsx
@@ -461,7 +461,7 @@
         <v>1990</v>
       </c>
       <c r="B2">
-        <v>66.8518331046956</v>
+        <v>66.85183310469561</v>
       </c>
       <c r="C2">
         <v>2.221352980227276</v>
@@ -473,7 +473,7 @@
         <v>1222.3000488281</v>
       </c>
       <c r="F2">
-        <v>89613697575.99075</v>
+        <v>89613697575.99077</v>
       </c>
       <c r="G2">
         <v>18243.47141836716</v>
@@ -490,10 +490,10 @@
         <v>1991</v>
       </c>
       <c r="B3">
-        <v>66.85632700506464</v>
+        <v>66.85632700506466</v>
       </c>
       <c r="C3">
-        <v>2.236429208156425</v>
+        <v>2.236429208156426</v>
       </c>
       <c r="D3">
         <v>1.703353971064451</v>
@@ -519,7 +519,7 @@
         <v>1992</v>
       </c>
       <c r="B4">
-        <v>66.8282908743771</v>
+        <v>66.82829087437712</v>
       </c>
       <c r="C4">
         <v>2.251672329507407</v>
@@ -531,7 +531,7 @@
         <v>1274.299186066213</v>
       </c>
       <c r="F4">
-        <v>88979505692.53592</v>
+        <v>88979505692.53593</v>
       </c>
       <c r="G4">
         <v>18581.13797295549</v>
@@ -551,7 +551,7 @@
         <v>66.77937198644234</v>
       </c>
       <c r="C5">
-        <v>2.26585260829132</v>
+        <v>2.265852608291321</v>
       </c>
       <c r="D5">
         <v>1.654344442600021</v>
@@ -560,7 +560,7 @@
         <v>1348.552430615375</v>
       </c>
       <c r="F5">
-        <v>87427038349.29124</v>
+        <v>87427038349.29123</v>
       </c>
       <c r="G5">
         <v>18311.30264535949</v>
@@ -577,10 +577,10 @@
         <v>1994</v>
       </c>
       <c r="B6">
-        <v>66.73025807989745</v>
+        <v>66.73025807989744</v>
       </c>
       <c r="C6">
-        <v>2.280380262183471</v>
+        <v>2.28038026218347</v>
       </c>
       <c r="D6">
         <v>1.586294748374877</v>
@@ -589,7 +589,7 @@
         <v>1422.521344496953</v>
       </c>
       <c r="F6">
-        <v>87183061650.44868</v>
+        <v>87183061650.44867</v>
       </c>
       <c r="G6">
         <v>18253.53132583263</v>
@@ -624,7 +624,7 @@
         <v>18713.808884491</v>
       </c>
       <c r="H7">
-        <v>251065172786.0355</v>
+        <v>251065172786.0354</v>
       </c>
       <c r="I7">
         <v>13.12367686560688</v>
@@ -664,7 +664,7 @@
         <v>1997</v>
       </c>
       <c r="B9">
-        <v>66.65546252228495</v>
+        <v>66.65546252228496</v>
       </c>
       <c r="C9">
         <v>2.33096500288477</v>
@@ -676,7 +676,7 @@
         <v>1630.555146362744</v>
       </c>
       <c r="F9">
-        <v>95471133396.53795</v>
+        <v>95471133396.53796</v>
       </c>
       <c r="G9">
         <v>20098.94685659888</v>
@@ -696,7 +696,7 @@
         <v>66.65900548147526</v>
       </c>
       <c r="C10">
-        <v>2.348681960737215</v>
+        <v>2.348681960737216</v>
       </c>
       <c r="D10">
         <v>1.861734243325946</v>
@@ -705,7 +705,7 @@
         <v>1676.923550142231</v>
       </c>
       <c r="F10">
-        <v>96469170846.85892</v>
+        <v>96469170846.85893</v>
       </c>
       <c r="G10">
         <v>20310.09748613026</v>
@@ -722,7 +722,7 @@
         <v>1999</v>
       </c>
       <c r="B11">
-        <v>66.67326162169317</v>
+        <v>66.67326162169319</v>
       </c>
       <c r="C11">
         <v>2.367048226173048</v>
@@ -734,7 +734,7 @@
         <v>1679.49323000426</v>
       </c>
       <c r="F11">
-        <v>96369457587.53809</v>
+        <v>96369457587.5381</v>
       </c>
       <c r="G11">
         <v>20349.87604604138</v>
@@ -763,7 +763,7 @@
         <v>1687.294932047897</v>
       </c>
       <c r="F12">
-        <v>97255925118.16698</v>
+        <v>97255925118.16696</v>
       </c>
       <c r="G12">
         <v>20555.08728393575</v>
@@ -809,7 +809,7 @@
         <v>2002</v>
       </c>
       <c r="B14">
-        <v>66.77153366691425</v>
+        <v>66.77153366691427</v>
       </c>
       <c r="C14">
         <v>2.428122476147466</v>
@@ -856,7 +856,7 @@
         <v>20792.22443180106</v>
       </c>
       <c r="H15">
-        <v>297530316427.5237</v>
+        <v>297530316427.5236</v>
       </c>
       <c r="I15">
         <v>10.86216994180758</v>
@@ -899,10 +899,10 @@
         <v>66.93642093190243</v>
       </c>
       <c r="C17">
-        <v>2.496520594242284</v>
+        <v>2.496520594242285</v>
       </c>
       <c r="D17">
-        <v>2.039096983610328</v>
+        <v>2.039096983610329</v>
       </c>
       <c r="E17">
         <v>1762.230015062404</v>
@@ -911,10 +911,10 @@
         <v>113268780549.3444</v>
       </c>
       <c r="G17">
-        <v>23648.3523263318</v>
+        <v>23648.35232633181</v>
       </c>
       <c r="H17">
-        <v>346189191222.9337</v>
+        <v>346189191222.9338</v>
       </c>
       <c r="I17">
         <v>10.33486230097914</v>
@@ -946,7 +946,7 @@
         <v>372904216625.2144</v>
       </c>
       <c r="I18">
-        <v>9.892071199355792</v>
+        <v>9.892071199355795</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -975,7 +975,7 @@
         <v>405498000435.4818</v>
       </c>
       <c r="I19">
-        <v>9.290666490144647</v>
+        <v>9.290666490144645</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -986,7 +986,7 @@
         <v>67.15703304894828</v>
       </c>
       <c r="C20">
-        <v>2.572723273760545</v>
+        <v>2.572723273760546</v>
       </c>
       <c r="D20">
         <v>2.863983957741723</v>
@@ -1004,7 +1004,7 @@
         <v>451743322054.3006</v>
       </c>
       <c r="I20">
-        <v>9.202198922938425</v>
+        <v>9.202198922938424</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1059,10 +1059,10 @@
         <v>34019.70885512567</v>
       </c>
       <c r="H22">
-        <v>523290420993.8919</v>
+        <v>523290420993.892</v>
       </c>
       <c r="I22">
-        <v>7.997034212477491</v>
+        <v>7.99703421247749</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1091,7 +1091,7 @@
         <v>581701883844.9614</v>
       </c>
       <c r="I23">
-        <v>7.368513108841397</v>
+        <v>7.368513108841396</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1099,13 +1099,13 @@
         <v>2012</v>
       </c>
       <c r="B24">
-        <v>67.25040844579362</v>
+        <v>67.25040844579364</v>
       </c>
       <c r="C24">
-        <v>2.702095352144344</v>
+        <v>2.702095352144343</v>
       </c>
       <c r="D24">
-        <v>3.195082731139377</v>
+        <v>3.195082731139376</v>
       </c>
       <c r="E24">
         <v>2303.917687255045</v>
@@ -1120,7 +1120,7 @@
         <v>645302601078.7561</v>
       </c>
       <c r="I24">
-        <v>7.05045459273345</v>
+        <v>7.050454592733451</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1149,7 +1149,7 @@
         <v>705284957735.4385</v>
       </c>
       <c r="I25">
-        <v>6.608333214010963</v>
+        <v>6.608333214010962</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1163,7 +1163,7 @@
         <v>2.775172118788485</v>
       </c>
       <c r="D26">
-        <v>3.351321270008168</v>
+        <v>3.351321270008167</v>
       </c>
       <c r="E26">
         <v>2226.887369623076</v>
@@ -1172,13 +1172,13 @@
         <v>261376813478.136</v>
       </c>
       <c r="G26">
-        <v>46342.33514786843</v>
+        <v>46342.33514786842</v>
       </c>
       <c r="H26">
-        <v>748783198159.8167</v>
+        <v>748783198159.8165</v>
       </c>
       <c r="I26">
-        <v>6.368634633947076</v>
+        <v>6.368634633947077</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1198,16 +1198,16 @@
         <v>2189.919108119857</v>
       </c>
       <c r="F27">
-        <v>268154423995.2066</v>
+        <v>268154423995.2065</v>
       </c>
       <c r="G27">
-        <v>47540.34007387587</v>
+        <v>47540.34007387586</v>
       </c>
       <c r="H27">
         <v>779629570395.5896</v>
       </c>
       <c r="I27">
-        <v>6.299997474136078</v>
+        <v>6.299997474136077</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1230,7 +1230,7 @@
         <v>268300211704.0576</v>
       </c>
       <c r="G28">
-        <v>47809.47094669526</v>
+        <v>47809.47094669527</v>
       </c>
       <c r="H28">
         <v>796627744239.3857</v>
@@ -1244,13 +1244,13 @@
         <v>2017</v>
       </c>
       <c r="B29">
-        <v>66.74027625472367</v>
+        <v>66.74027625472365</v>
       </c>
       <c r="C29">
         <v>2.890655339587727</v>
       </c>
       <c r="D29">
-        <v>3.415766773460959</v>
+        <v>3.415766773460958</v>
       </c>
       <c r="E29">
         <v>2133.509215134108</v>
@@ -1259,13 +1259,13 @@
         <v>273227780611.5049</v>
       </c>
       <c r="G29">
-        <v>48510.01010601428</v>
+        <v>48510.01010601427</v>
       </c>
       <c r="H29">
-        <v>819924914198.7045</v>
+        <v>819924914198.7043</v>
       </c>
       <c r="I29">
-        <v>5.798737462442747</v>
+        <v>5.798737462442746</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1273,13 +1273,13 @@
         <v>2018</v>
       </c>
       <c r="B30">
-        <v>66.55950781501755</v>
+        <v>66.55950781501757</v>
       </c>
       <c r="C30">
         <v>2.931334804073324</v>
       </c>
       <c r="D30">
-        <v>3.51564834267282</v>
+        <v>3.515648342672821</v>
       </c>
       <c r="E30">
         <v>2121.452572318703</v>
@@ -1288,13 +1288,13 @@
         <v>281383629855.2997</v>
       </c>
       <c r="G30">
-        <v>49497.43137320487</v>
+        <v>49497.43137320488</v>
       </c>
       <c r="H30">
-        <v>848704211863.9331</v>
+        <v>848704211863.9333</v>
       </c>
       <c r="I30">
-        <v>5.777271824567839</v>
+        <v>5.77727182456784</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1302,13 +1302,13 @@
         <v>2019</v>
       </c>
       <c r="B31">
-        <v>66.36029076749838</v>
+        <v>66.3602907674984</v>
       </c>
       <c r="C31">
         <v>2.972891614093306</v>
       </c>
       <c r="D31">
-        <v>3.435496897242811</v>
+        <v>3.435496897242812</v>
       </c>
       <c r="E31">
         <v>2099.865418928516</v>
@@ -1320,10 +1320,10 @@
         <v>50107.4911549368</v>
       </c>
       <c r="H31">
-        <v>869620112484.7119</v>
+        <v>869620112484.712</v>
       </c>
       <c r="I31">
-        <v>5.615118064276127</v>
+        <v>5.615118064276128</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1352,7 +1352,7 @@
         <v>882096485441.7531</v>
       </c>
       <c r="I32">
-        <v>5.651114209643661</v>
+        <v>5.65111420964366</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1431,19 +1431,19 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>57.9794437021311</v>
+        <v>57.97944370213111</v>
       </c>
       <c r="C2">
         <v>14.44029556815272</v>
       </c>
       <c r="D2">
-        <v>0.8049925888297378</v>
+        <v>0.804992588829738</v>
       </c>
       <c r="E2">
         <v>588.200012207</v>
       </c>
       <c r="F2">
-        <v>93051936803.53665</v>
+        <v>93051936803.53667</v>
       </c>
       <c r="G2">
         <v>1966.903626442022</v>
@@ -1452,7 +1452,7 @@
         <v>185449993606.2382</v>
       </c>
       <c r="I2">
-        <v>29.94925716914291</v>
+        <v>29.94925716914292</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1460,13 +1460,13 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>58.10012592737771</v>
+        <v>58.10012592737773</v>
       </c>
       <c r="C3">
         <v>14.62237672357245</v>
       </c>
       <c r="D3">
-        <v>0.8958360552710949</v>
+        <v>0.895836055271095</v>
       </c>
       <c r="E3">
         <v>618.2000186657831</v>
@@ -1475,7 +1475,7 @@
         <v>98542118430.82996</v>
       </c>
       <c r="G3">
-        <v>2030.977203196403</v>
+        <v>2030.977203196404</v>
       </c>
       <c r="H3">
         <v>195116392922.2778</v>
@@ -1489,13 +1489,13 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>58.2348938918423</v>
+        <v>58.23489389184231</v>
       </c>
       <c r="C4">
         <v>14.81340942404421</v>
       </c>
       <c r="D4">
-        <v>0.961725280323424</v>
+        <v>0.9617252803234241</v>
       </c>
       <c r="E4">
         <v>661.6361297508347</v>
@@ -1530,7 +1530,7 @@
         <v>670.6302913209313</v>
       </c>
       <c r="F5">
-        <v>97591948801.97604</v>
+        <v>97591948801.97601</v>
       </c>
       <c r="G5">
         <v>1893.819319839666</v>
@@ -1547,28 +1547,28 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>58.53145811276157</v>
+        <v>58.53145811276156</v>
       </c>
       <c r="C6">
         <v>15.21835143476535</v>
       </c>
       <c r="D6">
-        <v>0.9078543384712789</v>
+        <v>0.9078543384712788</v>
       </c>
       <c r="E6">
-        <v>710.7523651868382</v>
+        <v>710.7523651868381</v>
       </c>
       <c r="F6">
-        <v>94981530217.25873</v>
+        <v>94981530217.25871</v>
       </c>
       <c r="G6">
         <v>1776.460641546395</v>
       </c>
       <c r="H6">
-        <v>186391898463.4151</v>
+        <v>186391898463.415</v>
       </c>
       <c r="I6">
-        <v>34.27124671763331</v>
+        <v>34.2712467176333</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1585,7 +1585,7 @@
         <v>0.8882432542679786</v>
       </c>
       <c r="E7">
-        <v>754.1488448404912</v>
+        <v>754.1488448404913</v>
       </c>
       <c r="F7">
         <v>91003248638.21613</v>
@@ -1605,7 +1605,7 @@
         <v>1986</v>
       </c>
       <c r="B8">
-        <v>58.83973635502757</v>
+        <v>58.83973635502756</v>
       </c>
       <c r="C8">
         <v>15.64549979791241</v>
@@ -1634,7 +1634,7 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>58.99384176458838</v>
+        <v>58.99384176458837</v>
       </c>
       <c r="C9">
         <v>15.8652514976396</v>
@@ -1643,7 +1643,7 @@
         <v>0.6987771040259528</v>
       </c>
       <c r="E9">
-        <v>843.2558131117207</v>
+        <v>843.2558131117206</v>
       </c>
       <c r="F9">
         <v>92932842624.54953</v>
@@ -1669,13 +1669,13 @@
         <v>16.08857161897359</v>
       </c>
       <c r="D10">
-        <v>0.7639019322172117</v>
+        <v>0.7639019322172119</v>
       </c>
       <c r="E10">
         <v>865.6986714699763</v>
       </c>
       <c r="F10">
-        <v>95721270368.52663</v>
+        <v>95721270368.52664</v>
       </c>
       <c r="G10">
         <v>1681.871285158689</v>
@@ -1684,7 +1684,7 @@
         <v>181582017977.1679</v>
       </c>
       <c r="I10">
-        <v>29.978592167725</v>
+        <v>29.97859216772501</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1692,16 +1692,16 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>59.33557879251425</v>
+        <v>59.33557879251426</v>
       </c>
       <c r="C11">
         <v>16.31533988988851</v>
       </c>
       <c r="D11">
-        <v>0.6938927808915448</v>
+        <v>0.693892780891545</v>
       </c>
       <c r="E11">
-        <v>910.8060888484157</v>
+        <v>910.8060888484158</v>
       </c>
       <c r="F11">
         <v>103875654960.067</v>
@@ -1710,7 +1710,7 @@
         <v>1792.113941744396</v>
       </c>
       <c r="H11">
-        <v>191180446552.1798</v>
+        <v>191180446552.1799</v>
       </c>
       <c r="I11">
         <v>29.26089572859051</v>
@@ -1721,7 +1721,7 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>59.52498065260457</v>
+        <v>59.52498065260456</v>
       </c>
       <c r="C12">
         <v>16.5455428608068</v>
@@ -1730,7 +1730,7 @@
         <v>0.6267837153889414</v>
       </c>
       <c r="E12">
-        <v>936.8708381066971</v>
+        <v>936.8708381066969</v>
       </c>
       <c r="F12">
         <v>107853429372.6698</v>
@@ -1742,7 +1742,7 @@
         <v>208827180064.5034</v>
       </c>
       <c r="I12">
-        <v>22.82812987817549</v>
+        <v>22.82812987817548</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1759,7 +1759,7 @@
         <v>0.582252164774663</v>
       </c>
       <c r="E13">
-        <v>946.8670008397249</v>
+        <v>946.8670008397252</v>
       </c>
       <c r="F13">
         <v>107997183813.9955</v>
@@ -1779,7 +1779,7 @@
         <v>1992</v>
       </c>
       <c r="B14">
-        <v>59.94978248318462</v>
+        <v>59.94978248318461</v>
       </c>
       <c r="C14">
         <v>17.01548044262723</v>
@@ -1826,7 +1826,7 @@
         <v>2039.601401614884</v>
       </c>
       <c r="H15">
-        <v>232271208240.1212</v>
+        <v>232271208240.1211</v>
       </c>
       <c r="I15">
         <v>26.04973651086909</v>
@@ -1843,7 +1843,7 @@
         <v>17.49732010969391</v>
       </c>
       <c r="D16">
-        <v>0.5599722807195595</v>
+        <v>0.5599722807195594</v>
       </c>
       <c r="E16">
         <v>1077.06728228633</v>
@@ -1855,7 +1855,7 @@
         <v>2206.842264760318</v>
       </c>
       <c r="H16">
-        <v>255567231304.0632</v>
+        <v>255567231304.0633</v>
       </c>
       <c r="I16">
         <v>23.72123370088062</v>
@@ -1866,7 +1866,7 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>60.69481798557469</v>
+        <v>60.6948179855747</v>
       </c>
       <c r="C17">
         <v>17.74300273329708</v>
@@ -1901,7 +1901,7 @@
         <v>17.99209167666523</v>
       </c>
       <c r="D18">
-        <v>0.6849842526307558</v>
+        <v>0.6849842526307559</v>
       </c>
       <c r="E18">
         <v>1206.839284682198</v>
@@ -1913,7 +1913,7 @@
         <v>2873.07200840935</v>
       </c>
       <c r="H18">
-        <v>360013884915.0398</v>
+        <v>360013884915.0399</v>
       </c>
       <c r="I18">
         <v>13.06719123672183</v>
@@ -1930,7 +1930,7 @@
         <v>18.24456070193941</v>
       </c>
       <c r="D19">
-        <v>0.8687419315670456</v>
+        <v>0.8687419315670455</v>
       </c>
       <c r="E19">
         <v>1279.950316690565</v>
@@ -1968,7 +1968,7 @@
         <v>150916260179.9922</v>
       </c>
       <c r="G20">
-        <v>3411.245612786299</v>
+        <v>3411.245612786298</v>
       </c>
       <c r="H20">
         <v>448168704007.1182</v>
@@ -2000,7 +2000,7 @@
         <v>3419.604113757096</v>
       </c>
       <c r="H21">
-        <v>455273107752.8575</v>
+        <v>455273107752.8574</v>
       </c>
       <c r="I21">
         <v>12.3085333305115</v>
@@ -2011,7 +2011,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>62.28189411285897</v>
+        <v>62.28189411285898</v>
       </c>
       <c r="C22">
         <v>19.0174673092937</v>
@@ -2026,10 +2026,10 @@
         <v>148703279214.5289</v>
       </c>
       <c r="G22">
-        <v>3459.379833210767</v>
+        <v>3459.379833210768</v>
       </c>
       <c r="H22">
-        <v>466244874936.8907</v>
+        <v>466244874936.8906</v>
       </c>
       <c r="I22">
         <v>13.13465959355212</v>
@@ -2069,7 +2069,7 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>62.97036460689064</v>
+        <v>62.97036460689063</v>
       </c>
       <c r="C24">
         <v>19.5377827495895</v>
@@ -2127,7 +2127,7 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>63.65880999885195</v>
+        <v>63.65880999885196</v>
       </c>
       <c r="C26">
         <v>20.05520282606226</v>
@@ -2156,7 +2156,7 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>64.00255917134332</v>
+        <v>64.00255917134334</v>
       </c>
       <c r="C27">
         <v>20.3110808150638</v>
@@ -2185,7 +2185,7 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>64.34772847109147</v>
+        <v>64.34772847109146</v>
       </c>
       <c r="C28">
         <v>20.56418411558038</v>
@@ -2200,7 +2200,7 @@
         <v>164226068226.4986</v>
       </c>
       <c r="G28">
-        <v>3795.295820295331</v>
+        <v>3795.29582029533</v>
       </c>
       <c r="H28">
         <v>539359656681.5369</v>
@@ -2229,10 +2229,10 @@
         <v>182396354714.699</v>
       </c>
       <c r="G29">
-        <v>4201.668030940149</v>
+        <v>4201.668030940148</v>
       </c>
       <c r="H29">
-        <v>603619078232.5284</v>
+        <v>603619078232.5283</v>
       </c>
       <c r="I29">
         <v>14.1542648058524</v>
@@ -2249,7 +2249,7 @@
         <v>21.06008377390752</v>
       </c>
       <c r="D30">
-        <v>2.415686069851729</v>
+        <v>2.415686069851728</v>
       </c>
       <c r="E30">
         <v>1484.812295733213</v>
@@ -2319,7 +2319,7 @@
         <v>5859.439141998546</v>
       </c>
       <c r="H32">
-        <v>874654964786.4541</v>
+        <v>874654964786.454</v>
       </c>
       <c r="I32">
         <v>12.72185960924913</v>
@@ -2330,7 +2330,7 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>66.04304687473932</v>
+        <v>66.0430468747393</v>
       </c>
       <c r="C33">
         <v>21.77700281498143</v>
@@ -2400,7 +2400,7 @@
         <v>1479.420128756364</v>
       </c>
       <c r="F35">
-        <v>346659144424.9864</v>
+        <v>346659144424.9863</v>
       </c>
       <c r="G35">
         <v>7887.471791051108</v>
@@ -2417,7 +2417,7 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>66.98522354847182</v>
+        <v>66.98522354847181</v>
       </c>
       <c r="C36">
         <v>22.46455768861505</v>
@@ -2429,10 +2429,10 @@
         <v>1492.551362945261</v>
       </c>
       <c r="F36">
-        <v>364131837623.6959</v>
+        <v>364131837623.696</v>
       </c>
       <c r="G36">
-        <v>8360.266021504443</v>
+        <v>8360.266021504445</v>
       </c>
       <c r="H36">
         <v>1304914147709.545</v>
@@ -2519,7 +2519,7 @@
         <v>360613288820.9044</v>
       </c>
       <c r="G39">
-        <v>8609.544794734609</v>
+        <v>8609.544794734607</v>
       </c>
       <c r="H39">
         <v>1393416319211.512</v>
@@ -2533,22 +2533,22 @@
         <v>2018</v>
       </c>
       <c r="B40">
-        <v>67.99839217160422</v>
+        <v>67.99839217160424</v>
       </c>
       <c r="C40">
-        <v>23.34152464111731</v>
+        <v>23.34152464111732</v>
       </c>
       <c r="D40">
-        <v>3.239770314598544</v>
+        <v>3.239770314598545</v>
       </c>
       <c r="E40">
         <v>1557.935762747051</v>
       </c>
       <c r="F40">
-        <v>360479159927.5264</v>
+        <v>360479159927.5265</v>
       </c>
       <c r="G40">
-        <v>8669.786753717553</v>
+        <v>8669.786753717555</v>
       </c>
       <c r="H40">
         <v>1418610667181.579</v>
@@ -2577,7 +2577,7 @@
         <v>359462949359.974</v>
       </c>
       <c r="G41">
-        <v>8692.693344014668</v>
+        <v>8692.693344014669</v>
       </c>
       <c r="H41">
         <v>1438163779052.4</v>
@@ -2651,7 +2651,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2703,34 +2703,34 @@
         <v>1997</v>
       </c>
       <c r="B2">
-        <v>32.6699981689453</v>
+        <v>32.66999816894531</v>
       </c>
       <c r="C2">
         <v>1.61386001110077</v>
       </c>
       <c r="D2">
-        <v>3132.90307617188</v>
+        <v>3132.903076171881</v>
       </c>
       <c r="E2">
-        <v>67.75619383813979</v>
+        <v>67.75619383813981</v>
       </c>
       <c r="F2">
-        <v>3.335636360797226</v>
+        <v>3.335636360797227</v>
       </c>
       <c r="G2">
-        <v>2.317969734519726</v>
+        <v>2.317969734519727</v>
       </c>
       <c r="H2">
         <v>1956.5</v>
       </c>
       <c r="I2">
-        <v>181539072656.3629</v>
+        <v>181539072656.363</v>
       </c>
       <c r="J2">
-        <v>21901.56285483924</v>
+        <v>21901.56285483925</v>
       </c>
       <c r="K2">
-        <v>502570417449.0828</v>
+        <v>502570417449.0829</v>
       </c>
       <c r="L2">
         <v>23.0599994659424</v>
@@ -2744,7 +2744,7 @@
         <v>1998</v>
       </c>
       <c r="B3">
-        <v>32.78518205413017</v>
+        <v>32.78518205413016</v>
       </c>
       <c r="C3">
         <v>1.664462107638414</v>
@@ -2785,7 +2785,7 @@
         <v>1999</v>
       </c>
       <c r="B4">
-        <v>32.82346310139587</v>
+        <v>32.82346310139588</v>
       </c>
       <c r="C4">
         <v>1.695647209378795</v>
@@ -2812,7 +2812,7 @@
         <v>21761.18596317444</v>
       </c>
       <c r="K4">
-        <v>501306453302.753</v>
+        <v>501306453302.7531</v>
       </c>
       <c r="L4">
         <v>23.10185426415496</v>
@@ -2841,7 +2841,7 @@
         <v>3.3815372655734</v>
       </c>
       <c r="G5">
-        <v>5.115976335518152</v>
+        <v>5.115976335518153</v>
       </c>
       <c r="H5">
         <v>1883.920841582331</v>
@@ -2873,7 +2873,7 @@
         <v>1.809042664124698</v>
       </c>
       <c r="D6">
-        <v>3387.824453801564</v>
+        <v>3387.824453801563</v>
       </c>
       <c r="E6">
         <v>68.1387512429104</v>
@@ -2882,7 +2882,7 @@
         <v>3.400318793020999</v>
       </c>
       <c r="G6">
-        <v>4.810990277963039</v>
+        <v>4.810990277963038</v>
       </c>
       <c r="H6">
         <v>1842.242529093149</v>
@@ -2894,7 +2894,7 @@
         <v>22801.25523202907</v>
       </c>
       <c r="K6">
-        <v>523547032590.3589</v>
+        <v>523547032590.3588</v>
       </c>
       <c r="L6">
         <v>23.13282041925713</v>
@@ -2923,7 +2923,7 @@
         <v>3.420626768779385</v>
       </c>
       <c r="G7">
-        <v>4.479456744034007</v>
+        <v>4.479456744034006</v>
       </c>
       <c r="H7">
         <v>1787.21428190015</v>
@@ -2958,7 +2958,7 @@
         <v>3541.9087574357</v>
       </c>
       <c r="E8">
-        <v>68.36711586469087</v>
+        <v>68.36711586469086</v>
       </c>
       <c r="F8">
         <v>3.440903218551935</v>
@@ -2999,7 +2999,7 @@
         <v>3636.384941007966</v>
       </c>
       <c r="E9">
-        <v>68.48218497343315</v>
+        <v>68.48218497343314</v>
       </c>
       <c r="F9">
         <v>3.461575606012826</v>
@@ -3014,7 +3014,7 @@
         <v>222575716580.8365</v>
       </c>
       <c r="J9">
-        <v>25443.22132125172</v>
+        <v>25443.22132125171</v>
       </c>
       <c r="K9">
         <v>595052268464.1143</v>
@@ -3043,7 +3043,7 @@
         <v>68.59613688012247</v>
       </c>
       <c r="F10">
-        <v>3.482784966437911</v>
+        <v>3.482784966437912</v>
       </c>
       <c r="G10">
         <v>3.014787796913335</v>
@@ -3055,10 +3055,10 @@
         <v>241474089381.8195</v>
       </c>
       <c r="J10">
-        <v>27164.22652968862</v>
+        <v>27164.22652968863</v>
       </c>
       <c r="K10">
-        <v>636868453987.4408</v>
+        <v>636868453987.4409</v>
       </c>
       <c r="L10">
         <v>23.04160623696955</v>
@@ -3081,13 +3081,13 @@
         <v>3819.917323621261</v>
       </c>
       <c r="E11">
-        <v>68.70435847289001</v>
+        <v>68.70435847289002</v>
       </c>
       <c r="F11">
         <v>3.504913256198078</v>
       </c>
       <c r="G11">
-        <v>3.288850410262443</v>
+        <v>3.288850410262444</v>
       </c>
       <c r="H11">
         <v>1662.160963948937</v>
@@ -3113,7 +3113,7 @@
         <v>2007</v>
       </c>
       <c r="B12">
-        <v>32.83163251908109</v>
+        <v>32.8316325190811</v>
       </c>
       <c r="C12">
         <v>1.907053006150764</v>
@@ -3122,10 +3122,10 @@
         <v>3928.017704004435</v>
       </c>
       <c r="E12">
-        <v>68.80518824631935</v>
+        <v>68.80518824631933</v>
       </c>
       <c r="F12">
-        <v>3.527697683450297</v>
+        <v>3.527697683450296</v>
       </c>
       <c r="G12">
         <v>3.973534927901461</v>
@@ -3140,7 +3140,7 @@
         <v>31295.28780461649</v>
       </c>
       <c r="K12">
-        <v>742058489360.2648</v>
+        <v>742058489360.2646</v>
       </c>
       <c r="L12">
         <v>22.73222990217566</v>
@@ -3169,13 +3169,13 @@
         <v>3.551688572352852</v>
       </c>
       <c r="G13">
-        <v>4.045479482432167</v>
+        <v>4.045479482432168</v>
       </c>
       <c r="H13">
         <v>1597.74807055232</v>
       </c>
       <c r="I13">
-        <v>306972644090.5034</v>
+        <v>306972644090.5035</v>
       </c>
       <c r="J13">
         <v>33342.99172328279</v>
@@ -3201,7 +3201,7 @@
         <v>1.902430206498004</v>
       </c>
       <c r="D14">
-        <v>4085.965168026008</v>
+        <v>4085.965168026009</v>
       </c>
       <c r="E14">
         <v>68.96584160530999</v>
@@ -3222,7 +3222,7 @@
         <v>34302.58586874815</v>
       </c>
       <c r="K14">
-        <v>834326051358.703</v>
+        <v>834326051358.7029</v>
       </c>
       <c r="L14">
         <v>22.27366709992755</v>
@@ -3239,13 +3239,13 @@
         <v>32.22781171149491</v>
       </c>
       <c r="C15">
-        <v>1.892956918092349</v>
+        <v>1.892956918092348</v>
       </c>
       <c r="D15">
-        <v>4154.769379638839</v>
+        <v>4154.769379638838</v>
       </c>
       <c r="E15">
-        <v>69.01396693194717</v>
+        <v>69.01396693194715</v>
       </c>
       <c r="F15">
         <v>3.603555384372446</v>
@@ -3289,7 +3289,7 @@
         <v>69.02818065635608</v>
       </c>
       <c r="F16">
-        <v>3.630492585895168</v>
+        <v>3.630492585895169</v>
       </c>
       <c r="G16">
         <v>3.331528293901755</v>
@@ -3304,13 +3304,13 @@
         <v>37867.81958006493</v>
       </c>
       <c r="K16">
-        <v>946456868743.7018</v>
+        <v>946456868743.7019</v>
       </c>
       <c r="L16">
         <v>21.80806322954592</v>
       </c>
       <c r="M16">
-        <v>9.95539617251473</v>
+        <v>9.955396172514728</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3318,7 +3318,7 @@
         <v>2012</v>
       </c>
       <c r="B17">
-        <v>31.87924323548698</v>
+        <v>31.87924323548699</v>
       </c>
       <c r="C17">
         <v>1.867889948180352</v>
@@ -3330,22 +3330,22 @@
         <v>69.01329728770965</v>
       </c>
       <c r="F17">
-        <v>3.658392529681702</v>
+        <v>3.658392529681703</v>
       </c>
       <c r="G17">
-        <v>3.258572757786065</v>
+        <v>3.258572757786066</v>
       </c>
       <c r="H17">
         <v>1692.370659126793</v>
       </c>
       <c r="I17">
-        <v>361364604086.8269</v>
+        <v>361364604086.827</v>
       </c>
       <c r="J17">
         <v>39578.15257388676</v>
       </c>
       <c r="K17">
-        <v>999936514975.0247</v>
+        <v>999936514975.0248</v>
       </c>
       <c r="L17">
         <v>21.65229020970236</v>
@@ -3371,16 +3371,16 @@
         <v>68.97021048890358</v>
       </c>
       <c r="F18">
-        <v>3.687087703709614</v>
+        <v>3.687087703709615</v>
       </c>
       <c r="G18">
         <v>3.300400846466616</v>
       </c>
       <c r="H18">
-        <v>1720.982511710717</v>
+        <v>1720.982511710718</v>
       </c>
       <c r="I18">
-        <v>376020635556.0294</v>
+        <v>376020635556.0295</v>
       </c>
       <c r="J18">
         <v>41049.33886495115</v>
@@ -3392,7 +3392,7 @@
         <v>21.50330253974739</v>
       </c>
       <c r="M18">
-        <v>9.588492358255939</v>
+        <v>9.588492358255941</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3421,7 +3421,7 @@
         <v>1761.013318304308</v>
       </c>
       <c r="I19">
-        <v>388583184077.8258</v>
+        <v>388583184077.8257</v>
       </c>
       <c r="J19">
         <v>42140.81328359441</v>
@@ -3447,31 +3447,31 @@
         <v>1.819389294626783</v>
       </c>
       <c r="D20">
-        <v>4359.275951967618</v>
+        <v>4359.275951967619</v>
       </c>
       <c r="E20">
-        <v>68.7961750355627</v>
+        <v>68.79617503556271</v>
       </c>
       <c r="F20">
-        <v>3.745054831554355</v>
+        <v>3.745054831554357</v>
       </c>
       <c r="G20">
         <v>3.385089963675099</v>
       </c>
       <c r="H20">
-        <v>1794.90464287317</v>
+        <v>1794.904642873171</v>
       </c>
       <c r="I20">
         <v>387659709837.535</v>
       </c>
       <c r="J20">
-        <v>42297.98357831326</v>
+        <v>42297.98357831327</v>
       </c>
       <c r="K20">
         <v>1098113225590.742</v>
       </c>
       <c r="L20">
-        <v>21.20226036580292</v>
+        <v>21.20226036580293</v>
       </c>
       <c r="M20">
         <v>9.975422544339398</v>
@@ -3488,22 +3488,22 @@
         <v>1.809771458953148</v>
       </c>
       <c r="D21">
-        <v>4360.374376189237</v>
+        <v>4360.374376189238</v>
       </c>
       <c r="E21">
-        <v>68.67425705065963</v>
+        <v>68.67425705065965</v>
       </c>
       <c r="F21">
-        <v>3.775025559971698</v>
+        <v>3.775025559971699</v>
       </c>
       <c r="G21">
         <v>3.263435025322558</v>
       </c>
       <c r="H21">
-        <v>1842.784382581193</v>
+        <v>1842.784382581194</v>
       </c>
       <c r="I21">
-        <v>384295803781.0363</v>
+        <v>384295803781.0364</v>
       </c>
       <c r="J21">
         <v>42299.85285626946</v>
@@ -3515,7 +3515,7 @@
         <v>21.03970646805755</v>
       </c>
       <c r="M21">
-        <v>9.928004135207868</v>
+        <v>9.928004135207869</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -3544,7 +3544,7 @@
         <v>1947.004500449027</v>
       </c>
       <c r="I22">
-        <v>385547289362.4151</v>
+        <v>385547289362.4152</v>
       </c>
       <c r="J22">
         <v>42595.28319887476</v>
@@ -3556,7 +3556,7 @@
         <v>20.88208114659832</v>
       </c>
       <c r="M22">
-        <v>9.68457578828024</v>
+        <v>9.684575788280242</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3598,6 +3598,129 @@
       </c>
       <c r="M23">
         <v>9.866071588318858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24">
+        <v>30.88947112150036</v>
+      </c>
+      <c r="C24">
+        <v>1.782475471741764</v>
+      </c>
+      <c r="D24">
+        <v>4401.189022169747</v>
+      </c>
+      <c r="E24">
+        <v>68.17190772618737</v>
+      </c>
+      <c r="F24">
+        <v>3.877355069028355</v>
+      </c>
+      <c r="G24">
+        <v>3.234966632405808</v>
+      </c>
+      <c r="H24">
+        <v>1862.20950601299</v>
+      </c>
+      <c r="I24">
+        <v>392987038651.9529</v>
+      </c>
+      <c r="J24">
+        <v>43220.57599156904</v>
+      </c>
+      <c r="K24">
+        <v>1173777444673.934</v>
+      </c>
+      <c r="L24">
+        <v>20.653344976093</v>
+      </c>
+      <c r="M24">
+        <v>11.00002937864495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25">
+        <v>30.9373758269501</v>
+      </c>
+      <c r="C25">
+        <v>1.79913435464459</v>
+      </c>
+      <c r="D25">
+        <v>4418.36223891603</v>
+      </c>
+      <c r="E25">
+        <v>67.96211361342688</v>
+      </c>
+      <c r="F25">
+        <v>3.919100619222935</v>
+      </c>
+      <c r="G25">
+        <v>3.889088608162179</v>
+      </c>
+      <c r="H25">
+        <v>1381.658065493557</v>
+      </c>
+      <c r="I25">
+        <v>392307475576.6382</v>
+      </c>
+      <c r="J25">
+        <v>42950.48943015601</v>
+      </c>
+      <c r="K25">
+        <v>1185817904568.241</v>
+      </c>
+      <c r="L25">
+        <v>20.61978729953481</v>
+      </c>
+      <c r="M25">
+        <v>13.61398700257975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>2021</v>
+      </c>
+      <c r="B26">
+        <v>31.15330046471943</v>
+      </c>
+      <c r="C26">
+        <v>1.843728379660454</v>
+      </c>
+      <c r="D26">
+        <v>4428.440076965558</v>
+      </c>
+      <c r="E26">
+        <v>67.73362424761586</v>
+      </c>
+      <c r="F26">
+        <v>3.966579888247957</v>
+      </c>
+      <c r="G26">
+        <v>5.143509585549259</v>
+      </c>
+      <c r="H26">
+        <v>414.6464439628072</v>
+      </c>
+      <c r="I26">
+        <v>384116402832.2852</v>
+      </c>
+      <c r="J26">
+        <v>41891.94822256824</v>
+      </c>
+      <c r="K26">
+        <v>1183231889096.639</v>
+      </c>
+      <c r="L26">
+        <v>20.66513867709819</v>
+      </c>
+      <c r="M26">
+        <v>18.23548230344448</v>
       </c>
     </row>
   </sheetData>
@@ -3671,13 +3794,13 @@
         <v>700.070129394531</v>
       </c>
       <c r="E2">
-        <v>71.5088523199023</v>
+        <v>71.50885231990232</v>
       </c>
       <c r="F2">
         <v>137.5189588252698</v>
       </c>
       <c r="G2">
-        <v>3.483641113737494</v>
+        <v>3.483641113737495</v>
       </c>
       <c r="H2">
         <v>7024.25</v>
@@ -3686,7 +3809,7 @@
         <v>74725444</v>
       </c>
       <c r="J2">
-        <v>897508414097.2357</v>
+        <v>897508414097.2358</v>
       </c>
       <c r="K2">
         <v>1508.668097884526</v>
@@ -3712,7 +3835,7 @@
         <v>1.263386242091658</v>
       </c>
       <c r="D3">
-        <v>773.2813224792483</v>
+        <v>773.2813224792484</v>
       </c>
       <c r="E3">
         <v>71.85011660025272</v>
@@ -3724,13 +3847,13 @@
         <v>4.041252009667088</v>
       </c>
       <c r="H3">
-        <v>7313.391145833333</v>
+        <v>7313.391145833334</v>
       </c>
       <c r="I3">
-        <v>70829516.39583334</v>
+        <v>70829516.39583336</v>
       </c>
       <c r="J3">
-        <v>989910336842.761</v>
+        <v>989910336842.7612</v>
       </c>
       <c r="K3">
         <v>1636.141916309794</v>
@@ -3750,13 +3873,13 @@
         <v>2006</v>
       </c>
       <c r="B4">
-        <v>24.60776736654943</v>
+        <v>24.60776736654944</v>
       </c>
       <c r="C4">
         <v>1.301397305751137</v>
       </c>
       <c r="D4">
-        <v>824.270185833518</v>
+        <v>824.2701858335181</v>
       </c>
       <c r="E4">
         <v>72.14778266964144</v>
@@ -3768,7 +3891,7 @@
         <v>4.210181667724007</v>
       </c>
       <c r="H4">
-        <v>7450.325014459226</v>
+        <v>7450.325014459227</v>
       </c>
       <c r="I4">
         <v>75883372.16657028</v>
@@ -3786,7 +3909,7 @@
         <v>23.9083285356547</v>
       </c>
       <c r="N4">
-        <v>32.45232805659434</v>
+        <v>32.45232805659435</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3800,7 +3923,7 @@
         <v>1.321789663674549</v>
       </c>
       <c r="D5">
-        <v>890.0581716133102</v>
+        <v>890.0581716133103</v>
       </c>
       <c r="E5">
         <v>72.38404878917351</v>
@@ -3812,7 +3935,7 @@
         <v>4.263997867028277</v>
       </c>
       <c r="H5">
-        <v>8505.083876733102</v>
+        <v>8505.083876733101</v>
       </c>
       <c r="I5">
         <v>83764601.58412766</v>
@@ -3830,7 +3953,7 @@
         <v>24.72401229340791</v>
       </c>
       <c r="N5">
-        <v>32.38335311644068</v>
+        <v>32.38335311644067</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3844,10 +3967,10 @@
         <v>1.350918111749324</v>
       </c>
       <c r="D6">
-        <v>957.2652172089264</v>
+        <v>957.2652172089261</v>
       </c>
       <c r="E6">
-        <v>72.559002635933</v>
+        <v>72.55900263593298</v>
       </c>
       <c r="F6">
         <v>139.1933278300434</v>
@@ -3856,10 +3979,10 @@
         <v>4.139542781505694</v>
       </c>
       <c r="H6">
-        <v>9181.133154040423</v>
+        <v>9181.133154040421</v>
       </c>
       <c r="I6">
-        <v>91315349.48559719</v>
+        <v>91315349.48559718</v>
       </c>
       <c r="J6">
         <v>1473005490748.256</v>
@@ -3888,7 +4011,7 @@
         <v>1.414707960409268</v>
       </c>
       <c r="D7">
-        <v>934.7666416346091</v>
+        <v>934.766641634609</v>
       </c>
       <c r="E7">
         <v>72.69043535439154</v>
@@ -3897,19 +4020,19 @@
         <v>139.6117568478471</v>
       </c>
       <c r="G7">
-        <v>3.820340556923639</v>
+        <v>3.820340556923638</v>
       </c>
       <c r="H7">
-        <v>9749.219598527903</v>
+        <v>9749.219598527901</v>
       </c>
       <c r="I7">
-        <v>94868720.52781025</v>
+        <v>94868720.52781023</v>
       </c>
       <c r="J7">
         <v>1650138025419.663</v>
       </c>
       <c r="K7">
-        <v>2680.256413739259</v>
+        <v>2680.256413739258</v>
       </c>
       <c r="L7">
         <v>1812867911357.006</v>
@@ -3918,7 +4041,7 @@
         <v>25.81207821146122</v>
       </c>
       <c r="N7">
-        <v>31.59623809103104</v>
+        <v>31.59623809103103</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3935,7 +4058,7 @@
         <v>925.6886595612642</v>
       </c>
       <c r="E8">
-        <v>72.79449953325198</v>
+        <v>72.79449953325199</v>
       </c>
       <c r="F8">
         <v>140.0323014756228</v>
@@ -3976,10 +4099,10 @@
         <v>1.520007529985069</v>
       </c>
       <c r="D9">
-        <v>930.9273742313422</v>
+        <v>930.9273742313421</v>
       </c>
       <c r="E9">
-        <v>72.86623612673057</v>
+        <v>72.86623612673056</v>
       </c>
       <c r="F9">
         <v>140.4729942112967</v>
@@ -4014,13 +4137,13 @@
         <v>2012</v>
       </c>
       <c r="B10">
-        <v>28.73316409241844</v>
+        <v>28.73316409241845</v>
       </c>
       <c r="C10">
         <v>1.579439705582359</v>
       </c>
       <c r="D10">
-        <v>943.5652540100999</v>
+        <v>943.5652540101</v>
       </c>
       <c r="E10">
         <v>72.91334019310126</v>
@@ -4044,10 +4167,10 @@
         <v>3877.995374161435</v>
       </c>
       <c r="L10">
-        <v>2624228994908.267</v>
+        <v>2624228994908.268</v>
       </c>
       <c r="M10">
-        <v>27.37697263190987</v>
+        <v>27.37697263190988</v>
       </c>
       <c r="N10">
         <v>31.52857786597396</v>
@@ -4067,13 +4190,13 @@
         <v>960.912083051752</v>
       </c>
       <c r="E11">
-        <v>72.93704395405599</v>
+        <v>72.93704395405601</v>
       </c>
       <c r="F11">
         <v>141.4811298939973</v>
       </c>
       <c r="G11">
-        <v>3.587535477110026</v>
+        <v>3.587535477110027</v>
       </c>
       <c r="H11">
         <v>13058.00574379439</v>
@@ -4102,7 +4225,7 @@
         <v>2014</v>
       </c>
       <c r="B12">
-        <v>29.64961367105322</v>
+        <v>29.64961367105321</v>
       </c>
       <c r="C12">
         <v>1.689764610740267</v>
@@ -4173,7 +4296,7 @@
         <v>3108797772578.646</v>
       </c>
       <c r="K13">
-        <v>5175.486014942855</v>
+        <v>5175.486014942854</v>
       </c>
       <c r="L13">
         <v>3631800198010.401</v>
@@ -4190,7 +4313,7 @@
         <v>2016</v>
       </c>
       <c r="B14">
-        <v>30.1293064697297</v>
+        <v>30.12930646972969</v>
       </c>
       <c r="C14">
         <v>1.780244058501921</v>
@@ -4199,13 +4322,13 @@
         <v>1023.66361719276</v>
       </c>
       <c r="E14">
-        <v>72.80851370791174</v>
+        <v>72.80851370791173</v>
       </c>
       <c r="F14">
         <v>143.14401378245</v>
       </c>
       <c r="G14">
-        <v>3.081484165643842</v>
+        <v>3.081484165643841</v>
       </c>
       <c r="H14">
         <v>15292.95442477581</v>
@@ -4217,10 +4340,10 @@
         <v>3270479267244.057</v>
       </c>
       <c r="K14">
-        <v>5528.355336888418</v>
+        <v>5528.355336888417</v>
       </c>
       <c r="L14">
-        <v>3940178316471.668</v>
+        <v>3940178316471.667</v>
       </c>
       <c r="M14">
         <v>28.26404179739093</v>
@@ -4278,7 +4401,7 @@
         <v>2018</v>
       </c>
       <c r="B16">
-        <v>30.39820630281146</v>
+        <v>30.39820630281147</v>
       </c>
       <c r="C16">
         <v>1.855262300549092</v>
@@ -4302,13 +4425,13 @@
         <v>164766352.6500916</v>
       </c>
       <c r="J16">
-        <v>3690660149830.366</v>
+        <v>3690660149830.367</v>
       </c>
       <c r="K16">
         <v>6358.115828324629</v>
       </c>
       <c r="L16">
-        <v>4646253492984.621</v>
+        <v>4646253492984.622</v>
       </c>
       <c r="M16">
         <v>28.25442883029433</v>
@@ -4322,7 +4445,7 @@
         <v>2019</v>
       </c>
       <c r="B17">
-        <v>30.44510175501271</v>
+        <v>30.44510175501272</v>
       </c>
       <c r="C17">
         <v>1.897550046515129</v>
@@ -4331,7 +4454,7 @@
         <v>1119.084802463848</v>
       </c>
       <c r="E17">
-        <v>72.32124978655806</v>
+        <v>72.32124978655804</v>
       </c>
       <c r="F17">
         <v>144.8485657501058</v>
@@ -4349,7 +4472,7 @@
         <v>3888279639578.157</v>
       </c>
       <c r="K17">
-        <v>6769.268642375135</v>
+        <v>6769.268642375136</v>
       </c>
       <c r="L17">
         <v>5010427768923.229</v>
@@ -4496,16 +4619,16 @@
         <v>1990</v>
       </c>
       <c r="B2">
-        <v>65.2851572356831</v>
+        <v>65.28515723568312</v>
       </c>
       <c r="C2">
         <v>236.6287190509651</v>
       </c>
       <c r="D2">
-        <v>3.783805679824685</v>
+        <v>3.783805679824686</v>
       </c>
       <c r="E2">
-        <v>3825.3999023438</v>
+        <v>3825.399902343801</v>
       </c>
       <c r="F2">
         <v>302806317471.5909</v>
@@ -4514,7 +4637,7 @@
         <v>19095.46699846078</v>
       </c>
       <c r="H2">
-        <v>935975374644.8864</v>
+        <v>935975374644.8866</v>
       </c>
       <c r="I2">
         <v>16.66798755183352</v>
@@ -4525,7 +4648,7 @@
         <v>1991</v>
       </c>
       <c r="B3">
-        <v>65.20839037381973</v>
+        <v>65.20839037381974</v>
       </c>
       <c r="C3">
         <v>236.9988716161741</v>
@@ -4543,7 +4666,7 @@
         <v>19502.16379242345</v>
       </c>
       <c r="H3">
-        <v>966518665201.5548</v>
+        <v>966518665201.5549</v>
       </c>
       <c r="I3">
         <v>16.26393514474525</v>
@@ -4554,13 +4677,13 @@
         <v>1992</v>
       </c>
       <c r="B4">
-        <v>65.12827694383645</v>
+        <v>65.12827694383647</v>
       </c>
       <c r="C4">
-        <v>237.3408380436418</v>
+        <v>237.3408380436419</v>
       </c>
       <c r="D4">
-        <v>2.577175206868702</v>
+        <v>2.577175206868703</v>
       </c>
       <c r="E4">
         <v>4168.15608958659</v>
@@ -4572,7 +4695,7 @@
         <v>19837.15460757254</v>
       </c>
       <c r="H4">
-        <v>993937546069.6639</v>
+        <v>993937546069.6641</v>
       </c>
       <c r="I4">
         <v>16.04603255128911</v>
@@ -4601,7 +4724,7 @@
         <v>19464.07700434617</v>
       </c>
       <c r="H5">
-        <v>981065186344.7953</v>
+        <v>981065186344.7952</v>
       </c>
       <c r="I5">
         <v>15.68185759056369</v>
@@ -4615,22 +4738,22 @@
         <v>64.97727330584169</v>
       </c>
       <c r="C6">
-        <v>237.9763845669039</v>
+        <v>237.9763845669038</v>
       </c>
       <c r="D6">
         <v>2.250368155532942</v>
       </c>
       <c r="E6">
-        <v>4886.136885233125</v>
+        <v>4886.136885233124</v>
       </c>
       <c r="F6">
-        <v>300610445068.6819</v>
+        <v>300610445068.6818</v>
       </c>
       <c r="G6">
         <v>19515.1101282385</v>
       </c>
       <c r="H6">
-        <v>986997096997.057</v>
+        <v>986997096997.0569</v>
       </c>
       <c r="I6">
         <v>16.40380812564748</v>
@@ -4653,7 +4776,7 @@
         <v>5226.799773464294</v>
       </c>
       <c r="F7">
-        <v>305893474188.9381</v>
+        <v>305893474188.9382</v>
       </c>
       <c r="G7">
         <v>20161.84022984325</v>
@@ -4679,7 +4802,7 @@
         <v>2.241967387616137</v>
       </c>
       <c r="E8">
-        <v>5589.462900461549</v>
+        <v>5589.462900461548</v>
       </c>
       <c r="F8">
         <v>312701651435.7896</v>
@@ -4699,13 +4822,13 @@
         <v>1997</v>
       </c>
       <c r="B9">
-        <v>64.85337649803331</v>
+        <v>64.8533764980333</v>
       </c>
       <c r="C9">
-        <v>238.9471942437609</v>
+        <v>238.9471942437608</v>
       </c>
       <c r="D9">
-        <v>2.382436731762102</v>
+        <v>2.382436731762101</v>
       </c>
       <c r="E9">
         <v>5704.86823928472</v>
@@ -4728,19 +4851,19 @@
         <v>1998</v>
       </c>
       <c r="B10">
-        <v>64.8465315695195</v>
+        <v>64.84653156951951</v>
       </c>
       <c r="C10">
-        <v>239.2846495440093</v>
+        <v>239.2846495440094</v>
       </c>
       <c r="D10">
         <v>2.894853594474573</v>
       </c>
       <c r="E10">
-        <v>5579.592543435145</v>
+        <v>5579.592543435146</v>
       </c>
       <c r="F10">
-        <v>327867544498.3388</v>
+        <v>327867544498.3389</v>
       </c>
       <c r="G10">
         <v>22407.14389881206</v>
@@ -4757,7 +4880,7 @@
         <v>1999</v>
       </c>
       <c r="B11">
-        <v>64.85525839077744</v>
+        <v>64.85525839077745</v>
       </c>
       <c r="C11">
         <v>239.6427200112729</v>
@@ -4766,7 +4889,7 @@
         <v>3.420784971876552</v>
       </c>
       <c r="E11">
-        <v>5508.045789014618</v>
+        <v>5508.045789014619</v>
       </c>
       <c r="F11">
         <v>333897063436.1031</v>
@@ -4786,7 +4909,7 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>64.87725931834045</v>
+        <v>64.87725931834042</v>
       </c>
       <c r="C12">
         <v>240.0226281305118</v>
@@ -4795,10 +4918,10 @@
         <v>4.068546628759799</v>
       </c>
       <c r="E12">
-        <v>5473.200991268365</v>
+        <v>5473.200991268364</v>
       </c>
       <c r="F12">
-        <v>338377121313.0863</v>
+        <v>338377121313.0862</v>
       </c>
       <c r="G12">
         <v>23612.47577240211</v>
@@ -4853,10 +4976,10 @@
         <v>4.096193503837899</v>
       </c>
       <c r="E14">
-        <v>5348.614465491923</v>
+        <v>5348.614465491922</v>
       </c>
       <c r="F14">
-        <v>343747613367.1583</v>
+        <v>343747613367.1584</v>
       </c>
       <c r="G14">
         <v>24525.76897931392</v>
@@ -4888,7 +5011,7 @@
         <v>350768366703.1083</v>
       </c>
       <c r="G15">
-        <v>25334.48606797576</v>
+        <v>25334.48606797575</v>
       </c>
       <c r="H15">
         <v>1250196606073.298</v>
@@ -4902,7 +5025,7 @@
         <v>2004</v>
       </c>
       <c r="B16">
-        <v>65.06929697218474</v>
+        <v>65.06929697218476</v>
       </c>
       <c r="C16">
         <v>241.8269545103988</v>
@@ -4911,10 +5034,10 @@
         <v>3.881981873398027</v>
       </c>
       <c r="E16">
-        <v>5361.216989523544</v>
+        <v>5361.216989523545</v>
       </c>
       <c r="F16">
-        <v>361503349454.607</v>
+        <v>361503349454.6071</v>
       </c>
       <c r="G16">
         <v>26484.8646123765</v>
@@ -4931,19 +5054,19 @@
         <v>2005</v>
       </c>
       <c r="B17">
-        <v>65.135723602403</v>
+        <v>65.13572360240302</v>
       </c>
       <c r="C17">
         <v>242.3944387969077</v>
       </c>
       <c r="D17">
-        <v>4.319786137097334</v>
+        <v>4.319786137097335</v>
       </c>
       <c r="E17">
-        <v>5407.358318396236</v>
+        <v>5407.358318396237</v>
       </c>
       <c r="F17">
-        <v>372663965373.4004</v>
+        <v>372663965373.4005</v>
       </c>
       <c r="G17">
         <v>27617.89118573937</v>
@@ -4966,13 +5089,13 @@
         <v>243.0213485738719</v>
       </c>
       <c r="D18">
-        <v>4.538237228549127</v>
+        <v>4.538237228549128</v>
       </c>
       <c r="E18">
-        <v>5462.949868612265</v>
+        <v>5462.949868612267</v>
       </c>
       <c r="F18">
-        <v>385000071454.4874</v>
+        <v>385000071454.4875</v>
       </c>
       <c r="G18">
         <v>28790.06052991809</v>
@@ -4998,7 +5121,7 @@
         <v>4.683013453940997</v>
       </c>
       <c r="E19">
-        <v>5508.314333660424</v>
+        <v>5508.314333660423</v>
       </c>
       <c r="F19">
         <v>400011680336.61</v>
@@ -5024,13 +5147,13 @@
         <v>244.4452659647031</v>
       </c>
       <c r="D20">
-        <v>4.930288031250559</v>
+        <v>4.930288031250558</v>
       </c>
       <c r="E20">
-        <v>5556.971550509567</v>
+        <v>5556.971550509566</v>
       </c>
       <c r="F20">
-        <v>411758865334.8086</v>
+        <v>411758865334.8085</v>
       </c>
       <c r="G20">
         <v>31311.34869248958</v>
@@ -5056,7 +5179,7 @@
         <v>4.669715914993017</v>
       </c>
       <c r="E21">
-        <v>5620.640553348034</v>
+        <v>5620.640553348033</v>
       </c>
       <c r="F21">
         <v>414436748466.3683</v>
@@ -5076,7 +5199,7 @@
         <v>2010</v>
       </c>
       <c r="B22">
-        <v>65.39032864362724</v>
+        <v>65.39032864362723</v>
       </c>
       <c r="C22">
         <v>246.0478781116976</v>
@@ -5088,7 +5211,7 @@
         <v>5647.371233208592</v>
       </c>
       <c r="F22">
-        <v>417679449576.6617</v>
+        <v>417679449576.6616</v>
       </c>
       <c r="G22">
         <v>32229.09724349195</v>
@@ -5163,7 +5286,7 @@
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>65.38192655660595</v>
+        <v>65.38192655660593</v>
       </c>
       <c r="C25">
         <v>248.6893764555158</v>
@@ -5175,7 +5298,7 @@
         <v>5729.421660492691</v>
       </c>
       <c r="F25">
-        <v>431599001609.4241</v>
+        <v>431599001609.424</v>
       </c>
       <c r="G25">
         <v>33863.10230300319</v>
@@ -5184,7 +5307,7 @@
         <v>1741269865576.235</v>
       </c>
       <c r="I25">
-        <v>9.505703634097443</v>
+        <v>9.505703634097442</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5198,7 +5321,7 @@
         <v>249.6143639312732</v>
       </c>
       <c r="D26">
-        <v>3.986366838844056</v>
+        <v>3.986366838844055</v>
       </c>
       <c r="E26">
         <v>5741.799045766817</v>
@@ -5230,16 +5353,16 @@
         <v>3.866296940505554</v>
       </c>
       <c r="E27">
-        <v>5726.203238251433</v>
+        <v>5726.203238251434</v>
       </c>
       <c r="F27">
         <v>443261614618.7467</v>
       </c>
       <c r="G27">
-        <v>35095.93834326351</v>
+        <v>35095.9383432635</v>
       </c>
       <c r="H27">
-        <v>1818555746278.557</v>
+        <v>1818555746278.556</v>
       </c>
       <c r="I27">
         <v>9.213357502950581</v>
@@ -5262,7 +5385,7 @@
         <v>5716.045590815899</v>
       </c>
       <c r="F28">
-        <v>444976663139.318</v>
+        <v>444976663139.3179</v>
       </c>
       <c r="G28">
         <v>35400.55883589223</v>
@@ -5285,16 +5408,16 @@
         <v>252.5472942819621</v>
       </c>
       <c r="D29">
-        <v>4.268122654983457</v>
+        <v>4.268122654983456</v>
       </c>
       <c r="E29">
         <v>5725.285609447882</v>
       </c>
       <c r="F29">
-        <v>446654789434.985</v>
+        <v>446654789434.9849</v>
       </c>
       <c r="G29">
-        <v>35653.19290111172</v>
+        <v>35653.19290111171</v>
       </c>
       <c r="H29">
         <v>1859165372966.655</v>
@@ -5314,13 +5437,13 @@
         <v>253.5469568888901</v>
       </c>
       <c r="D30">
-        <v>4.036635944548346</v>
+        <v>4.036635944548347</v>
       </c>
       <c r="E30">
-        <v>5746.625354981675</v>
+        <v>5746.625354981677</v>
       </c>
       <c r="F30">
-        <v>449936898095.6995</v>
+        <v>449936898095.6996</v>
       </c>
       <c r="G30">
         <v>36013.77293253902</v>
@@ -5329,7 +5452,7 @@
         <v>1884304788720.434</v>
       </c>
       <c r="I30">
-        <v>8.846981668337641</v>
+        <v>8.846981668337643</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5337,22 +5460,22 @@
         <v>2019</v>
       </c>
       <c r="B31">
-        <v>65.08471931750731</v>
+        <v>65.08471931750732</v>
       </c>
       <c r="C31">
-        <v>254.5465317906873</v>
+        <v>254.5465317906874</v>
       </c>
       <c r="D31">
-        <v>3.862431269321432</v>
+        <v>3.862431269321433</v>
       </c>
       <c r="E31">
-        <v>5751.226500749683</v>
+        <v>5751.226500749684</v>
       </c>
       <c r="F31">
-        <v>452915213813.0062</v>
+        <v>452915213813.0063</v>
       </c>
       <c r="G31">
-        <v>36324.28919096432</v>
+        <v>36324.28919096433</v>
       </c>
       <c r="H31">
         <v>1906593297746.301</v>
@@ -5466,25 +5589,25 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>57.1425581036766</v>
+        <v>57.14255810367661</v>
       </c>
       <c r="C2">
-        <v>235.0851566835621</v>
+        <v>235.0851566835622</v>
       </c>
       <c r="D2">
-        <v>0.04248482666874017</v>
+        <v>0.04248482666874018</v>
       </c>
       <c r="E2">
-        <v>366</v>
+        <v>366.0000000000001</v>
       </c>
       <c r="F2">
-        <v>47207847596.54369</v>
+        <v>47207847596.5437</v>
       </c>
       <c r="G2">
-        <v>266.577850783745</v>
+        <v>266.5778507837451</v>
       </c>
       <c r="H2">
-        <v>163030988939.2864</v>
+        <v>163030988939.2865</v>
       </c>
       <c r="I2">
         <v>16.75237579755089</v>
@@ -5495,13 +5618,13 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>57.16209944061295</v>
+        <v>57.16209944061296</v>
       </c>
       <c r="C3">
         <v>237.8906275648523</v>
       </c>
       <c r="D3">
-        <v>0.04503373764927773</v>
+        <v>0.04503373764927774</v>
       </c>
       <c r="E3">
         <v>389.0456821809645</v>
@@ -5510,7 +5633,7 @@
         <v>48882390749.51745</v>
       </c>
       <c r="G3">
-        <v>268.5538660827888</v>
+        <v>268.5538660827887</v>
       </c>
       <c r="H3">
         <v>164514851911.3914</v>
@@ -5524,7 +5647,7 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>57.18415732848981</v>
+        <v>57.18415732848982</v>
       </c>
       <c r="C4">
         <v>240.7729437474433</v>
@@ -5536,7 +5659,7 @@
         <v>396.2098965873458</v>
       </c>
       <c r="F4">
-        <v>50120574108.67735</v>
+        <v>50120574108.67736</v>
       </c>
       <c r="G4">
         <v>270.4630582872332</v>
@@ -5565,10 +5688,10 @@
         <v>413.3117302691283</v>
       </c>
       <c r="F5">
-        <v>52024520790.95903</v>
+        <v>52024520790.95902</v>
       </c>
       <c r="G5">
-        <v>275.8964714444836</v>
+        <v>275.8964714444837</v>
       </c>
       <c r="H5">
         <v>172080567138.984</v>
@@ -5582,19 +5705,19 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>57.24953222029595</v>
+        <v>57.24953222029594</v>
       </c>
       <c r="C6">
         <v>246.7390787329686</v>
       </c>
       <c r="D6">
-        <v>0.02682887327617561</v>
+        <v>0.0268288732761756</v>
       </c>
       <c r="E6">
         <v>441.3839402374289</v>
       </c>
       <c r="F6">
-        <v>53023649625.27629</v>
+        <v>53023649625.27628</v>
       </c>
       <c r="G6">
         <v>276.0603085282391</v>
@@ -5611,7 +5734,7 @@
         <v>1985</v>
       </c>
       <c r="B7">
-        <v>57.30195855660807</v>
+        <v>57.30195855660806</v>
       </c>
       <c r="C7">
         <v>249.8053639236519</v>
@@ -5623,7 +5746,7 @@
         <v>450.0620193730313</v>
       </c>
       <c r="F7">
-        <v>54620765830.69141</v>
+        <v>54620765830.6914</v>
       </c>
       <c r="G7">
         <v>279.7198462306384</v>
@@ -5649,7 +5772,7 @@
         <v>0.03287362177485117</v>
       </c>
       <c r="E8">
-        <v>464.0667044333523</v>
+        <v>464.0667044333524</v>
       </c>
       <c r="F8">
         <v>56485485382.25069</v>
@@ -5669,7 +5792,7 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>57.38471551873238</v>
+        <v>57.38471551873236</v>
       </c>
       <c r="C9">
         <v>256.0782038716675</v>
@@ -5681,7 +5804,7 @@
         <v>489.1942529751224</v>
       </c>
       <c r="F9">
-        <v>58984509386.61477</v>
+        <v>58984509386.61476</v>
       </c>
       <c r="G9">
         <v>292.2772445124663</v>
@@ -5698,22 +5821,22 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>57.43902251617995</v>
+        <v>57.43902251617996</v>
       </c>
       <c r="C10">
-        <v>259.2807034711461</v>
+        <v>259.2807034711462</v>
       </c>
       <c r="D10">
-        <v>0.03785515650528552</v>
+        <v>0.03785515650528553</v>
       </c>
       <c r="E10">
-        <v>508.8513946302882</v>
+        <v>508.8513946302884</v>
       </c>
       <c r="F10">
-        <v>61516835938.70349</v>
+        <v>61516835938.70351</v>
       </c>
       <c r="G10">
-        <v>300.0186980186716</v>
+        <v>300.0186980186717</v>
       </c>
       <c r="H10">
         <v>196333899574.5557</v>
@@ -5727,19 +5850,19 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>57.5048308500369</v>
+        <v>57.50483085003691</v>
       </c>
       <c r="C11">
         <v>262.5256829465416</v>
       </c>
       <c r="D11">
-        <v>0.04325948897242089</v>
+        <v>0.0432594889724209</v>
       </c>
       <c r="E11">
         <v>528.47413211846</v>
       </c>
       <c r="F11">
-        <v>63807119552.54668</v>
+        <v>63807119552.54669</v>
       </c>
       <c r="G11">
         <v>305.2850833023268</v>
@@ -5785,7 +5908,7 @@
         <v>1991</v>
       </c>
       <c r="B13">
-        <v>57.65892079214418</v>
+        <v>57.65892079214419</v>
       </c>
       <c r="C13">
         <v>269.1399566751585</v>
@@ -5814,13 +5937,13 @@
         <v>1992</v>
       </c>
       <c r="B14">
-        <v>57.7404274538283</v>
+        <v>57.74042745382831</v>
       </c>
       <c r="C14">
-        <v>272.5067982124134</v>
+        <v>272.5067982124135</v>
       </c>
       <c r="D14">
-        <v>0.04929747007496117</v>
+        <v>0.04929747007496118</v>
       </c>
       <c r="E14">
         <v>527.840527481397</v>
@@ -5849,10 +5972,10 @@
         <v>275.912859876338</v>
       </c>
       <c r="D15">
-        <v>0.06206597232652195</v>
+        <v>0.06206597232652194</v>
       </c>
       <c r="E15">
-        <v>514.4082023137875</v>
+        <v>514.4082023137873</v>
       </c>
       <c r="F15">
         <v>68417842378.57166</v>
@@ -5872,7 +5995,7 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>57.92503769418602</v>
+        <v>57.92503769418601</v>
       </c>
       <c r="C16">
         <v>279.3590871986133</v>
@@ -5884,7 +6007,7 @@
         <v>518.4320822949929</v>
       </c>
       <c r="F16">
-        <v>70217644899.04509</v>
+        <v>70217644899.0451</v>
       </c>
       <c r="G16">
         <v>313.5377510785804</v>
@@ -5901,7 +6024,7 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>58.03325954868893</v>
+        <v>58.03325954868895</v>
       </c>
       <c r="C17">
         <v>282.8468002347069</v>
@@ -5930,7 +6053,7 @@
         <v>1996</v>
       </c>
       <c r="B18">
-        <v>58.14695913679319</v>
+        <v>58.1469591367932</v>
       </c>
       <c r="C18">
         <v>286.3770396026165</v>
@@ -5942,10 +6065,10 @@
         <v>531.6421235796695</v>
       </c>
       <c r="F18">
-        <v>75508917124.25673</v>
+        <v>75508917124.25676</v>
       </c>
       <c r="G18">
-        <v>324.2881363468034</v>
+        <v>324.2881363468035</v>
       </c>
       <c r="H18">
         <v>221723173005.6702</v>
@@ -5988,7 +6111,7 @@
         <v>1998</v>
       </c>
       <c r="B20">
-        <v>58.39944740935875</v>
+        <v>58.39944740935874</v>
       </c>
       <c r="C20">
         <v>293.5646818413273</v>
@@ -5997,7 +6120,7 @@
         <v>0.23649401983097</v>
       </c>
       <c r="E20">
-        <v>531.3775508979041</v>
+        <v>531.377550897904</v>
       </c>
       <c r="F20">
         <v>80874215707.46373</v>
@@ -6029,7 +6152,7 @@
         <v>531.3658759862836</v>
       </c>
       <c r="F21">
-        <v>83557329084.832</v>
+        <v>83557329084.83202</v>
       </c>
       <c r="G21">
         <v>343.3497042034654</v>
@@ -6055,13 +6178,13 @@
         <v>0.2846053644865145</v>
       </c>
       <c r="E22">
-        <v>532.3998729609697</v>
+        <v>532.3998729609698</v>
       </c>
       <c r="F22">
-        <v>86378512260.61057</v>
+        <v>86378512260.61055</v>
       </c>
       <c r="G22">
-        <v>349.6963941674796</v>
+        <v>349.6963941674795</v>
       </c>
       <c r="H22">
         <v>249050818314.9629</v>
@@ -6075,7 +6198,7 @@
         <v>2001</v>
       </c>
       <c r="B23">
-        <v>58.84404488529803</v>
+        <v>58.84404488529804</v>
       </c>
       <c r="C23">
         <v>304.6371525291345</v>
@@ -6104,10 +6227,10 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>59.00219697728448</v>
+        <v>59.00219697728447</v>
       </c>
       <c r="C24">
-        <v>308.3946838957296</v>
+        <v>308.3946838957297</v>
       </c>
       <c r="D24">
         <v>0.3724913075693834</v>
@@ -6142,16 +6265,16 @@
         <v>0.3859933726403315</v>
       </c>
       <c r="E25">
-        <v>535.0001507582934</v>
+        <v>535.0001507582933</v>
       </c>
       <c r="F25">
         <v>96482947172.4511</v>
       </c>
       <c r="G25">
-        <v>373.4459832448332</v>
+        <v>373.4459832448331</v>
       </c>
       <c r="H25">
-        <v>274096514772.5242</v>
+        <v>274096514772.5243</v>
       </c>
       <c r="I25">
         <v>15.58738664870186</v>
@@ -6162,16 +6285,16 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>59.33513549596041</v>
+        <v>59.3351354959604</v>
       </c>
       <c r="C26">
-        <v>315.9946352385636</v>
+        <v>315.9946352385637</v>
       </c>
       <c r="D26">
-        <v>0.4073586644384107</v>
+        <v>0.4073586644384106</v>
       </c>
       <c r="E26">
-        <v>544.7637502132401</v>
+        <v>544.7637502132402</v>
       </c>
       <c r="F26">
         <v>102714766505.7288</v>
@@ -6206,10 +6329,10 @@
         <v>110369208239.6911</v>
       </c>
       <c r="G27">
-        <v>405.6987975141775</v>
+        <v>405.6987975141776</v>
       </c>
       <c r="H27">
-        <v>300900273413.7456</v>
+        <v>300900273413.7455</v>
       </c>
       <c r="I27">
         <v>15.97301704470109</v>
@@ -6220,7 +6343,7 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>59.68645655809463</v>
+        <v>59.68645655809464</v>
       </c>
       <c r="C28">
         <v>323.6947573940918</v>
@@ -6255,7 +6378,7 @@
         <v>327.5775150393904</v>
       </c>
       <c r="D29">
-        <v>0.6053847693495892</v>
+        <v>0.6053847693495893</v>
       </c>
       <c r="E29">
         <v>593.255795444938</v>
@@ -6264,7 +6387,7 @@
         <v>133407836797.4286</v>
       </c>
       <c r="G29">
-        <v>458.5909395195473</v>
+        <v>458.5909395195472</v>
       </c>
       <c r="H29">
         <v>343083736914.037</v>
@@ -6278,13 +6401,13 @@
         <v>2008</v>
       </c>
       <c r="B30">
-        <v>60.04632218424055</v>
+        <v>60.04632218424056</v>
       </c>
       <c r="C30">
         <v>331.4774059924256</v>
       </c>
       <c r="D30">
-        <v>0.7595878983686041</v>
+        <v>0.759587898368604</v>
       </c>
       <c r="E30">
         <v>626.0221481038664</v>
@@ -6293,10 +6416,10 @@
         <v>145676473240.885</v>
       </c>
       <c r="G30">
-        <v>486.204645998844</v>
+        <v>486.2046459988439</v>
       </c>
       <c r="H30">
-        <v>366750538808.1126</v>
+        <v>366750538808.1127</v>
       </c>
       <c r="I30">
         <v>17.09867414895781</v>
@@ -6345,7 +6468,7 @@
         <v>0.8926773635941145</v>
       </c>
       <c r="E32">
-        <v>704.3728842780333</v>
+        <v>704.3728842780332</v>
       </c>
       <c r="F32">
         <v>176752379008.8003</v>
@@ -6365,22 +6488,22 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>60.61483778053876</v>
+        <v>60.61483778053875</v>
       </c>
       <c r="C33">
         <v>343.2168803202094</v>
       </c>
       <c r="D33">
-        <v>0.946125330871597</v>
+        <v>0.9461253308715969</v>
       </c>
       <c r="E33">
-        <v>752.4702950781234</v>
+        <v>752.4702950781235</v>
       </c>
       <c r="F33">
         <v>194728031480.6451</v>
       </c>
       <c r="G33">
-        <v>601.662095317902</v>
+        <v>601.6620953179021</v>
       </c>
       <c r="H33">
         <v>466902416464.9962</v>
@@ -6429,10 +6552,10 @@
         <v>351.013238023661</v>
       </c>
       <c r="D35">
-        <v>0.9891936017545859</v>
+        <v>0.9891936017545857</v>
       </c>
       <c r="E35">
-        <v>835.4131883048892</v>
+        <v>835.4131883048891</v>
       </c>
       <c r="F35">
         <v>225657075126.965</v>
@@ -6441,7 +6564,7 @@
         <v>679.1004430407532</v>
       </c>
       <c r="H35">
-        <v>538160374608.3877</v>
+        <v>538160374608.3876</v>
       </c>
       <c r="I35">
         <v>15.25302269276287</v>
@@ -6499,7 +6622,7 @@
         <v>759.9347303660041</v>
       </c>
       <c r="H37">
-        <v>617295052424.6954</v>
+        <v>617295052424.6953</v>
       </c>
       <c r="I37">
         <v>15.58385458634904</v>
@@ -6510,7 +6633,7 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>61.65411350422362</v>
+        <v>61.65411350422361</v>
       </c>
       <c r="C38">
         <v>362.6035606817686</v>
@@ -6519,13 +6642,13 @@
         <v>1.108250301122617</v>
       </c>
       <c r="E38">
-        <v>967.7883175233152</v>
+        <v>967.7883175233151</v>
       </c>
       <c r="F38">
         <v>271927885736.443</v>
       </c>
       <c r="G38">
-        <v>803.0987544132573</v>
+        <v>803.0987544132572</v>
       </c>
       <c r="H38">
         <v>660785383243.0421</v>
@@ -6539,10 +6662,10 @@
         <v>2017</v>
       </c>
       <c r="B39">
-        <v>61.86779200890481</v>
+        <v>61.86779200890479</v>
       </c>
       <c r="C39">
-        <v>366.4380678042616</v>
+        <v>366.4380678042617</v>
       </c>
       <c r="D39">
         <v>1.125709474103168</v>
@@ -6557,7 +6680,7 @@
         <v>854.6174346030417</v>
       </c>
       <c r="H39">
-        <v>712488565088.8245</v>
+        <v>712488565088.8243</v>
       </c>
       <c r="I39">
         <v>15.01823875014704</v>
@@ -6568,10 +6691,10 @@
         <v>2018</v>
       </c>
       <c r="B40">
-        <v>62.07921430913986</v>
+        <v>62.07921430913987</v>
       </c>
       <c r="C40">
-        <v>370.2577939196144</v>
+        <v>370.2577939196145</v>
       </c>
       <c r="D40">
         <v>1.144374955555147</v>
@@ -6580,13 +6703,13 @@
         <v>1102.968171972239</v>
       </c>
       <c r="F40">
-        <v>309032416772.6615</v>
+        <v>309032416772.6616</v>
       </c>
       <c r="G40">
-        <v>903.9731786730874</v>
+        <v>903.9731786730875</v>
       </c>
       <c r="H40">
-        <v>763524634131.5629</v>
+        <v>763524634131.563</v>
       </c>
       <c r="I40">
         <v>14.88153066744756</v>
@@ -6597,10 +6720,10 @@
         <v>2019</v>
       </c>
       <c r="B41">
-        <v>62.2889835609348</v>
+        <v>62.28898356093482</v>
       </c>
       <c r="C41">
-        <v>374.0625700230933</v>
+        <v>374.0625700230934</v>
       </c>
       <c r="D41">
         <v>1.171764619120355</v>
@@ -6612,10 +6735,10 @@
         <v>325535436467.8896</v>
       </c>
       <c r="G41">
-        <v>953.7371471951138</v>
+        <v>953.7371471951141</v>
       </c>
       <c r="H41">
-        <v>817747431055.3933</v>
+        <v>817747431055.3934</v>
       </c>
       <c r="I41">
         <v>13.47361810745156</v>
@@ -6626,7 +6749,7 @@
         <v>2020</v>
       </c>
       <c r="B42">
-        <v>62.49832744176252</v>
+        <v>62.49832744176253</v>
       </c>
       <c r="C42">
         <v>377.8521946346955</v>
@@ -6686,7 +6809,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6735,28 +6858,28 @@
         <v>39.8400001525879</v>
       </c>
       <c r="C2">
-        <v>69.5928714312201</v>
+        <v>69.59287143122012</v>
       </c>
       <c r="D2">
-        <v>343.3296763576522</v>
+        <v>343.3296763576523</v>
       </c>
       <c r="E2">
         <v>0.01777196340516677</v>
       </c>
       <c r="F2">
-        <v>6007.8999023438</v>
+        <v>6007.899902343801</v>
       </c>
       <c r="G2">
         <v>1727278152939.404</v>
       </c>
       <c r="H2">
-        <v>39933.51505648736</v>
+        <v>39933.51505648737</v>
       </c>
       <c r="I2">
-        <v>3373095791123.574</v>
+        <v>3373095791123.575</v>
       </c>
       <c r="J2">
-        <v>34.189998626709</v>
+        <v>34.18999862670901</v>
       </c>
       <c r="K2">
         <v>23.46921539563932</v>
@@ -6767,19 +6890,19 @@
         <v>1995</v>
       </c>
       <c r="B3">
-        <v>39.65865379293966</v>
+        <v>39.65865379293967</v>
       </c>
       <c r="C3">
-        <v>69.5221067094301</v>
+        <v>69.52210670943012</v>
       </c>
       <c r="D3">
         <v>343.7474810922041</v>
       </c>
       <c r="E3">
-        <v>0.008951091192708495</v>
+        <v>0.008951091192708496</v>
       </c>
       <c r="F3">
-        <v>6282.563165378101</v>
+        <v>6282.563165378102</v>
       </c>
       <c r="G3">
         <v>1818346571127.991</v>
@@ -6805,16 +6928,16 @@
         <v>39.54464125569261</v>
       </c>
       <c r="C4">
-        <v>69.43223176639869</v>
+        <v>69.4322317663987</v>
       </c>
       <c r="D4">
-        <v>344.2000427533756</v>
+        <v>344.2000427533757</v>
       </c>
       <c r="E4">
-        <v>0.005470804901520293</v>
+        <v>0.005470804901520294</v>
       </c>
       <c r="F4">
-        <v>6468.164310073582</v>
+        <v>6468.164310073583</v>
       </c>
       <c r="G4">
         <v>1771720721529.503</v>
@@ -6823,10 +6946,10 @@
         <v>41072.06789776314</v>
       </c>
       <c r="I4">
-        <v>3486097338022.665</v>
+        <v>3486097338022.666</v>
       </c>
       <c r="J4">
-        <v>33.75502909833989</v>
+        <v>33.7550290983399</v>
       </c>
       <c r="K4">
         <v>23.36115643732072</v>
@@ -6843,13 +6966,13 @@
         <v>69.32399993894688</v>
       </c>
       <c r="D5">
-        <v>344.6543999146249</v>
+        <v>344.6543999146248</v>
       </c>
       <c r="E5">
         <v>0.0193312527644669</v>
       </c>
       <c r="F5">
-        <v>6756.12257134326</v>
+        <v>6756.122571343259</v>
       </c>
       <c r="G5">
         <v>1702958970601.498</v>
@@ -6861,7 +6984,7 @@
         <v>3365109518174.461</v>
       </c>
       <c r="J5">
-        <v>33.61749216313168</v>
+        <v>33.61749216313167</v>
       </c>
       <c r="K5">
         <v>23.35048737419174</v>
@@ -6872,10 +6995,10 @@
         <v>1998</v>
       </c>
       <c r="B6">
-        <v>39.30806770149255</v>
+        <v>39.30806770149254</v>
       </c>
       <c r="C6">
-        <v>69.20035595318372</v>
+        <v>69.2003559531837</v>
       </c>
       <c r="D6">
         <v>345.1425193733887</v>
@@ -6884,19 +7007,19 @@
         <v>0.0289836725442736</v>
       </c>
       <c r="F6">
-        <v>6930.478138101795</v>
+        <v>6930.478138101793</v>
       </c>
       <c r="G6">
         <v>1625888596162.927</v>
       </c>
       <c r="H6">
-        <v>37920.28372990449</v>
+        <v>37920.28372990448</v>
       </c>
       <c r="I6">
         <v>3238369275739.513</v>
       </c>
       <c r="J6">
-        <v>33.2960310157382</v>
+        <v>33.29603101573819</v>
       </c>
       <c r="K6">
         <v>22.83664375633507</v>
@@ -6907,25 +7030,25 @@
         <v>1999</v>
       </c>
       <c r="B7">
-        <v>39.14188350234356</v>
+        <v>39.14188350234355</v>
       </c>
       <c r="C7">
         <v>69.06446515487558</v>
       </c>
       <c r="D7">
-        <v>345.5921788412979</v>
+        <v>345.5921788412978</v>
       </c>
       <c r="E7">
         <v>0.08645700596583604</v>
       </c>
       <c r="F7">
-        <v>7187.293950973181</v>
+        <v>7187.293950973182</v>
       </c>
       <c r="G7">
         <v>1605675632169.079</v>
       </c>
       <c r="H7">
-        <v>37660.49469670721</v>
+        <v>37660.4946967072</v>
       </c>
       <c r="I7">
         <v>3242608976661.524</v>
@@ -6963,13 +7086,13 @@
         <v>37925.67363722395</v>
       </c>
       <c r="I8">
-        <v>3285855224095.285</v>
+        <v>3285855224095.286</v>
       </c>
       <c r="J8">
         <v>32.73161164205116</v>
       </c>
       <c r="K8">
-        <v>22.45220880818845</v>
+        <v>22.45220880818844</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6989,7 +7112,7 @@
         <v>0.1096314590402939</v>
       </c>
       <c r="F9">
-        <v>7474.598278542595</v>
+        <v>7474.598278542594</v>
       </c>
       <c r="G9">
         <v>1567323400534.798</v>
@@ -6998,7 +7121,7 @@
         <v>37366.28624690825</v>
       </c>
       <c r="I9">
-        <v>3261803115264.882</v>
+        <v>3261803115264.881</v>
       </c>
       <c r="J9">
         <v>32.40870771878301</v>
@@ -7024,7 +7147,7 @@
         <v>0.1339587159172803</v>
       </c>
       <c r="F10">
-        <v>7581.158477682459</v>
+        <v>7581.158477682461</v>
       </c>
       <c r="G10">
         <v>1523074880563.888</v>
@@ -7033,7 +7156,7 @@
         <v>36702.83371294747</v>
       </c>
       <c r="I10">
-        <v>3230403391241.764</v>
+        <v>3230403391241.765</v>
       </c>
       <c r="J10">
         <v>32.0483793275274</v>
@@ -7047,19 +7170,19 @@
         <v>2003</v>
       </c>
       <c r="B11">
-        <v>38.16088405887349</v>
+        <v>38.1608840588735</v>
       </c>
       <c r="C11">
-        <v>68.41236638537302</v>
+        <v>68.41236638537303</v>
       </c>
       <c r="D11">
-        <v>347.3962921394136</v>
+        <v>347.3962921394137</v>
       </c>
       <c r="E11">
         <v>0.1421143354911683</v>
       </c>
       <c r="F11">
-        <v>7675.901792189728</v>
+        <v>7675.901792189729</v>
       </c>
       <c r="G11">
         <v>1500876482754.368</v>
@@ -7071,7 +7194,7 @@
         <v>3238113357428.486</v>
       </c>
       <c r="J11">
-        <v>31.65520176316763</v>
+        <v>31.65520176316764</v>
       </c>
       <c r="K11">
         <v>20.91713129374546</v>
@@ -7085,7 +7208,7 @@
         <v>37.82852705585948</v>
       </c>
       <c r="C12">
-        <v>68.22297996678346</v>
+        <v>68.22297996678344</v>
       </c>
       <c r="D12">
         <v>347.79269352214</v>
@@ -7094,7 +7217,7 @@
         <v>0.143607958520565</v>
       </c>
       <c r="F12">
-        <v>7807.315541048415</v>
+        <v>7807.315541048413</v>
       </c>
       <c r="G12">
         <v>1496477133503.05</v>
@@ -7123,13 +7246,13 @@
         <v>68.01767529038435</v>
       </c>
       <c r="D13">
-        <v>348.1238509330294</v>
+        <v>348.1238509330295</v>
       </c>
       <c r="E13">
         <v>0.1399229642593562</v>
       </c>
       <c r="F13">
-        <v>7896.642082832467</v>
+        <v>7896.642082832466</v>
       </c>
       <c r="G13">
         <v>1490067676847.499</v>
@@ -7164,7 +7287,7 @@
         <v>0.1179143826728049</v>
       </c>
       <c r="F14">
-        <v>7963.510218112395</v>
+        <v>7963.510218112394</v>
       </c>
       <c r="G14">
         <v>1475744798282.418</v>
@@ -7176,7 +7299,7 @@
         <v>3308911296020.755</v>
       </c>
       <c r="J14">
-        <v>30.49493181041081</v>
+        <v>30.49493181041082</v>
       </c>
       <c r="K14">
         <v>21.3992856851895</v>
@@ -7190,10 +7313,10 @@
         <v>36.99158260707625</v>
       </c>
       <c r="C15">
-        <v>67.57299566528675</v>
+        <v>67.57299566528674</v>
       </c>
       <c r="D15">
-        <v>348.7275101674464</v>
+        <v>348.7275101674463</v>
       </c>
       <c r="E15">
         <v>0.1568019888369709</v>
@@ -7205,10 +7328,10 @@
         <v>1462548958524.879</v>
       </c>
       <c r="H15">
-        <v>36667.10412986288</v>
+        <v>36667.10412986287</v>
       </c>
       <c r="I15">
-        <v>3310010300889.384</v>
+        <v>3310010300889.383</v>
       </c>
       <c r="J15">
         <v>30.16631164498811</v>
@@ -7228,13 +7351,13 @@
         <v>67.32800948868697</v>
       </c>
       <c r="D16">
-        <v>349.0030897648645</v>
+        <v>349.0030897648646</v>
       </c>
       <c r="E16">
         <v>0.1911431491683784</v>
       </c>
       <c r="F16">
-        <v>8031.879448280977</v>
+        <v>8031.879448280978</v>
       </c>
       <c r="G16">
         <v>1463319908063.358</v>
@@ -7257,10 +7380,10 @@
         <v>2009</v>
       </c>
       <c r="B17">
-        <v>36.46609905828574</v>
+        <v>36.46609905828575</v>
       </c>
       <c r="C17">
-        <v>67.06340980242105</v>
+        <v>67.06340980242106</v>
       </c>
       <c r="D17">
         <v>349.2366548587956</v>
@@ -7292,10 +7415,10 @@
         <v>2010</v>
       </c>
       <c r="B18">
-        <v>36.15637741489113</v>
+        <v>36.15637741489114</v>
       </c>
       <c r="C18">
-        <v>66.77539904411186</v>
+        <v>66.77539904411188</v>
       </c>
       <c r="D18">
         <v>349.4461618042703</v>
@@ -7304,7 +7427,7 @@
         <v>0.1887002500237362</v>
       </c>
       <c r="F18">
-        <v>8224.357068779876</v>
+        <v>8224.357068779878</v>
       </c>
       <c r="G18">
         <v>1477279066402.075</v>
@@ -7345,7 +7468,7 @@
         <v>1495236758666.001</v>
       </c>
       <c r="H19">
-        <v>39202.35511579172</v>
+        <v>39202.35511579171</v>
       </c>
       <c r="I19">
         <v>3647741525156.167</v>
@@ -7365,7 +7488,7 @@
         <v>35.61808786119032</v>
       </c>
       <c r="C20">
-        <v>66.12897380119071</v>
+        <v>66.12897380119072</v>
       </c>
       <c r="D20">
         <v>349.6216298115082</v>
@@ -7380,7 +7503,7 @@
         <v>1511224345614.367</v>
       </c>
       <c r="H20">
-        <v>40132.68078864972</v>
+        <v>40132.68078864973</v>
       </c>
       <c r="I20">
         <v>3762070413554.62</v>
@@ -7409,7 +7532,7 @@
         <v>0.1588267454805303</v>
       </c>
       <c r="F21">
-        <v>7944.985994153089</v>
+        <v>7944.98599415309</v>
       </c>
       <c r="G21">
         <v>1500062896894.875</v>
@@ -7485,7 +7608,7 @@
         <v>1466645358991.635</v>
       </c>
       <c r="H23">
-        <v>39601.51120058032</v>
+        <v>39601.51120058031</v>
       </c>
       <c r="I23">
         <v>3751933505491.584</v>
@@ -7502,10 +7625,10 @@
         <v>2016</v>
       </c>
       <c r="B24">
-        <v>34.79576310667117</v>
+        <v>34.79576310667116</v>
       </c>
       <c r="C24">
-        <v>64.6186602740412</v>
+        <v>64.61866027404119</v>
       </c>
       <c r="D24">
         <v>349.4395696213123</v>
@@ -7514,7 +7637,7 @@
         <v>0.2307018698796639</v>
       </c>
       <c r="F24">
-        <v>8178.072794865572</v>
+        <v>8178.07279486557</v>
       </c>
       <c r="G24">
         <v>1463704637577.467</v>
@@ -7537,7 +7660,7 @@
         <v>2017</v>
       </c>
       <c r="B25">
-        <v>34.62043883718835</v>
+        <v>34.62043883718836</v>
       </c>
       <c r="C25">
         <v>64.2331293297043</v>
@@ -7546,22 +7669,22 @@
         <v>349.3467295813325</v>
       </c>
       <c r="E25">
-        <v>0.2434850124558393</v>
+        <v>0.2434850124558394</v>
       </c>
       <c r="F25">
-        <v>8390.803090003785</v>
+        <v>8390.803090003787</v>
       </c>
       <c r="G25">
         <v>1460347193895.25</v>
       </c>
       <c r="H25">
-        <v>39518.5346586015</v>
+        <v>39518.53465860151</v>
       </c>
       <c r="I25">
-        <v>3740821282711.972</v>
+        <v>3740821282711.974</v>
       </c>
       <c r="J25">
-        <v>27.1132727515633</v>
+        <v>27.11327275156331</v>
       </c>
       <c r="K25">
         <v>20.43594606860216</v>
@@ -7578,10 +7701,10 @@
         <v>63.85627358700645</v>
       </c>
       <c r="D26">
-        <v>349.2260755188531</v>
+        <v>349.2260755188532</v>
       </c>
       <c r="E26">
-        <v>0.2651030997308148</v>
+        <v>0.2651030997308149</v>
       </c>
       <c r="F26">
         <v>8476.927621355208</v>
@@ -7593,7 +7716,7 @@
         <v>39535.97789676898</v>
       </c>
       <c r="I26">
-        <v>3741371126232.943</v>
+        <v>3741371126232.944</v>
       </c>
       <c r="J26">
         <v>26.88887671742862</v>
@@ -7610,7 +7733,7 @@
         <v>34.27278216686763</v>
       </c>
       <c r="C27">
-        <v>63.49067176699594</v>
+        <v>63.49067176699593</v>
       </c>
       <c r="D27">
         <v>349.0767082329424</v>
@@ -7670,6 +7793,41 @@
       </c>
       <c r="K28">
         <v>19.74777174028171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29">
+        <v>34.65434836528686</v>
+      </c>
+      <c r="C29">
+        <v>62.79689866099226</v>
+      </c>
+      <c r="D29">
+        <v>348.5188590971177</v>
+      </c>
+      <c r="E29">
+        <v>0.5060704875307959</v>
+      </c>
+      <c r="F29">
+        <v>8212.407272147704</v>
+      </c>
+      <c r="G29">
+        <v>1461409618601.227</v>
+      </c>
+      <c r="H29">
+        <v>39507.2893393063</v>
+      </c>
+      <c r="I29">
+        <v>3738923198132.295</v>
+      </c>
+      <c r="J29">
+        <v>27.16158167737659</v>
+      </c>
+      <c r="K29">
+        <v>21.14416625737088</v>
       </c>
     </row>
   </sheetData>
@@ -7719,7 +7877,7 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>68.2333286892832</v>
+        <v>68.23332868928321</v>
       </c>
       <c r="C2">
         <v>3602.902985074627</v>
@@ -7728,13 +7886,13 @@
         <v>10.38772838052267</v>
       </c>
       <c r="E2">
-        <v>544.0999755859</v>
+        <v>544.0999755859001</v>
       </c>
       <c r="F2">
-        <v>4149452772.923756</v>
+        <v>4149452772.923757</v>
       </c>
       <c r="G2">
-        <v>4928.13911785754</v>
+        <v>4928.139117857541</v>
       </c>
       <c r="H2">
         <v>7155338912.903522</v>
@@ -7757,13 +7915,13 @@
         <v>11.05235819235241</v>
       </c>
       <c r="E3">
-        <v>594.9040140889653</v>
+        <v>594.9040140889654</v>
       </c>
       <c r="F3">
-        <v>4516830414.591758</v>
+        <v>4516830414.591759</v>
       </c>
       <c r="G3">
-        <v>5264.042062266155</v>
+        <v>5264.042062266156</v>
       </c>
       <c r="H3">
         <v>7642148150.500759</v>
@@ -7777,16 +7935,16 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>68.92792110672615</v>
+        <v>68.92792110672616</v>
       </c>
       <c r="C4">
-        <v>3778.896908591952</v>
+        <v>3778.896908591953</v>
       </c>
       <c r="D4">
         <v>10.68427786189904</v>
       </c>
       <c r="E4">
-        <v>642.6788276319553</v>
+        <v>642.6788276319554</v>
       </c>
       <c r="F4">
         <v>4801310449.633166</v>
@@ -7795,7 +7953,7 @@
         <v>5537.969599535328</v>
       </c>
       <c r="H4">
-        <v>8126939769.139263</v>
+        <v>8126939769.139264</v>
       </c>
       <c r="I4">
         <v>22.29291490588914</v>
@@ -7806,7 +7964,7 @@
         <v>1983</v>
       </c>
       <c r="B5">
-        <v>69.15102245926134</v>
+        <v>69.15102245926133</v>
       </c>
       <c r="C5">
         <v>3835.410645778871</v>
@@ -7815,16 +7973,16 @@
         <v>9.590904168434047</v>
       </c>
       <c r="E5">
-        <v>694.2779607065613</v>
+        <v>694.2779607065612</v>
       </c>
       <c r="F5">
         <v>5136882477.03647</v>
       </c>
       <c r="G5">
-        <v>5815.928017992337</v>
+        <v>5815.928017992336</v>
       </c>
       <c r="H5">
-        <v>8521053860.863684</v>
+        <v>8521053860.863685</v>
       </c>
       <c r="I5">
         <v>21.46434389615849</v>
@@ -7838,25 +7996,25 @@
         <v>69.34160899586493</v>
       </c>
       <c r="C6">
-        <v>3884.896749064233</v>
+        <v>3884.896749064232</v>
       </c>
       <c r="D6">
-        <v>8.979000375248287</v>
+        <v>8.979000375248283</v>
       </c>
       <c r="E6">
         <v>748.7407893680495</v>
       </c>
       <c r="F6">
-        <v>5505513236.670382</v>
+        <v>5505513236.67038</v>
       </c>
       <c r="G6">
-        <v>6104.112266952456</v>
+        <v>6104.112266952455</v>
       </c>
       <c r="H6">
-        <v>8964410443.943081</v>
+        <v>8964410443.943079</v>
       </c>
       <c r="I6">
-        <v>21.40238291509307</v>
+        <v>21.40238291509306</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7864,7 +8022,7 @@
         <v>1985</v>
       </c>
       <c r="B7">
-        <v>69.53013090614469</v>
+        <v>69.53013090614468</v>
       </c>
       <c r="C7">
         <v>3918.837567325126</v>
@@ -7876,13 +8034,13 @@
         <v>788.4297510203063</v>
       </c>
       <c r="F7">
-        <v>5617914454.501232</v>
+        <v>5617914454.501233</v>
       </c>
       <c r="G7">
-        <v>6257.505426977814</v>
+        <v>6257.505426977813</v>
       </c>
       <c r="H7">
-        <v>9335976945.116425</v>
+        <v>9335976945.116423</v>
       </c>
       <c r="I7">
         <v>20.11536164922619</v>
@@ -7902,7 +8060,7 @@
         <v>8.499562314624752</v>
       </c>
       <c r="E8">
-        <v>836.029950306683</v>
+        <v>836.0299503066831</v>
       </c>
       <c r="F8">
         <v>5697347236.238876</v>
@@ -7911,7 +8069,7 @@
         <v>6337.350531006057</v>
       </c>
       <c r="H8">
-        <v>9582861888.550417</v>
+        <v>9582861888.550415</v>
       </c>
       <c r="I8">
         <v>22.61381615789615</v>
@@ -7928,10 +8086,10 @@
         <v>3968.265103684977</v>
       </c>
       <c r="D9">
-        <v>9.154317383100679</v>
+        <v>9.154317383100677</v>
       </c>
       <c r="E9">
-        <v>890.4948307968434</v>
+        <v>890.4948307968433</v>
       </c>
       <c r="F9">
         <v>5843094398.574159</v>
@@ -7940,7 +8098,7 @@
         <v>6492.896970466735</v>
       </c>
       <c r="H9">
-        <v>9930390474.889807</v>
+        <v>9930390474.889805</v>
       </c>
       <c r="I9">
         <v>24.09005587328071</v>
@@ -7954,13 +8112,13 @@
         <v>70.19856889806029</v>
       </c>
       <c r="C10">
-        <v>4000.601873299452</v>
+        <v>4000.601873299453</v>
       </c>
       <c r="D10">
-        <v>9.761469914531951</v>
+        <v>9.761469914531952</v>
       </c>
       <c r="E10">
-        <v>949.2123442033692</v>
+        <v>949.2123442033694</v>
       </c>
       <c r="F10">
         <v>6152656817.338311</v>
@@ -7980,19 +8138,19 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>70.44896491686936</v>
+        <v>70.44896491686937</v>
       </c>
       <c r="C11">
-        <v>4039.703038819681</v>
+        <v>4039.703038819682</v>
       </c>
       <c r="D11">
-        <v>9.731509592298121</v>
+        <v>9.731509592298123</v>
       </c>
       <c r="E11">
         <v>1021.467377079909</v>
       </c>
       <c r="F11">
-        <v>6532567220.038189</v>
+        <v>6532567220.03819</v>
       </c>
       <c r="G11">
         <v>7151.661615179702</v>
@@ -8009,10 +8167,10 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>70.68698450423651</v>
+        <v>70.68698450423649</v>
       </c>
       <c r="C12">
-        <v>4088.264733117415</v>
+        <v>4088.264733117414</v>
       </c>
       <c r="D12">
         <v>10.27536041433178</v>
@@ -8021,10 +8179,10 @@
         <v>1081.759952791378</v>
       </c>
       <c r="F12">
-        <v>6974089587.110185</v>
+        <v>6974089587.110184</v>
       </c>
       <c r="G12">
-        <v>7601.691806306069</v>
+        <v>7601.691806306068</v>
       </c>
       <c r="H12">
         <v>11919632145.40308</v>
@@ -8038,7 +8196,7 @@
         <v>1991</v>
       </c>
       <c r="B13">
-        <v>70.90289896794764</v>
+        <v>70.90289896794765</v>
       </c>
       <c r="C13">
         <v>4140.279252135956</v>
@@ -8073,7 +8231,7 @@
         <v>4195.934359484798</v>
       </c>
       <c r="D14">
-        <v>9.819929690977792</v>
+        <v>9.819929690977791</v>
       </c>
       <c r="E14">
         <v>1224.689758991019</v>
@@ -8102,16 +8260,16 @@
         <v>4253.040708684426</v>
       </c>
       <c r="D15">
-        <v>9.660911117150247</v>
+        <v>9.660911117150246</v>
       </c>
       <c r="E15">
         <v>1345.730479814384</v>
       </c>
       <c r="F15">
-        <v>9256761437.650133</v>
+        <v>9256761437.650131</v>
       </c>
       <c r="G15">
-        <v>9575.006418036213</v>
+        <v>9575.006418036211</v>
       </c>
       <c r="H15">
         <v>15485499581.362</v>
@@ -8125,7 +8283,7 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>71.42972130481625</v>
+        <v>71.42972130481624</v>
       </c>
       <c r="C16">
         <v>4313.781455697557</v>
@@ -8154,7 +8312,7 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>71.57784232783699</v>
+        <v>71.577842327837</v>
       </c>
       <c r="C17">
         <v>4377.51250832132</v>
@@ -8175,7 +8333,7 @@
         <v>18826265019.07761</v>
       </c>
       <c r="I17">
-        <v>23.98506226333385</v>
+        <v>23.98506226333386</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -8186,7 +8344,7 @@
         <v>71.70756403232016</v>
       </c>
       <c r="C18">
-        <v>4447.624094184493</v>
+        <v>4447.624094184494</v>
       </c>
       <c r="D18">
         <v>10.17121900645873</v>
@@ -8212,7 +8370,7 @@
         <v>1997</v>
       </c>
       <c r="B19">
-        <v>71.83182620874901</v>
+        <v>71.83182620874902</v>
       </c>
       <c r="C19">
         <v>4521.231680815152</v>
@@ -8302,7 +8460,7 @@
         <v>72.248065280646</v>
       </c>
       <c r="C22">
-        <v>4740.790142339132</v>
+        <v>4740.790142339131</v>
       </c>
       <c r="D22">
         <v>11.20818970650754</v>
@@ -8317,7 +8475,7 @@
         <v>14649.60562224661</v>
       </c>
       <c r="H22">
-        <v>25963508956.61614</v>
+        <v>25963508956.61613</v>
       </c>
       <c r="I22">
         <v>25.8614860377559</v>
@@ -8328,7 +8486,7 @@
         <v>2001</v>
       </c>
       <c r="B23">
-        <v>72.38106870031348</v>
+        <v>72.38106870031346</v>
       </c>
       <c r="C23">
         <v>4813.147426043226</v>
@@ -8357,10 +8515,10 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>72.50157566822061</v>
+        <v>72.50157566822062</v>
       </c>
       <c r="C24">
-        <v>4879.694917352072</v>
+        <v>4879.694917352071</v>
       </c>
       <c r="D24">
         <v>11.35837618234592</v>
@@ -8386,7 +8544,7 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>72.61659798110347</v>
+        <v>72.61659798110348</v>
       </c>
       <c r="C25">
         <v>4931.479769498702</v>
@@ -8415,7 +8573,7 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>72.73428088092521</v>
+        <v>72.7342808809252</v>
       </c>
       <c r="C26">
         <v>4981.706382863919</v>
@@ -8444,16 +8602,16 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>72.85882900133507</v>
+        <v>72.85882900133505</v>
       </c>
       <c r="C27">
-        <v>5034.304518984587</v>
+        <v>5034.304518984586</v>
       </c>
       <c r="D27">
         <v>12.20563521065967</v>
       </c>
       <c r="E27">
-        <v>3418.291655095759</v>
+        <v>3418.291655095758</v>
       </c>
       <c r="F27">
         <v>19541339702.61924</v>
@@ -8473,7 +8631,7 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>72.99315895796153</v>
+        <v>72.99315895796151</v>
       </c>
       <c r="C28">
         <v>5089.329971837844</v>
@@ -8491,7 +8649,7 @@
         <v>17582.77949495827</v>
       </c>
       <c r="H28">
-        <v>34222901621.69694</v>
+        <v>34222901621.69693</v>
       </c>
       <c r="I28">
         <v>26.57800598580277</v>
@@ -8511,13 +8669,13 @@
         <v>13.34457839297231</v>
       </c>
       <c r="E29">
-        <v>3787.444205784757</v>
+        <v>3787.444205784756</v>
       </c>
       <c r="F29">
         <v>21891468112.40932</v>
       </c>
       <c r="G29">
-        <v>18473.60203886363</v>
+        <v>18473.60203886364</v>
       </c>
       <c r="H29">
         <v>36213813671.78146</v>
@@ -8534,7 +8692,7 @@
         <v>73.30928922305654</v>
       </c>
       <c r="C30">
-        <v>5220.721082191487</v>
+        <v>5220.721082191488</v>
       </c>
       <c r="D30">
         <v>13.09456252940331</v>
@@ -8563,13 +8721,13 @@
         <v>73.49446646576308</v>
       </c>
       <c r="C31">
-        <v>5293.882278321956</v>
+        <v>5293.882278321955</v>
       </c>
       <c r="D31">
         <v>13.05523890016238</v>
       </c>
       <c r="E31">
-        <v>4059.861094844139</v>
+        <v>4059.86109484414</v>
       </c>
       <c r="F31">
         <v>24178087162.88182</v>
@@ -8618,7 +8776,7 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>73.86918409497422</v>
+        <v>73.8691840949742</v>
       </c>
       <c r="C33">
         <v>5438.885047778478</v>
@@ -8636,7 +8794,7 @@
         <v>22285.45380610148</v>
       </c>
       <c r="H33">
-        <v>46468599792.20614</v>
+        <v>46468599792.20615</v>
       </c>
       <c r="I33">
         <v>19.58255150797782</v>
@@ -8647,7 +8805,7 @@
         <v>2012</v>
       </c>
       <c r="B34">
-        <v>74.03115331551265</v>
+        <v>74.03115331551267</v>
       </c>
       <c r="C34">
         <v>5512.77944633687</v>
@@ -8656,7 +8814,7 @@
         <v>13.76375263137036</v>
       </c>
       <c r="E34">
-        <v>4380.429501036875</v>
+        <v>4380.429501036874</v>
       </c>
       <c r="F34">
         <v>28942595521.05588</v>
@@ -8665,7 +8823,7 @@
         <v>23463.79714726256</v>
       </c>
       <c r="H34">
-        <v>49648370340.86935</v>
+        <v>49648370340.86934</v>
       </c>
       <c r="I34">
         <v>19.11682198006619</v>
@@ -8679,7 +8837,7 @@
         <v>74.18101370405006</v>
       </c>
       <c r="C35">
-        <v>5586.158806952898</v>
+        <v>5586.158806952897</v>
       </c>
       <c r="D35">
         <v>14.0114917353758</v>
@@ -8694,7 +8852,7 @@
         <v>24621.30283755035</v>
       </c>
       <c r="H35">
-        <v>52935725627.7122</v>
+        <v>52935725627.71219</v>
       </c>
       <c r="I35">
         <v>17.63840961487545</v>
@@ -8705,7 +8863,7 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>74.32214355880146</v>
+        <v>74.32214355880144</v>
       </c>
       <c r="C36">
         <v>5657.935136284997</v>
@@ -8723,7 +8881,7 @@
         <v>25732.10951147485</v>
       </c>
       <c r="H36">
-        <v>56163572707.60169</v>
+        <v>56163572707.60168</v>
       </c>
       <c r="I36">
         <v>17.99976889212852</v>
@@ -8734,7 +8892,7 @@
         <v>2015</v>
       </c>
       <c r="B37">
-        <v>74.4538519353065</v>
+        <v>74.45385193530649</v>
       </c>
       <c r="C37">
         <v>5728.716801070092</v>
@@ -8752,7 +8910,7 @@
         <v>26717.4788033553</v>
       </c>
       <c r="H37">
-        <v>59117366535.9265</v>
+        <v>59117366535.92649</v>
       </c>
       <c r="I37">
         <v>18.08932985487341</v>
@@ -8763,7 +8921,7 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>74.56618153827139</v>
+        <v>74.56618153827138</v>
       </c>
       <c r="C38">
         <v>5798.914756804919</v>
@@ -8772,7 +8930,7 @@
         <v>14.74237358020609</v>
       </c>
       <c r="E38">
-        <v>4631.799256323041</v>
+        <v>4631.799256323042</v>
       </c>
       <c r="F38">
         <v>34698472064.14433</v>
@@ -8781,7 +8939,7 @@
         <v>27688.10658329666</v>
       </c>
       <c r="H38">
-        <v>62010823638.88225</v>
+        <v>62010823638.88224</v>
       </c>
       <c r="I38">
         <v>17.50825828041602</v>
@@ -8795,22 +8953,22 @@
         <v>74.64939152853269</v>
       </c>
       <c r="C39">
-        <v>5864.546925972781</v>
+        <v>5864.54692597278</v>
       </c>
       <c r="D39">
         <v>15.18861156932739</v>
       </c>
       <c r="E39">
-        <v>4645.382484049745</v>
+        <v>4645.382484049744</v>
       </c>
       <c r="F39">
-        <v>36149218659.08893</v>
+        <v>36149218659.08892</v>
       </c>
       <c r="G39">
         <v>28742.22864924553</v>
       </c>
       <c r="H39">
-        <v>64966169640.30685</v>
+        <v>64966169640.30684</v>
       </c>
       <c r="I39">
         <v>18.58334720710878</v>
@@ -8824,22 +8982,22 @@
         <v>74.69900885124268</v>
       </c>
       <c r="C40">
-        <v>5927.233959463299</v>
+        <v>5927.2339594633</v>
       </c>
       <c r="D40">
         <v>15.38427494968141</v>
       </c>
       <c r="E40">
-        <v>4716.374129679195</v>
+        <v>4716.374129679197</v>
       </c>
       <c r="F40">
         <v>37986013839.80851</v>
       </c>
       <c r="G40">
-        <v>29917.69964302631</v>
+        <v>29917.69964302632</v>
       </c>
       <c r="H40">
-        <v>68125611911.93586</v>
+        <v>68125611911.93587</v>
       </c>
       <c r="I40">
         <v>20.73630601356827</v>
@@ -8850,10 +9008,10 @@
         <v>2019</v>
       </c>
       <c r="B41">
-        <v>74.71642000969267</v>
+        <v>74.71642000969268</v>
       </c>
       <c r="C41">
-        <v>5988.819174167283</v>
+        <v>5988.819174167284</v>
       </c>
       <c r="D41">
         <v>15.81644851756332</v>
@@ -8865,7 +9023,7 @@
         <v>39573043711.04357</v>
       </c>
       <c r="G41">
-        <v>31002.60676855354</v>
+        <v>31002.60676855355</v>
       </c>
       <c r="H41">
         <v>71263689365.37343</v>
@@ -8891,7 +9049,7 @@
         <v>4715.84740302129</v>
       </c>
       <c r="F42">
-        <v>40819182521.63869</v>
+        <v>40819182521.63868</v>
       </c>
       <c r="G42">
         <v>31882.83367939769</v>
@@ -8939,7 +9097,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9000,7 +9158,7 @@
         <v>3242.75390625</v>
       </c>
       <c r="E2">
-        <v>65.44818444609891</v>
+        <v>65.44818444609892</v>
       </c>
       <c r="F2">
         <v>29.76942796998786</v>
@@ -9015,16 +9173,16 @@
         <v>1984168572000</v>
       </c>
       <c r="J2">
-        <v>31459.1389804773</v>
+        <v>31459.13898047731</v>
       </c>
       <c r="K2">
         <v>6757318000000</v>
       </c>
       <c r="L2">
-        <v>25.1299991607666</v>
+        <v>25.12999916076661</v>
       </c>
       <c r="M2">
-        <v>16.08717737576003</v>
+        <v>16.08717737576004</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9032,7 +9190,7 @@
         <v>1998</v>
       </c>
       <c r="B3">
-        <v>34.65534567454505</v>
+        <v>34.65534567454506</v>
       </c>
       <c r="C3">
         <v>2.492623643269616</v>
@@ -9044,7 +9202,7 @@
         <v>65.53403783771181</v>
       </c>
       <c r="F3">
-        <v>29.95411426532427</v>
+        <v>29.95411426532428</v>
       </c>
       <c r="G3">
         <v>1.903316184460429</v>
@@ -9085,7 +9243,7 @@
         <v>65.62892643128728</v>
       </c>
       <c r="F4">
-        <v>30.14509405403968</v>
+        <v>30.14509405403969</v>
       </c>
       <c r="G4">
         <v>2.403232689272489</v>
@@ -9100,7 +9258,7 @@
         <v>33061.3872343281</v>
       </c>
       <c r="K4">
-        <v>7213220397375.19</v>
+        <v>7213220397375.191</v>
       </c>
       <c r="L4">
         <v>24.89626521651034</v>
@@ -9117,7 +9275,7 @@
         <v>34.4679253969267</v>
       </c>
       <c r="C5">
-        <v>2.54780990456909</v>
+        <v>2.547809904569089</v>
       </c>
       <c r="D5">
         <v>3414.343552384335</v>
@@ -9155,13 +9313,13 @@
         <v>2001</v>
       </c>
       <c r="B6">
-        <v>34.27414573948867</v>
+        <v>34.27414573948866</v>
       </c>
       <c r="C6">
-        <v>2.572841724953723</v>
+        <v>2.572841724953722</v>
       </c>
       <c r="D6">
-        <v>3452.128283106314</v>
+        <v>3452.128283106313</v>
       </c>
       <c r="E6">
         <v>65.83475695503047</v>
@@ -9173,16 +9331,16 @@
         <v>2.432909263264349</v>
       </c>
       <c r="H6">
-        <v>27535.31078591401</v>
+        <v>27535.310785914</v>
       </c>
       <c r="I6">
         <v>2175734577300.279</v>
       </c>
       <c r="J6">
-        <v>34800.40257457241</v>
+        <v>34800.4025745724</v>
       </c>
       <c r="K6">
-        <v>7781463755245.744</v>
+        <v>7781463755245.742</v>
       </c>
       <c r="L6">
         <v>24.50708988812794</v>
@@ -9205,13 +9363,13 @@
         <v>3495.600093562965</v>
       </c>
       <c r="E7">
-        <v>65.93916423451944</v>
+        <v>65.93916423451942</v>
       </c>
       <c r="F7">
         <v>30.71763365330689</v>
       </c>
       <c r="G7">
-        <v>2.123090353723197</v>
+        <v>2.123090353723196</v>
       </c>
       <c r="H7">
         <v>27976.90679329479</v>
@@ -9220,10 +9378,10 @@
         <v>2193534387876.062</v>
       </c>
       <c r="J7">
-        <v>35499.59978688391</v>
+        <v>35499.5997868839</v>
       </c>
       <c r="K7">
-        <v>8046787061366.789</v>
+        <v>8046787061366.788</v>
       </c>
       <c r="L7">
         <v>24.12284993000923</v>
@@ -9237,16 +9395,16 @@
         <v>2003</v>
       </c>
       <c r="B8">
-        <v>33.63011949166695</v>
+        <v>33.63011949166696</v>
       </c>
       <c r="C8">
-        <v>2.568821977105883</v>
+        <v>2.568821977105884</v>
       </c>
       <c r="D8">
-        <v>3573.84104387797</v>
+        <v>3573.841043877971</v>
       </c>
       <c r="E8">
-        <v>66.04074140716793</v>
+        <v>66.04074140716791</v>
       </c>
       <c r="F8">
         <v>30.90440359989413</v>
@@ -9261,10 +9419,10 @@
         <v>2229525730444.568</v>
       </c>
       <c r="J8">
-        <v>36286.7340454277</v>
+        <v>36286.73404542769</v>
       </c>
       <c r="K8">
-        <v>8330884776370.104</v>
+        <v>8330884776370.103</v>
       </c>
       <c r="L8">
         <v>23.79289150616501</v>
@@ -9287,7 +9445,7 @@
         <v>3612.427475837603</v>
       </c>
       <c r="E9">
-        <v>66.14537607160986</v>
+        <v>66.14537607160985</v>
       </c>
       <c r="F9">
         <v>31.09571432879839</v>
@@ -9325,10 +9483,10 @@
         <v>2.550037054569662</v>
       </c>
       <c r="D10">
-        <v>3633.983746483734</v>
+        <v>3633.983746483735</v>
       </c>
       <c r="E10">
-        <v>66.25743074739589</v>
+        <v>66.2574307473959</v>
       </c>
       <c r="F10">
         <v>31.29198787067715</v>
@@ -9343,10 +9501,10 @@
         <v>2369943238852.363</v>
       </c>
       <c r="J10">
-        <v>38433.14819287535</v>
+        <v>38433.14819287536</v>
       </c>
       <c r="K10">
-        <v>9001469600847.461</v>
+        <v>9001469600847.463</v>
       </c>
       <c r="L10">
         <v>23.32192376253722</v>
@@ -9369,7 +9527,7 @@
         <v>3660.978677260224</v>
       </c>
       <c r="E11">
-        <v>66.3444044933793</v>
+        <v>66.34440449337932</v>
       </c>
       <c r="F11">
         <v>31.49585131681092</v>
@@ -9381,16 +9539,16 @@
         <v>33115.57612637409</v>
       </c>
       <c r="I11">
-        <v>2467833575413.643</v>
+        <v>2467833575413.644</v>
       </c>
       <c r="J11">
         <v>39690.91545282934</v>
       </c>
       <c r="K11">
-        <v>9376891848604.68</v>
+        <v>9376891848604.682</v>
       </c>
       <c r="L11">
-        <v>23.16657031312142</v>
+        <v>23.16657031312143</v>
       </c>
       <c r="M11">
         <v>12.99072266531401</v>
@@ -9410,7 +9568,7 @@
         <v>3678.721528749189</v>
       </c>
       <c r="E12">
-        <v>66.41958988015294</v>
+        <v>66.41958988015293</v>
       </c>
       <c r="F12">
         <v>31.70638038056141</v>
@@ -9422,13 +9580,13 @@
         <v>34257.80129595214</v>
       </c>
       <c r="I12">
-        <v>2564225990312.376</v>
+        <v>2564225990312.375</v>
       </c>
       <c r="J12">
-        <v>40963.64340196887</v>
+        <v>40963.64340196886</v>
       </c>
       <c r="K12">
-        <v>9767912643341.949</v>
+        <v>9767912643341.947</v>
       </c>
       <c r="L12">
         <v>23.01027203395847</v>
@@ -9463,7 +9621,7 @@
         <v>34996.35419099942</v>
       </c>
       <c r="I13">
-        <v>2638280830462.706</v>
+        <v>2638280830462.707</v>
       </c>
       <c r="J13">
         <v>42074.79030845637</v>
@@ -9513,7 +9671,7 @@
         <v>10459122417681.08</v>
       </c>
       <c r="L14">
-        <v>22.39130903995167</v>
+        <v>22.39130903995166</v>
       </c>
       <c r="M14">
         <v>11.69878959461227</v>
@@ -9524,7 +9682,7 @@
         <v>2010</v>
       </c>
       <c r="B15">
-        <v>32.02622352541319</v>
+        <v>32.02622352541318</v>
       </c>
       <c r="C15">
         <v>2.639472932147355</v>
@@ -9533,7 +9691,7 @@
         <v>3784.13662059177</v>
       </c>
       <c r="E15">
-        <v>66.579131463758</v>
+        <v>66.57913146375799</v>
       </c>
       <c r="F15">
         <v>32.38411249865136</v>
@@ -9548,7 +9706,7 @@
         <v>2693321704950.166</v>
       </c>
       <c r="J15">
-        <v>43597.25346685877</v>
+        <v>43597.25346685876</v>
       </c>
       <c r="K15">
         <v>10775324244543.01</v>
@@ -9583,7 +9741,7 @@
         <v>1.809897178766296</v>
       </c>
       <c r="H16">
-        <v>36139.59617541145</v>
+        <v>36139.59617541144</v>
       </c>
       <c r="I16">
         <v>2737833709460.516</v>
@@ -9606,16 +9764,16 @@
         <v>2012</v>
       </c>
       <c r="B17">
-        <v>31.32164383484101</v>
+        <v>31.32164383484102</v>
       </c>
       <c r="C17">
         <v>2.659536229789733</v>
       </c>
       <c r="D17">
-        <v>3838.828561173246</v>
+        <v>3838.828561173247</v>
       </c>
       <c r="E17">
-        <v>66.60070597024213</v>
+        <v>66.60070597024215</v>
       </c>
       <c r="F17">
         <v>32.82967302099993</v>
@@ -9627,10 +9785,10 @@
         <v>36526.43548679419</v>
       </c>
       <c r="I17">
-        <v>2786889444319.623</v>
+        <v>2786889444319.624</v>
       </c>
       <c r="J17">
-        <v>45412.4201391015</v>
+        <v>45412.42013910151</v>
       </c>
       <c r="K17">
         <v>11420262453385.14</v>
@@ -9647,7 +9805,7 @@
         <v>2013</v>
       </c>
       <c r="B18">
-        <v>31.08410075458201</v>
+        <v>31.08410075458202</v>
       </c>
       <c r="C18">
         <v>2.6661718308614</v>
@@ -9659,13 +9817,13 @@
         <v>66.58503698957099</v>
       </c>
       <c r="F18">
-        <v>33.04941552559389</v>
+        <v>33.0494155255939</v>
       </c>
       <c r="G18">
         <v>1.766609016152382</v>
       </c>
       <c r="H18">
-        <v>36601.35155720384</v>
+        <v>36601.35155720385</v>
       </c>
       <c r="I18">
         <v>2844820998391.466</v>
@@ -9674,7 +9832,7 @@
         <v>46417.73141534033</v>
       </c>
       <c r="K18">
-        <v>11736184928697.51</v>
+        <v>11736184928697.52</v>
       </c>
       <c r="L18">
         <v>21.26022141934975</v>
@@ -9738,7 +9896,7 @@
         <v>3957.059324545885</v>
       </c>
       <c r="E20">
-        <v>66.4996997857707</v>
+        <v>66.49969978577069</v>
       </c>
       <c r="F20">
         <v>33.49119150814992</v>
@@ -9753,7 +9911,7 @@
         <v>2971630058900.723</v>
       </c>
       <c r="J20">
-        <v>48652.10964751362</v>
+        <v>48652.10964751363</v>
       </c>
       <c r="K20">
         <v>12417795084835.92</v>
@@ -9782,16 +9940,16 @@
         <v>66.43186488913413</v>
       </c>
       <c r="F21">
-        <v>33.71382530406733</v>
+        <v>33.71382530406732</v>
       </c>
       <c r="G21">
         <v>1.941593459873912</v>
       </c>
       <c r="H21">
-        <v>37145.83206137943</v>
+        <v>37145.83206137942</v>
       </c>
       <c r="I21">
-        <v>3020537478528.385</v>
+        <v>3020537478528.384</v>
       </c>
       <c r="J21">
         <v>49774.88714688006</v>
@@ -9814,34 +9972,34 @@
         <v>30.33105977641117</v>
       </c>
       <c r="C22">
-        <v>2.728822830641545</v>
+        <v>2.728822830641546</v>
       </c>
       <c r="D22">
-        <v>4043.327778947728</v>
+        <v>4043.327778947729</v>
       </c>
       <c r="E22">
-        <v>66.34639533405544</v>
+        <v>66.34639533405546</v>
       </c>
       <c r="F22">
-        <v>33.93403469839269</v>
+        <v>33.9340346983927</v>
       </c>
       <c r="G22">
-        <v>1.943205674622268</v>
+        <v>1.943205674622269</v>
       </c>
       <c r="H22">
         <v>37681.18808564563</v>
       </c>
       <c r="I22">
-        <v>3089278640374.658</v>
+        <v>3089278640374.659</v>
       </c>
       <c r="J22">
-        <v>50995.938383661</v>
+        <v>50995.93838366101</v>
       </c>
       <c r="K22">
         <v>13160469714997.85</v>
       </c>
       <c r="L22">
-        <v>20.67506785225224</v>
+        <v>20.67506785225225</v>
       </c>
       <c r="M22">
         <v>11.25487168998816</v>
@@ -9852,10 +10010,10 @@
         <v>2018</v>
       </c>
       <c r="B23">
-        <v>30.21533026041826</v>
+        <v>30.21533026041827</v>
       </c>
       <c r="C23">
-        <v>2.761239075476049</v>
+        <v>2.76123907547605</v>
       </c>
       <c r="D23">
         <v>4127.409983899511</v>
@@ -9870,19 +10028,19 @@
         <v>1.836278468076208</v>
       </c>
       <c r="H23">
-        <v>38313.32491038368</v>
+        <v>38313.32491038369</v>
       </c>
       <c r="I23">
         <v>3176543168615.03</v>
       </c>
       <c r="J23">
-        <v>52403.35659281567</v>
+        <v>52403.35659281568</v>
       </c>
       <c r="K23">
         <v>13592191769915.74</v>
       </c>
       <c r="L23">
-        <v>20.57912105620212</v>
+        <v>20.57912105620213</v>
       </c>
       <c r="M23">
         <v>11.34219756039769</v>
@@ -9911,13 +10069,13 @@
         <v>1.793336323342798</v>
       </c>
       <c r="H24">
-        <v>38807.54386211564</v>
+        <v>38807.54386211565</v>
       </c>
       <c r="I24">
-        <v>3263188992652.463</v>
+        <v>3263188992652.462</v>
       </c>
       <c r="J24">
-        <v>53902.14867686526</v>
+        <v>53902.14867686527</v>
       </c>
       <c r="K24">
         <v>14042180063075.43</v>
@@ -9968,6 +10126,47 @@
       </c>
       <c r="M25">
         <v>11.18777772755131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>2021</v>
+      </c>
+      <c r="B26">
+        <v>30.34971078112964</v>
+      </c>
+      <c r="C26">
+        <v>3.000267417503025</v>
+      </c>
+      <c r="D26">
+        <v>4039.521382983692</v>
+      </c>
+      <c r="E26">
+        <v>65.84887099317973</v>
+      </c>
+      <c r="F26">
+        <v>34.84003218292119</v>
+      </c>
+      <c r="G26">
+        <v>1.207045785819274</v>
+      </c>
+      <c r="H26">
+        <v>38908.74612618054</v>
+      </c>
+      <c r="I26">
+        <v>3367852388831.007</v>
+      </c>
+      <c r="J26">
+        <v>54986.67619464755</v>
+      </c>
+      <c r="K26">
+        <v>14551440506422.67</v>
+      </c>
+      <c r="L26">
+        <v>20.66534582190606</v>
+      </c>
+      <c r="M26">
+        <v>12.71094963783942</v>
       </c>
     </row>
   </sheetData>

--- a/Data/cleaned/Manufacturing_filled.xlsx
+++ b/Data/cleaned/Manufacturing_filled.xlsx
@@ -461,25 +461,25 @@
         <v>1990</v>
       </c>
       <c r="B2">
-        <v>66.85183310469561</v>
+        <v>66.27205919963362</v>
       </c>
       <c r="C2">
-        <v>2.221352980227276</v>
+        <v>2.095806225362542</v>
       </c>
       <c r="D2">
-        <v>2.716688878531373</v>
+        <v>2.214271265675207</v>
       </c>
       <c r="E2">
-        <v>1222.3000488281</v>
+        <v>906.5091781881712</v>
       </c>
       <c r="F2">
-        <v>89613697575.99077</v>
+        <v>89613697575.99075</v>
       </c>
       <c r="G2">
-        <v>18243.47141836716</v>
+        <v>13830.31223264347</v>
       </c>
       <c r="H2">
-        <v>225513659099.6537</v>
+        <v>165558281442.9245</v>
       </c>
       <c r="I2">
         <v>13.79344438155173</v>
@@ -490,25 +490,25 @@
         <v>1991</v>
       </c>
       <c r="B3">
-        <v>66.85632700506466</v>
+        <v>66.35799357782736</v>
       </c>
       <c r="C3">
-        <v>2.236429208156426</v>
+        <v>2.118308582439819</v>
       </c>
       <c r="D3">
-        <v>1.703353971064451</v>
+        <v>2.007890907995843</v>
       </c>
       <c r="E3">
-        <v>1222.458740234343</v>
+        <v>952.6838722138185</v>
       </c>
       <c r="F3">
         <v>89886610593.30484</v>
       </c>
       <c r="G3">
-        <v>18567.43468717829</v>
+        <v>14564.43232438303</v>
       </c>
       <c r="H3">
-        <v>236260968203.8834</v>
+        <v>177283838656.0255</v>
       </c>
       <c r="I3">
         <v>12.5698102029463</v>
@@ -519,25 +519,25 @@
         <v>1992</v>
       </c>
       <c r="B4">
-        <v>66.82829087437712</v>
+        <v>66.41765319019493</v>
       </c>
       <c r="C4">
-        <v>2.251672329507407</v>
+        <v>2.140727120311407</v>
       </c>
       <c r="D4">
-        <v>1.634374045781825</v>
+        <v>1.938867887519741</v>
       </c>
       <c r="E4">
-        <v>1274.299186066213</v>
+        <v>1010.324234904154</v>
       </c>
       <c r="F4">
-        <v>88979505692.53593</v>
+        <v>88979505692.53592</v>
       </c>
       <c r="G4">
-        <v>18581.13797295549</v>
+        <v>15134.01112046555</v>
       </c>
       <c r="H4">
-        <v>242845523048.7167</v>
+        <v>188089226922.3513</v>
       </c>
       <c r="I4">
         <v>12.58015887642892</v>
@@ -548,25 +548,25 @@
         <v>1993</v>
       </c>
       <c r="B5">
-        <v>66.77937198644234</v>
+        <v>66.45115075433337</v>
       </c>
       <c r="C5">
-        <v>2.265852608291321</v>
+        <v>2.162467697903516</v>
       </c>
       <c r="D5">
-        <v>1.654344442600021</v>
+        <v>1.906477122364994</v>
       </c>
       <c r="E5">
-        <v>1348.552430615375</v>
+        <v>1080.818064757292</v>
       </c>
       <c r="F5">
-        <v>87427038349.29123</v>
+        <v>87427038349.29124</v>
       </c>
       <c r="G5">
-        <v>18311.30264535949</v>
+        <v>15480.43528169322</v>
       </c>
       <c r="H5">
-        <v>242295422172.2819</v>
+        <v>195322611553.8109</v>
       </c>
       <c r="I5">
         <v>12.87318388719052</v>
@@ -577,25 +577,25 @@
         <v>1994</v>
       </c>
       <c r="B6">
-        <v>66.73025807989744</v>
+        <v>66.46860599778866</v>
       </c>
       <c r="C6">
-        <v>2.28038026218347</v>
+        <v>2.184005546235948</v>
       </c>
       <c r="D6">
-        <v>1.586294748374877</v>
+        <v>1.836509359949769</v>
       </c>
       <c r="E6">
-        <v>1422.521344496953</v>
+        <v>1156.028817329455</v>
       </c>
       <c r="F6">
-        <v>87183061650.44867</v>
+        <v>87183061650.44868</v>
       </c>
       <c r="G6">
-        <v>18253.53132583263</v>
+        <v>15826.59227636346</v>
       </c>
       <c r="H6">
-        <v>243123444033.2617</v>
+        <v>202021723495.1993</v>
       </c>
       <c r="I6">
         <v>13.20501995208072</v>
@@ -606,25 +606,25 @@
         <v>1995</v>
       </c>
       <c r="B7">
-        <v>66.69578001592146</v>
+        <v>66.48214229998563</v>
       </c>
       <c r="C7">
-        <v>2.296134002382478</v>
+        <v>2.205928538238635</v>
       </c>
       <c r="D7">
-        <v>2.028072218922723</v>
+        <v>2.066913140688574</v>
       </c>
       <c r="E7">
-        <v>1491.400794669946</v>
+        <v>1231.720362961358</v>
       </c>
       <c r="F7">
-        <v>89382175212.04173</v>
+        <v>89382175212.04172</v>
       </c>
       <c r="G7">
-        <v>18713.808884491</v>
+        <v>16416.50024939789</v>
       </c>
       <c r="H7">
-        <v>251065172786.0354</v>
+        <v>212099472613.7495</v>
       </c>
       <c r="I7">
         <v>13.12367686560688</v>
@@ -635,25 +635,25 @@
         <v>1996</v>
       </c>
       <c r="B8">
-        <v>66.66815381204364</v>
+        <v>66.49153051473547</v>
       </c>
       <c r="C8">
-        <v>2.313372476420862</v>
+        <v>2.228590342858268</v>
       </c>
       <c r="D8">
-        <v>1.852489413487648</v>
+        <v>1.948371014697655</v>
       </c>
       <c r="E8">
-        <v>1558.917037249323</v>
+        <v>1308.532056281624</v>
       </c>
       <c r="F8">
-        <v>92302558461.19888</v>
+        <v>92302558461.19887</v>
       </c>
       <c r="G8">
-        <v>19343.11097555246</v>
+        <v>17116.73452291279</v>
       </c>
       <c r="H8">
-        <v>261391432748.8515</v>
+        <v>223751587214.6852</v>
       </c>
       <c r="I8">
         <v>12.7424163318427</v>
@@ -664,25 +664,25 @@
         <v>1997</v>
       </c>
       <c r="B9">
-        <v>66.65546252228496</v>
+        <v>66.50490561492722</v>
       </c>
       <c r="C9">
-        <v>2.33096500288477</v>
+        <v>2.251380993168407</v>
       </c>
       <c r="D9">
-        <v>1.853478669072314</v>
+        <v>1.937032006013748</v>
       </c>
       <c r="E9">
-        <v>1630.555146362744</v>
+        <v>1389.443367303409</v>
       </c>
       <c r="F9">
-        <v>95471133396.53796</v>
+        <v>95471133396.53793</v>
       </c>
       <c r="G9">
-        <v>20098.94685659888</v>
+        <v>17918.3252565501</v>
       </c>
       <c r="H9">
-        <v>273084379947.3324</v>
+        <v>236553288787.7551</v>
       </c>
       <c r="I9">
         <v>12.30366539207597</v>
@@ -693,25 +693,25 @@
         <v>1998</v>
       </c>
       <c r="B10">
-        <v>66.65900548147526</v>
+        <v>66.52608199467554</v>
       </c>
       <c r="C10">
-        <v>2.348681960737216</v>
+        <v>2.274130232019207</v>
       </c>
       <c r="D10">
-        <v>1.861734243325946</v>
+        <v>1.932734870027069</v>
       </c>
       <c r="E10">
-        <v>1676.923550142231</v>
+        <v>1453.035903038795</v>
       </c>
       <c r="F10">
-        <v>96469170846.85893</v>
+        <v>96469170846.85892</v>
       </c>
       <c r="G10">
-        <v>20310.09748613026</v>
+        <v>18341.60880980227</v>
       </c>
       <c r="H10">
-        <v>277712347950.9344</v>
+        <v>244439819630.8906</v>
       </c>
       <c r="I10">
         <v>12.47074767085228</v>
@@ -722,25 +722,25 @@
         <v>1999</v>
       </c>
       <c r="B11">
-        <v>66.67326162169319</v>
+        <v>66.55314582391684</v>
       </c>
       <c r="C11">
-        <v>2.367048226173048</v>
+        <v>2.297214779971669</v>
       </c>
       <c r="D11">
-        <v>1.654976499208263</v>
+        <v>1.766471938537493</v>
       </c>
       <c r="E11">
-        <v>1679.49323000426</v>
+        <v>1482.274856111171</v>
       </c>
       <c r="F11">
-        <v>96369457587.5381</v>
+        <v>96369457587.53809</v>
       </c>
       <c r="G11">
-        <v>20349.87604604138</v>
+        <v>18611.78689050699</v>
       </c>
       <c r="H11">
-        <v>280751378585.4549</v>
+        <v>250810641114.4001</v>
       </c>
       <c r="I11">
         <v>11.95283158647435</v>
@@ -751,25 +751,25 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>66.69162960681932</v>
+        <v>66.5821379358497</v>
       </c>
       <c r="C12">
-        <v>2.386245070066078</v>
+        <v>2.320807428569601</v>
       </c>
       <c r="D12">
-        <v>1.948629048194528</v>
+        <v>1.985302778960474</v>
       </c>
       <c r="E12">
-        <v>1687.294932047897</v>
+        <v>1512.194563971468</v>
       </c>
       <c r="F12">
-        <v>97255925118.16696</v>
+        <v>97255925118.16698</v>
       </c>
       <c r="G12">
-        <v>20555.08728393575</v>
+        <v>18983.39527399057</v>
       </c>
       <c r="H12">
-        <v>286010241111.5117</v>
+        <v>258575487839.5975</v>
       </c>
       <c r="I12">
         <v>11.57011554701219</v>
@@ -780,25 +780,25 @@
         <v>2001</v>
       </c>
       <c r="B13">
-        <v>66.72614494947229</v>
+        <v>66.62334608475608</v>
       </c>
       <c r="C13">
-        <v>2.406803344661855</v>
+        <v>2.345378510062371</v>
       </c>
       <c r="D13">
-        <v>2.076958479213904</v>
+        <v>2.085628644003365</v>
       </c>
       <c r="E13">
-        <v>1685.950125115737</v>
+        <v>1531.965638133101</v>
       </c>
       <c r="F13">
         <v>96156700437.09857</v>
       </c>
       <c r="G13">
-        <v>20404.951072763</v>
+        <v>19048.21991230162</v>
       </c>
       <c r="H13">
-        <v>286585619501.7073</v>
+        <v>262314542655.8102</v>
       </c>
       <c r="I13">
         <v>10.99301372481012</v>
@@ -809,25 +809,25 @@
         <v>2002</v>
       </c>
       <c r="B14">
-        <v>66.77153366691427</v>
+        <v>66.67350324093681</v>
       </c>
       <c r="C14">
-        <v>2.428122476147466</v>
+        <v>2.370489157807495</v>
       </c>
       <c r="D14">
-        <v>2.306818020195756</v>
+        <v>2.277132896003706</v>
       </c>
       <c r="E14">
-        <v>1666.037191152871</v>
+        <v>1533.471506336894</v>
       </c>
       <c r="F14">
         <v>95774731323.83488</v>
       </c>
       <c r="G14">
-        <v>20364.46310967298</v>
+        <v>19174.53033576845</v>
       </c>
       <c r="H14">
-        <v>288295626196.4353</v>
+        <v>266613113346.5256</v>
       </c>
       <c r="I14">
         <v>10.55534894431952</v>
@@ -838,25 +838,25 @@
         <v>2003</v>
       </c>
       <c r="B15">
-        <v>66.82372878674502</v>
+        <v>66.72969833727342</v>
       </c>
       <c r="C15">
-        <v>2.450228739612579</v>
+        <v>2.396177277326328</v>
       </c>
       <c r="D15">
-        <v>2.254250649452612</v>
+        <v>2.235580344451944</v>
       </c>
       <c r="E15">
-        <v>1623.549340306621</v>
+        <v>1512.605324680254</v>
       </c>
       <c r="F15">
         <v>98054864872.72992</v>
       </c>
       <c r="G15">
-        <v>20792.22443180106</v>
+        <v>19680.35396384363</v>
       </c>
       <c r="H15">
-        <v>297530316427.5236</v>
+        <v>277063726994.9254</v>
       </c>
       <c r="I15">
         <v>10.86216994180758</v>
@@ -867,25 +867,25 @@
         <v>2004</v>
       </c>
       <c r="B16">
-        <v>66.87989677987683</v>
+        <v>66.78968667044708</v>
       </c>
       <c r="C16">
-        <v>2.472836885706204</v>
+        <v>2.422207838665069</v>
       </c>
       <c r="D16">
-        <v>2.884522444852468</v>
+        <v>2.788164471251425</v>
       </c>
       <c r="E16">
-        <v>1660.113252368061</v>
+        <v>1557.44083900571</v>
       </c>
       <c r="F16">
         <v>104588751770.3736</v>
       </c>
       <c r="G16">
-        <v>22087.073141283</v>
+        <v>20940.46481437458</v>
       </c>
       <c r="H16">
-        <v>319742791868.1972</v>
+        <v>298842320623.7126</v>
       </c>
       <c r="I16">
         <v>10.88215706600108</v>
@@ -896,25 +896,25 @@
         <v>2005</v>
       </c>
       <c r="B17">
-        <v>66.93642093190243</v>
+        <v>66.85030363978261</v>
       </c>
       <c r="C17">
-        <v>2.496520594242285</v>
+        <v>2.449089503330167</v>
       </c>
       <c r="D17">
-        <v>2.039096983610329</v>
+        <v>2.04861560918863</v>
       </c>
       <c r="E17">
-        <v>1762.230015062404</v>
+        <v>1659.981733892361</v>
       </c>
       <c r="F17">
         <v>113268780549.3444</v>
       </c>
       <c r="G17">
-        <v>23648.35232633181</v>
+        <v>22459.31684190506</v>
       </c>
       <c r="H17">
-        <v>346189191222.9338</v>
+        <v>324740901958.0385</v>
       </c>
       <c r="I17">
         <v>10.33486230097914</v>
@@ -925,28 +925,28 @@
         <v>2006</v>
       </c>
       <c r="B18">
-        <v>67.00617600131135</v>
+        <v>66.92303899344699</v>
       </c>
       <c r="C18">
-        <v>2.521748298344191</v>
+        <v>2.477267004289438</v>
       </c>
       <c r="D18">
-        <v>2.300380405576089</v>
+        <v>2.282890800148173</v>
       </c>
       <c r="E18">
-        <v>1865.237220944865</v>
+        <v>1764.525420642748</v>
       </c>
       <c r="F18">
         <v>123276914616.4366</v>
       </c>
       <c r="G18">
-        <v>25239.39534977994</v>
+        <v>24029.23159694393</v>
       </c>
       <c r="H18">
-        <v>372904216625.2144</v>
+        <v>351271663468.9562</v>
       </c>
       <c r="I18">
-        <v>9.892071199355795</v>
+        <v>9.892071199355792</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2007</v>
       </c>
       <c r="B19">
-        <v>67.08282567606093</v>
+        <v>67.00246509016741</v>
       </c>
       <c r="C19">
-        <v>2.545493348903535</v>
+        <v>2.504014056694019</v>
       </c>
       <c r="D19">
-        <v>2.664474156533144</v>
+        <v>2.617004386254273</v>
       </c>
       <c r="E19">
-        <v>1925.782244667211</v>
+        <v>1831.271603869079</v>
       </c>
       <c r="F19">
         <v>135335987629.6398</v>
       </c>
       <c r="G19">
-        <v>27215.78915733571</v>
+        <v>25970.44255139881</v>
       </c>
       <c r="H19">
-        <v>405498000435.4818</v>
+        <v>383476820423.8815</v>
       </c>
       <c r="I19">
-        <v>9.290666490144645</v>
+        <v>9.290666490144647</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2008</v>
       </c>
       <c r="B20">
-        <v>67.15703304894828</v>
+        <v>67.08004805806789</v>
       </c>
       <c r="C20">
-        <v>2.572723273760546</v>
+        <v>2.533848216814385</v>
       </c>
       <c r="D20">
-        <v>2.863983957741723</v>
+        <v>2.80639148267371</v>
       </c>
       <c r="E20">
-        <v>1961.181786950188</v>
+        <v>1874.678685816628</v>
       </c>
       <c r="F20">
         <v>152015316331.3454</v>
       </c>
       <c r="G20">
-        <v>29986.81971347744</v>
+        <v>28667.61354692554</v>
       </c>
       <c r="H20">
-        <v>451743322054.3006</v>
+        <v>428630467498.5825</v>
       </c>
       <c r="I20">
-        <v>9.202198922938424</v>
+        <v>9.202198922938425</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1012,25 +1012,25 @@
         <v>2009</v>
       </c>
       <c r="B21">
-        <v>67.21972157135949</v>
+        <v>67.14714393783392</v>
       </c>
       <c r="C21">
-        <v>2.603291229550682</v>
+        <v>2.566716816991944</v>
       </c>
       <c r="D21">
-        <v>2.891611839365916</v>
+        <v>2.838646175563076</v>
       </c>
       <c r="E21">
-        <v>2059.647021800603</v>
+        <v>1976.162267120314</v>
       </c>
       <c r="F21">
         <v>164097925492.601</v>
       </c>
       <c r="G21">
-        <v>31546.03774278973</v>
+        <v>30268.88896810208</v>
       </c>
       <c r="H21">
-        <v>478494193674.7225</v>
+        <v>456157325394.4242</v>
       </c>
       <c r="I21">
         <v>8.453526785289274</v>
@@ -1041,28 +1041,28 @@
         <v>2010</v>
       </c>
       <c r="B22">
-        <v>67.26444412497088</v>
+        <v>67.19733426525467</v>
       </c>
       <c r="C22">
-        <v>2.635150576611875</v>
+        <v>2.600761026204062</v>
       </c>
       <c r="D22">
-        <v>2.912880905965037</v>
+        <v>2.864601300626298</v>
       </c>
       <c r="E22">
-        <v>2165.456630510864</v>
+        <v>2084.933986438528</v>
       </c>
       <c r="F22">
         <v>179162705840.6531</v>
       </c>
       <c r="G22">
-        <v>34019.70885512567</v>
+        <v>32735.54593410743</v>
       </c>
       <c r="H22">
-        <v>523290420993.892</v>
+        <v>500737076854.4012</v>
       </c>
       <c r="I22">
-        <v>7.99703421247749</v>
+        <v>7.997034212477491</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2011</v>
       </c>
       <c r="B23">
-        <v>67.27271329217125</v>
+        <v>67.21271810082234</v>
       </c>
       <c r="C23">
-        <v>2.667666781683773</v>
+        <v>2.635387365439706</v>
       </c>
       <c r="D23">
-        <v>3.124615953495818</v>
+        <v>3.070279483344587</v>
       </c>
       <c r="E23">
-        <v>2246.634231290145</v>
+        <v>2170.778664311744</v>
       </c>
       <c r="F23">
         <v>202012772114.4633</v>
       </c>
       <c r="G23">
-        <v>37422.78795821659</v>
+        <v>36098.55410772018</v>
       </c>
       <c r="H23">
-        <v>581701883844.9614</v>
+        <v>558518409868.6484</v>
       </c>
       <c r="I23">
-        <v>7.368513108841396</v>
+        <v>7.368513108841397</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2012</v>
       </c>
       <c r="B24">
-        <v>67.25040844579364</v>
+        <v>67.19823197605646</v>
       </c>
       <c r="C24">
-        <v>2.702095352144343</v>
+        <v>2.671784725154294</v>
       </c>
       <c r="D24">
-        <v>3.195082731139376</v>
+        <v>3.143457235160174</v>
       </c>
       <c r="E24">
-        <v>2303.917687255045</v>
+        <v>2233.827343137365</v>
       </c>
       <c r="F24">
         <v>226355527037.2056</v>
       </c>
       <c r="G24">
-        <v>41037.08247799832</v>
+        <v>39687.48275156844</v>
       </c>
       <c r="H24">
-        <v>645302601078.7561</v>
+        <v>621659381261.1265</v>
       </c>
       <c r="I24">
-        <v>7.050454592733451</v>
+        <v>7.05045459273345</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>67.20078362326173</v>
+        <v>67.15658161009767</v>
       </c>
       <c r="C25">
-        <v>2.738232469360334</v>
+        <v>2.709774134546701</v>
       </c>
       <c r="D25">
-        <v>3.225554120042145</v>
+        <v>3.178413488149209</v>
       </c>
       <c r="E25">
-        <v>2266.521740349458</v>
+        <v>2205.89124063663</v>
       </c>
       <c r="F25">
         <v>246370448264.5814</v>
       </c>
       <c r="G25">
-        <v>44214.04044424678</v>
+        <v>42879.81380710728</v>
       </c>
       <c r="H25">
-        <v>705284957735.4385</v>
+        <v>681725908991.6135</v>
       </c>
       <c r="I25">
-        <v>6.608333214010962</v>
+        <v>6.608333214010963</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2014</v>
       </c>
       <c r="B26">
-        <v>67.12525560696135</v>
+        <v>67.08887018082532</v>
       </c>
       <c r="C26">
-        <v>2.775172118788485</v>
+        <v>2.748494126514366</v>
       </c>
       <c r="D26">
-        <v>3.351321270008167</v>
+        <v>3.304675311851626</v>
       </c>
       <c r="E26">
-        <v>2226.887369623076</v>
+        <v>2174.547483525619</v>
       </c>
       <c r="F26">
         <v>261376813478.136</v>
       </c>
       <c r="G26">
-        <v>46342.33514786842</v>
+        <v>45076.50973938165</v>
       </c>
       <c r="H26">
-        <v>748783198159.8165</v>
+        <v>726207013850.3998</v>
       </c>
       <c r="I26">
-        <v>6.368634633947077</v>
+        <v>6.368634633947076</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2015</v>
       </c>
       <c r="B27">
-        <v>67.02501936210862</v>
+        <v>66.99608181025826</v>
       </c>
       <c r="C27">
-        <v>2.812730445016476</v>
+        <v>2.787763853513843</v>
       </c>
       <c r="D27">
-        <v>3.365289316695057</v>
+        <v>3.323381309325448</v>
       </c>
       <c r="E27">
-        <v>2189.919108119857</v>
+        <v>2144.672835107896</v>
       </c>
       <c r="F27">
-        <v>268154423995.2065</v>
+        <v>268154423995.2066</v>
       </c>
       <c r="G27">
-        <v>47540.34007387586</v>
+        <v>46375.43764952482</v>
       </c>
       <c r="H27">
-        <v>779629570395.5896</v>
+        <v>758533299419.0051</v>
       </c>
       <c r="I27">
-        <v>6.299997474136077</v>
+        <v>6.299997474136078</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1215,25 +1215,25 @@
         <v>2016</v>
       </c>
       <c r="B28">
-        <v>66.89646148983765</v>
+        <v>66.87460685830423</v>
       </c>
       <c r="C28">
-        <v>2.850915181473912</v>
+        <v>2.827586765040794</v>
       </c>
       <c r="D28">
-        <v>3.387779687625881</v>
+        <v>3.349869546116698</v>
       </c>
       <c r="E28">
-        <v>2153.000886085656</v>
+        <v>2113.906838884689</v>
       </c>
       <c r="F28">
         <v>268300211704.0576</v>
       </c>
       <c r="G28">
-        <v>47809.47094669527</v>
+        <v>46766.37601786239</v>
       </c>
       <c r="H28">
-        <v>796627744239.3857</v>
+        <v>777373688173.0034</v>
       </c>
       <c r="I28">
         <v>6.085499329208853</v>
@@ -1244,28 +1244,28 @@
         <v>2017</v>
       </c>
       <c r="B29">
-        <v>66.74027625472365</v>
+        <v>66.72501836138757</v>
       </c>
       <c r="C29">
-        <v>2.890655339587727</v>
+        <v>2.868864625750222</v>
       </c>
       <c r="D29">
-        <v>3.415766773460958</v>
+        <v>3.381331020325274</v>
       </c>
       <c r="E29">
-        <v>2133.509215134108</v>
+        <v>2099.287079440452</v>
       </c>
       <c r="F29">
         <v>273227780611.5049</v>
       </c>
       <c r="G29">
-        <v>48510.01010601427</v>
+        <v>47564.36613965017</v>
       </c>
       <c r="H29">
-        <v>819924914198.7043</v>
+        <v>802193315653.9518</v>
       </c>
       <c r="I29">
-        <v>5.798737462442746</v>
+        <v>5.798737462442747</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2018</v>
       </c>
       <c r="B30">
-        <v>66.55950781501757</v>
+        <v>66.55022956886918</v>
       </c>
       <c r="C30">
-        <v>2.931334804073324</v>
+        <v>2.911002914040248</v>
       </c>
       <c r="D30">
-        <v>3.515648342672821</v>
+        <v>3.482674523136828</v>
       </c>
       <c r="E30">
-        <v>2121.452572318703</v>
+        <v>2091.320965961233</v>
       </c>
       <c r="F30">
         <v>281383629855.2997</v>
       </c>
       <c r="G30">
-        <v>49497.43137320488</v>
+        <v>48633.52834283574</v>
       </c>
       <c r="H30">
-        <v>848704211863.9333</v>
+        <v>832262111990.6453</v>
       </c>
       <c r="I30">
-        <v>5.77727182456784</v>
+        <v>5.777271824567839</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2019</v>
       </c>
       <c r="B31">
-        <v>66.3602907674984</v>
+        <v>66.35623906453279</v>
       </c>
       <c r="C31">
-        <v>2.972891614093306</v>
+        <v>2.953942247740556</v>
       </c>
       <c r="D31">
-        <v>3.435496897242812</v>
+        <v>3.407873079541588</v>
       </c>
       <c r="E31">
-        <v>2099.865418928516</v>
+        <v>2073.534621900017</v>
       </c>
       <c r="F31">
-        <v>289457061790.9262</v>
+        <v>289457061790.9263</v>
       </c>
       <c r="G31">
-        <v>50107.4911549368</v>
+        <v>49326.67445229884</v>
       </c>
       <c r="H31">
-        <v>869620112484.712</v>
+        <v>854563344238.9895</v>
       </c>
       <c r="I31">
-        <v>5.615118064276128</v>
+        <v>5.615118064276127</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2020</v>
       </c>
       <c r="B32">
-        <v>66.14936421299791</v>
+        <v>66.1497119581019</v>
       </c>
       <c r="C32">
-        <v>3.014421599968278</v>
+        <v>2.996796626964615</v>
       </c>
       <c r="D32">
-        <v>3.206327906096677</v>
+        <v>3.186060092950674</v>
       </c>
       <c r="E32">
-        <v>1998.208058436858</v>
+        <v>1976.701942253583</v>
       </c>
       <c r="F32">
-        <v>294955592928.1411</v>
+        <v>294955592928.1412</v>
       </c>
       <c r="G32">
-        <v>50285.29975455878</v>
+        <v>49587.77189203679</v>
       </c>
       <c r="H32">
-        <v>882096485441.7531</v>
+        <v>868476372676.0817</v>
       </c>
       <c r="I32">
-        <v>5.65111420964366</v>
+        <v>5.651114209643661</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1360,25 +1360,25 @@
         <v>2021</v>
       </c>
       <c r="B33">
-        <v>65.92675680064372</v>
+        <v>65.93077270990446</v>
       </c>
       <c r="C33">
-        <v>3.014421599968278</v>
+        <v>2.996796626964615</v>
       </c>
       <c r="D33">
-        <v>3.206327906096677</v>
+        <v>3.186060092950674</v>
       </c>
       <c r="E33">
-        <v>1998.208058436858</v>
+        <v>1976.701942253583</v>
       </c>
       <c r="F33">
-        <v>306040781384.3671</v>
+        <v>306040781384.3672</v>
       </c>
       <c r="G33">
-        <v>51372.78687675538</v>
+        <v>50734.45788919998</v>
       </c>
       <c r="H33">
-        <v>909735722147.6783</v>
+        <v>897164895958.3997</v>
       </c>
       <c r="I33">
         <v>5.565623775405053</v>
@@ -1431,19 +1431,19 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>57.97944370213111</v>
+        <v>57.9794437021311</v>
       </c>
       <c r="C2">
         <v>14.44029556815272</v>
       </c>
       <c r="D2">
-        <v>0.804992588829738</v>
+        <v>0.8049925888297378</v>
       </c>
       <c r="E2">
         <v>588.200012207</v>
       </c>
       <c r="F2">
-        <v>93051936803.53667</v>
+        <v>93051936803.53665</v>
       </c>
       <c r="G2">
         <v>1966.903626442022</v>
@@ -1452,7 +1452,7 @@
         <v>185449993606.2382</v>
       </c>
       <c r="I2">
-        <v>29.94925716914292</v>
+        <v>29.94925716914291</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1460,13 +1460,13 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>58.10012592737773</v>
+        <v>58.10012592737771</v>
       </c>
       <c r="C3">
         <v>14.62237672357245</v>
       </c>
       <c r="D3">
-        <v>0.895836055271095</v>
+        <v>0.8958360552710949</v>
       </c>
       <c r="E3">
         <v>618.2000186657831</v>
@@ -1475,7 +1475,7 @@
         <v>98542118430.82996</v>
       </c>
       <c r="G3">
-        <v>2030.977203196404</v>
+        <v>2030.977203196403</v>
       </c>
       <c r="H3">
         <v>195116392922.2778</v>
@@ -1489,7 +1489,7 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>58.23489389184231</v>
+        <v>58.2348938918423</v>
       </c>
       <c r="C4">
         <v>14.81340942404421</v>
@@ -1501,7 +1501,7 @@
         <v>661.6361297508347</v>
       </c>
       <c r="F4">
-        <v>104846741444.7002</v>
+        <v>104846741444.7001</v>
       </c>
       <c r="G4">
         <v>2073.416653686789</v>
@@ -1527,7 +1527,7 @@
         <v>0.9282599363785757</v>
       </c>
       <c r="E5">
-        <v>670.6302913209313</v>
+        <v>670.6302913209312</v>
       </c>
       <c r="F5">
         <v>97591948801.97601</v>
@@ -1536,7 +1536,7 @@
         <v>1893.819319839666</v>
       </c>
       <c r="H5">
-        <v>193697724859.242</v>
+        <v>193697724859.2421</v>
       </c>
       <c r="I5">
         <v>31.96205941340536</v>
@@ -1547,7 +1547,7 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>58.53145811276156</v>
+        <v>58.53145811276157</v>
       </c>
       <c r="C6">
         <v>15.21835143476535</v>
@@ -1559,16 +1559,16 @@
         <v>710.7523651868381</v>
       </c>
       <c r="F6">
-        <v>94981530217.25871</v>
+        <v>94981530217.2587</v>
       </c>
       <c r="G6">
         <v>1776.460641546395</v>
       </c>
       <c r="H6">
-        <v>186391898463.415</v>
+        <v>186391898463.4151</v>
       </c>
       <c r="I6">
-        <v>34.2712467176333</v>
+        <v>34.27124671763331</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1579,22 +1579,22 @@
         <v>58.69031606493996</v>
       </c>
       <c r="C7">
-        <v>15.42967476035181</v>
+        <v>15.4296747603518</v>
       </c>
       <c r="D7">
         <v>0.8882432542679786</v>
       </c>
       <c r="E7">
-        <v>754.1488448404913</v>
+        <v>754.1488448404911</v>
       </c>
       <c r="F7">
-        <v>91003248638.21613</v>
+        <v>91003248638.21609</v>
       </c>
       <c r="G7">
         <v>1672.700641539544</v>
       </c>
       <c r="H7">
-        <v>176433431949.152</v>
+        <v>176433431949.1521</v>
       </c>
       <c r="I7">
         <v>32.47170291984406</v>
@@ -1605,19 +1605,19 @@
         <v>1986</v>
       </c>
       <c r="B8">
-        <v>58.83973635502756</v>
+        <v>58.83973635502757</v>
       </c>
       <c r="C8">
         <v>15.64549979791241</v>
       </c>
       <c r="D8">
-        <v>0.7445650153624468</v>
+        <v>0.7445650153624467</v>
       </c>
       <c r="E8">
         <v>805.4816671332053</v>
       </c>
       <c r="F8">
-        <v>90945785637.90271</v>
+        <v>90945785637.90268</v>
       </c>
       <c r="G8">
         <v>1651.083478562163</v>
@@ -1640,10 +1640,10 @@
         <v>15.8652514976396</v>
       </c>
       <c r="D9">
-        <v>0.6987771040259528</v>
+        <v>0.6987771040259527</v>
       </c>
       <c r="E9">
-        <v>843.2558131117206</v>
+        <v>843.2558131117207</v>
       </c>
       <c r="F9">
         <v>92932842624.54953</v>
@@ -1663,28 +1663,28 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>59.15863555425994</v>
+        <v>59.15863555425992</v>
       </c>
       <c r="C10">
         <v>16.08857161897359</v>
       </c>
       <c r="D10">
-        <v>0.7639019322172119</v>
+        <v>0.7639019322172117</v>
       </c>
       <c r="E10">
-        <v>865.6986714699763</v>
+        <v>865.6986714699764</v>
       </c>
       <c r="F10">
-        <v>95721270368.52664</v>
+        <v>95721270368.52663</v>
       </c>
       <c r="G10">
         <v>1681.871285158689</v>
       </c>
       <c r="H10">
-        <v>181582017977.1679</v>
+        <v>181582017977.168</v>
       </c>
       <c r="I10">
-        <v>29.97859216772501</v>
+        <v>29.978592167725</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1692,13 +1692,13 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>59.33557879251426</v>
+        <v>59.33557879251423</v>
       </c>
       <c r="C11">
         <v>16.31533988988851</v>
       </c>
       <c r="D11">
-        <v>0.693892780891545</v>
+        <v>0.6938927808915448</v>
       </c>
       <c r="E11">
         <v>910.8060888484158</v>
@@ -1710,7 +1710,7 @@
         <v>1792.113941744396</v>
       </c>
       <c r="H11">
-        <v>191180446552.1799</v>
+        <v>191180446552.1798</v>
       </c>
       <c r="I11">
         <v>29.26089572859051</v>
@@ -1730,19 +1730,19 @@
         <v>0.6267837153889414</v>
       </c>
       <c r="E12">
-        <v>936.8708381066969</v>
+        <v>936.8708381066971</v>
       </c>
       <c r="F12">
         <v>107853429372.6698</v>
       </c>
       <c r="G12">
-        <v>1918.506427271431</v>
+        <v>1918.506427271432</v>
       </c>
       <c r="H12">
-        <v>208827180064.5034</v>
+        <v>208827180064.5035</v>
       </c>
       <c r="I12">
-        <v>22.82812987817548</v>
+        <v>22.82812987817549</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1759,16 +1759,16 @@
         <v>0.582252164774663</v>
       </c>
       <c r="E13">
-        <v>946.8670008397252</v>
+        <v>946.8670008397249</v>
       </c>
       <c r="F13">
-        <v>107997183813.9955</v>
+        <v>107997183813.9956</v>
       </c>
       <c r="G13">
         <v>1968.280934105186</v>
       </c>
       <c r="H13">
-        <v>218094181593.9361</v>
+        <v>218094181593.9362</v>
       </c>
       <c r="I13">
         <v>21.83906737688613</v>
@@ -1779,25 +1779,25 @@
         <v>1992</v>
       </c>
       <c r="B14">
-        <v>59.94978248318461</v>
+        <v>59.94978248318462</v>
       </c>
       <c r="C14">
-        <v>17.01548044262723</v>
+        <v>17.01548044262722</v>
       </c>
       <c r="D14">
         <v>0.5887014344441257</v>
       </c>
       <c r="E14">
-        <v>974.5627578337834</v>
+        <v>974.5627578337832</v>
       </c>
       <c r="F14">
         <v>108564093209.745</v>
       </c>
       <c r="G14">
-        <v>1990.730780148312</v>
+        <v>1990.730780148313</v>
       </c>
       <c r="H14">
-        <v>223706165431.7807</v>
+        <v>223706165431.7808</v>
       </c>
       <c r="I14">
         <v>23.30859761087759</v>
@@ -1826,7 +1826,7 @@
         <v>2039.601401614884</v>
       </c>
       <c r="H15">
-        <v>232271208240.1211</v>
+        <v>232271208240.1212</v>
       </c>
       <c r="I15">
         <v>26.04973651086909</v>
@@ -1843,7 +1843,7 @@
         <v>17.49732010969391</v>
       </c>
       <c r="D16">
-        <v>0.5599722807195594</v>
+        <v>0.5599722807195595</v>
       </c>
       <c r="E16">
         <v>1077.06728228633</v>
@@ -1866,7 +1866,7 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>60.6948179855747</v>
+        <v>60.69481798557469</v>
       </c>
       <c r="C17">
         <v>17.74300273329708</v>
@@ -1884,7 +1884,7 @@
         <v>2537.68160205198</v>
       </c>
       <c r="H17">
-        <v>307057363896.1133</v>
+        <v>307057363896.1134</v>
       </c>
       <c r="I17">
         <v>14.54227915106878</v>
@@ -1901,7 +1901,7 @@
         <v>17.99209167666523</v>
       </c>
       <c r="D18">
-        <v>0.6849842526307559</v>
+        <v>0.6849842526307558</v>
       </c>
       <c r="E18">
         <v>1206.839284682198</v>
@@ -1924,22 +1924,22 @@
         <v>1997</v>
       </c>
       <c r="B19">
-        <v>61.27926681954603</v>
+        <v>61.27926681954602</v>
       </c>
       <c r="C19">
         <v>18.24456070193941</v>
       </c>
       <c r="D19">
-        <v>0.8687419315670455</v>
+        <v>0.8687419315670456</v>
       </c>
       <c r="E19">
-        <v>1279.950316690565</v>
+        <v>1279.950316690564</v>
       </c>
       <c r="F19">
         <v>145262898317.6623</v>
       </c>
       <c r="G19">
-        <v>3175.13801336641</v>
+        <v>3175.138013366411</v>
       </c>
       <c r="H19">
         <v>408834172040.178</v>
@@ -1953,7 +1953,7 @@
         <v>1998</v>
       </c>
       <c r="B20">
-        <v>61.59961097272893</v>
+        <v>61.59961097272892</v>
       </c>
       <c r="C20">
         <v>18.50008832987712</v>
@@ -1962,16 +1962,16 @@
         <v>1.174029726066524</v>
       </c>
       <c r="E20">
-        <v>1324.759009303644</v>
+        <v>1324.759009303643</v>
       </c>
       <c r="F20">
         <v>150916260179.9922</v>
       </c>
       <c r="G20">
-        <v>3411.245612786298</v>
+        <v>3411.245612786299</v>
       </c>
       <c r="H20">
-        <v>448168704007.1182</v>
+        <v>448168704007.1183</v>
       </c>
       <c r="I20">
         <v>12.1551371940101</v>
@@ -1982,7 +1982,7 @@
         <v>1999</v>
       </c>
       <c r="B21">
-        <v>61.93541767299883</v>
+        <v>61.93541767299882</v>
       </c>
       <c r="C21">
         <v>18.7580120749091</v>
@@ -1991,7 +1991,7 @@
         <v>1.607774086458193</v>
       </c>
       <c r="E21">
-        <v>1341.591105060194</v>
+        <v>1341.591105060193</v>
       </c>
       <c r="F21">
         <v>148416707503.0609</v>
@@ -2000,7 +2000,7 @@
         <v>3419.604113757096</v>
       </c>
       <c r="H21">
-        <v>455273107752.8574</v>
+        <v>455273107752.8576</v>
       </c>
       <c r="I21">
         <v>12.3085333305115</v>
@@ -2011,7 +2011,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>62.28189411285898</v>
+        <v>62.28189411285896</v>
       </c>
       <c r="C22">
         <v>19.0174673092937</v>
@@ -2026,10 +2026,10 @@
         <v>148703279214.5289</v>
       </c>
       <c r="G22">
-        <v>3459.379833210768</v>
+        <v>3459.379833210767</v>
       </c>
       <c r="H22">
-        <v>466244874936.8906</v>
+        <v>466244874936.8908</v>
       </c>
       <c r="I22">
         <v>13.13465959355212</v>
@@ -2040,7 +2040,7 @@
         <v>2001</v>
       </c>
       <c r="B23">
-        <v>62.62623036062954</v>
+        <v>62.62623036062953</v>
       </c>
       <c r="C23">
         <v>19.27762826293197</v>
@@ -2087,7 +2087,7 @@
         <v>3354.734414606806</v>
       </c>
       <c r="H24">
-        <v>460487628628.7728</v>
+        <v>460487628628.7729</v>
       </c>
       <c r="I24">
         <v>12.35696266737341</v>
@@ -2098,7 +2098,7 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>63.31467086580792</v>
+        <v>63.3146708658079</v>
       </c>
       <c r="C25">
         <v>19.79721220392643</v>
@@ -2116,7 +2116,7 @@
         <v>3321.429919048172</v>
       </c>
       <c r="H25">
-        <v>459462244190.3141</v>
+        <v>459462244190.3142</v>
       </c>
       <c r="I25">
         <v>14.45076456305325</v>
@@ -2127,7 +2127,7 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>63.65880999885196</v>
+        <v>63.65880999885194</v>
       </c>
       <c r="C26">
         <v>20.05520282606226</v>
@@ -2142,10 +2142,10 @@
         <v>143342624496.6905</v>
       </c>
       <c r="G26">
-        <v>3358.172024035403</v>
+        <v>3358.172024035402</v>
       </c>
       <c r="H26">
-        <v>467266471979.935</v>
+        <v>467266471979.9351</v>
       </c>
       <c r="I26">
         <v>15.09953015638708</v>
@@ -2156,7 +2156,7 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>64.00255917134334</v>
+        <v>64.00255917134332</v>
       </c>
       <c r="C27">
         <v>20.3110808150638</v>
@@ -2174,7 +2174,7 @@
         <v>3523.722990335596</v>
       </c>
       <c r="H27">
-        <v>495080853976.7905</v>
+        <v>495080853976.7906</v>
       </c>
       <c r="I27">
         <v>14.73828114102268</v>
@@ -2185,7 +2185,7 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>64.34772847109146</v>
+        <v>64.34772847109147</v>
       </c>
       <c r="C28">
         <v>20.56418411558038</v>
@@ -2194,16 +2194,16 @@
         <v>2.232148642268413</v>
       </c>
       <c r="E28">
-        <v>1438.951997211478</v>
+        <v>1438.951997211477</v>
       </c>
       <c r="F28">
-        <v>164226068226.4986</v>
+        <v>164226068226.4987</v>
       </c>
       <c r="G28">
         <v>3795.29582029533</v>
       </c>
       <c r="H28">
-        <v>539359656681.5369</v>
+        <v>539359656681.537</v>
       </c>
       <c r="I28">
         <v>14.10894587564269</v>
@@ -2223,16 +2223,16 @@
         <v>2.341800173665176</v>
       </c>
       <c r="E29">
-        <v>1443.398551331354</v>
+        <v>1443.398551331353</v>
       </c>
       <c r="F29">
-        <v>182396354714.699</v>
+        <v>182396354714.6991</v>
       </c>
       <c r="G29">
         <v>4201.668030940148</v>
       </c>
       <c r="H29">
-        <v>603619078232.5283</v>
+        <v>603619078232.5286</v>
       </c>
       <c r="I29">
         <v>14.1542648058524</v>
@@ -2246,10 +2246,10 @@
         <v>65.03436019725812</v>
       </c>
       <c r="C30">
-        <v>21.06008377390752</v>
+        <v>21.06008377390751</v>
       </c>
       <c r="D30">
-        <v>2.415686069851728</v>
+        <v>2.415686069851729</v>
       </c>
       <c r="E30">
         <v>1484.812295733213</v>
@@ -2258,10 +2258,10 @@
         <v>206208160091.0981</v>
       </c>
       <c r="G30">
-        <v>4728.874097304294</v>
+        <v>4728.874097304293</v>
       </c>
       <c r="H30">
-        <v>686616332927.0349</v>
+        <v>686616332927.035</v>
       </c>
       <c r="I30">
         <v>13.95517690387126</v>
@@ -2290,7 +2290,7 @@
         <v>5167.761501086286</v>
       </c>
       <c r="H31">
-        <v>763048405449.1594</v>
+        <v>763048405449.1595</v>
       </c>
       <c r="I31">
         <v>13.05946215179974</v>
@@ -2316,10 +2316,10 @@
         <v>256946912531.0932</v>
       </c>
       <c r="G32">
-        <v>5859.439141998546</v>
+        <v>5859.439141998545</v>
       </c>
       <c r="H32">
-        <v>874654964786.454</v>
+        <v>874654964786.4542</v>
       </c>
       <c r="I32">
         <v>12.72185960924913</v>
@@ -2330,10 +2330,10 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>66.0430468747393</v>
+        <v>66.04304687473933</v>
       </c>
       <c r="C33">
-        <v>21.77700281498143</v>
+        <v>21.77700281498144</v>
       </c>
       <c r="D33">
         <v>2.669461487368633</v>
@@ -2359,10 +2359,10 @@
         <v>2012</v>
       </c>
       <c r="B34">
-        <v>66.36728906565928</v>
+        <v>66.36728906565931</v>
       </c>
       <c r="C34">
-        <v>22.00928180710202</v>
+        <v>22.00928180710203</v>
       </c>
       <c r="D34">
         <v>2.791474365346648</v>
@@ -2374,7 +2374,7 @@
         <v>324154406978.4334</v>
       </c>
       <c r="G34">
-        <v>7330.143431270038</v>
+        <v>7330.143431270039</v>
       </c>
       <c r="H34">
         <v>1116966359823.312</v>
@@ -2388,7 +2388,7 @@
         <v>2013</v>
       </c>
       <c r="B35">
-        <v>66.68216251535658</v>
+        <v>66.68216251535661</v>
       </c>
       <c r="C35">
         <v>22.23841738751065</v>
@@ -2400,10 +2400,10 @@
         <v>1479.420128756364</v>
       </c>
       <c r="F35">
-        <v>346659144424.9863</v>
+        <v>346659144424.9865</v>
       </c>
       <c r="G35">
-        <v>7887.471791051108</v>
+        <v>7887.471791051109</v>
       </c>
       <c r="H35">
         <v>1215230445637.072</v>
@@ -2417,7 +2417,7 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>66.98522354847181</v>
+        <v>66.98522354847184</v>
       </c>
       <c r="C36">
         <v>22.46455768861505</v>
@@ -2429,13 +2429,13 @@
         <v>1492.551362945261</v>
       </c>
       <c r="F36">
-        <v>364131837623.696</v>
+        <v>364131837623.6959</v>
       </c>
       <c r="G36">
         <v>8360.266021504445</v>
       </c>
       <c r="H36">
-        <v>1304914147709.545</v>
+        <v>1304914147709.544</v>
       </c>
       <c r="I36">
         <v>10.33709739950734</v>
@@ -2446,22 +2446,22 @@
         <v>2015</v>
       </c>
       <c r="B37">
-        <v>67.27346680374724</v>
+        <v>67.27346680374725</v>
       </c>
       <c r="C37">
         <v>22.68783720004547</v>
       </c>
       <c r="D37">
-        <v>2.980533160873305</v>
+        <v>2.980533160873306</v>
       </c>
       <c r="E37">
         <v>1492.706338104325</v>
       </c>
       <c r="F37">
-        <v>362431712833.8875</v>
+        <v>362431712833.8876</v>
       </c>
       <c r="G37">
-        <v>8410.939153579748</v>
+        <v>8410.939153579749</v>
       </c>
       <c r="H37">
         <v>1327729523553.094</v>
@@ -2475,7 +2475,7 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>67.53830378637478</v>
+        <v>67.5383037863748</v>
       </c>
       <c r="C38">
         <v>22.90840843916354</v>
@@ -2487,10 +2487,10 @@
         <v>1495.061844426917</v>
       </c>
       <c r="F38">
-        <v>358770596107.4383</v>
+        <v>358770596107.4384</v>
       </c>
       <c r="G38">
-        <v>8444.290045553995</v>
+        <v>8444.290045553997</v>
       </c>
       <c r="H38">
         <v>1349134323326.89</v>
@@ -2504,7 +2504,7 @@
         <v>2017</v>
       </c>
       <c r="B39">
-        <v>67.78015062984421</v>
+        <v>67.78015062984423</v>
       </c>
       <c r="C39">
         <v>23.12634877138024</v>
@@ -2516,10 +2516,10 @@
         <v>1521.946321135618</v>
       </c>
       <c r="F39">
-        <v>360613288820.9044</v>
+        <v>360613288820.9045</v>
       </c>
       <c r="G39">
-        <v>8609.544794734607</v>
+        <v>8609.544794734611</v>
       </c>
       <c r="H39">
         <v>1393416319211.512</v>
@@ -2536,10 +2536,10 @@
         <v>67.99839217160424</v>
       </c>
       <c r="C40">
-        <v>23.34152464111732</v>
+        <v>23.3415246411173</v>
       </c>
       <c r="D40">
-        <v>3.239770314598545</v>
+        <v>3.239770314598544</v>
       </c>
       <c r="E40">
         <v>1557.935762747051</v>
@@ -2548,7 +2548,7 @@
         <v>360479159927.5265</v>
       </c>
       <c r="G40">
-        <v>8669.786753717555</v>
+        <v>8669.786753717553</v>
       </c>
       <c r="H40">
         <v>1418610667181.579</v>
@@ -2565,7 +2565,7 @@
         <v>68.19170838509378</v>
       </c>
       <c r="C41">
-        <v>23.55354665068498</v>
+        <v>23.55354665068497</v>
       </c>
       <c r="D41">
         <v>3.290065113676389</v>
@@ -2577,7 +2577,7 @@
         <v>359462949359.974</v>
       </c>
       <c r="G41">
-        <v>8692.693344014669</v>
+        <v>8692.693344014668</v>
       </c>
       <c r="H41">
         <v>1438163779052.4</v>
@@ -2594,7 +2594,7 @@
         <v>68.35886476153669</v>
       </c>
       <c r="C42">
-        <v>23.76186599832765</v>
+        <v>23.76186599832764</v>
       </c>
       <c r="D42">
         <v>3.214460199801272</v>
@@ -2623,7 +2623,7 @@
         <v>68.49760025744008</v>
       </c>
       <c r="C43">
-        <v>23.76186599832765</v>
+        <v>23.76186599832764</v>
       </c>
       <c r="D43">
         <v>3.214460199801272</v>
@@ -2703,37 +2703,37 @@
         <v>1997</v>
       </c>
       <c r="B2">
-        <v>32.66999816894531</v>
+        <v>32.56783864289992</v>
       </c>
       <c r="C2">
-        <v>1.61386001110077</v>
+        <v>1.613016703365986</v>
       </c>
       <c r="D2">
-        <v>3132.903076171881</v>
+        <v>3103.815007873857</v>
       </c>
       <c r="E2">
-        <v>67.75619383813981</v>
+        <v>67.94617835373067</v>
       </c>
       <c r="F2">
-        <v>3.335636360797227</v>
+        <v>3.115985972405109</v>
       </c>
       <c r="G2">
-        <v>2.317969734519727</v>
+        <v>1.395132866728147</v>
       </c>
       <c r="H2">
-        <v>1956.5</v>
+        <v>1360.011573510971</v>
       </c>
       <c r="I2">
-        <v>181539072656.363</v>
+        <v>181539072656.3629</v>
       </c>
       <c r="J2">
-        <v>21901.56285483925</v>
+        <v>19074.07100309671</v>
       </c>
       <c r="K2">
-        <v>502570417449.0829</v>
+        <v>421408881326.9734</v>
       </c>
       <c r="L2">
-        <v>23.0599994659424</v>
+        <v>22.9631029087563</v>
       </c>
       <c r="M2">
         <v>16.0447460841663</v>
@@ -2744,37 +2744,37 @@
         <v>1998</v>
       </c>
       <c r="B3">
-        <v>32.78518205413016</v>
+        <v>32.62257126309881</v>
       </c>
       <c r="C3">
-        <v>1.664462107638414</v>
+        <v>1.648622894564877</v>
       </c>
       <c r="D3">
-        <v>3153.093378037063</v>
+        <v>3128.522485636</v>
       </c>
       <c r="E3">
-        <v>67.83771156324262</v>
+        <v>67.94247560859834</v>
       </c>
       <c r="F3">
-        <v>3.350190260004497</v>
+        <v>3.142709626082861</v>
       </c>
       <c r="G3">
-        <v>3.167167893083308</v>
+        <v>1.669963960769272</v>
       </c>
       <c r="H3">
-        <v>1877.547094854398</v>
+        <v>1408.144537551924</v>
       </c>
       <c r="I3">
         <v>175564022749.3705</v>
       </c>
       <c r="J3">
-        <v>21442.41218147025</v>
+        <v>19284.720479473</v>
       </c>
       <c r="K3">
-        <v>494770406407.657</v>
+        <v>428565135665.5965</v>
       </c>
       <c r="L3">
-        <v>23.09141379750837</v>
+        <v>22.98975865414262</v>
       </c>
       <c r="M3">
         <v>16.25312719621408</v>
@@ -2785,37 +2785,37 @@
         <v>1999</v>
       </c>
       <c r="B4">
-        <v>32.82346310139588</v>
+        <v>32.66464395172151</v>
       </c>
       <c r="C4">
-        <v>1.695647209378795</v>
+        <v>1.677613924976641</v>
       </c>
       <c r="D4">
-        <v>3190.471879584828</v>
+        <v>3164.870975367421</v>
       </c>
       <c r="E4">
-        <v>67.93062473047857</v>
+        <v>67.95835072388196</v>
       </c>
       <c r="F4">
-        <v>3.365052716046674</v>
+        <v>3.169037985017173</v>
       </c>
       <c r="G4">
-        <v>3.488535172059189</v>
+        <v>1.922149129916096</v>
       </c>
       <c r="H4">
-        <v>1879.027274808198</v>
+        <v>1458.372313725533</v>
       </c>
       <c r="I4">
         <v>180502212339.517</v>
       </c>
       <c r="J4">
-        <v>21761.18596317444</v>
+        <v>19606.22189041163</v>
       </c>
       <c r="K4">
-        <v>501306453302.7531</v>
+        <v>437487279215.5469</v>
       </c>
       <c r="L4">
-        <v>23.10185426415496</v>
+        <v>23.01024879094896</v>
       </c>
       <c r="M4">
         <v>17.07630687844336</v>
@@ -2826,37 +2826,37 @@
         <v>2000</v>
       </c>
       <c r="B5">
-        <v>32.9570775840122</v>
+        <v>32.75682150244403</v>
       </c>
       <c r="C5">
-        <v>1.742281834254751</v>
+        <v>1.720910032446511</v>
       </c>
       <c r="D5">
-        <v>3286.990432040493</v>
+        <v>3251.673806262831</v>
       </c>
       <c r="E5">
-        <v>68.0282070092959</v>
+        <v>67.99103033816336</v>
       </c>
       <c r="F5">
-        <v>3.3815372655734</v>
+        <v>3.195513065140823</v>
       </c>
       <c r="G5">
-        <v>5.115976335518153</v>
+        <v>2.678989496347998</v>
       </c>
       <c r="H5">
-        <v>1883.920841582331</v>
+        <v>1504.076036175732</v>
       </c>
       <c r="I5">
         <v>191730711474.3905</v>
       </c>
       <c r="J5">
-        <v>22479.98681617797</v>
+        <v>20093.26213510752</v>
       </c>
       <c r="K5">
-        <v>514810656977.0899</v>
+        <v>449073579313.1974</v>
       </c>
       <c r="L5">
-        <v>23.15573867977497</v>
+        <v>23.05148422470206</v>
       </c>
       <c r="M5">
         <v>17.02443712519088</v>
@@ -2867,37 +2867,37 @@
         <v>2001</v>
       </c>
       <c r="B6">
-        <v>32.98889687658176</v>
+        <v>32.8032660862226</v>
       </c>
       <c r="C6">
-        <v>1.809042664124698</v>
+        <v>1.783445244967081</v>
       </c>
       <c r="D6">
-        <v>3387.824453801563</v>
+        <v>3346.758100487452</v>
       </c>
       <c r="E6">
-        <v>68.1387512429104</v>
+        <v>68.04238647428647</v>
       </c>
       <c r="F6">
-        <v>3.400318793020999</v>
+        <v>3.222734939195372</v>
       </c>
       <c r="G6">
-        <v>4.810990277963038</v>
+        <v>2.798684289308601</v>
       </c>
       <c r="H6">
-        <v>1842.242529093149</v>
+        <v>1525.251519864266</v>
       </c>
       <c r="I6">
         <v>196157221919.463</v>
       </c>
       <c r="J6">
-        <v>22801.25523202907</v>
+        <v>20477.04878868051</v>
       </c>
       <c r="K6">
-        <v>523547032590.3588</v>
+        <v>459595872291.8682</v>
       </c>
       <c r="L6">
-        <v>23.13282041925713</v>
+        <v>23.0526712360397</v>
       </c>
       <c r="M6">
         <v>16.03874062392151</v>
@@ -2908,37 +2908,37 @@
         <v>2002</v>
       </c>
       <c r="B7">
-        <v>33.06618676210144</v>
+        <v>32.87722076423172</v>
       </c>
       <c r="C7">
-        <v>1.842921431829341</v>
+        <v>1.81850827926491</v>
       </c>
       <c r="D7">
-        <v>3456.852178451441</v>
+        <v>3416.133658801358</v>
       </c>
       <c r="E7">
-        <v>68.25266964145447</v>
+        <v>68.10775719950354</v>
       </c>
       <c r="F7">
-        <v>3.420626768779385</v>
+        <v>3.25068746784029</v>
       </c>
       <c r="G7">
-        <v>4.479456744034006</v>
+        <v>2.841408288188882</v>
       </c>
       <c r="H7">
-        <v>1787.21428190015</v>
+        <v>1530.61412601378</v>
       </c>
       <c r="I7">
         <v>198985051834.458</v>
       </c>
       <c r="J7">
-        <v>23104.0976057791</v>
+        <v>20860.96723010999</v>
       </c>
       <c r="K7">
-        <v>534575237782.582</v>
+        <v>471474540575.0936</v>
       </c>
       <c r="L7">
-        <v>23.15305994423755</v>
+        <v>23.07622691153367</v>
       </c>
       <c r="M7">
         <v>15.70905941004635</v>
@@ -2949,37 +2949,37 @@
         <v>2003</v>
       </c>
       <c r="B8">
-        <v>33.07434679575036</v>
+        <v>32.90687226238255</v>
       </c>
       <c r="C8">
-        <v>1.866181091569705</v>
+        <v>1.843873493247595</v>
       </c>
       <c r="D8">
-        <v>3541.9087574357</v>
+        <v>3500.640567521996</v>
       </c>
       <c r="E8">
-        <v>68.36711586469086</v>
+        <v>68.1840365151276</v>
       </c>
       <c r="F8">
-        <v>3.440903218551935</v>
+        <v>3.278692646717146</v>
       </c>
       <c r="G8">
-        <v>3.791010570817985</v>
+        <v>2.634647474227677</v>
       </c>
       <c r="H8">
-        <v>1733.032900803386</v>
+        <v>1527.167130045143</v>
       </c>
       <c r="I8">
         <v>208471752777.4044</v>
       </c>
       <c r="J8">
-        <v>24071.88562141479</v>
+        <v>21608.23004720677</v>
       </c>
       <c r="K8">
-        <v>561059189856.5359</v>
+        <v>492096129425.0198</v>
       </c>
       <c r="L8">
-        <v>23.11896613674387</v>
+        <v>23.06269563946059</v>
       </c>
       <c r="M8">
         <v>14.66325348159223</v>
@@ -2990,37 +2990,37 @@
         <v>2004</v>
       </c>
       <c r="B9">
-        <v>33.1109847634457</v>
+        <v>32.95391667213568</v>
       </c>
       <c r="C9">
-        <v>1.888463969971657</v>
+        <v>1.868017352450567</v>
       </c>
       <c r="D9">
-        <v>3636.384941007966</v>
+        <v>3594.619692028753</v>
       </c>
       <c r="E9">
-        <v>68.48218497343314</v>
+        <v>68.26956488715918</v>
       </c>
       <c r="F9">
-        <v>3.461575606012826</v>
+        <v>3.306913300337644</v>
       </c>
       <c r="G9">
-        <v>3.170981145758872</v>
+        <v>2.386807735421389</v>
       </c>
       <c r="H9">
-        <v>1720.043974133612</v>
+        <v>1540.031577756755</v>
       </c>
       <c r="I9">
         <v>222575716580.8365</v>
       </c>
       <c r="J9">
-        <v>25443.22132125171</v>
+        <v>22655.5278197726</v>
       </c>
       <c r="K9">
-        <v>595052268464.1143</v>
+        <v>518841501691.6512</v>
       </c>
       <c r="L9">
-        <v>23.10724919368124</v>
+        <v>23.06113664680369</v>
       </c>
       <c r="M9">
         <v>14.29554309123741</v>
@@ -3031,37 +3031,37 @@
         <v>2005</v>
       </c>
       <c r="B10">
-        <v>33.10139031616298</v>
+        <v>32.96534008592121</v>
       </c>
       <c r="C10">
-        <v>1.901491286496281</v>
+        <v>1.88323677671095</v>
       </c>
       <c r="D10">
-        <v>3732.929136930513</v>
+        <v>3691.230381593697</v>
       </c>
       <c r="E10">
-        <v>68.59613688012247</v>
+        <v>68.36183497598725</v>
       </c>
       <c r="F10">
-        <v>3.482784966437912</v>
+        <v>3.335421083964366</v>
       </c>
       <c r="G10">
-        <v>3.014787796913335</v>
+        <v>2.366260355011076</v>
       </c>
       <c r="H10">
-        <v>1689.645173993401</v>
+        <v>1538.730395085137</v>
       </c>
       <c r="I10">
         <v>241474089381.8195</v>
       </c>
       <c r="J10">
-        <v>27164.22652968863</v>
+        <v>24007.36914583875</v>
       </c>
       <c r="K10">
-        <v>636868453987.4409</v>
+        <v>552522703613.3978</v>
       </c>
       <c r="L10">
-        <v>23.04160623696955</v>
+        <v>23.01701166544032</v>
       </c>
       <c r="M10">
         <v>13.37476161969874</v>
@@ -3072,37 +3072,37 @@
         <v>2006</v>
       </c>
       <c r="B11">
-        <v>32.99063523763824</v>
+        <v>32.89423544193537</v>
       </c>
       <c r="C11">
-        <v>1.907615564461178</v>
+        <v>1.891573254547713</v>
       </c>
       <c r="D11">
-        <v>3819.917323621261</v>
+        <v>3779.309243049378</v>
       </c>
       <c r="E11">
-        <v>68.70435847289002</v>
+        <v>68.45641195496498</v>
       </c>
       <c r="F11">
-        <v>3.504913256198078</v>
+        <v>3.364471524386026</v>
       </c>
       <c r="G11">
-        <v>3.288850410262444</v>
+        <v>2.611157177783668</v>
       </c>
       <c r="H11">
-        <v>1662.160963948937</v>
+        <v>1535.259300008629</v>
       </c>
       <c r="I11">
         <v>261977642537.7901</v>
       </c>
       <c r="J11">
-        <v>29130.5166877362</v>
+        <v>25618.31156983084</v>
       </c>
       <c r="K11">
-        <v>686248123778.2878</v>
+        <v>593473312493.1473</v>
       </c>
       <c r="L11">
-        <v>22.90428766554379</v>
+        <v>22.91220370685836</v>
       </c>
       <c r="M11">
         <v>12.58334034935793</v>
@@ -3113,37 +3113,37 @@
         <v>2007</v>
       </c>
       <c r="B12">
-        <v>32.8316325190811</v>
+        <v>32.77657735264007</v>
       </c>
       <c r="C12">
-        <v>1.907053006150764</v>
+        <v>1.893168182259654</v>
       </c>
       <c r="D12">
-        <v>3928.017704004435</v>
+        <v>3887.715239465636</v>
       </c>
       <c r="E12">
-        <v>68.80518824631933</v>
+        <v>68.5505382831379</v>
       </c>
       <c r="F12">
-        <v>3.527697683450296</v>
+        <v>3.393921757863976</v>
       </c>
       <c r="G12">
-        <v>3.973534927901461</v>
+        <v>3.152830856539471</v>
       </c>
       <c r="H12">
-        <v>1629.776481191513</v>
+        <v>1525.043510735255</v>
       </c>
       <c r="I12">
         <v>284193117175.0088</v>
       </c>
       <c r="J12">
-        <v>31295.28780461649</v>
+        <v>27463.64759327812</v>
       </c>
       <c r="K12">
-        <v>742058489360.2646</v>
+        <v>641263986233.911</v>
       </c>
       <c r="L12">
-        <v>22.73222990217566</v>
+        <v>22.77223971673651</v>
       </c>
       <c r="M12">
         <v>11.90294486771548</v>
@@ -3154,37 +3154,37 @@
         <v>2008</v>
       </c>
       <c r="B13">
-        <v>32.70787764454601</v>
+        <v>32.67999967408339</v>
       </c>
       <c r="C13">
-        <v>1.900242079052346</v>
+        <v>1.888405676081113</v>
       </c>
       <c r="D13">
-        <v>4032.609649415233</v>
+        <v>3993.144597079775</v>
       </c>
       <c r="E13">
-        <v>68.89434102390894</v>
+        <v>68.63964222791665</v>
       </c>
       <c r="F13">
-        <v>3.551688572352852</v>
+        <v>3.4241795358832</v>
       </c>
       <c r="G13">
-        <v>4.045479482432168</v>
+        <v>3.283946990991024</v>
       </c>
       <c r="H13">
-        <v>1597.74807055232</v>
+        <v>1511.917664261025</v>
       </c>
       <c r="I13">
-        <v>306972644090.5035</v>
+        <v>306972644090.5034</v>
       </c>
       <c r="J13">
-        <v>33342.99172328279</v>
+        <v>29316.07508811747</v>
       </c>
       <c r="K13">
-        <v>796516308366.9731</v>
+        <v>690422030296.5968</v>
       </c>
       <c r="L13">
-        <v>22.56323118483602</v>
+        <v>22.62766251720213</v>
       </c>
       <c r="M13">
         <v>10.6115120938541</v>
@@ -3195,37 +3195,37 @@
         <v>2009</v>
       </c>
       <c r="B14">
-        <v>32.44447130042601</v>
+        <v>32.45968596330284</v>
       </c>
       <c r="C14">
-        <v>1.902430206498004</v>
+        <v>1.891968351768124</v>
       </c>
       <c r="D14">
-        <v>4085.965168026009</v>
+        <v>4049.423469700804</v>
       </c>
       <c r="E14">
-        <v>68.96584160530999</v>
+        <v>68.71769277992414</v>
       </c>
       <c r="F14">
-        <v>3.577062185378366</v>
+        <v>3.455428342020379</v>
       </c>
       <c r="G14">
-        <v>3.724310121121246</v>
+        <v>3.115623569546563</v>
       </c>
       <c r="H14">
-        <v>1565.79988230855</v>
+        <v>1496.137636944601</v>
       </c>
       <c r="I14">
         <v>311778514255.7625</v>
       </c>
       <c r="J14">
-        <v>34302.58586874815</v>
+        <v>30421.79212264698</v>
       </c>
       <c r="K14">
-        <v>834326051358.7029</v>
+        <v>728960711081.6464</v>
       </c>
       <c r="L14">
-        <v>22.27366709992755</v>
+        <v>22.375202306317</v>
       </c>
       <c r="M14">
         <v>10.06119641018396</v>
@@ -3236,37 +3236,37 @@
         <v>2010</v>
       </c>
       <c r="B15">
-        <v>32.22781171149491</v>
+        <v>32.27088328893294</v>
       </c>
       <c r="C15">
-        <v>1.892956918092348</v>
+        <v>1.884039658397231</v>
       </c>
       <c r="D15">
-        <v>4154.769379638838</v>
+        <v>4120.387715034035</v>
       </c>
       <c r="E15">
-        <v>69.01396693194715</v>
+        <v>68.77857153477747</v>
       </c>
       <c r="F15">
-        <v>3.603555384372446</v>
+        <v>3.487518245185063</v>
       </c>
       <c r="G15">
-        <v>3.492598584157697</v>
+        <v>2.994036660835027</v>
       </c>
       <c r="H15">
-        <v>1613.875729102134</v>
+        <v>1540.002010630122</v>
       </c>
       <c r="I15">
         <v>325826905065.5485</v>
       </c>
       <c r="J15">
-        <v>35930.72104227603</v>
+        <v>32052.02408027629</v>
       </c>
       <c r="K15">
-        <v>887723188919.5294</v>
+        <v>780342625350.3243</v>
       </c>
       <c r="L15">
-        <v>22.01290173467958</v>
+        <v>22.13913577594368</v>
       </c>
       <c r="M15">
         <v>10.02715411219138</v>
@@ -3277,40 +3277,40 @@
         <v>2011</v>
       </c>
       <c r="B16">
-        <v>32.01763356783727</v>
+        <v>32.08181253861329</v>
       </c>
       <c r="C16">
-        <v>1.880376172489107</v>
+        <v>1.872842601766542</v>
       </c>
       <c r="D16">
-        <v>4229.113768680001</v>
+        <v>4196.61739603632</v>
       </c>
       <c r="E16">
-        <v>69.02818065635608</v>
+        <v>68.81215929450423</v>
       </c>
       <c r="F16">
-        <v>3.630492585895169</v>
+        <v>3.51993822326095</v>
       </c>
       <c r="G16">
-        <v>3.331528293901755</v>
+        <v>2.913016302330557</v>
       </c>
       <c r="H16">
-        <v>1657.404844365292</v>
+        <v>1581.637898154354</v>
       </c>
       <c r="I16">
         <v>344953017230.0718</v>
       </c>
       <c r="J16">
-        <v>37867.81958006493</v>
+        <v>33960.81795705316</v>
       </c>
       <c r="K16">
-        <v>946456868743.7019</v>
+        <v>837250696783.5953</v>
       </c>
       <c r="L16">
-        <v>21.80806322954592</v>
+        <v>21.9460713521445</v>
       </c>
       <c r="M16">
-        <v>9.955396172514728</v>
+        <v>9.95539617251473</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3318,37 +3318,37 @@
         <v>2012</v>
       </c>
       <c r="B17">
-        <v>31.87924323548699</v>
+        <v>31.9519404106545</v>
       </c>
       <c r="C17">
-        <v>1.867889948180352</v>
+        <v>1.861516326751009</v>
       </c>
       <c r="D17">
-        <v>4275.142955421706</v>
+        <v>4245.161194495543</v>
       </c>
       <c r="E17">
-        <v>69.01329728770965</v>
+        <v>68.82037470942188</v>
       </c>
       <c r="F17">
-        <v>3.658392529681703</v>
+        <v>3.553093779986442</v>
       </c>
       <c r="G17">
-        <v>3.258572757786066</v>
+        <v>2.892967878890434</v>
       </c>
       <c r="H17">
-        <v>1692.370659126793</v>
+        <v>1617.276423367707</v>
       </c>
       <c r="I17">
-        <v>361364604086.827</v>
+        <v>361364604086.8268</v>
       </c>
       <c r="J17">
-        <v>39578.15257388676</v>
+        <v>35722.97970723409</v>
       </c>
       <c r="K17">
-        <v>999936514975.0248</v>
+        <v>891130217905.4457</v>
       </c>
       <c r="L17">
-        <v>21.65229020970236</v>
+        <v>21.79311731569364</v>
       </c>
       <c r="M17">
         <v>10.02016741416535</v>
@@ -3359,40 +3359,40 @@
         <v>2013</v>
       </c>
       <c r="B18">
-        <v>31.76214761202387</v>
+        <v>31.83895427295448</v>
       </c>
       <c r="C18">
-        <v>1.849581562718725</v>
+        <v>1.844316079934796</v>
       </c>
       <c r="D18">
-        <v>4314.350641766114</v>
+        <v>4286.802863154961</v>
       </c>
       <c r="E18">
-        <v>68.97021048890358</v>
+        <v>68.80260179357845</v>
       </c>
       <c r="F18">
-        <v>3.687087703709615</v>
+        <v>3.586858695051439</v>
       </c>
       <c r="G18">
-        <v>3.300400846466616</v>
+        <v>2.962081940487816</v>
       </c>
       <c r="H18">
-        <v>1720.982511710718</v>
+        <v>1648.138839635895</v>
       </c>
       <c r="I18">
-        <v>376020635556.0295</v>
+        <v>376020635556.0294</v>
       </c>
       <c r="J18">
-        <v>41049.33886495115</v>
+        <v>37309.31688165851</v>
       </c>
       <c r="K18">
-        <v>1046781959512.785</v>
+        <v>940333809536.8755</v>
       </c>
       <c r="L18">
-        <v>21.50330253974739</v>
+        <v>21.6444474731161</v>
       </c>
       <c r="M18">
-        <v>9.588492358255941</v>
+        <v>9.588492358255939</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3400,37 +3400,37 @@
         <v>2014</v>
       </c>
       <c r="B19">
-        <v>31.63741221783204</v>
+        <v>31.71752034529103</v>
       </c>
       <c r="C19">
-        <v>1.834662479234019</v>
+        <v>1.830260704237887</v>
       </c>
       <c r="D19">
-        <v>4339.415367733413</v>
+        <v>4314.346963411125</v>
       </c>
       <c r="E19">
-        <v>68.89803207081297</v>
+        <v>68.75704701546591</v>
       </c>
       <c r="F19">
-        <v>3.716341281355473</v>
+        <v>3.62103529411206</v>
       </c>
       <c r="G19">
-        <v>3.32833069716788</v>
+        <v>3.017383795239938</v>
       </c>
       <c r="H19">
-        <v>1761.013318304308</v>
+        <v>1688.896954126542</v>
       </c>
       <c r="I19">
         <v>388583184077.8257</v>
       </c>
       <c r="J19">
-        <v>42140.81328359441</v>
+        <v>38584.51030514202</v>
       </c>
       <c r="K19">
-        <v>1082778970274.399</v>
+        <v>980810858141.0699</v>
       </c>
       <c r="L19">
-        <v>21.35750661900846</v>
+        <v>21.49735055473938</v>
       </c>
       <c r="M19">
         <v>9.426150823826994</v>
@@ -3441,37 +3441,37 @@
         <v>2015</v>
       </c>
       <c r="B20">
-        <v>31.47785625886292</v>
+        <v>31.56269188162911</v>
       </c>
       <c r="C20">
-        <v>1.819389294626783</v>
+        <v>1.815724504259829</v>
       </c>
       <c r="D20">
-        <v>4359.275951967619</v>
+        <v>4336.515885727817</v>
       </c>
       <c r="E20">
-        <v>68.79617503556271</v>
+        <v>68.68234736736323</v>
       </c>
       <c r="F20">
-        <v>3.745054831554357</v>
+        <v>3.654669375519756</v>
       </c>
       <c r="G20">
-        <v>3.385089963675099</v>
+        <v>3.095282030062946</v>
       </c>
       <c r="H20">
-        <v>1794.904642873171</v>
+        <v>1724.836207699672</v>
       </c>
       <c r="I20">
         <v>387659709837.535</v>
       </c>
       <c r="J20">
-        <v>42297.98357831327</v>
+        <v>39051.20695301931</v>
       </c>
       <c r="K20">
-        <v>1098113225590.742</v>
+        <v>1003528730380.267</v>
       </c>
       <c r="L20">
-        <v>21.20226036580293</v>
+        <v>21.34055085189972</v>
       </c>
       <c r="M20">
         <v>9.975422544339398</v>
@@ -3482,40 +3482,40 @@
         <v>2016</v>
       </c>
       <c r="B21">
-        <v>31.29985634551867</v>
+        <v>31.38910084082496</v>
       </c>
       <c r="C21">
-        <v>1.809771458953148</v>
+        <v>1.806641580519049</v>
       </c>
       <c r="D21">
-        <v>4360.374376189238</v>
+        <v>4339.973251063195</v>
       </c>
       <c r="E21">
-        <v>68.67425705065965</v>
+        <v>68.58622893843557</v>
       </c>
       <c r="F21">
-        <v>3.775025559971699</v>
+        <v>3.689286264984019</v>
       </c>
       <c r="G21">
-        <v>3.263435025322558</v>
+        <v>3.015730543258711</v>
       </c>
       <c r="H21">
-        <v>1842.784382581194</v>
+        <v>1773.23844353401</v>
       </c>
       <c r="I21">
-        <v>384295803781.0364</v>
+        <v>384295803781.0362</v>
       </c>
       <c r="J21">
-        <v>42299.85285626946</v>
+        <v>39354.25041839924</v>
       </c>
       <c r="K21">
-        <v>1110540004841.453</v>
+        <v>1023183445012.123</v>
       </c>
       <c r="L21">
-        <v>21.03970646805755</v>
+        <v>21.17603399823998</v>
       </c>
       <c r="M21">
-        <v>9.928004135207869</v>
+        <v>9.928004135207868</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -3523,40 +3523,40 @@
         <v>2017</v>
       </c>
       <c r="B22">
-        <v>31.11611340613965</v>
+        <v>31.20853169448973</v>
       </c>
       <c r="C22">
-        <v>1.796827845571881</v>
+        <v>1.794203952420911</v>
       </c>
       <c r="D22">
-        <v>4366.86736316246</v>
+        <v>4348.473802450718</v>
       </c>
       <c r="E22">
-        <v>68.52946559435431</v>
+        <v>68.46600210377568</v>
       </c>
       <c r="F22">
-        <v>3.806467056548292</v>
+        <v>3.725100010885044</v>
       </c>
       <c r="G22">
-        <v>3.083235809945831</v>
+        <v>2.878891669603095</v>
       </c>
       <c r="H22">
-        <v>1947.004500449027</v>
+        <v>1872.080470063953</v>
       </c>
       <c r="I22">
-        <v>385547289362.4152</v>
+        <v>385547289362.415</v>
       </c>
       <c r="J22">
-        <v>42595.28319887476</v>
+        <v>39888.8625961674</v>
       </c>
       <c r="K22">
-        <v>1130074215605.95</v>
+        <v>1048589610591.486</v>
       </c>
       <c r="L22">
-        <v>20.88208114659832</v>
+        <v>21.01529480516142</v>
       </c>
       <c r="M22">
-        <v>9.684575788280242</v>
+        <v>9.68457578828024</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3564,37 +3564,37 @@
         <v>2018</v>
       </c>
       <c r="B23">
-        <v>30.96418432301521</v>
+        <v>31.05652389769719</v>
       </c>
       <c r="C23">
-        <v>1.78471790927614</v>
+        <v>1.782515158454938</v>
       </c>
       <c r="D23">
-        <v>4382.248154370592</v>
+        <v>4365.527334042832</v>
       </c>
       <c r="E23">
-        <v>68.36152043634668</v>
+        <v>68.3211994964263</v>
       </c>
       <c r="F23">
-        <v>3.840193720518658</v>
+        <v>3.762868848986984</v>
       </c>
       <c r="G23">
-        <v>3.020047689320302</v>
+        <v>2.841073829105322</v>
       </c>
       <c r="H23">
-        <v>2002.068929628886</v>
+        <v>1928.396359980049</v>
       </c>
       <c r="I23">
-        <v>389589005449.9662</v>
+        <v>389589005449.9661</v>
       </c>
       <c r="J23">
-        <v>43002.18241255828</v>
+        <v>40503.78175063966</v>
       </c>
       <c r="K23">
-        <v>1153174788618.307</v>
+        <v>1076836713042.987</v>
       </c>
       <c r="L23">
-        <v>20.74703512052882</v>
+        <v>20.87523002947316</v>
       </c>
       <c r="M23">
         <v>9.866071588318858</v>
@@ -3605,40 +3605,40 @@
         <v>2019</v>
       </c>
       <c r="B24">
-        <v>30.88947112150036</v>
+        <v>30.87206663737718</v>
       </c>
       <c r="C24">
-        <v>1.782475471741764</v>
+        <v>1.763341628787359</v>
       </c>
       <c r="D24">
-        <v>4401.189022169747</v>
+        <v>4365.527334042832</v>
       </c>
       <c r="E24">
-        <v>68.17190772618737</v>
+        <v>68.154005010451</v>
       </c>
       <c r="F24">
-        <v>3.877355069028355</v>
+        <v>3.802579278712042</v>
       </c>
       <c r="G24">
-        <v>3.234966632405808</v>
+        <v>2.836079595825239</v>
       </c>
       <c r="H24">
-        <v>1862.20950601299</v>
+        <v>2037.155610096799</v>
       </c>
       <c r="I24">
-        <v>392987038651.9529</v>
+        <v>389589005449.9661</v>
       </c>
       <c r="J24">
-        <v>43220.57599156904</v>
+        <v>41040.36113467241</v>
       </c>
       <c r="K24">
-        <v>1173777444673.934</v>
+        <v>1103740035567.138</v>
       </c>
       <c r="L24">
-        <v>20.653344976093</v>
+        <v>20.71880861280594</v>
       </c>
       <c r="M24">
-        <v>11.00002937864495</v>
+        <v>9.243883948748797</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3646,40 +3646,40 @@
         <v>2020</v>
       </c>
       <c r="B25">
-        <v>30.9373758269501</v>
+        <v>30.87206663737718</v>
       </c>
       <c r="C25">
-        <v>1.79913435464459</v>
+        <v>1.756827330525136</v>
       </c>
       <c r="D25">
-        <v>4418.36223891603</v>
+        <v>4365.527334042832</v>
       </c>
       <c r="E25">
-        <v>67.96211361342688</v>
+        <v>67.96706736608249</v>
       </c>
       <c r="F25">
-        <v>3.919100619222935</v>
+        <v>3.843025452096984</v>
       </c>
       <c r="G25">
-        <v>3.889088608162179</v>
+        <v>2.723749425818215</v>
       </c>
       <c r="H25">
-        <v>1381.658065493557</v>
+        <v>2061.884057023449</v>
       </c>
       <c r="I25">
-        <v>392307475576.6382</v>
+        <v>389589005449.9661</v>
       </c>
       <c r="J25">
-        <v>42950.48943015601</v>
+        <v>41244.23883242237</v>
       </c>
       <c r="K25">
-        <v>1185817904568.241</v>
+        <v>1122990884130.594</v>
       </c>
       <c r="L25">
-        <v>20.61978729953481</v>
+        <v>20.71880861280594</v>
       </c>
       <c r="M25">
-        <v>13.61398700257975</v>
+        <v>9.232640092214004</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3687,40 +3687,40 @@
         <v>2021</v>
       </c>
       <c r="B26">
-        <v>31.15330046471943</v>
+        <v>30.87206663737718</v>
       </c>
       <c r="C26">
-        <v>1.843728379660454</v>
+        <v>1.756827330525136</v>
       </c>
       <c r="D26">
-        <v>4428.440076965558</v>
+        <v>4365.527334042832</v>
       </c>
       <c r="E26">
-        <v>67.73362424761586</v>
+        <v>67.75847310217857</v>
       </c>
       <c r="F26">
-        <v>3.966579888247957</v>
+        <v>3.843025452096984</v>
       </c>
       <c r="G26">
-        <v>5.143509585549259</v>
+        <v>2.723749425818215</v>
       </c>
       <c r="H26">
-        <v>414.6464439628072</v>
+        <v>2061.884057023449</v>
       </c>
       <c r="I26">
-        <v>384116402832.2852</v>
+        <v>389589005449.9661</v>
       </c>
       <c r="J26">
-        <v>41891.94822256824</v>
+        <v>42235.76065460328</v>
       </c>
       <c r="K26">
-        <v>1183231889096.639</v>
+        <v>1159051543277.844</v>
       </c>
       <c r="L26">
-        <v>20.66513867709819</v>
+        <v>20.71880861280594</v>
       </c>
       <c r="M26">
-        <v>18.23548230344448</v>
+        <v>9.254943795754773</v>
       </c>
     </row>
   </sheetData>
@@ -3785,40 +3785,40 @@
         <v>2004</v>
       </c>
       <c r="B2">
-        <v>23.0200004577637</v>
+        <v>22.04623050856169</v>
       </c>
       <c r="C2">
-        <v>1.21498000621796</v>
+        <v>0.91616807978177</v>
       </c>
       <c r="D2">
-        <v>700.070129394531</v>
+        <v>552.9495816739226</v>
       </c>
       <c r="E2">
-        <v>71.50885231990232</v>
+        <v>67.48206118537915</v>
       </c>
       <c r="F2">
-        <v>137.5189588252698</v>
+        <v>128.1320712805412</v>
       </c>
       <c r="G2">
-        <v>3.483641113737495</v>
+        <v>3.232357521774769</v>
       </c>
       <c r="H2">
-        <v>7024.25</v>
+        <v>2951.461398385691</v>
       </c>
       <c r="I2">
-        <v>74725444</v>
+        <v>57029697.77459525</v>
       </c>
       <c r="J2">
-        <v>897508414097.2358</v>
+        <v>443225014255.7432</v>
       </c>
       <c r="K2">
-        <v>1508.668097884526</v>
+        <v>782.4866935874667</v>
       </c>
       <c r="L2">
-        <v>1080060319096.752</v>
+        <v>584032703326.8206</v>
       </c>
       <c r="M2">
-        <v>22.5</v>
+        <v>22.4791565802342</v>
       </c>
       <c r="N2">
         <v>31.97506997026333</v>
@@ -3829,40 +3829,40 @@
         <v>2005</v>
       </c>
       <c r="B3">
-        <v>23.78562510013584</v>
+        <v>22.32015628957951</v>
       </c>
       <c r="C3">
-        <v>1.263386242091658</v>
+        <v>0.9715774012129249</v>
       </c>
       <c r="D3">
-        <v>773.2813224792484</v>
+        <v>593.6398455967898</v>
       </c>
       <c r="E3">
-        <v>71.85011660025272</v>
+        <v>67.90501499000435</v>
       </c>
       <c r="F3">
-        <v>137.9414466556465</v>
+        <v>129.0533213772043</v>
       </c>
       <c r="G3">
-        <v>4.041252009667088</v>
+        <v>3.351772076165997</v>
       </c>
       <c r="H3">
-        <v>7313.391145833334</v>
+        <v>3369.529938697118</v>
       </c>
       <c r="I3">
-        <v>70829516.39583336</v>
+        <v>59105794.81843591</v>
       </c>
       <c r="J3">
-        <v>989910336842.7612</v>
+        <v>500289683971.5217</v>
       </c>
       <c r="K3">
-        <v>1636.141916309794</v>
+        <v>870.1965164408973</v>
       </c>
       <c r="L3">
-        <v>1165035181884.088</v>
+        <v>643580185219.7136</v>
       </c>
       <c r="M3">
-        <v>23.17708293596901</v>
+        <v>22.62721182502204</v>
       </c>
       <c r="N3">
         <v>32.09392432867769</v>
@@ -3873,43 +3873,43 @@
         <v>2006</v>
       </c>
       <c r="B4">
-        <v>24.60776736654944</v>
+        <v>22.72632634034113</v>
       </c>
       <c r="C4">
-        <v>1.301397305751137</v>
+        <v>1.024473785200104</v>
       </c>
       <c r="D4">
-        <v>824.2701858335181</v>
+        <v>636.3736277015227</v>
       </c>
       <c r="E4">
-        <v>72.14778266964144</v>
+        <v>68.33138021996507</v>
       </c>
       <c r="F4">
-        <v>138.3619376663206</v>
+        <v>129.9520310196153</v>
       </c>
       <c r="G4">
-        <v>4.210181667724007</v>
+        <v>3.45520408438153</v>
       </c>
       <c r="H4">
-        <v>7450.325014459227</v>
+        <v>3756.027414782261</v>
       </c>
       <c r="I4">
-        <v>75883372.16657028</v>
+        <v>63756616.59267936</v>
       </c>
       <c r="J4">
-        <v>1105198043658.511</v>
+        <v>572583696643.139</v>
       </c>
       <c r="K4">
-        <v>1803.539081686294</v>
+        <v>980.0863680166749</v>
       </c>
       <c r="L4">
-        <v>1266910966346.342</v>
+        <v>715403141755.8154</v>
       </c>
       <c r="M4">
-        <v>23.9083285356547</v>
+        <v>22.90663258258684</v>
       </c>
       <c r="N4">
-        <v>32.45232805659435</v>
+        <v>32.45232805659434</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3917,43 +3917,43 @@
         <v>2007</v>
       </c>
       <c r="B5">
-        <v>25.50823355258235</v>
+        <v>23.26203398597046</v>
       </c>
       <c r="C5">
-        <v>1.321789663674549</v>
+        <v>1.068655048647023</v>
       </c>
       <c r="D5">
-        <v>890.0581716133103</v>
+        <v>689.6519287555892</v>
       </c>
       <c r="E5">
-        <v>72.38404878917351</v>
+        <v>68.7436209457058</v>
       </c>
       <c r="F5">
-        <v>138.7769232659528</v>
+        <v>130.8272759652191</v>
       </c>
       <c r="G5">
-        <v>4.263997867028277</v>
+        <v>3.538977658905101</v>
       </c>
       <c r="H5">
-        <v>8505.083876733101</v>
+        <v>4414.472751843162</v>
       </c>
       <c r="I5">
-        <v>83764601.58412766</v>
+        <v>70341326.67222904</v>
       </c>
       <c r="J5">
-        <v>1262979924827.1</v>
+        <v>669307748436.9957</v>
       </c>
       <c r="K5">
-        <v>2054.712249099338</v>
+        <v>1131.89872027683</v>
       </c>
       <c r="L5">
-        <v>1420258931685.325</v>
+        <v>812408415854.6201</v>
       </c>
       <c r="M5">
-        <v>24.72401229340791</v>
+        <v>23.3177166880262</v>
       </c>
       <c r="N5">
-        <v>32.38335311644067</v>
+        <v>32.38335311644068</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3961,40 +3961,40 @@
         <v>2008</v>
       </c>
       <c r="B6">
-        <v>26.18681597336312</v>
+        <v>23.79099612720744</v>
       </c>
       <c r="C6">
-        <v>1.350918111749324</v>
+        <v>1.114263413848438</v>
       </c>
       <c r="D6">
-        <v>957.2652172089261</v>
+        <v>748.5031627676941</v>
       </c>
       <c r="E6">
-        <v>72.55900263593298</v>
+        <v>69.12881888126513</v>
       </c>
       <c r="F6">
-        <v>139.1933278300434</v>
+        <v>131.6812955206758</v>
       </c>
       <c r="G6">
-        <v>4.139542781505694</v>
+        <v>3.556073356295302</v>
       </c>
       <c r="H6">
-        <v>9181.133154040421</v>
+        <v>5026.749315932419</v>
       </c>
       <c r="I6">
-        <v>91315349.48559718</v>
+        <v>77252627.23358253</v>
       </c>
       <c r="J6">
-        <v>1473005490748.256</v>
+        <v>800051569260.3242</v>
       </c>
       <c r="K6">
-        <v>2386.426121870093</v>
+        <v>1337.092679798205</v>
       </c>
       <c r="L6">
-        <v>1623589237877.977</v>
+        <v>941891656316.8347</v>
       </c>
       <c r="M6">
-        <v>25.30502825775745</v>
+        <v>23.71740431616887</v>
       </c>
       <c r="N6">
         <v>32.11941160334752</v>
@@ -4005,43 +4005,43 @@
         <v>2009</v>
       </c>
       <c r="B7">
-        <v>26.80934318180633</v>
+        <v>24.34039995607936</v>
       </c>
       <c r="C7">
-        <v>1.414707960409268</v>
+        <v>1.178204285362248</v>
       </c>
       <c r="D7">
-        <v>934.766641634609</v>
+        <v>759.8917094481898</v>
       </c>
       <c r="E7">
-        <v>72.69043535439154</v>
+        <v>69.48409178507906</v>
       </c>
       <c r="F7">
-        <v>139.6117568478471</v>
+        <v>132.5153335243789</v>
       </c>
       <c r="G7">
-        <v>3.820340556923638</v>
+        <v>3.470047323748888</v>
       </c>
       <c r="H7">
-        <v>9749.219598527901</v>
+        <v>5632.364378135898</v>
       </c>
       <c r="I7">
-        <v>94868720.52781023</v>
+        <v>81714672.85153966</v>
       </c>
       <c r="J7">
-        <v>1650138025419.663</v>
+        <v>934647540098.4238</v>
       </c>
       <c r="K7">
-        <v>2680.256413739258</v>
+        <v>1554.526396281754</v>
       </c>
       <c r="L7">
-        <v>1812867911357.006</v>
+        <v>1082457733725.973</v>
       </c>
       <c r="M7">
-        <v>25.81207821146122</v>
+        <v>24.12828390767271</v>
       </c>
       <c r="N7">
-        <v>31.59623809103103</v>
+        <v>31.59623809103104</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4049,40 +4049,40 @@
         <v>2010</v>
       </c>
       <c r="B8">
-        <v>27.45177315085773</v>
+        <v>24.93397088264999</v>
       </c>
       <c r="C8">
-        <v>1.468809003975472</v>
+        <v>1.238231045160423</v>
       </c>
       <c r="D8">
-        <v>925.6886595612642</v>
+        <v>773.8697081330246</v>
       </c>
       <c r="E8">
-        <v>72.79449953325199</v>
+        <v>69.8112848743304</v>
       </c>
       <c r="F8">
-        <v>140.0323014756228</v>
+        <v>133.3304604581375</v>
       </c>
       <c r="G8">
-        <v>3.853491466784812</v>
+        <v>3.516209618040685</v>
       </c>
       <c r="H8">
-        <v>11096.20149617538</v>
+        <v>6632.72123755503</v>
       </c>
       <c r="I8">
-        <v>101585028.4111823</v>
+        <v>88413894.32824142</v>
       </c>
       <c r="J8">
-        <v>1863685840699.336</v>
+        <v>1098676949797.581</v>
       </c>
       <c r="K8">
-        <v>3018.636116212967</v>
+        <v>1813.748163404501</v>
       </c>
       <c r="L8">
-        <v>2023576425298.887</v>
+        <v>1246420269157.875</v>
       </c>
       <c r="M8">
-        <v>26.33459778219017</v>
+        <v>24.57908427893544</v>
       </c>
       <c r="N8">
         <v>31.61282168200608</v>
@@ -4093,40 +4093,40 @@
         <v>2011</v>
       </c>
       <c r="B9">
-        <v>28.09242695035701</v>
+        <v>25.55507571384411</v>
       </c>
       <c r="C9">
-        <v>1.520007529985069</v>
+        <v>1.297107418731615</v>
       </c>
       <c r="D9">
-        <v>930.9273742313421</v>
+        <v>793.8201508375412</v>
       </c>
       <c r="E9">
-        <v>72.86623612673056</v>
+        <v>70.10525671447543</v>
       </c>
       <c r="F9">
-        <v>140.4729942112967</v>
+        <v>134.1370894994337</v>
       </c>
       <c r="G9">
-        <v>3.829716910758592</v>
+        <v>3.532767912207247</v>
       </c>
       <c r="H9">
-        <v>12027.81814127618</v>
+        <v>7503.719611319113</v>
       </c>
       <c r="I9">
-        <v>108956961.3171175</v>
+        <v>95755285.71264729</v>
       </c>
       <c r="J9">
-        <v>2134850587295.326</v>
+        <v>1306278121277.237</v>
       </c>
       <c r="K9">
-        <v>3445.228829162039</v>
+        <v>2140.462691892072</v>
       </c>
       <c r="L9">
-        <v>2313514152433.879</v>
+        <v>1464885243801.592</v>
       </c>
       <c r="M9">
-        <v>26.85481552164322</v>
+        <v>25.05545436557775</v>
       </c>
       <c r="N9">
         <v>32.06479118642368</v>
@@ -4137,40 +4137,40 @@
         <v>2012</v>
       </c>
       <c r="B10">
-        <v>28.73316409241845</v>
+        <v>26.19913186142374</v>
       </c>
       <c r="C10">
-        <v>1.579439705582359</v>
+        <v>1.362046106959675</v>
       </c>
       <c r="D10">
-        <v>943.5652540101</v>
+        <v>817.1009402545095</v>
       </c>
       <c r="E10">
-        <v>72.91334019310126</v>
+        <v>70.36775249536521</v>
       </c>
       <c r="F10">
-        <v>140.9598403015306</v>
+        <v>134.9530154217421</v>
       </c>
       <c r="G10">
-        <v>3.677757385976316</v>
+        <v>3.472464812045832</v>
       </c>
       <c r="H10">
-        <v>12564.48743563041</v>
+        <v>8192.910658512077</v>
       </c>
       <c r="I10">
-        <v>116592649.2230383</v>
+        <v>103441827.1432906</v>
       </c>
       <c r="J10">
-        <v>2398680095101.963</v>
+        <v>1525836907114.072</v>
       </c>
       <c r="K10">
-        <v>3877.995374161435</v>
+        <v>2495.965225983671</v>
       </c>
       <c r="L10">
-        <v>2624228994908.268</v>
+        <v>1712593080276.946</v>
       </c>
       <c r="M10">
-        <v>27.37697263190988</v>
+        <v>25.55476246944299</v>
       </c>
       <c r="N10">
         <v>31.52857786597396</v>
@@ -4181,40 +4181,40 @@
         <v>2013</v>
       </c>
       <c r="B11">
-        <v>29.23907134379365</v>
+        <v>26.77220489482681</v>
       </c>
       <c r="C11">
-        <v>1.638620993853594</v>
+        <v>1.427504204279052</v>
       </c>
       <c r="D11">
-        <v>960.912083051752</v>
+        <v>842.7471173282356</v>
       </c>
       <c r="E11">
-        <v>72.93704395405601</v>
+        <v>70.59834715293367</v>
       </c>
       <c r="F11">
-        <v>141.4811298939973</v>
+        <v>135.7767803076443</v>
       </c>
       <c r="G11">
-        <v>3.587535477110027</v>
+        <v>3.435698761737608</v>
       </c>
       <c r="H11">
-        <v>13058.00574379439</v>
+        <v>8861.007083382681</v>
       </c>
       <c r="I11">
-        <v>124768005.7847752</v>
+        <v>111682365.3954525</v>
       </c>
       <c r="J11">
-        <v>2657403242352.011</v>
+        <v>1755486168604.275</v>
       </c>
       <c r="K11">
-        <v>4322.447844601996</v>
+        <v>2880.494659299202</v>
       </c>
       <c r="L11">
-        <v>2953120734787.541</v>
+        <v>1987703399882.311</v>
       </c>
       <c r="M11">
-        <v>27.76211720965319</v>
+        <v>25.9810116755053</v>
       </c>
       <c r="N11">
         <v>30.67100807217443</v>
@@ -4225,40 +4225,40 @@
         <v>2014</v>
       </c>
       <c r="B12">
-        <v>29.64961367105321</v>
+        <v>27.28540168892087</v>
       </c>
       <c r="C12">
-        <v>1.689764610740267</v>
+        <v>1.487378585468506</v>
       </c>
       <c r="D12">
-        <v>978.006328876622</v>
+        <v>867.5502112248788</v>
       </c>
       <c r="E12">
-        <v>72.93200657004734</v>
+        <v>70.79293050144305</v>
       </c>
       <c r="F12">
-        <v>142.0246575228611</v>
+        <v>136.6041377925257</v>
       </c>
       <c r="G12">
-        <v>3.450511353005476</v>
+        <v>3.361577317451484</v>
       </c>
       <c r="H12">
-        <v>13692.89873422428</v>
+        <v>9618.874839594842</v>
       </c>
       <c r="I12">
-        <v>132812249.9787431</v>
+        <v>119915927.6689767</v>
       </c>
       <c r="J12">
-        <v>2904734330458.185</v>
+        <v>1988728170200.397</v>
       </c>
       <c r="K12">
-        <v>4764.003482424149</v>
+        <v>3282.670947089485</v>
       </c>
       <c r="L12">
-        <v>3292812201956.72</v>
+        <v>2284931843552.424</v>
       </c>
       <c r="M12">
-        <v>28.04699602523945</v>
+        <v>26.34353626788111</v>
       </c>
       <c r="N12">
         <v>30.39644420551544</v>
@@ -4269,40 +4269,40 @@
         <v>2015</v>
       </c>
       <c r="B13">
-        <v>29.92293594938374</v>
+        <v>27.69877886930091</v>
       </c>
       <c r="C13">
-        <v>1.736226834790229</v>
+        <v>1.543547861071549</v>
       </c>
       <c r="D13">
-        <v>999.8698520152983</v>
+        <v>895.4823493319459</v>
       </c>
       <c r="E13">
-        <v>72.891816038865</v>
+        <v>70.94626350828706</v>
       </c>
       <c r="F13">
-        <v>142.579329917979</v>
+        <v>137.4295403889371</v>
       </c>
       <c r="G13">
-        <v>3.291313141757563</v>
+        <v>3.263132912589404</v>
       </c>
       <c r="H13">
-        <v>14466.2539563964</v>
+        <v>10476.43660152256</v>
       </c>
       <c r="I13">
-        <v>140519795.3417445</v>
+        <v>127933025.9193304</v>
       </c>
       <c r="J13">
-        <v>3108797772578.646</v>
+        <v>2201625989609.471</v>
       </c>
       <c r="K13">
-        <v>5175.486014942854</v>
+        <v>3681.177823971931</v>
       </c>
       <c r="L13">
-        <v>3631800198010.401</v>
+        <v>2595343423507.843</v>
       </c>
       <c r="M13">
-        <v>28.19033862260471</v>
+        <v>26.60268184584629</v>
       </c>
       <c r="N13">
         <v>28.95167057872186</v>
@@ -4313,40 +4313,40 @@
         <v>2016</v>
       </c>
       <c r="B14">
-        <v>30.12930646972969</v>
+        <v>28.05390872629438</v>
       </c>
       <c r="C14">
-        <v>1.780244058501921</v>
+        <v>1.597447262174224</v>
       </c>
       <c r="D14">
-        <v>1023.66361719276</v>
+        <v>924.6406126424155</v>
       </c>
       <c r="E14">
-        <v>72.80851370791173</v>
+        <v>71.05159907270306</v>
       </c>
       <c r="F14">
-        <v>143.14401378245</v>
+        <v>138.2528466860797</v>
       </c>
       <c r="G14">
-        <v>3.081484165643841</v>
+        <v>3.119988432000095</v>
       </c>
       <c r="H14">
-        <v>15292.95442477581</v>
+        <v>11384.19535848542</v>
       </c>
       <c r="I14">
-        <v>147450445.4298337</v>
+        <v>135315157.6864088</v>
       </c>
       <c r="J14">
-        <v>3270479267244.057</v>
+        <v>2389795954265.566</v>
       </c>
       <c r="K14">
-        <v>5528.355336888417</v>
+        <v>4051.149460685609</v>
       </c>
       <c r="L14">
-        <v>3940178316471.667</v>
+        <v>2896079252476.925</v>
       </c>
       <c r="M14">
-        <v>28.26404179739093</v>
+        <v>26.80117822942602</v>
       </c>
       <c r="N14">
         <v>28.06944223771233</v>
@@ -4357,40 +4357,40 @@
         <v>2017</v>
       </c>
       <c r="B15">
-        <v>30.24901409454402</v>
+        <v>28.33162943436922</v>
       </c>
       <c r="C15">
-        <v>1.81924317862382</v>
+        <v>1.64681904919879</v>
       </c>
       <c r="D15">
-        <v>1047.022097566182</v>
+        <v>953.2156642073995</v>
       </c>
       <c r="E15">
-        <v>72.68180245216229</v>
+        <v>71.10721207204944</v>
       </c>
       <c r="F15">
-        <v>143.724752413166</v>
+        <v>139.078906516881</v>
       </c>
       <c r="G15">
-        <v>2.880283996593362</v>
+        <v>2.972098755491698</v>
       </c>
       <c r="H15">
-        <v>16225.6578728172</v>
+        <v>12381.29343435253</v>
       </c>
       <c r="I15">
-        <v>156126937.5314588</v>
+        <v>144255548.8779608</v>
       </c>
       <c r="J15">
-        <v>3460422464765.557</v>
+        <v>2599924238591.483</v>
       </c>
       <c r="K15">
-        <v>5910.306247192865</v>
+        <v>4449.15938137073</v>
       </c>
       <c r="L15">
-        <v>4267033090154.949</v>
+        <v>3218301901215.824</v>
       </c>
       <c r="M15">
-        <v>28.24615102111999</v>
+        <v>26.91820218790025</v>
       </c>
       <c r="N15">
         <v>28.10893687151002</v>
@@ -4401,40 +4401,40 @@
         <v>2018</v>
       </c>
       <c r="B16">
-        <v>30.39820630281147</v>
+        <v>28.61936352410112</v>
       </c>
       <c r="C16">
-        <v>1.855262300549092</v>
+        <v>1.693123597230915</v>
       </c>
       <c r="D16">
-        <v>1076.177013555871</v>
+        <v>986.4046887091242</v>
       </c>
       <c r="E16">
-        <v>72.51594191044975</v>
+        <v>71.11510985764353</v>
       </c>
       <c r="F16">
-        <v>144.2979762342596</v>
+        <v>139.8911191830308</v>
       </c>
       <c r="G16">
-        <v>2.747301019142109</v>
+        <v>2.865726538185281</v>
       </c>
       <c r="H16">
-        <v>17237.90575070735</v>
+        <v>13452.75339351889</v>
       </c>
       <c r="I16">
-        <v>164766352.6500916</v>
+        <v>153207237.1691228</v>
       </c>
       <c r="J16">
-        <v>3690660149830.367</v>
+        <v>2842472247240.886</v>
       </c>
       <c r="K16">
-        <v>6358.115828324629</v>
+        <v>4903.226986152405</v>
       </c>
       <c r="L16">
-        <v>4646253492984.622</v>
+        <v>3587124902444.657</v>
       </c>
       <c r="M16">
-        <v>28.25442883029433</v>
+        <v>27.04237057662538</v>
       </c>
       <c r="N16">
         <v>27.84101115441765</v>
@@ -4445,40 +4445,40 @@
         <v>2019</v>
       </c>
       <c r="B17">
-        <v>30.44510175501272</v>
+        <v>28.81351182659854</v>
       </c>
       <c r="C17">
-        <v>1.897550046515129</v>
+        <v>1.744140510886921</v>
       </c>
       <c r="D17">
-        <v>1119.084802463848</v>
+        <v>1031.255493944587</v>
       </c>
       <c r="E17">
-        <v>72.32124978655804</v>
+        <v>71.08260771528194</v>
       </c>
       <c r="F17">
-        <v>144.8485657501058</v>
+        <v>140.6772249326014</v>
       </c>
       <c r="G17">
-        <v>2.59127932140571</v>
+        <v>2.736733083190065</v>
       </c>
       <c r="H17">
-        <v>18123.77176320405</v>
+        <v>14443.37126624831</v>
       </c>
       <c r="I17">
-        <v>173157661.6131214</v>
+        <v>161965726.7537549</v>
       </c>
       <c r="J17">
-        <v>3888279639578.157</v>
+        <v>3063774565240.55</v>
       </c>
       <c r="K17">
-        <v>6769.268642375136</v>
+        <v>5337.954428466234</v>
       </c>
       <c r="L17">
-        <v>5010427768923.229</v>
+        <v>3953140330215.169</v>
       </c>
       <c r="M17">
-        <v>28.16380471762795</v>
+        <v>27.07553574406164</v>
       </c>
       <c r="N17">
         <v>26.77472170589195</v>
@@ -4489,40 +4489,40 @@
         <v>2020</v>
       </c>
       <c r="B18">
-        <v>30.44510175501271</v>
+        <v>28.81351182659854</v>
       </c>
       <c r="C18">
-        <v>1.95069979750687</v>
+        <v>1.804146233087584</v>
       </c>
       <c r="D18">
-        <v>1168.264573853264</v>
+        <v>1081.834483359113</v>
       </c>
       <c r="E18">
-        <v>72.10993714989263</v>
+        <v>71.01952581233957</v>
       </c>
       <c r="F18">
-        <v>145.3632949726957</v>
+        <v>141.425440251335</v>
       </c>
       <c r="G18">
-        <v>2.499620788960326</v>
+        <v>2.652903142831399</v>
       </c>
       <c r="H18">
-        <v>18244.18935713124</v>
+        <v>14842.10218544396</v>
       </c>
       <c r="I18">
-        <v>180754147.8300063</v>
+        <v>170013920.2911944</v>
       </c>
       <c r="J18">
-        <v>4064602115818.015</v>
+        <v>3270088796159.74</v>
       </c>
       <c r="K18">
-        <v>7153.537601340473</v>
+        <v>5757.349683848855</v>
       </c>
       <c r="L18">
-        <v>5339467556819.85</v>
+        <v>4298337017911.565</v>
       </c>
       <c r="M18">
-        <v>28.16380471762795</v>
+        <v>27.07553574406164</v>
       </c>
       <c r="N18">
         <v>26.28518884296746</v>
@@ -4533,40 +4533,40 @@
         <v>2021</v>
       </c>
       <c r="B19">
-        <v>30.44510175501271</v>
+        <v>28.81351182659854</v>
       </c>
       <c r="C19">
-        <v>1.95069979750687</v>
+        <v>1.804146233087584</v>
       </c>
       <c r="D19">
-        <v>1168.264573853264</v>
+        <v>1081.834483359113</v>
       </c>
       <c r="E19">
-        <v>71.8918307024079</v>
+        <v>70.93472041384815</v>
       </c>
       <c r="F19">
-        <v>145.3632949726957</v>
+        <v>141.425440251335</v>
       </c>
       <c r="G19">
-        <v>2.499620788960326</v>
+        <v>2.652903142831399</v>
       </c>
       <c r="H19">
-        <v>18244.18935713124</v>
+        <v>14842.10218544396</v>
       </c>
       <c r="I19">
-        <v>180754147.8300063</v>
+        <v>170013920.2911944</v>
       </c>
       <c r="J19">
-        <v>4365966524471.778</v>
+        <v>3577080765096.433</v>
       </c>
       <c r="K19">
-        <v>7709.764421564435</v>
+        <v>6318.16934221281</v>
       </c>
       <c r="L19">
-        <v>5339467556819.85</v>
+        <v>4298337017911.565</v>
       </c>
       <c r="M19">
-        <v>28.16380471762795</v>
+        <v>27.07553574406164</v>
       </c>
       <c r="N19">
         <v>27.43772961721378</v>
@@ -4619,25 +4619,25 @@
         <v>1990</v>
       </c>
       <c r="B2">
-        <v>65.28515723568312</v>
+        <v>65.21987679953375</v>
       </c>
       <c r="C2">
-        <v>236.6287190509651</v>
+        <v>234.1850344911705</v>
       </c>
       <c r="D2">
-        <v>3.783805679824686</v>
+        <v>1.759708260757466</v>
       </c>
       <c r="E2">
-        <v>3825.399902343801</v>
+        <v>2463.998289068771</v>
       </c>
       <c r="F2">
         <v>302806317471.5909</v>
       </c>
       <c r="G2">
-        <v>19095.46699846078</v>
+        <v>11952.87824107236</v>
       </c>
       <c r="H2">
-        <v>935975374644.8866</v>
+        <v>585453499896.5898</v>
       </c>
       <c r="I2">
         <v>16.66798755183352</v>
@@ -4648,25 +4648,25 @@
         <v>1991</v>
       </c>
       <c r="B3">
-        <v>65.20839037381974</v>
+        <v>65.21182062797742</v>
       </c>
       <c r="C3">
-        <v>236.9988716161741</v>
+        <v>234.4801420995288</v>
       </c>
       <c r="D3">
-        <v>2.900051809721853</v>
+        <v>1.785187690560062</v>
       </c>
       <c r="E3">
-        <v>3925.3999023438</v>
+        <v>2608.868029099488</v>
       </c>
       <c r="F3">
         <v>305651967974.5107</v>
       </c>
       <c r="G3">
-        <v>19502.16379242345</v>
+        <v>12691.2401377618</v>
       </c>
       <c r="H3">
-        <v>966518665201.5549</v>
+        <v>623635526590.0342</v>
       </c>
       <c r="I3">
         <v>16.26393514474525</v>
@@ -4677,25 +4677,25 @@
         <v>1992</v>
       </c>
       <c r="B4">
-        <v>65.12827694383647</v>
+        <v>65.19112634657803</v>
       </c>
       <c r="C4">
-        <v>237.3408380436419</v>
+        <v>234.7853013388752</v>
       </c>
       <c r="D4">
-        <v>2.577175206868703</v>
+        <v>1.799516157774032</v>
       </c>
       <c r="E4">
-        <v>4168.15608958659</v>
+        <v>2784.671403262828</v>
       </c>
       <c r="F4">
         <v>308400862514.4736</v>
       </c>
       <c r="G4">
-        <v>19837.15460757254</v>
+        <v>13366.27791502109</v>
       </c>
       <c r="H4">
-        <v>993937546069.6641</v>
+        <v>660306233725.6292</v>
       </c>
       <c r="I4">
         <v>16.04603255128911</v>
@@ -4706,25 +4706,25 @@
         <v>1993</v>
       </c>
       <c r="B5">
-        <v>65.04879029849347</v>
+        <v>65.16097639884462</v>
       </c>
       <c r="C5">
-        <v>237.658965469643</v>
+        <v>235.0930142344229</v>
       </c>
       <c r="D5">
-        <v>2.391063163703711</v>
+        <v>1.80400133934857</v>
       </c>
       <c r="E5">
-        <v>4486.799550932711</v>
+        <v>2997.396622192106</v>
       </c>
       <c r="F5">
         <v>300068224152.0452</v>
       </c>
       <c r="G5">
-        <v>19464.07700434617</v>
+        <v>13774.03739182157</v>
       </c>
       <c r="H5">
-        <v>981065186344.7952</v>
+        <v>683334996455.2205</v>
       </c>
       <c r="I5">
         <v>15.68185759056369</v>
@@ -4735,25 +4735,25 @@
         <v>1994</v>
       </c>
       <c r="B6">
-        <v>64.97727330584169</v>
+        <v>65.12611052121309</v>
       </c>
       <c r="C6">
-        <v>237.9763845669038</v>
+        <v>235.4059703519958</v>
       </c>
       <c r="D6">
-        <v>2.250368155532942</v>
+        <v>1.797205555796818</v>
       </c>
       <c r="E6">
-        <v>4886.136885233124</v>
+        <v>3258.100586995331</v>
       </c>
       <c r="F6">
-        <v>300610445068.6818</v>
+        <v>300610445068.6819</v>
       </c>
       <c r="G6">
-        <v>19515.1101282385</v>
+        <v>14228.09242254684</v>
       </c>
       <c r="H6">
-        <v>986997096997.0569</v>
+        <v>708292019946.8422</v>
       </c>
       <c r="I6">
         <v>16.40380812564748</v>
@@ -4764,25 +4764,25 @@
         <v>1995</v>
       </c>
       <c r="B7">
-        <v>64.91975601373872</v>
+        <v>65.09156054771714</v>
       </c>
       <c r="C7">
-        <v>238.2989284278156</v>
+        <v>235.725406975459</v>
       </c>
       <c r="D7">
-        <v>2.235141430135505</v>
+        <v>1.823725993252391</v>
       </c>
       <c r="E7">
-        <v>5226.799773464294</v>
+        <v>3516.78777222237</v>
       </c>
       <c r="F7">
-        <v>305893474188.9382</v>
+        <v>305893474188.9381</v>
       </c>
       <c r="G7">
-        <v>20161.84022984325</v>
+        <v>14878.23015175682</v>
       </c>
       <c r="H7">
-        <v>1005465270983.377</v>
+        <v>736106360688.533</v>
       </c>
       <c r="I7">
         <v>15.48202825036215</v>
@@ -4793,25 +4793,25 @@
         <v>1996</v>
       </c>
       <c r="B8">
-        <v>64.87774640110214</v>
+        <v>65.06068074696086</v>
       </c>
       <c r="C8">
-        <v>238.6219499616119</v>
+        <v>236.049025019818</v>
       </c>
       <c r="D8">
-        <v>2.241967387616137</v>
+        <v>1.855130058567355</v>
       </c>
       <c r="E8">
-        <v>5589.462900461548</v>
+        <v>3798.976931798917</v>
       </c>
       <c r="F8">
         <v>312701651435.7896</v>
       </c>
       <c r="G8">
-        <v>20810.4405305166</v>
+        <v>15536.02285207944</v>
       </c>
       <c r="H8">
-        <v>1027687217695.221</v>
+        <v>764721112709.8699</v>
       </c>
       <c r="I8">
         <v>15.26167400687671</v>
@@ -4822,25 +4822,25 @@
         <v>1997</v>
       </c>
       <c r="B9">
-        <v>64.8533764980333</v>
+        <v>65.03675020226491</v>
       </c>
       <c r="C9">
-        <v>238.9471942437608</v>
+        <v>236.3770294839216</v>
       </c>
       <c r="D9">
-        <v>2.382436731762101</v>
+        <v>1.94927008142379</v>
       </c>
       <c r="E9">
-        <v>5704.86823928472</v>
+        <v>3972.931045492157</v>
       </c>
       <c r="F9">
         <v>320518061573.082</v>
       </c>
       <c r="G9">
-        <v>21605.49071436948</v>
+        <v>16271.23182376134</v>
       </c>
       <c r="H9">
-        <v>1061577719321.717</v>
+        <v>798562482897.6174</v>
       </c>
       <c r="I9">
         <v>15.05881364917567</v>
@@ -4851,25 +4851,25 @@
         <v>1998</v>
       </c>
       <c r="B10">
-        <v>64.84653156951951</v>
+        <v>65.02167507496667</v>
       </c>
       <c r="C10">
-        <v>239.2846495440094</v>
+        <v>236.714284806201</v>
       </c>
       <c r="D10">
-        <v>2.894853594474573</v>
+        <v>2.243697272823682</v>
       </c>
       <c r="E10">
-        <v>5579.592543435146</v>
+        <v>4016.2585003712</v>
       </c>
       <c r="F10">
-        <v>327867544498.3389</v>
+        <v>327867544498.3388</v>
       </c>
       <c r="G10">
-        <v>22407.14389881206</v>
+        <v>17024.01216443779</v>
       </c>
       <c r="H10">
-        <v>1098422242117.948</v>
+        <v>834280658477.7014</v>
       </c>
       <c r="I10">
         <v>14.44569766346996</v>
@@ -4880,25 +4880,25 @@
         <v>1999</v>
       </c>
       <c r="B11">
-        <v>64.85525839077745</v>
+        <v>65.01593938629355</v>
       </c>
       <c r="C11">
-        <v>239.6427200112729</v>
+        <v>237.0660023876557</v>
       </c>
       <c r="D11">
-        <v>3.420784971876552</v>
+        <v>2.572316095746978</v>
       </c>
       <c r="E11">
-        <v>5508.045789014619</v>
+        <v>4070.949444660127</v>
       </c>
       <c r="F11">
         <v>333897063436.1031</v>
       </c>
       <c r="G11">
-        <v>23098.09784658705</v>
+        <v>17728.17135309162</v>
       </c>
       <c r="H11">
-        <v>1132238423352.013</v>
+        <v>868784286161.8296</v>
       </c>
       <c r="I11">
         <v>13.84905515513882</v>
@@ -4909,25 +4909,25 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>64.87725931834042</v>
+        <v>65.01932476556851</v>
       </c>
       <c r="C12">
-        <v>240.0226281305118</v>
+        <v>237.434014735415</v>
       </c>
       <c r="D12">
-        <v>4.068546628759799</v>
+        <v>2.994732359360238</v>
       </c>
       <c r="E12">
-        <v>5473.200991268364</v>
+        <v>4133.997362408414</v>
       </c>
       <c r="F12">
-        <v>338377121313.0862</v>
+        <v>338377121313.0863</v>
       </c>
       <c r="G12">
-        <v>23612.47577240211</v>
+        <v>18335.26160024702</v>
       </c>
       <c r="H12">
-        <v>1157775994070.334</v>
+        <v>898742620488.3679</v>
       </c>
       <c r="I12">
         <v>13.34010013654984</v>
@@ -4938,25 +4938,25 @@
         <v>2001</v>
       </c>
       <c r="B13">
-        <v>64.90961942873875</v>
+        <v>65.03082126710045</v>
       </c>
       <c r="C13">
-        <v>240.4262104239017</v>
+        <v>237.8204290687716</v>
       </c>
       <c r="D13">
-        <v>4.007557285422631</v>
+        <v>3.017992164637497</v>
       </c>
       <c r="E13">
-        <v>5387.29984675686</v>
+        <v>4157.103035944854</v>
       </c>
       <c r="F13">
         <v>340133827876.3365</v>
       </c>
       <c r="G13">
-        <v>24002.09944636968</v>
+        <v>18863.15534363029</v>
       </c>
       <c r="H13">
-        <v>1178584744324.656</v>
+        <v>925664734417.3781</v>
       </c>
       <c r="I13">
         <v>12.45044977202736</v>
@@ -4967,25 +4967,25 @@
         <v>2002</v>
       </c>
       <c r="B14">
-        <v>64.95329765199509</v>
+        <v>65.05144443091388</v>
       </c>
       <c r="C14">
-        <v>240.8571900246616</v>
+        <v>238.2285042913665</v>
       </c>
       <c r="D14">
-        <v>4.096193503837899</v>
+        <v>3.126330628038056</v>
       </c>
       <c r="E14">
-        <v>5348.614465491922</v>
+        <v>4199.261961545706</v>
       </c>
       <c r="F14">
-        <v>343747613367.1584</v>
+        <v>343747613367.1583</v>
       </c>
       <c r="G14">
-        <v>24525.76897931392</v>
+        <v>19465.15503002328</v>
       </c>
       <c r="H14">
-        <v>1207102651917.388</v>
+        <v>956998820778.0288</v>
       </c>
       <c r="I14">
         <v>12.14522622183988</v>
@@ -4996,25 +4996,25 @@
         <v>2003</v>
       </c>
       <c r="B15">
-        <v>65.00735529914832</v>
+        <v>65.08099680030477</v>
       </c>
       <c r="C15">
-        <v>241.3192586671867</v>
+        <v>238.6616108295165</v>
       </c>
       <c r="D15">
-        <v>3.905771041074726</v>
+        <v>3.054718336100904</v>
       </c>
       <c r="E15">
-        <v>5333.277482677318</v>
+        <v>4249.255917072503</v>
       </c>
       <c r="F15">
-        <v>350768366703.1083</v>
+        <v>350768366703.1084</v>
       </c>
       <c r="G15">
-        <v>25334.48606797575</v>
+        <v>20247.11982618919</v>
       </c>
       <c r="H15">
-        <v>1250196606073.298</v>
+        <v>997649055492.4626</v>
       </c>
       <c r="I15">
         <v>11.60670492154575</v>
@@ -5025,25 +5025,25 @@
         <v>2004</v>
       </c>
       <c r="B16">
-        <v>65.06929697218476</v>
+        <v>65.11811994734342</v>
       </c>
       <c r="C16">
-        <v>241.8269545103988</v>
+        <v>239.1303719980348</v>
       </c>
       <c r="D16">
-        <v>3.881981873398027</v>
+        <v>3.081958865399635</v>
       </c>
       <c r="E16">
-        <v>5361.216989523545</v>
+        <v>4322.350755880633</v>
       </c>
       <c r="F16">
         <v>361503349454.6071</v>
       </c>
       <c r="G16">
-        <v>26484.8646123765</v>
+        <v>21262.14131411753</v>
       </c>
       <c r="H16">
-        <v>1312082257740.211</v>
+        <v>1051187224867.495</v>
       </c>
       <c r="I16">
         <v>10.98015943513545</v>
@@ -5054,25 +5054,25 @@
         <v>2005</v>
       </c>
       <c r="B17">
-        <v>65.13572360240302</v>
+        <v>65.16063226529626</v>
       </c>
       <c r="C17">
-        <v>242.3944387969077</v>
+        <v>239.6459612054228</v>
       </c>
       <c r="D17">
-        <v>4.319786137097335</v>
+        <v>3.417057901284049</v>
       </c>
       <c r="E17">
-        <v>5407.358318396237</v>
+        <v>4404.390135194535</v>
       </c>
       <c r="F17">
-        <v>372663965373.4005</v>
+        <v>372663965373.4004</v>
       </c>
       <c r="G17">
-        <v>27617.89118573937</v>
+        <v>22283.66438091084</v>
       </c>
       <c r="H17">
-        <v>1373012932334.69</v>
+        <v>1105144262464.904</v>
       </c>
       <c r="I17">
         <v>10.51679841332442</v>
@@ -5083,25 +5083,25 @@
         <v>2006</v>
       </c>
       <c r="B18">
-        <v>65.19948360003063</v>
+        <v>65.20352968967892</v>
       </c>
       <c r="C18">
-        <v>243.0213485738719</v>
+        <v>240.2101387927905</v>
       </c>
       <c r="D18">
-        <v>4.538237228549128</v>
+        <v>3.61103326544306</v>
       </c>
       <c r="E18">
-        <v>5462.949868612267</v>
+        <v>4490.536233741217</v>
       </c>
       <c r="F18">
         <v>385000071454.4875</v>
       </c>
       <c r="G18">
-        <v>28790.06052991809</v>
+        <v>23347.82730594231</v>
       </c>
       <c r="H18">
-        <v>1435618216480.365</v>
+        <v>1161170778740.838</v>
       </c>
       <c r="I18">
         <v>10.19548703141146</v>
@@ -5112,25 +5112,25 @@
         <v>2007</v>
       </c>
       <c r="B19">
-        <v>65.25910021052863</v>
+        <v>65.24541181616054</v>
       </c>
       <c r="C19">
-        <v>243.7069365246933</v>
+        <v>240.8240765542102</v>
       </c>
       <c r="D19">
-        <v>4.683013453940997</v>
+        <v>3.756120716242384</v>
       </c>
       <c r="E19">
-        <v>5508.314333660423</v>
+        <v>4567.565076764765</v>
       </c>
       <c r="F19">
-        <v>400011680336.61</v>
+        <v>400011680336.6102</v>
       </c>
       <c r="G19">
-        <v>30224.34915682748</v>
+        <v>24611.89785431706</v>
       </c>
       <c r="H19">
-        <v>1511870736528.666</v>
+        <v>1227684814428.166</v>
       </c>
       <c r="I19">
         <v>9.645919083782617</v>
@@ -5141,25 +5141,25 @@
         <v>2008</v>
       </c>
       <c r="B20">
-        <v>65.31238939943204</v>
+        <v>65.28434116000064</v>
       </c>
       <c r="C20">
-        <v>244.4452659647031</v>
+        <v>241.4849325359574</v>
       </c>
       <c r="D20">
-        <v>4.930288031250558</v>
+        <v>3.975707048000125</v>
       </c>
       <c r="E20">
-        <v>5556.971550509566</v>
+        <v>4644.981873432726</v>
       </c>
       <c r="F20">
-        <v>411758865334.8085</v>
+        <v>411758865334.8087</v>
       </c>
       <c r="G20">
-        <v>31311.34869248958</v>
+        <v>25646.55334600609</v>
       </c>
       <c r="H20">
-        <v>1573054404655.757</v>
+        <v>1284491358716.219</v>
       </c>
       <c r="I20">
         <v>9.506477552490942</v>
@@ -5170,25 +5170,25 @@
         <v>2009</v>
       </c>
       <c r="B21">
-        <v>65.35690104933694</v>
+        <v>65.31812719431343</v>
       </c>
       <c r="C21">
-        <v>245.2256187004313</v>
+        <v>242.1858757833217</v>
       </c>
       <c r="D21">
-        <v>4.669715914993017</v>
+        <v>3.827152273233804</v>
       </c>
       <c r="E21">
-        <v>5620.640553348033</v>
+        <v>4731.673849555107</v>
       </c>
       <c r="F21">
-        <v>414436748466.3683</v>
+        <v>414436748466.3685</v>
       </c>
       <c r="G21">
-        <v>31771.09872765746</v>
+        <v>26232.04063490053</v>
       </c>
       <c r="H21">
-        <v>1604730211607.563</v>
+        <v>1320353810404.681</v>
       </c>
       <c r="I21">
         <v>9.106812577065352</v>
@@ -5199,25 +5199,25 @@
         <v>2010</v>
       </c>
       <c r="B22">
-        <v>65.39032864362723</v>
+        <v>65.34462526341058</v>
       </c>
       <c r="C22">
-        <v>246.0478781116976</v>
+        <v>242.9273185473317</v>
       </c>
       <c r="D22">
-        <v>4.554555178417678</v>
+        <v>3.777810565383938</v>
       </c>
       <c r="E22">
-        <v>5647.371233208592</v>
+        <v>4789.731087484038</v>
       </c>
       <c r="F22">
-        <v>417679449576.6616</v>
+        <v>417679449576.6618</v>
       </c>
       <c r="G22">
-        <v>32229.09724349195</v>
+        <v>26810.28906257588</v>
       </c>
       <c r="H22">
-        <v>1635547611286.072</v>
+        <v>1355466775878.543</v>
       </c>
       <c r="I22">
         <v>9.497486346254641</v>
@@ -5228,25 +5228,25 @@
         <v>2011</v>
       </c>
       <c r="B23">
-        <v>65.40430175786825</v>
+        <v>65.35707605220493</v>
       </c>
       <c r="C23">
-        <v>246.9077742518093</v>
+        <v>243.7064699618679</v>
       </c>
       <c r="D23">
-        <v>4.356983915111351</v>
+        <v>3.661537710298877</v>
       </c>
       <c r="E23">
-        <v>5682.645930294694</v>
+        <v>4852.342602516461</v>
       </c>
       <c r="F23">
-        <v>422017027231.257</v>
+        <v>422017027231.2571</v>
       </c>
       <c r="G23">
-        <v>32789.57472605954</v>
+        <v>27460.32256227628</v>
       </c>
       <c r="H23">
-        <v>1671369178372.887</v>
+        <v>1394229202196.416</v>
       </c>
       <c r="I23">
         <v>9.338613927807517</v>
@@ -5257,25 +5257,25 @@
         <v>2012</v>
       </c>
       <c r="B24">
-        <v>65.4009138459501</v>
+        <v>65.35642949219569</v>
       </c>
       <c r="C24">
-        <v>247.7899104557772</v>
+        <v>244.5118107238742</v>
       </c>
       <c r="D24">
-        <v>4.2150410344607</v>
+        <v>3.581708342143643</v>
       </c>
       <c r="E24">
-        <v>5712.829857150099</v>
+        <v>4909.523692154209</v>
       </c>
       <c r="F24">
-        <v>426402167274.5438</v>
+        <v>426402167274.5439</v>
       </c>
       <c r="G24">
-        <v>33322.18083122915</v>
+        <v>28086.16098778377</v>
       </c>
       <c r="H24">
-        <v>1706259681613.622</v>
+        <v>1432268984859.816</v>
       </c>
       <c r="I24">
         <v>9.294886876908018</v>
@@ -5286,28 +5286,28 @@
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>65.38192655660593</v>
+        <v>65.34353739197626</v>
       </c>
       <c r="C25">
-        <v>248.6893764555158</v>
+        <v>245.339312113354</v>
       </c>
       <c r="D25">
-        <v>4.096782917032425</v>
+        <v>3.51575361316023</v>
       </c>
       <c r="E25">
-        <v>5729.421660492691</v>
+        <v>4954.689134170999</v>
       </c>
       <c r="F25">
-        <v>431599001609.424</v>
+        <v>431599001609.4243</v>
       </c>
       <c r="G25">
-        <v>33863.10230300319</v>
+        <v>28715.21425640404</v>
       </c>
       <c r="H25">
-        <v>1741269865576.235</v>
+        <v>1470370894353.171</v>
       </c>
       <c r="I25">
-        <v>9.505703634097442</v>
+        <v>9.505703634097443</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5315,25 +5315,25 @@
         <v>2014</v>
       </c>
       <c r="B26">
-        <v>65.34955320768552</v>
+        <v>65.31972838208954</v>
       </c>
       <c r="C26">
-        <v>249.6143639312732</v>
+        <v>246.1950424893371</v>
       </c>
       <c r="D26">
-        <v>3.986366838844055</v>
+        <v>3.452305846226661</v>
       </c>
       <c r="E26">
-        <v>5741.799045766817</v>
+        <v>4994.937109850608</v>
       </c>
       <c r="F26">
-        <v>438433790399.6746</v>
+        <v>438433790399.6747</v>
       </c>
       <c r="G26">
-        <v>34565.3923660143</v>
+        <v>29467.6732106327</v>
       </c>
       <c r="H26">
-        <v>1784552314566.781</v>
+        <v>1514915906201.446</v>
       </c>
       <c r="I26">
         <v>9.326007029243744</v>
@@ -5344,25 +5344,25 @@
         <v>2015</v>
       </c>
       <c r="B27">
-        <v>65.30649911090899</v>
+        <v>65.28684131608102</v>
       </c>
       <c r="C27">
-        <v>250.5707299187808</v>
+        <v>247.0835362999007</v>
       </c>
       <c r="D27">
-        <v>3.866296940505554</v>
+        <v>3.378039469117304</v>
       </c>
       <c r="E27">
-        <v>5726.203238251434</v>
+        <v>5011.510132585879</v>
       </c>
       <c r="F27">
-        <v>443261614618.7467</v>
+        <v>443261614618.7468</v>
       </c>
       <c r="G27">
-        <v>35095.9383432635</v>
+        <v>30084.44176388587</v>
       </c>
       <c r="H27">
-        <v>1818555746278.556</v>
+        <v>1552236292296.409</v>
       </c>
       <c r="I27">
         <v>9.213357502950581</v>
@@ -5373,25 +5373,25 @@
         <v>2016</v>
       </c>
       <c r="B28">
-        <v>65.25633300556511</v>
+        <v>65.24752464923544</v>
       </c>
       <c r="C28">
-        <v>251.5521004359088</v>
+        <v>247.9997541116858</v>
       </c>
       <c r="D28">
-        <v>4.249847609620622</v>
+        <v>3.702898311282452</v>
       </c>
       <c r="E28">
-        <v>5716.045590815899</v>
+        <v>5030.549425357198</v>
       </c>
       <c r="F28">
-        <v>444976663139.3179</v>
+        <v>444976663139.3181</v>
       </c>
       <c r="G28">
-        <v>35400.55883589223</v>
+        <v>30518.10457490187</v>
       </c>
       <c r="H28">
-        <v>1840625337071.851</v>
+        <v>1579978965401.766</v>
       </c>
       <c r="I28">
         <v>8.995169187528946</v>
@@ -5402,25 +5402,25 @@
         <v>2017</v>
       </c>
       <c r="B29">
-        <v>65.20159169965747</v>
+        <v>65.20372466286818</v>
       </c>
       <c r="C29">
-        <v>252.5472942819621</v>
+        <v>248.9345809580069</v>
       </c>
       <c r="D29">
-        <v>4.268122654983456</v>
+        <v>3.738041927376903</v>
       </c>
       <c r="E29">
-        <v>5725.285609447882</v>
+        <v>5063.58003019202</v>
       </c>
       <c r="F29">
-        <v>446654789434.9849</v>
+        <v>446654789434.9852</v>
       </c>
       <c r="G29">
-        <v>35653.19290111171</v>
+        <v>30903.9685197881</v>
       </c>
       <c r="H29">
-        <v>1859165372966.655</v>
+        <v>1604651701142.16</v>
       </c>
       <c r="I29">
         <v>8.947601570326869</v>
@@ -5431,28 +5431,28 @@
         <v>2018</v>
       </c>
       <c r="B30">
-        <v>65.14405505784379</v>
+        <v>65.15685511750031</v>
       </c>
       <c r="C30">
-        <v>253.5469568888901</v>
+        <v>249.8800771981732</v>
       </c>
       <c r="D30">
-        <v>4.036635944548347</v>
+        <v>3.569232098688085</v>
       </c>
       <c r="E30">
-        <v>5746.625354981677</v>
+        <v>5105.208142158989</v>
       </c>
       <c r="F30">
         <v>449936898095.6996</v>
       </c>
       <c r="G30">
-        <v>36013.77293253902</v>
+        <v>31371.42624854848</v>
       </c>
       <c r="H30">
-        <v>1884304788720.434</v>
+        <v>1634432630104.12</v>
       </c>
       <c r="I30">
-        <v>8.846981668337643</v>
+        <v>8.846981668337641</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5460,25 +5460,25 @@
         <v>2019</v>
       </c>
       <c r="B31">
-        <v>65.08471931750732</v>
+        <v>65.10773903336248</v>
       </c>
       <c r="C31">
-        <v>254.5465317906874</v>
+        <v>250.8320173843</v>
       </c>
       <c r="D31">
-        <v>3.862431269321433</v>
+        <v>3.443252068920686</v>
       </c>
       <c r="E31">
-        <v>5751.226500749684</v>
+        <v>5132.1243392177</v>
       </c>
       <c r="F31">
-        <v>452915213813.0063</v>
+        <v>452915213813.0064</v>
       </c>
       <c r="G31">
-        <v>36324.28919096433</v>
+        <v>31793.54714470029</v>
       </c>
       <c r="H31">
-        <v>1906593297746.301</v>
+        <v>1661724585808.217</v>
       </c>
       <c r="I31">
         <v>8.879728176020482</v>
@@ -5489,25 +5489,25 @@
         <v>2020</v>
       </c>
       <c r="B32">
-        <v>65.0239000606217</v>
+        <v>65.05666210790608</v>
       </c>
       <c r="C32">
-        <v>255.5231818850172</v>
+        <v>251.7710004146116</v>
       </c>
       <c r="D32">
-        <v>3.744868112071158</v>
+        <v>3.360986137732437</v>
       </c>
       <c r="E32">
-        <v>5662.018571771698</v>
+        <v>5080.389811429041</v>
       </c>
       <c r="F32">
-        <v>453719238882.9115</v>
+        <v>453719238882.9116</v>
       </c>
       <c r="G32">
-        <v>36529.42581652195</v>
+        <v>32123.95576551076</v>
       </c>
       <c r="H32">
-        <v>1923140564910.918</v>
+        <v>1684094237463.367</v>
       </c>
       <c r="I32">
         <v>8.697854008196687</v>
@@ -5518,25 +5518,25 @@
         <v>2021</v>
       </c>
       <c r="B33">
-        <v>64.96111780837724</v>
+        <v>65.00325365366804</v>
       </c>
       <c r="C33">
-        <v>255.5231818850172</v>
+        <v>251.7710004146116</v>
       </c>
       <c r="D33">
-        <v>3.744868112071158</v>
+        <v>3.360986137732437</v>
       </c>
       <c r="E33">
-        <v>5662.018571771698</v>
+        <v>5080.389811429041</v>
       </c>
       <c r="F33">
-        <v>458356794919.9553</v>
+        <v>458356794919.9554</v>
       </c>
       <c r="G33">
-        <v>36983.30302246948</v>
+        <v>32655.83503163661</v>
       </c>
       <c r="H33">
-        <v>1954190003367.269</v>
+        <v>1718300217932.275</v>
       </c>
       <c r="I33">
         <v>8.76690832410466</v>
@@ -5589,25 +5589,25 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>57.14255810367661</v>
+        <v>57.1425581036766</v>
       </c>
       <c r="C2">
-        <v>235.0851566835622</v>
+        <v>235.0851566835621</v>
       </c>
       <c r="D2">
-        <v>0.04248482666874018</v>
+        <v>0.04248482666874017</v>
       </c>
       <c r="E2">
-        <v>366.0000000000001</v>
+        <v>366</v>
       </c>
       <c r="F2">
-        <v>47207847596.5437</v>
+        <v>47207847596.54369</v>
       </c>
       <c r="G2">
-        <v>266.5778507837451</v>
+        <v>266.577850783745</v>
       </c>
       <c r="H2">
-        <v>163030988939.2865</v>
+        <v>163030988939.2864</v>
       </c>
       <c r="I2">
         <v>16.75237579755089</v>
@@ -5618,13 +5618,13 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>57.16209944061296</v>
+        <v>57.16209944061295</v>
       </c>
       <c r="C3">
         <v>237.8906275648523</v>
       </c>
       <c r="D3">
-        <v>0.04503373764927774</v>
+        <v>0.04503373764927773</v>
       </c>
       <c r="E3">
         <v>389.0456821809645</v>
@@ -5633,7 +5633,7 @@
         <v>48882390749.51745</v>
       </c>
       <c r="G3">
-        <v>268.5538660827887</v>
+        <v>268.5538660827888</v>
       </c>
       <c r="H3">
         <v>164514851911.3914</v>
@@ -5647,7 +5647,7 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>57.18415732848982</v>
+        <v>57.18415732848981</v>
       </c>
       <c r="C4">
         <v>240.7729437474433</v>
@@ -5659,7 +5659,7 @@
         <v>396.2098965873458</v>
       </c>
       <c r="F4">
-        <v>50120574108.67736</v>
+        <v>50120574108.67735</v>
       </c>
       <c r="G4">
         <v>270.4630582872332</v>
@@ -5685,13 +5685,13 @@
         <v>0.03161744512058169</v>
       </c>
       <c r="E5">
-        <v>413.3117302691283</v>
+        <v>413.3117302691284</v>
       </c>
       <c r="F5">
-        <v>52024520790.95902</v>
+        <v>52024520790.95903</v>
       </c>
       <c r="G5">
-        <v>275.8964714444837</v>
+        <v>275.8964714444836</v>
       </c>
       <c r="H5">
         <v>172080567138.984</v>
@@ -5705,7 +5705,7 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>57.24953222029594</v>
+        <v>57.24953222029595</v>
       </c>
       <c r="C6">
         <v>246.7390787329686</v>
@@ -5717,7 +5717,7 @@
         <v>441.3839402374289</v>
       </c>
       <c r="F6">
-        <v>53023649625.27628</v>
+        <v>53023649625.27629</v>
       </c>
       <c r="G6">
         <v>276.0603085282391</v>
@@ -5734,19 +5734,19 @@
         <v>1985</v>
       </c>
       <c r="B7">
-        <v>57.30195855660806</v>
+        <v>57.30195855660807</v>
       </c>
       <c r="C7">
         <v>249.8053639236519</v>
       </c>
       <c r="D7">
-        <v>0.03020535574561162</v>
+        <v>0.03020535574561161</v>
       </c>
       <c r="E7">
         <v>450.0620193730313</v>
       </c>
       <c r="F7">
-        <v>54620765830.6914</v>
+        <v>54620765830.69141</v>
       </c>
       <c r="G7">
         <v>279.7198462306384</v>
@@ -5772,13 +5772,13 @@
         <v>0.03287362177485117</v>
       </c>
       <c r="E8">
-        <v>464.0667044333524</v>
+        <v>464.0667044333523</v>
       </c>
       <c r="F8">
-        <v>56485485382.25069</v>
+        <v>56485485382.25067</v>
       </c>
       <c r="G8">
-        <v>284.5234930443229</v>
+        <v>284.5234930443231</v>
       </c>
       <c r="H8">
         <v>182837227229.5653</v>
@@ -5792,7 +5792,7 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>57.38471551873236</v>
+        <v>57.38471551873238</v>
       </c>
       <c r="C9">
         <v>256.0782038716675</v>
@@ -5804,10 +5804,10 @@
         <v>489.1942529751224</v>
       </c>
       <c r="F9">
-        <v>58984509386.61476</v>
+        <v>58984509386.61475</v>
       </c>
       <c r="G9">
-        <v>292.2772445124663</v>
+        <v>292.2772445124665</v>
       </c>
       <c r="H9">
         <v>189748059717.7007</v>
@@ -5821,19 +5821,19 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>57.43902251617996</v>
+        <v>57.43902251617995</v>
       </c>
       <c r="C10">
-        <v>259.2807034711462</v>
+        <v>259.2807034711461</v>
       </c>
       <c r="D10">
-        <v>0.03785515650528553</v>
+        <v>0.03785515650528552</v>
       </c>
       <c r="E10">
-        <v>508.8513946302884</v>
+        <v>508.8513946302882</v>
       </c>
       <c r="F10">
-        <v>61516835938.70351</v>
+        <v>61516835938.70348</v>
       </c>
       <c r="G10">
         <v>300.0186980186717</v>
@@ -5850,19 +5850,19 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>57.50483085003691</v>
+        <v>57.5048308500369</v>
       </c>
       <c r="C11">
-        <v>262.5256829465416</v>
+        <v>262.5256829465415</v>
       </c>
       <c r="D11">
-        <v>0.0432594889724209</v>
+        <v>0.04325948897242089</v>
       </c>
       <c r="E11">
         <v>528.47413211846</v>
       </c>
       <c r="F11">
-        <v>63807119552.54669</v>
+        <v>63807119552.54665</v>
       </c>
       <c r="G11">
         <v>305.2850833023268</v>
@@ -5879,7 +5879,7 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>57.58123497918518</v>
+        <v>57.58123497918516</v>
       </c>
       <c r="C12">
         <v>265.812503329031</v>
@@ -5891,7 +5891,7 @@
         <v>542.6392063851129</v>
       </c>
       <c r="F12">
-        <v>66369143239.66644</v>
+        <v>66369143239.66642</v>
       </c>
       <c r="G12">
         <v>311.8469202341444</v>
@@ -5908,7 +5908,7 @@
         <v>1991</v>
       </c>
       <c r="B13">
-        <v>57.65892079214419</v>
+        <v>57.65892079214416</v>
       </c>
       <c r="C13">
         <v>269.1399566751585</v>
@@ -5917,13 +5917,13 @@
         <v>0.04458548889239183</v>
       </c>
       <c r="E13">
-        <v>537.7849227772286</v>
+        <v>537.7849227772285</v>
       </c>
       <c r="F13">
-        <v>66864119173.57327</v>
+        <v>66864119173.57325</v>
       </c>
       <c r="G13">
-        <v>310.9854706351878</v>
+        <v>310.9854706351879</v>
       </c>
       <c r="H13">
         <v>206672700685.3442</v>
@@ -5937,22 +5937,22 @@
         <v>1992</v>
       </c>
       <c r="B14">
-        <v>57.74042745382831</v>
+        <v>57.74042745382827</v>
       </c>
       <c r="C14">
-        <v>272.5067982124135</v>
+        <v>272.5067982124134</v>
       </c>
       <c r="D14">
-        <v>0.04929747007496118</v>
+        <v>0.04929747007496117</v>
       </c>
       <c r="E14">
-        <v>527.840527481397</v>
+        <v>527.8405274813969</v>
       </c>
       <c r="F14">
-        <v>67814181886.6484</v>
+        <v>67814181886.64838</v>
       </c>
       <c r="G14">
-        <v>311.5330808239963</v>
+        <v>311.5330808239964</v>
       </c>
       <c r="H14">
         <v>207981626550.5888</v>
@@ -5966,22 +5966,22 @@
         <v>1993</v>
       </c>
       <c r="B15">
-        <v>57.8281920685333</v>
+        <v>57.82819206853328</v>
       </c>
       <c r="C15">
-        <v>275.912859876338</v>
+        <v>275.9128598763379</v>
       </c>
       <c r="D15">
-        <v>0.06206597232652194</v>
+        <v>0.06206597232652197</v>
       </c>
       <c r="E15">
         <v>514.4082023137873</v>
       </c>
       <c r="F15">
-        <v>68417842378.57166</v>
+        <v>68417842378.57165</v>
       </c>
       <c r="G15">
-        <v>310.6366094004325</v>
+        <v>310.6366094004326</v>
       </c>
       <c r="H15">
         <v>208461398018.4301</v>
@@ -5995,22 +5995,22 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>57.92503769418601</v>
+        <v>57.925037694186</v>
       </c>
       <c r="C16">
         <v>279.3590871986133</v>
       </c>
       <c r="D16">
-        <v>0.08131510930570694</v>
+        <v>0.08131510930570696</v>
       </c>
       <c r="E16">
-        <v>518.4320822949929</v>
+        <v>518.4320822949928</v>
       </c>
       <c r="F16">
-        <v>70217644899.0451</v>
+        <v>70217644899.04507</v>
       </c>
       <c r="G16">
-        <v>313.5377510785804</v>
+        <v>313.5377510785805</v>
       </c>
       <c r="H16">
         <v>211561670532.6166</v>
@@ -6024,25 +6024,25 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>58.03325954868895</v>
+        <v>58.03325954868892</v>
       </c>
       <c r="C17">
-        <v>282.8468002347069</v>
+        <v>282.8468002347068</v>
       </c>
       <c r="D17">
         <v>0.1212639892165344</v>
       </c>
       <c r="E17">
-        <v>528.9676020738694</v>
+        <v>528.9676020738693</v>
       </c>
       <c r="F17">
-        <v>72770278819.80754</v>
+        <v>72770278819.80753</v>
       </c>
       <c r="G17">
-        <v>318.2218184906564</v>
+        <v>318.2218184906565</v>
       </c>
       <c r="H17">
-        <v>215910197170.4308</v>
+        <v>215910197170.4307</v>
       </c>
       <c r="I17">
         <v>17.86585059655905</v>
@@ -6053,22 +6053,22 @@
         <v>1996</v>
       </c>
       <c r="B18">
-        <v>58.1469591367932</v>
+        <v>58.14695913679317</v>
       </c>
       <c r="C18">
-        <v>286.3770396026165</v>
+        <v>286.3770396026164</v>
       </c>
       <c r="D18">
         <v>0.1580957834843192</v>
       </c>
       <c r="E18">
-        <v>531.6421235796695</v>
+        <v>531.6421235796694</v>
       </c>
       <c r="F18">
-        <v>75508917124.25676</v>
+        <v>75508917124.25671</v>
       </c>
       <c r="G18">
-        <v>324.2881363468035</v>
+        <v>324.2881363468034</v>
       </c>
       <c r="H18">
         <v>221723173005.6702</v>
@@ -6082,10 +6082,10 @@
         <v>1997</v>
       </c>
       <c r="B19">
-        <v>58.26852835440496</v>
+        <v>58.26852835440495</v>
       </c>
       <c r="C19">
-        <v>289.9499510324809</v>
+        <v>289.9499510324808</v>
       </c>
       <c r="D19">
         <v>0.208003250581856</v>
@@ -6094,10 +6094,10 @@
         <v>531.3832347412655</v>
       </c>
       <c r="F19">
-        <v>78370410161.27553</v>
+        <v>78370410161.2755</v>
       </c>
       <c r="G19">
-        <v>330.7712024032098</v>
+        <v>330.7712024032099</v>
       </c>
       <c r="H19">
         <v>228115594293.4975</v>
@@ -6114,19 +6114,19 @@
         <v>58.39944740935874</v>
       </c>
       <c r="C20">
-        <v>293.5646818413273</v>
+        <v>293.5646818413272</v>
       </c>
       <c r="D20">
         <v>0.23649401983097</v>
       </c>
       <c r="E20">
-        <v>531.377550897904</v>
+        <v>531.3775508979041</v>
       </c>
       <c r="F20">
-        <v>80874215707.46373</v>
+        <v>80874215707.46371</v>
       </c>
       <c r="G20">
-        <v>336.4059397598675</v>
+        <v>336.4059397598676</v>
       </c>
       <c r="H20">
         <v>234323735773.1652</v>
@@ -6140,10 +6140,10 @@
         <v>1999</v>
       </c>
       <c r="B21">
-        <v>58.54019102354505</v>
+        <v>58.54019102354503</v>
       </c>
       <c r="C21">
-        <v>297.2192735072446</v>
+        <v>297.2192735072445</v>
       </c>
       <c r="D21">
         <v>0.2520232546651805</v>
@@ -6152,10 +6152,10 @@
         <v>531.3658759862836</v>
       </c>
       <c r="F21">
-        <v>83557329084.83202</v>
+        <v>83557329084.832</v>
       </c>
       <c r="G21">
-        <v>343.3497042034654</v>
+        <v>343.3497042034655</v>
       </c>
       <c r="H21">
         <v>241901140039.2266</v>
@@ -6169,22 +6169,22 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>58.69056129388444</v>
+        <v>58.69056129388443</v>
       </c>
       <c r="C22">
         <v>300.9110817581881</v>
       </c>
       <c r="D22">
-        <v>0.2846053644865145</v>
+        <v>0.2846053644865146</v>
       </c>
       <c r="E22">
-        <v>532.3998729609698</v>
+        <v>532.3998729609696</v>
       </c>
       <c r="F22">
-        <v>86378512260.61055</v>
+        <v>86378512260.61057</v>
       </c>
       <c r="G22">
-        <v>349.6963941674795</v>
+        <v>349.6963941674797</v>
       </c>
       <c r="H22">
         <v>249050818314.9629</v>
@@ -6198,25 +6198,25 @@
         <v>2001</v>
       </c>
       <c r="B23">
-        <v>58.84404488529804</v>
+        <v>58.84404488529802</v>
       </c>
       <c r="C23">
         <v>304.6371525291345</v>
       </c>
       <c r="D23">
-        <v>0.3320170104359843</v>
+        <v>0.3320170104359844</v>
       </c>
       <c r="E23">
-        <v>531.3536918046937</v>
+        <v>531.3536918046935</v>
       </c>
       <c r="F23">
         <v>88971194747.49142</v>
       </c>
       <c r="G23">
-        <v>355.9548896184073</v>
+        <v>355.9548896184074</v>
       </c>
       <c r="H23">
-        <v>256388223666.1459</v>
+        <v>256388223666.1458</v>
       </c>
       <c r="I23">
         <v>15.30702128315309</v>
@@ -6227,25 +6227,25 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>59.00219697728447</v>
+        <v>59.00219697728446</v>
       </c>
       <c r="C24">
-        <v>308.3946838957297</v>
+        <v>308.3946838957296</v>
       </c>
       <c r="D24">
         <v>0.3724913075693834</v>
       </c>
       <c r="E24">
-        <v>532.2462766194712</v>
+        <v>532.2462766194711</v>
       </c>
       <c r="F24">
         <v>92155512274.39122</v>
       </c>
       <c r="G24">
-        <v>362.8061917076756</v>
+        <v>362.8061917076757</v>
       </c>
       <c r="H24">
-        <v>263918749318.887</v>
+        <v>263918749318.8869</v>
       </c>
       <c r="I24">
         <v>15.5587017264204</v>
@@ -6256,13 +6256,13 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>59.16583417860272</v>
+        <v>59.1658341786027</v>
       </c>
       <c r="C25">
         <v>312.1811956277485</v>
       </c>
       <c r="D25">
-        <v>0.3859933726403315</v>
+        <v>0.3859933726403316</v>
       </c>
       <c r="E25">
         <v>535.0001507582933</v>
@@ -6271,10 +6271,10 @@
         <v>96482947172.4511</v>
       </c>
       <c r="G25">
-        <v>373.4459832448331</v>
+        <v>373.4459832448333</v>
       </c>
       <c r="H25">
-        <v>274096514772.5243</v>
+        <v>274096514772.524</v>
       </c>
       <c r="I25">
         <v>15.58738664870186</v>
@@ -6285,16 +6285,16 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>59.3351354959604</v>
+        <v>59.33513549596039</v>
       </c>
       <c r="C26">
-        <v>315.9946352385637</v>
+        <v>315.9946352385636</v>
       </c>
       <c r="D26">
-        <v>0.4073586644384106</v>
+        <v>0.4073586644384108</v>
       </c>
       <c r="E26">
-        <v>544.7637502132402</v>
+        <v>544.76375021324</v>
       </c>
       <c r="F26">
         <v>102714766505.7288</v>
@@ -6303,7 +6303,7 @@
         <v>387.7602152890976</v>
       </c>
       <c r="H26">
-        <v>286112121634.851</v>
+        <v>286112121634.8509</v>
       </c>
       <c r="I26">
         <v>15.82724574050271</v>
@@ -6314,22 +6314,22 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>59.50994873754765</v>
+        <v>59.50994873754763</v>
       </c>
       <c r="C27">
         <v>319.833045632144</v>
       </c>
       <c r="D27">
-        <v>0.433613426666336</v>
+        <v>0.4336134266663361</v>
       </c>
       <c r="E27">
-        <v>557.3375221456564</v>
+        <v>557.3375221456563</v>
       </c>
       <c r="F27">
         <v>110369208239.6911</v>
       </c>
       <c r="G27">
-        <v>405.6987975141776</v>
+        <v>405.6987975141775</v>
       </c>
       <c r="H27">
         <v>300900273413.7455</v>
@@ -6343,13 +6343,13 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>59.68645655809464</v>
+        <v>59.68645655809461</v>
       </c>
       <c r="C28">
         <v>323.6947573940918</v>
       </c>
       <c r="D28">
-        <v>0.5243992213678427</v>
+        <v>0.5243992213678429</v>
       </c>
       <c r="E28">
         <v>572.59976915864</v>
@@ -6361,7 +6361,7 @@
         <v>427.1599644063421</v>
       </c>
       <c r="H28">
-        <v>317962405211.9877</v>
+        <v>317962405211.9876</v>
       </c>
       <c r="I28">
         <v>17.30365333111118</v>
@@ -6372,22 +6372,22 @@
         <v>2007</v>
       </c>
       <c r="B29">
-        <v>59.8650619179712</v>
+        <v>59.86506191797119</v>
       </c>
       <c r="C29">
         <v>327.5775150393904</v>
       </c>
       <c r="D29">
-        <v>0.6053847693495893</v>
+        <v>0.6053847693495894</v>
       </c>
       <c r="E29">
-        <v>593.255795444938</v>
+        <v>593.2557954449381</v>
       </c>
       <c r="F29">
         <v>133407836797.4286</v>
       </c>
       <c r="G29">
-        <v>458.5909395195472</v>
+        <v>458.5909395195473</v>
       </c>
       <c r="H29">
         <v>343083736914.037</v>
@@ -6401,25 +6401,25 @@
         <v>2008</v>
       </c>
       <c r="B30">
-        <v>60.04632218424056</v>
+        <v>60.04632218424054</v>
       </c>
       <c r="C30">
         <v>331.4774059924256</v>
       </c>
       <c r="D30">
-        <v>0.759587898368604</v>
+        <v>0.7595878983686043</v>
       </c>
       <c r="E30">
-        <v>626.0221481038664</v>
+        <v>626.0221481038665</v>
       </c>
       <c r="F30">
         <v>145676473240.885</v>
       </c>
       <c r="G30">
-        <v>486.2046459988439</v>
+        <v>486.2046459988441</v>
       </c>
       <c r="H30">
-        <v>366750538808.1127</v>
+        <v>366750538808.1125</v>
       </c>
       <c r="I30">
         <v>17.09867414895781</v>
@@ -6430,16 +6430,16 @@
         <v>2009</v>
       </c>
       <c r="B31">
-        <v>60.23141508918454</v>
+        <v>60.23141508918453</v>
       </c>
       <c r="C31">
         <v>335.3885463325267</v>
       </c>
       <c r="D31">
-        <v>0.8543472083253948</v>
+        <v>0.854347208325395</v>
       </c>
       <c r="E31">
-        <v>656.530146774967</v>
+        <v>656.5301467749671</v>
       </c>
       <c r="F31">
         <v>159296185700.6157</v>
@@ -6448,7 +6448,7 @@
         <v>517.044218214633</v>
       </c>
       <c r="H31">
-        <v>393692932667.7146</v>
+        <v>393692932667.7145</v>
       </c>
       <c r="I31">
         <v>17.14357766689418</v>
@@ -6459,16 +6459,16 @@
         <v>2010</v>
       </c>
       <c r="B32">
-        <v>60.42175790102323</v>
+        <v>60.42175790102321</v>
       </c>
       <c r="C32">
         <v>339.3040338125973</v>
       </c>
       <c r="D32">
-        <v>0.8926773635941145</v>
+        <v>0.8926773635941149</v>
       </c>
       <c r="E32">
-        <v>704.3728842780332</v>
+        <v>704.3728842780336</v>
       </c>
       <c r="F32">
         <v>176752379008.8003</v>
@@ -6488,13 +6488,13 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>60.61483778053875</v>
+        <v>60.61483778053874</v>
       </c>
       <c r="C33">
         <v>343.2168803202094</v>
       </c>
       <c r="D33">
-        <v>0.9461253308715969</v>
+        <v>0.9461253308715973</v>
       </c>
       <c r="E33">
         <v>752.4702950781235</v>
@@ -6506,7 +6506,7 @@
         <v>601.6620953179021</v>
       </c>
       <c r="H33">
-        <v>466902416464.9962</v>
+        <v>466902416464.9961</v>
       </c>
       <c r="I33">
         <v>16.13933744469147</v>
@@ -6517,22 +6517,22 @@
         <v>2012</v>
       </c>
       <c r="B34">
-        <v>60.81313136803534</v>
+        <v>60.81313136803531</v>
       </c>
       <c r="C34">
         <v>347.1212793946046</v>
       </c>
       <c r="D34">
-        <v>0.9634819042822745</v>
+        <v>0.9634819042822749</v>
       </c>
       <c r="E34">
-        <v>791.5906905961385</v>
+        <v>791.5906905961388</v>
       </c>
       <c r="F34">
-        <v>210937697824.8213</v>
+        <v>210937697824.8214</v>
       </c>
       <c r="G34">
-        <v>641.5140588549335</v>
+        <v>641.5140588549338</v>
       </c>
       <c r="H34">
         <v>502876275355.6456</v>
@@ -6546,25 +6546,25 @@
         <v>2013</v>
       </c>
       <c r="B35">
-        <v>61.01756935914612</v>
+        <v>61.0175693591461</v>
       </c>
       <c r="C35">
         <v>351.013238023661</v>
       </c>
       <c r="D35">
-        <v>0.9891936017545857</v>
+        <v>0.9891936017545863</v>
       </c>
       <c r="E35">
-        <v>835.4131883048891</v>
+        <v>835.4131883048894</v>
       </c>
       <c r="F35">
-        <v>225657075126.965</v>
+        <v>225657075126.9651</v>
       </c>
       <c r="G35">
-        <v>679.1004430407532</v>
+        <v>679.1004430407535</v>
       </c>
       <c r="H35">
-        <v>538160374608.3876</v>
+        <v>538160374608.3877</v>
       </c>
       <c r="I35">
         <v>15.25302269276287</v>
@@ -6575,22 +6575,22 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>61.22706234930436</v>
+        <v>61.22706234930435</v>
       </c>
       <c r="C36">
-        <v>354.8910245548779</v>
+        <v>354.891024554878</v>
       </c>
       <c r="D36">
         <v>1.021519122252077</v>
       </c>
       <c r="E36">
-        <v>881.8980471298678</v>
+        <v>881.898047129868</v>
       </c>
       <c r="F36">
-        <v>241136211892.0208</v>
+        <v>241136211892.0209</v>
       </c>
       <c r="G36">
-        <v>720.042867300156</v>
+        <v>720.0428673001563</v>
       </c>
       <c r="H36">
         <v>577512983760.0015</v>
@@ -6604,7 +6604,7 @@
         <v>2015</v>
       </c>
       <c r="B37">
-        <v>61.43955323377295</v>
+        <v>61.43955323377293</v>
       </c>
       <c r="C37">
         <v>358.7544476484869</v>
@@ -6613,16 +6613,16 @@
         <v>1.069746199000396</v>
       </c>
       <c r="E37">
-        <v>924.7804393423017</v>
+        <v>924.7804393423021</v>
       </c>
       <c r="F37">
-        <v>256188196644.4701</v>
+        <v>256188196644.4702</v>
       </c>
       <c r="G37">
-        <v>759.9347303660041</v>
+        <v>759.9347303660045</v>
       </c>
       <c r="H37">
-        <v>617295052424.6953</v>
+        <v>617295052424.6954</v>
       </c>
       <c r="I37">
         <v>15.58385458634904</v>
@@ -6633,7 +6633,7 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>61.65411350422361</v>
+        <v>61.6541135042236</v>
       </c>
       <c r="C38">
         <v>362.6035606817686</v>
@@ -6642,13 +6642,13 @@
         <v>1.108250301122617</v>
       </c>
       <c r="E38">
-        <v>967.7883175233151</v>
+        <v>967.7883175233155</v>
       </c>
       <c r="F38">
-        <v>271927885736.443</v>
+        <v>271927885736.4431</v>
       </c>
       <c r="G38">
-        <v>803.0987544132572</v>
+        <v>803.0987544132578</v>
       </c>
       <c r="H38">
         <v>660785383243.0421</v>
@@ -6665,7 +6665,7 @@
         <v>61.86779200890479</v>
       </c>
       <c r="C39">
-        <v>366.4380678042617</v>
+        <v>366.4380678042616</v>
       </c>
       <c r="D39">
         <v>1.125709474103168</v>
@@ -6674,13 +6674,13 @@
         <v>1030.758204633815</v>
       </c>
       <c r="F39">
-        <v>290771599601.3887</v>
+        <v>290771599601.3889</v>
       </c>
       <c r="G39">
-        <v>854.6174346030417</v>
+        <v>854.6174346030421</v>
       </c>
       <c r="H39">
-        <v>712488565088.8243</v>
+        <v>712488565088.8246</v>
       </c>
       <c r="I39">
         <v>15.01823875014704</v>
@@ -6691,10 +6691,10 @@
         <v>2018</v>
       </c>
       <c r="B40">
-        <v>62.07921430913987</v>
+        <v>62.07921430913984</v>
       </c>
       <c r="C40">
-        <v>370.2577939196145</v>
+        <v>370.2577939196143</v>
       </c>
       <c r="D40">
         <v>1.144374955555147</v>
@@ -6706,10 +6706,10 @@
         <v>309032416772.6616</v>
       </c>
       <c r="G40">
-        <v>903.9731786730875</v>
+        <v>903.9731786730879</v>
       </c>
       <c r="H40">
-        <v>763524634131.563</v>
+        <v>763524634131.5631</v>
       </c>
       <c r="I40">
         <v>14.88153066744756</v>
@@ -6720,10 +6720,10 @@
         <v>2019</v>
       </c>
       <c r="B41">
-        <v>62.28898356093482</v>
+        <v>62.28898356093477</v>
       </c>
       <c r="C41">
-        <v>374.0625700230934</v>
+        <v>374.0625700230932</v>
       </c>
       <c r="D41">
         <v>1.171764619120355</v>
@@ -6732,13 +6732,13 @@
         <v>1138.547285837929</v>
       </c>
       <c r="F41">
-        <v>325535436467.8896</v>
+        <v>325535436467.8897</v>
       </c>
       <c r="G41">
-        <v>953.7371471951141</v>
+        <v>953.7371471951143</v>
       </c>
       <c r="H41">
-        <v>817747431055.3934</v>
+        <v>817747431055.3937</v>
       </c>
       <c r="I41">
         <v>13.47361810745156</v>
@@ -6749,25 +6749,25 @@
         <v>2020</v>
       </c>
       <c r="B42">
-        <v>62.49832744176253</v>
+        <v>62.49832744176248</v>
       </c>
       <c r="C42">
-        <v>377.8521946346955</v>
+        <v>377.8521946346954</v>
       </c>
       <c r="D42">
-        <v>1.223964756251628</v>
+        <v>1.223964756251629</v>
       </c>
       <c r="E42">
         <v>1127.465980848323</v>
       </c>
       <c r="F42">
-        <v>339370085819.6516</v>
+        <v>339370085819.6517</v>
       </c>
       <c r="G42">
-        <v>994.9354133690658</v>
+        <v>994.9354133690662</v>
       </c>
       <c r="H42">
-        <v>865106134150.1906</v>
+        <v>865106134150.191</v>
       </c>
       <c r="I42">
         <v>13.68338528944649</v>
@@ -6778,25 +6778,25 @@
         <v>2021</v>
       </c>
       <c r="B43">
-        <v>62.70394277610549</v>
+        <v>62.70394277610545</v>
       </c>
       <c r="C43">
-        <v>377.8521946346955</v>
+        <v>377.8521946346954</v>
       </c>
       <c r="D43">
-        <v>1.223964756251628</v>
+        <v>1.223964756251629</v>
       </c>
       <c r="E43">
         <v>1127.465980848323</v>
       </c>
       <c r="F43">
-        <v>359389572173.6696</v>
+        <v>359389572173.6697</v>
       </c>
       <c r="G43">
         <v>1048.242244328802</v>
       </c>
       <c r="H43">
-        <v>922371273979.9584</v>
+        <v>922371273979.9587</v>
       </c>
       <c r="I43">
         <v>14.07022547391186</v>
@@ -6855,31 +6855,31 @@
         <v>1994</v>
       </c>
       <c r="B2">
-        <v>39.8400001525879</v>
+        <v>39.64895040201129</v>
       </c>
       <c r="C2">
-        <v>69.59287143122012</v>
+        <v>69.00422693158315</v>
       </c>
       <c r="D2">
-        <v>343.3296763576523</v>
+        <v>335.4138873640748</v>
       </c>
       <c r="E2">
-        <v>0.01777196340516677</v>
+        <v>0.02363145704584819</v>
       </c>
       <c r="F2">
-        <v>6007.899902343801</v>
+        <v>4367.984499921873</v>
       </c>
       <c r="G2">
         <v>1727278152939.404</v>
       </c>
       <c r="H2">
-        <v>39933.51505648737</v>
+        <v>23804.57110749473</v>
       </c>
       <c r="I2">
-        <v>3373095791123.575</v>
+        <v>1945365566438.024</v>
       </c>
       <c r="J2">
-        <v>34.18999862670901</v>
+        <v>34.4833612876778</v>
       </c>
       <c r="K2">
         <v>23.46921539563932</v>
@@ -6890,31 +6890,31 @@
         <v>1995</v>
       </c>
       <c r="B3">
-        <v>39.65865379293967</v>
+        <v>39.61238784729552</v>
       </c>
       <c r="C3">
-        <v>69.52210670943012</v>
+        <v>69.05029807178072</v>
       </c>
       <c r="D3">
-        <v>343.7474810922041</v>
+        <v>336.3027779120819</v>
       </c>
       <c r="E3">
-        <v>0.008951091192708496</v>
+        <v>0.021299329288683</v>
       </c>
       <c r="F3">
-        <v>6282.563165378102</v>
+        <v>4589.134766280388</v>
       </c>
       <c r="G3">
         <v>1818346571127.991</v>
       </c>
       <c r="H3">
-        <v>42142.89539063421</v>
+        <v>25882.86409459538</v>
       </c>
       <c r="I3">
-        <v>3574185131993.001</v>
+        <v>2130420408102.731</v>
       </c>
       <c r="J3">
-        <v>33.93611372320149</v>
+        <v>34.3031669368883</v>
       </c>
       <c r="K3">
         <v>23.47176597231475</v>
@@ -6925,31 +6925,31 @@
         <v>1996</v>
       </c>
       <c r="B4">
-        <v>39.54464125569261</v>
+        <v>39.55837479231641</v>
       </c>
       <c r="C4">
-        <v>69.4322317663987</v>
+        <v>69.07208627036337</v>
       </c>
       <c r="D4">
-        <v>344.2000427533757</v>
+        <v>337.1629367166646</v>
       </c>
       <c r="E4">
-        <v>0.005470804901520294</v>
+        <v>0.01911916882820637</v>
       </c>
       <c r="F4">
-        <v>6468.164310073583</v>
+        <v>4807.608666007174</v>
       </c>
       <c r="G4">
         <v>1771720721529.503</v>
       </c>
       <c r="H4">
-        <v>41072.06789776314</v>
+        <v>27193.13323249094</v>
       </c>
       <c r="I4">
-        <v>3486097338022.666</v>
+        <v>2248692498590.477</v>
       </c>
       <c r="J4">
-        <v>33.7550290983399</v>
+        <v>34.13002256142291</v>
       </c>
       <c r="K4">
         <v>23.36115643732072</v>
@@ -6960,31 +6960,31 @@
         <v>1997</v>
       </c>
       <c r="B5">
-        <v>39.50167631430492</v>
+        <v>39.52878326846664</v>
       </c>
       <c r="C5">
-        <v>69.32399993894688</v>
+        <v>69.06926306020473</v>
       </c>
       <c r="D5">
-        <v>344.6543999146248</v>
+        <v>337.9954858853225</v>
       </c>
       <c r="E5">
-        <v>0.0193312527644669</v>
+        <v>0.02259808113513399</v>
       </c>
       <c r="F5">
-        <v>6756.122571343259</v>
+        <v>5066.517841517343</v>
       </c>
       <c r="G5">
         <v>1702958970601.498</v>
       </c>
       <c r="H5">
-        <v>39562.35743750176</v>
+        <v>28003.85644127382</v>
       </c>
       <c r="I5">
-        <v>3365109518174.461</v>
+        <v>2325678007191.082</v>
       </c>
       <c r="J5">
-        <v>33.61749216313167</v>
+        <v>33.97711814286398</v>
       </c>
       <c r="K5">
         <v>23.35048737419174</v>
@@ -6995,31 +6995,31 @@
         <v>1998</v>
       </c>
       <c r="B6">
-        <v>39.30806770149254</v>
+        <v>39.39069896402961</v>
       </c>
       <c r="C6">
-        <v>69.2003559531837</v>
+        <v>69.04280413597702</v>
       </c>
       <c r="D6">
-        <v>345.1425193733887</v>
+        <v>338.8170866907548</v>
       </c>
       <c r="E6">
-        <v>0.0289836725442736</v>
+        <v>0.02621866143039512</v>
       </c>
       <c r="F6">
-        <v>6930.478138101793</v>
+        <v>5295.529780878519</v>
       </c>
       <c r="G6">
         <v>1625888596162.927</v>
       </c>
       <c r="H6">
-        <v>37920.28372990448</v>
+        <v>28417.41136007016</v>
       </c>
       <c r="I6">
-        <v>3238369275739.513</v>
+        <v>2371380845996.211</v>
       </c>
       <c r="J6">
-        <v>33.29603101573819</v>
+        <v>33.69784224724823</v>
       </c>
       <c r="K6">
         <v>22.83664375633507</v>
@@ -7030,31 +7030,31 @@
         <v>1999</v>
       </c>
       <c r="B7">
-        <v>39.14188350234355</v>
+        <v>39.25631545401345</v>
       </c>
       <c r="C7">
-        <v>69.06446515487558</v>
+        <v>68.99456173073251</v>
       </c>
       <c r="D7">
-        <v>345.5921788412978</v>
+        <v>339.6025986126493</v>
       </c>
       <c r="E7">
-        <v>0.08645700596583604</v>
+        <v>0.05296616918605374</v>
       </c>
       <c r="F7">
-        <v>7187.293950973182</v>
+        <v>5563.37425736136</v>
       </c>
       <c r="G7">
         <v>1605675632169.079</v>
       </c>
       <c r="H7">
-        <v>37660.4946967072</v>
+        <v>29166.3302686082</v>
       </c>
       <c r="I7">
-        <v>3242608976661.524</v>
+        <v>2452588737057.714</v>
       </c>
       <c r="J7">
-        <v>33.01127369833782</v>
+        <v>33.4295939412106</v>
       </c>
       <c r="K7">
         <v>22.40186384416154</v>
@@ -7065,34 +7065,34 @@
         <v>2000</v>
       </c>
       <c r="B8">
-        <v>38.96229003940722</v>
+        <v>39.102169273261</v>
       </c>
       <c r="C8">
-        <v>68.91810494686493</v>
+        <v>68.92628663266959</v>
       </c>
       <c r="D8">
-        <v>346.0139004495729</v>
+        <v>340.3533958683554</v>
       </c>
       <c r="E8">
-        <v>0.1090700096119405</v>
+        <v>0.0674787107096701</v>
       </c>
       <c r="F8">
-        <v>7448.235478991126</v>
+        <v>5841.588127722653</v>
       </c>
       <c r="G8">
         <v>1607383214323.563</v>
       </c>
       <c r="H8">
-        <v>37925.67363722395</v>
+        <v>30061.56139535786</v>
       </c>
       <c r="I8">
-        <v>3285855224095.286</v>
+        <v>2545314725433.352</v>
       </c>
       <c r="J8">
-        <v>32.73161164205116</v>
+        <v>33.15698396581379</v>
       </c>
       <c r="K8">
-        <v>22.45220880818844</v>
+        <v>22.45220880818845</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7100,31 +7100,31 @@
         <v>2001</v>
       </c>
       <c r="B9">
-        <v>38.73146301526941</v>
+        <v>38.89949117678535</v>
       </c>
       <c r="C9">
-        <v>68.75844369605095</v>
+        <v>68.8373854127161</v>
       </c>
       <c r="D9">
-        <v>346.4616936453795</v>
+        <v>341.097622768589</v>
       </c>
       <c r="E9">
-        <v>0.1096314590402939</v>
+        <v>0.0714398801800219</v>
       </c>
       <c r="F9">
-        <v>7474.598278542594</v>
+        <v>5997.187467161797</v>
       </c>
       <c r="G9">
         <v>1567323400534.798</v>
       </c>
       <c r="H9">
-        <v>37366.28624690825</v>
+        <v>30442.95201742157</v>
       </c>
       <c r="I9">
-        <v>3261803115264.881</v>
+        <v>2597038448827.992</v>
       </c>
       <c r="J9">
-        <v>32.40870771878301</v>
+        <v>32.84421812990226</v>
       </c>
       <c r="K9">
         <v>21.11971716938407</v>
@@ -7135,31 +7135,31 @@
         <v>2002</v>
       </c>
       <c r="B10">
-        <v>38.46706462167675</v>
+        <v>38.66116364301137</v>
       </c>
       <c r="C10">
-        <v>68.58980589992287</v>
+        <v>68.73092412464058</v>
       </c>
       <c r="D10">
-        <v>346.9260824802259</v>
+        <v>341.8346968285733</v>
       </c>
       <c r="E10">
-        <v>0.1339587159172803</v>
+        <v>0.08910954459697649</v>
       </c>
       <c r="F10">
-        <v>7581.158477682461</v>
+        <v>6187.584301435189</v>
       </c>
       <c r="G10">
         <v>1523074880563.888</v>
       </c>
       <c r="H10">
-        <v>36702.83371294747</v>
+        <v>30648.04234368711</v>
       </c>
       <c r="I10">
-        <v>3230403391241.765</v>
+        <v>2635819892753.625</v>
       </c>
       <c r="J10">
-        <v>32.0483793275274</v>
+        <v>32.49455535543461</v>
       </c>
       <c r="K10">
         <v>20.71470204605068</v>
@@ -7170,31 +7170,31 @@
         <v>2003</v>
       </c>
       <c r="B11">
-        <v>38.1608840588735</v>
+        <v>38.3802073801064</v>
       </c>
       <c r="C11">
-        <v>68.41236638537303</v>
+        <v>68.60793307680932</v>
       </c>
       <c r="D11">
-        <v>347.3962921394137</v>
+        <v>342.5609942369655</v>
       </c>
       <c r="E11">
-        <v>0.1421143354911683</v>
+        <v>0.09801847967101271</v>
       </c>
       <c r="F11">
-        <v>7675.901792189729</v>
+        <v>6365.134589681915</v>
       </c>
       <c r="G11">
         <v>1500876482754.368</v>
       </c>
       <c r="H11">
-        <v>36524.3403361455</v>
+        <v>31050.24754480732</v>
       </c>
       <c r="I11">
-        <v>3238113357428.486</v>
+        <v>2691106735296.487</v>
       </c>
       <c r="J11">
-        <v>31.65520176316764</v>
+        <v>32.11119721750599</v>
       </c>
       <c r="K11">
         <v>20.91713129374546</v>
@@ -7205,31 +7205,31 @@
         <v>2004</v>
       </c>
       <c r="B12">
-        <v>37.82852705585948</v>
+        <v>38.06966158907524</v>
       </c>
       <c r="C12">
-        <v>68.22297996678344</v>
+        <v>68.46716058950926</v>
       </c>
       <c r="D12">
-        <v>347.79269352214</v>
+        <v>343.2257757845019</v>
       </c>
       <c r="E12">
-        <v>0.143607958520565</v>
+        <v>0.1026873546624878</v>
       </c>
       <c r="F12">
-        <v>7807.315541048413</v>
+        <v>6561.083554881808</v>
       </c>
       <c r="G12">
         <v>1496477133503.05</v>
       </c>
       <c r="H12">
-        <v>36750.2461180055</v>
+        <v>31656.44273607902</v>
       </c>
       <c r="I12">
-        <v>3277209502907.069</v>
+        <v>2762535937739.403</v>
       </c>
       <c r="J12">
-        <v>31.24464428405591</v>
+        <v>31.70727632218599</v>
       </c>
       <c r="K12">
         <v>21.12059121924424</v>
@@ -7240,31 +7240,31 @@
         <v>2005</v>
       </c>
       <c r="B13">
-        <v>37.51807685898658</v>
+        <v>37.7720940212268</v>
       </c>
       <c r="C13">
-        <v>68.01767529038435</v>
+        <v>68.30632897527367</v>
       </c>
       <c r="D13">
-        <v>348.1238509330295</v>
+        <v>343.8294890716528</v>
       </c>
       <c r="E13">
-        <v>0.1399229642593562</v>
+        <v>0.1035382865702391</v>
       </c>
       <c r="F13">
-        <v>7896.642082832466</v>
+        <v>6725.113329727508</v>
       </c>
       <c r="G13">
         <v>1490067676847.499</v>
       </c>
       <c r="H13">
-        <v>36878.18720750452</v>
+        <v>32164.37106160405</v>
       </c>
       <c r="I13">
-        <v>3304638480853.284</v>
+        <v>2823794084151.551</v>
       </c>
       <c r="J13">
-        <v>30.85158670472399</v>
+        <v>31.31392532914312</v>
       </c>
       <c r="K13">
         <v>21.42337238571039</v>
@@ -7275,31 +7275,31 @@
         <v>2006</v>
       </c>
       <c r="B14">
-        <v>37.24320546766919</v>
+        <v>37.50181413825132</v>
       </c>
       <c r="C14">
-        <v>67.80191494146393</v>
+        <v>68.12942388799587</v>
       </c>
       <c r="D14">
-        <v>348.426633041191</v>
+        <v>344.3946614601089</v>
       </c>
       <c r="E14">
-        <v>0.1179143826728049</v>
+        <v>0.09085715239015854</v>
       </c>
       <c r="F14">
-        <v>7963.510218112394</v>
+        <v>6868.111484580862</v>
       </c>
       <c r="G14">
-        <v>1475744798282.418</v>
+        <v>1475744798282.419</v>
       </c>
       <c r="H14">
-        <v>36776.55902488164</v>
+        <v>32476.22679544371</v>
       </c>
       <c r="I14">
-        <v>3308911296020.755</v>
+        <v>2866013035641.495</v>
       </c>
       <c r="J14">
-        <v>30.49493181041082</v>
+        <v>30.94970000952017</v>
       </c>
       <c r="K14">
         <v>21.3992856851895</v>
@@ -7310,31 +7310,31 @@
         <v>2007</v>
       </c>
       <c r="B15">
-        <v>36.99158260707625</v>
+        <v>37.2497964949923</v>
       </c>
       <c r="C15">
-        <v>67.57299566528674</v>
+        <v>67.93496956301951</v>
       </c>
       <c r="D15">
-        <v>348.7275101674463</v>
+        <v>344.940375809388</v>
       </c>
       <c r="E15">
-        <v>0.1568019888369709</v>
+        <v>0.1215877852978943</v>
       </c>
       <c r="F15">
-        <v>8015.252205817008</v>
+        <v>6994.344621714571</v>
       </c>
       <c r="G15">
         <v>1462548958524.879</v>
       </c>
       <c r="H15">
-        <v>36667.10412986287</v>
+        <v>32742.29815776098</v>
       </c>
       <c r="I15">
-        <v>3310010300889.383</v>
+        <v>2902499527228.083</v>
       </c>
       <c r="J15">
-        <v>30.16631164498811</v>
+        <v>30.60900688722488</v>
       </c>
       <c r="K15">
         <v>21.87550588124908</v>
@@ -7345,31 +7345,31 @@
         <v>2008</v>
       </c>
       <c r="B16">
-        <v>36.75502149381946</v>
+        <v>37.00981788702694</v>
       </c>
       <c r="C16">
-        <v>67.32800948868697</v>
+        <v>67.72105611260105</v>
       </c>
       <c r="D16">
-        <v>349.0030897648646</v>
+        <v>345.4504445629719</v>
       </c>
       <c r="E16">
-        <v>0.1911431491683784</v>
+        <v>0.1503356167929744</v>
       </c>
       <c r="F16">
-        <v>8031.879448280978</v>
+        <v>7088.288835367124</v>
       </c>
       <c r="G16">
         <v>1463319908063.358</v>
       </c>
       <c r="H16">
-        <v>37005.7808683922</v>
+        <v>33311.00410751265</v>
       </c>
       <c r="I16">
-        <v>3358360112726.626</v>
+        <v>2971507815100.335</v>
       </c>
       <c r="J16">
-        <v>29.85221237085133</v>
+        <v>30.28078481518764</v>
       </c>
       <c r="K16">
         <v>21.27403122026707</v>
@@ -7380,31 +7380,31 @@
         <v>2009</v>
       </c>
       <c r="B17">
-        <v>36.46609905828575</v>
+        <v>36.72071397473166</v>
       </c>
       <c r="C17">
-        <v>67.06340980242106</v>
+        <v>67.48504134155763</v>
       </c>
       <c r="D17">
-        <v>349.2366548587956</v>
+        <v>345.9118686431582</v>
       </c>
       <c r="E17">
-        <v>0.1952199513693513</v>
+        <v>0.1567156590998854</v>
       </c>
       <c r="F17">
-        <v>8281.949241943648</v>
+        <v>7356.513069887488</v>
       </c>
       <c r="G17">
         <v>1460336520223.369</v>
       </c>
       <c r="H17">
-        <v>37444.32951361289</v>
+        <v>33942.44889714539</v>
       </c>
       <c r="I17">
-        <v>3430900099361.491</v>
+        <v>3058246196785.667</v>
       </c>
       <c r="J17">
-        <v>29.47491306756884</v>
+        <v>29.89428130683844</v>
       </c>
       <c r="K17">
         <v>19.04768350970545</v>
@@ -7415,31 +7415,31 @@
         <v>2010</v>
       </c>
       <c r="B18">
-        <v>36.15637741489114</v>
+        <v>36.41076111620433</v>
       </c>
       <c r="C18">
-        <v>66.77539904411188</v>
+        <v>67.2238509732544</v>
       </c>
       <c r="D18">
-        <v>349.4461618042703</v>
+        <v>346.3380305624291</v>
       </c>
       <c r="E18">
-        <v>0.1887002500237362</v>
+        <v>0.1545629090323538</v>
       </c>
       <c r="F18">
-        <v>8224.357068779878</v>
+        <v>7383.296855133449</v>
       </c>
       <c r="G18">
         <v>1477279066402.075</v>
       </c>
       <c r="H18">
-        <v>38187.38427496466</v>
+        <v>34805.21091843581</v>
       </c>
       <c r="I18">
-        <v>3524731347944.912</v>
+        <v>3161751079662.567</v>
       </c>
       <c r="J18">
-        <v>29.08827534986192</v>
+        <v>29.498074554592</v>
       </c>
       <c r="K18">
         <v>20.76620089862018</v>
@@ -7450,31 +7450,31 @@
         <v>2011</v>
       </c>
       <c r="B19">
-        <v>35.86872739257023</v>
+        <v>36.11983098036974</v>
       </c>
       <c r="C19">
-        <v>66.46439258895276</v>
+        <v>66.93761629804779</v>
       </c>
       <c r="D19">
-        <v>349.5672799518389</v>
+        <v>346.677168766321</v>
       </c>
       <c r="E19">
-        <v>0.1692749418706646</v>
+        <v>0.1415080803191232</v>
       </c>
       <c r="F19">
-        <v>8063.230756032048</v>
+        <v>7318.310182945776</v>
       </c>
       <c r="G19">
         <v>1495236758666.001</v>
       </c>
       <c r="H19">
-        <v>39202.35511579171</v>
+        <v>35888.24480507759</v>
       </c>
       <c r="I19">
-        <v>3647741525156.167</v>
+        <v>3289368384220.382</v>
       </c>
       <c r="J19">
-        <v>28.72844371320076</v>
+        <v>29.12594352110186</v>
       </c>
       <c r="K19">
         <v>19.53555430517587</v>
@@ -7485,31 +7485,31 @@
         <v>2012</v>
       </c>
       <c r="B20">
-        <v>35.61808786119032</v>
+        <v>35.86263695440067</v>
       </c>
       <c r="C20">
-        <v>66.12897380119072</v>
+        <v>66.62505157236744</v>
       </c>
       <c r="D20">
-        <v>349.6216298115082</v>
+        <v>346.9445161769319</v>
       </c>
       <c r="E20">
-        <v>0.1542523813935819</v>
+        <v>0.1312802766772541</v>
       </c>
       <c r="F20">
-        <v>7968.031446081573</v>
+        <v>7297.318997645762</v>
       </c>
       <c r="G20">
         <v>1511224345614.367</v>
       </c>
       <c r="H20">
-        <v>40132.68078864973</v>
+        <v>36909.34973167995</v>
       </c>
       <c r="I20">
-        <v>3762070413554.62</v>
+        <v>3411086637329.354</v>
       </c>
       <c r="J20">
-        <v>28.40484895142648</v>
+        <v>28.78745127968459</v>
       </c>
       <c r="K20">
         <v>19.66670842701939</v>
@@ -7520,31 +7520,31 @@
         <v>2013</v>
       </c>
       <c r="B21">
-        <v>35.40801429371238</v>
+        <v>35.64333290174189</v>
       </c>
       <c r="C21">
-        <v>65.77059320415077</v>
+        <v>66.28724455422621</v>
       </c>
       <c r="D21">
-        <v>349.6236150346998</v>
+        <v>347.1509400674568</v>
       </c>
       <c r="E21">
-        <v>0.1588267454805303</v>
+        <v>0.1368647873101874</v>
       </c>
       <c r="F21">
-        <v>7944.98599415309</v>
+        <v>7329.336821841021</v>
       </c>
       <c r="G21">
         <v>1500062896894.875</v>
       </c>
       <c r="H21">
-        <v>40202.69961789505</v>
+        <v>37214.4768352817</v>
       </c>
       <c r="I21">
-        <v>3789784060175.62</v>
+        <v>3461120658262.818</v>
       </c>
       <c r="J21">
-        <v>28.117371038267</v>
+        <v>28.48320642207349</v>
       </c>
       <c r="K21">
         <v>19.32903165437587</v>
@@ -7555,31 +7555,31 @@
         <v>2014</v>
       </c>
       <c r="B22">
-        <v>35.19698137434127</v>
+        <v>35.42323301320027</v>
       </c>
       <c r="C22">
-        <v>65.39455055947072</v>
+        <v>65.92867438788083</v>
       </c>
       <c r="D22">
-        <v>349.5838862544324</v>
+        <v>347.3051124736371</v>
       </c>
       <c r="E22">
-        <v>0.1807110056836108</v>
+        <v>0.1571162731433094</v>
       </c>
       <c r="F22">
-        <v>8009.134222761998</v>
+        <v>7430.592153411962</v>
       </c>
       <c r="G22">
         <v>1485518353614.602</v>
       </c>
       <c r="H22">
-        <v>40048.11278301611</v>
+        <v>37310.29842223382</v>
       </c>
       <c r="I22">
-        <v>3790519287739.511</v>
+        <v>3486721237950.154</v>
       </c>
       <c r="J22">
-        <v>27.84553846802491</v>
+        <v>28.1943714830234</v>
       </c>
       <c r="K22">
         <v>19.59360923342026</v>
@@ -7590,31 +7590,31 @@
         <v>2015</v>
       </c>
       <c r="B23">
-        <v>34.99358629192136</v>
+        <v>35.21054825093171</v>
       </c>
       <c r="C23">
-        <v>65.00801184145028</v>
+        <v>65.55570035294151</v>
       </c>
       <c r="D23">
-        <v>349.5158919901633</v>
+        <v>347.4187420079668</v>
       </c>
       <c r="E23">
-        <v>0.1752201680515159</v>
+        <v>0.1541736378067482</v>
       </c>
       <c r="F23">
-        <v>8066.424509867082</v>
+        <v>7523.595325940856</v>
       </c>
       <c r="G23">
         <v>1466645358991.635</v>
       </c>
       <c r="H23">
-        <v>39601.51120058031</v>
+        <v>37132.80345233106</v>
       </c>
       <c r="I23">
-        <v>3751933505491.584</v>
+        <v>3476466365672.64</v>
       </c>
       <c r="J23">
-        <v>27.59311054630532</v>
+        <v>27.92472449714911</v>
       </c>
       <c r="K23">
         <v>20.46247037584918</v>
@@ -7625,31 +7625,31 @@
         <v>2016</v>
       </c>
       <c r="B24">
-        <v>34.79576310667116</v>
+        <v>35.00341951462062</v>
       </c>
       <c r="C24">
-        <v>64.61866027404119</v>
+        <v>65.1754294354127</v>
       </c>
       <c r="D24">
-        <v>349.4395696213123</v>
+        <v>347.5098123741607</v>
       </c>
       <c r="E24">
-        <v>0.2307018698796639</v>
+        <v>0.2040794356750989</v>
       </c>
       <c r="F24">
-        <v>8178.07279486557</v>
+        <v>7661.621000670055</v>
       </c>
       <c r="G24">
         <v>1463704637577.467</v>
       </c>
       <c r="H24">
-        <v>39582.01527849711</v>
+        <v>37301.28287003793</v>
       </c>
       <c r="I24">
-        <v>3749237104202.39</v>
+        <v>3494812122371.464</v>
       </c>
       <c r="J24">
-        <v>27.34357801944203</v>
+        <v>27.65867378302644</v>
       </c>
       <c r="K24">
         <v>20.2880385682684</v>
@@ -7660,31 +7660,31 @@
         <v>2017</v>
       </c>
       <c r="B25">
-        <v>34.62043883718836</v>
+        <v>34.8181708482556</v>
       </c>
       <c r="C25">
-        <v>64.2331293297043</v>
+        <v>64.79430026990742</v>
       </c>
       <c r="D25">
-        <v>349.3467295813325</v>
+        <v>347.5722862819823</v>
       </c>
       <c r="E25">
-        <v>0.2434850124558394</v>
+        <v>0.2173266303334427</v>
       </c>
       <c r="F25">
-        <v>8390.803090003787</v>
+        <v>7887.560975304004</v>
       </c>
       <c r="G25">
         <v>1460347193895.25</v>
       </c>
       <c r="H25">
-        <v>39518.53465860151</v>
+        <v>37415.84436982828</v>
       </c>
       <c r="I25">
-        <v>3740821282711.974</v>
+        <v>3506416880939.996</v>
       </c>
       <c r="J25">
-        <v>27.11327275156331</v>
+        <v>27.41188351046682</v>
       </c>
       <c r="K25">
         <v>20.43594606860216</v>
@@ -7695,31 +7695,31 @@
         <v>2018</v>
       </c>
       <c r="B26">
-        <v>34.44478390400342</v>
+        <v>34.63303165002916</v>
       </c>
       <c r="C26">
-        <v>63.85627358700645</v>
+        <v>64.41733378984186</v>
       </c>
       <c r="D26">
-        <v>349.2260755188532</v>
+        <v>347.5969604231788</v>
       </c>
       <c r="E26">
-        <v>0.2651030997308149</v>
+        <v>0.2385022953683191</v>
       </c>
       <c r="F26">
-        <v>8476.927621355208</v>
+        <v>8001.606244238832</v>
       </c>
       <c r="G26">
         <v>1460313886069.085</v>
       </c>
       <c r="H26">
-        <v>39535.97789676898</v>
+        <v>37587.77705696182</v>
       </c>
       <c r="I26">
-        <v>3741371126232.944</v>
+        <v>3524343033126.968</v>
       </c>
       <c r="J26">
-        <v>26.88887671742862</v>
+        <v>27.17166482689293</v>
       </c>
       <c r="K26">
         <v>20.61976962533107</v>
@@ -7730,31 +7730,31 @@
         <v>2019</v>
       </c>
       <c r="B27">
-        <v>34.27278216686763</v>
+        <v>34.45183102999661</v>
       </c>
       <c r="C27">
-        <v>63.49067176699593</v>
+        <v>64.0475770459956</v>
       </c>
       <c r="D27">
-        <v>349.0767082329424</v>
+        <v>347.5835310001972</v>
       </c>
       <c r="E27">
-        <v>0.307581697928217</v>
+        <v>0.2786056949251473</v>
       </c>
       <c r="F27">
-        <v>8513.439703034039</v>
+        <v>8069.587386239814</v>
       </c>
       <c r="G27">
         <v>1460816863389.517</v>
       </c>
       <c r="H27">
-        <v>39612.04802190844</v>
+        <v>37800.35657538108</v>
       </c>
       <c r="I27">
-        <v>3747483847525.099</v>
+        <v>3545904360140.234</v>
       </c>
       <c r="J27">
-        <v>26.66868522265743</v>
+        <v>26.93636508313856</v>
       </c>
       <c r="K27">
         <v>20.05877621706484</v>
@@ -7765,31 +7765,31 @@
         <v>2020</v>
       </c>
       <c r="B28">
-        <v>34.27278216686763</v>
+        <v>34.45183102999661</v>
       </c>
       <c r="C28">
-        <v>63.13731376796569</v>
+        <v>63.68661997384162</v>
       </c>
       <c r="D28">
-        <v>348.8581954000016</v>
+        <v>347.4958647991238</v>
       </c>
       <c r="E28">
-        <v>0.3819711219629559</v>
+        <v>0.3480841487829115</v>
       </c>
       <c r="F28">
-        <v>8458.687631974821</v>
+        <v>8052.763347277081</v>
       </c>
       <c r="G28">
         <v>1460952390190.918</v>
       </c>
       <c r="H28">
-        <v>39636.99204305802</v>
+        <v>37956.57470223807</v>
       </c>
       <c r="I28">
-        <v>3749428249737.084</v>
+        <v>3562533832822.19</v>
       </c>
       <c r="J28">
-        <v>26.66868522265743</v>
+        <v>26.93636508313856</v>
       </c>
       <c r="K28">
         <v>19.74777174028171</v>
@@ -7800,34 +7800,34 @@
         <v>2021</v>
       </c>
       <c r="B29">
-        <v>34.65434836528686</v>
+        <v>34.45183102999661</v>
       </c>
       <c r="C29">
-        <v>62.79689866099226</v>
+        <v>63.34243347499358</v>
       </c>
       <c r="D29">
-        <v>348.5188590971177</v>
+        <v>347.4958647991238</v>
       </c>
       <c r="E29">
-        <v>0.5060704875307959</v>
+        <v>0.3480841487829115</v>
       </c>
       <c r="F29">
-        <v>8212.407272147704</v>
+        <v>8052.763347277081</v>
       </c>
       <c r="G29">
-        <v>1461409618601.227</v>
+        <v>1460952390190.918</v>
       </c>
       <c r="H29">
-        <v>39507.2893393063</v>
+        <v>38054.20915325331</v>
       </c>
       <c r="I29">
-        <v>3738923198132.295</v>
+        <v>3562533832822.19</v>
       </c>
       <c r="J29">
-        <v>27.16158167737659</v>
+        <v>26.93636508313856</v>
       </c>
       <c r="K29">
-        <v>21.14416625737088</v>
+        <v>20.22558306491486</v>
       </c>
     </row>
   </sheetData>
@@ -7877,7 +7877,7 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>68.23332868928321</v>
+        <v>68.2333286892832</v>
       </c>
       <c r="C2">
         <v>3602.902985074627</v>
@@ -7886,13 +7886,13 @@
         <v>10.38772838052267</v>
       </c>
       <c r="E2">
-        <v>544.0999755859001</v>
+        <v>544.0999755859</v>
       </c>
       <c r="F2">
-        <v>4149452772.923757</v>
+        <v>4149452772.923756</v>
       </c>
       <c r="G2">
-        <v>4928.139117857541</v>
+        <v>4928.13911785754</v>
       </c>
       <c r="H2">
         <v>7155338912.903522</v>
@@ -7906,7 +7906,7 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>68.63043610402788</v>
+        <v>68.63043610402786</v>
       </c>
       <c r="C3">
         <v>3692.072714317858</v>
@@ -7915,13 +7915,13 @@
         <v>11.05235819235241</v>
       </c>
       <c r="E3">
-        <v>594.9040140889654</v>
+        <v>594.9040140889653</v>
       </c>
       <c r="F3">
-        <v>4516830414.591759</v>
+        <v>4516830414.591758</v>
       </c>
       <c r="G3">
-        <v>5264.042062266156</v>
+        <v>5264.042062266155</v>
       </c>
       <c r="H3">
         <v>7642148150.500759</v>
@@ -7935,16 +7935,16 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>68.92792110672616</v>
+        <v>68.92792110672613</v>
       </c>
       <c r="C4">
-        <v>3778.896908591953</v>
+        <v>3778.896908591952</v>
       </c>
       <c r="D4">
         <v>10.68427786189904</v>
       </c>
       <c r="E4">
-        <v>642.6788276319554</v>
+        <v>642.6788276319553</v>
       </c>
       <c r="F4">
         <v>4801310449.633166</v>
@@ -7953,7 +7953,7 @@
         <v>5537.969599535328</v>
       </c>
       <c r="H4">
-        <v>8126939769.139264</v>
+        <v>8126939769.139263</v>
       </c>
       <c r="I4">
         <v>22.29291490588914</v>
@@ -7970,19 +7970,19 @@
         <v>3835.410645778871</v>
       </c>
       <c r="D5">
-        <v>9.590904168434047</v>
+        <v>9.590904168434049</v>
       </c>
       <c r="E5">
-        <v>694.2779607065612</v>
+        <v>694.2779607065613</v>
       </c>
       <c r="F5">
         <v>5136882477.03647</v>
       </c>
       <c r="G5">
-        <v>5815.928017992336</v>
+        <v>5815.928017992337</v>
       </c>
       <c r="H5">
-        <v>8521053860.863685</v>
+        <v>8521053860.863683</v>
       </c>
       <c r="I5">
         <v>21.46434389615849</v>
@@ -7993,28 +7993,28 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>69.34160899586493</v>
+        <v>69.34160899586492</v>
       </c>
       <c r="C6">
-        <v>3884.896749064232</v>
+        <v>3884.896749064233</v>
       </c>
       <c r="D6">
-        <v>8.979000375248283</v>
+        <v>8.979000375248287</v>
       </c>
       <c r="E6">
         <v>748.7407893680495</v>
       </c>
       <c r="F6">
-        <v>5505513236.67038</v>
+        <v>5505513236.670383</v>
       </c>
       <c r="G6">
-        <v>6104.112266952455</v>
+        <v>6104.112266952456</v>
       </c>
       <c r="H6">
         <v>8964410443.943079</v>
       </c>
       <c r="I6">
-        <v>21.40238291509306</v>
+        <v>21.40238291509307</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8028,16 +8028,16 @@
         <v>3918.837567325126</v>
       </c>
       <c r="D7">
-        <v>8.378379634438359</v>
+        <v>8.37837963443836</v>
       </c>
       <c r="E7">
         <v>788.4297510203063</v>
       </c>
       <c r="F7">
-        <v>5617914454.501233</v>
+        <v>5617914454.501232</v>
       </c>
       <c r="G7">
-        <v>6257.505426977813</v>
+        <v>6257.505426977814</v>
       </c>
       <c r="H7">
         <v>9335976945.116423</v>
@@ -8051,7 +8051,7 @@
         <v>1986</v>
       </c>
       <c r="B8">
-        <v>69.72896494454058</v>
+        <v>69.72896494454056</v>
       </c>
       <c r="C8">
         <v>3942.510850656958</v>
@@ -8060,13 +8060,13 @@
         <v>8.499562314624752</v>
       </c>
       <c r="E8">
-        <v>836.0299503066831</v>
+        <v>836.029950306683</v>
       </c>
       <c r="F8">
         <v>5697347236.238876</v>
       </c>
       <c r="G8">
-        <v>6337.350531006057</v>
+        <v>6337.350531006058</v>
       </c>
       <c r="H8">
         <v>9582861888.550415</v>
@@ -8080,22 +8080,22 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>69.95302497829961</v>
+        <v>69.9530249782996</v>
       </c>
       <c r="C9">
         <v>3968.265103684977</v>
       </c>
       <c r="D9">
-        <v>9.154317383100677</v>
+        <v>9.154317383100679</v>
       </c>
       <c r="E9">
-        <v>890.4948307968433</v>
+        <v>890.4948307968435</v>
       </c>
       <c r="F9">
         <v>5843094398.574159</v>
       </c>
       <c r="G9">
-        <v>6492.896970466735</v>
+        <v>6492.896970466736</v>
       </c>
       <c r="H9">
         <v>9930390474.889805</v>
@@ -8109,13 +8109,13 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>70.19856889806029</v>
+        <v>70.19856889806027</v>
       </c>
       <c r="C10">
         <v>4000.601873299453</v>
       </c>
       <c r="D10">
-        <v>9.761469914531952</v>
+        <v>9.761469914531951</v>
       </c>
       <c r="E10">
         <v>949.2123442033694</v>
@@ -8124,7 +8124,7 @@
         <v>6152656817.338311</v>
       </c>
       <c r="G10">
-        <v>6772.900113847549</v>
+        <v>6772.90011384755</v>
       </c>
       <c r="H10">
         <v>10434363612.55961</v>
@@ -8138,22 +8138,22 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>70.44896491686937</v>
+        <v>70.44896491686934</v>
       </c>
       <c r="C11">
         <v>4039.703038819682</v>
       </c>
       <c r="D11">
-        <v>9.731509592298123</v>
+        <v>9.731509592298121</v>
       </c>
       <c r="E11">
         <v>1021.467377079909</v>
       </c>
       <c r="F11">
-        <v>6532567220.03819</v>
+        <v>6532567220.038189</v>
       </c>
       <c r="G11">
-        <v>7151.661615179702</v>
+        <v>7151.661615179703</v>
       </c>
       <c r="H11">
         <v>11113330663.23719</v>
@@ -8170,19 +8170,19 @@
         <v>70.68698450423649</v>
       </c>
       <c r="C12">
-        <v>4088.264733117414</v>
+        <v>4088.264733117417</v>
       </c>
       <c r="D12">
         <v>10.27536041433178</v>
       </c>
       <c r="E12">
-        <v>1081.759952791378</v>
+        <v>1081.759952791379</v>
       </c>
       <c r="F12">
-        <v>6974089587.110184</v>
+        <v>6974089587.110185</v>
       </c>
       <c r="G12">
-        <v>7601.691806306068</v>
+        <v>7601.691806306071</v>
       </c>
       <c r="H12">
         <v>11919632145.40308</v>
@@ -8196,10 +8196,10 @@
         <v>1991</v>
       </c>
       <c r="B13">
-        <v>70.90289896794765</v>
+        <v>70.90289896794762</v>
       </c>
       <c r="C13">
-        <v>4140.279252135956</v>
+        <v>4140.279252135958</v>
       </c>
       <c r="D13">
         <v>10.31703616958442</v>
@@ -8228,10 +8228,10 @@
         <v>71.09693373007634</v>
       </c>
       <c r="C14">
-        <v>4195.934359484798</v>
+        <v>4195.9343594848</v>
       </c>
       <c r="D14">
-        <v>9.819929690977791</v>
+        <v>9.819929690977794</v>
       </c>
       <c r="E14">
         <v>1224.689758991019</v>
@@ -8240,7 +8240,7 @@
         <v>8413906556.591935</v>
       </c>
       <c r="G14">
-        <v>8856.266552782114</v>
+        <v>8856.266552782115</v>
       </c>
       <c r="H14">
         <v>14131871098.29017</v>
@@ -8257,19 +8257,19 @@
         <v>71.27092638292676</v>
       </c>
       <c r="C15">
-        <v>4253.040708684426</v>
+        <v>4253.040708684428</v>
       </c>
       <c r="D15">
-        <v>9.660911117150246</v>
+        <v>9.660911117150247</v>
       </c>
       <c r="E15">
-        <v>1345.730479814384</v>
+        <v>1345.730479814385</v>
       </c>
       <c r="F15">
-        <v>9256761437.650131</v>
+        <v>9256761437.650133</v>
       </c>
       <c r="G15">
-        <v>9575.006418036211</v>
+        <v>9575.006418036215</v>
       </c>
       <c r="H15">
         <v>15485499581.362</v>
@@ -8283,19 +8283,19 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>71.42972130481624</v>
+        <v>71.42972130481625</v>
       </c>
       <c r="C16">
-        <v>4313.781455697557</v>
+        <v>4313.781455697559</v>
       </c>
       <c r="D16">
         <v>9.79967177661208</v>
       </c>
       <c r="E16">
-        <v>1481.449158504864</v>
+        <v>1481.449158504865</v>
       </c>
       <c r="F16">
-        <v>10243714962.01737</v>
+        <v>10243714962.01738</v>
       </c>
       <c r="G16">
         <v>10430.936363042</v>
@@ -8315,7 +8315,7 @@
         <v>71.577842327837</v>
       </c>
       <c r="C17">
-        <v>4377.51250832132</v>
+        <v>4377.512508321322</v>
       </c>
       <c r="D17">
         <v>10.0555560994012</v>
@@ -8324,7 +8324,7 @@
         <v>1629.922138888617</v>
       </c>
       <c r="F17">
-        <v>11415768646.70257</v>
+        <v>11415768646.70258</v>
       </c>
       <c r="G17">
         <v>11405.97726551066</v>
@@ -8333,7 +8333,7 @@
         <v>18826265019.07761</v>
       </c>
       <c r="I17">
-        <v>23.98506226333386</v>
+        <v>23.98506226333385</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -8341,13 +8341,13 @@
         <v>1996</v>
       </c>
       <c r="B18">
-        <v>71.70756403232016</v>
+        <v>71.70756403232018</v>
       </c>
       <c r="C18">
         <v>4447.624094184494</v>
       </c>
       <c r="D18">
-        <v>10.17121900645873</v>
+        <v>10.17121900645872</v>
       </c>
       <c r="E18">
         <v>1788.150102047589</v>
@@ -8356,7 +8356,7 @@
         <v>12623628409.72862</v>
       </c>
       <c r="G18">
-        <v>12350.07207747351</v>
+        <v>12350.07207747352</v>
       </c>
       <c r="H18">
         <v>20654923791.93872</v>
@@ -8373,13 +8373,13 @@
         <v>71.83182620874902</v>
       </c>
       <c r="C19">
-        <v>4521.231680815152</v>
+        <v>4521.231680815153</v>
       </c>
       <c r="D19">
         <v>10.50424298349662</v>
       </c>
       <c r="E19">
-        <v>1966.57277504522</v>
+        <v>1966.572775045221</v>
       </c>
       <c r="F19">
         <v>13740660415.37593</v>
@@ -8405,10 +8405,10 @@
         <v>4598.334001987349</v>
       </c>
       <c r="D20">
-        <v>10.29981346308549</v>
+        <v>10.29981346308548</v>
       </c>
       <c r="E20">
-        <v>2125.199329456591</v>
+        <v>2125.199329456592</v>
       </c>
       <c r="F20">
         <v>14532678797.82267</v>
@@ -8431,7 +8431,7 @@
         <v>72.10063769192672</v>
       </c>
       <c r="C21">
-        <v>4670.286649263904</v>
+        <v>4670.286649263905</v>
       </c>
       <c r="D21">
         <v>10.93410145522763</v>
@@ -8440,7 +8440,7 @@
         <v>2307.842238893038</v>
       </c>
       <c r="F21">
-        <v>15196205748.8517</v>
+        <v>15196205748.85171</v>
       </c>
       <c r="G21">
         <v>14139.11510352096</v>
@@ -8460,22 +8460,22 @@
         <v>72.248065280646</v>
       </c>
       <c r="C22">
-        <v>4740.790142339131</v>
+        <v>4740.790142339133</v>
       </c>
       <c r="D22">
-        <v>11.20818970650754</v>
+        <v>11.20818970650753</v>
       </c>
       <c r="E22">
         <v>2502.145247249831</v>
       </c>
       <c r="F22">
-        <v>16036482927.05875</v>
+        <v>16036482927.05876</v>
       </c>
       <c r="G22">
         <v>14649.60562224661</v>
       </c>
       <c r="H22">
-        <v>25963508956.61613</v>
+        <v>25963508956.61615</v>
       </c>
       <c r="I22">
         <v>25.8614860377559</v>
@@ -8486,10 +8486,10 @@
         <v>2001</v>
       </c>
       <c r="B23">
-        <v>72.38106870031346</v>
+        <v>72.38106870031348</v>
       </c>
       <c r="C23">
-        <v>4813.147426043226</v>
+        <v>4813.147426043227</v>
       </c>
       <c r="D23">
         <v>11.59793870228016</v>
@@ -8498,13 +8498,13 @@
         <v>2667.069150847061</v>
       </c>
       <c r="F23">
-        <v>16603249572.17048</v>
+        <v>16603249572.17049</v>
       </c>
       <c r="G23">
-        <v>15005.02405128774</v>
+        <v>15005.02405128775</v>
       </c>
       <c r="H23">
-        <v>27273552878.8051</v>
+        <v>27273552878.80511</v>
       </c>
       <c r="I23">
         <v>23.39469784741456</v>
@@ -8515,13 +8515,13 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>72.50157566822062</v>
+        <v>72.5015756682206</v>
       </c>
       <c r="C24">
-        <v>4879.694917352071</v>
+        <v>4879.694917352072</v>
       </c>
       <c r="D24">
-        <v>11.35837618234592</v>
+        <v>11.35837618234591</v>
       </c>
       <c r="E24">
         <v>2865.976416409228</v>
@@ -8533,7 +8533,7 @@
         <v>15351.68877878435</v>
       </c>
       <c r="H24">
-        <v>28553653823.67291</v>
+        <v>28553653823.67292</v>
       </c>
       <c r="I24">
         <v>24.73764032297293</v>
@@ -8544,10 +8544,10 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>72.61659798110348</v>
+        <v>72.61659798110347</v>
       </c>
       <c r="C25">
-        <v>4931.479769498702</v>
+        <v>4931.479769498703</v>
       </c>
       <c r="D25">
         <v>11.64319125470304</v>
@@ -8559,10 +8559,10 @@
         <v>17752899974.63678</v>
       </c>
       <c r="G25">
-        <v>15742.61780965507</v>
+        <v>15742.61780965508</v>
       </c>
       <c r="H25">
-        <v>29816002293.56269</v>
+        <v>29816002293.5627</v>
       </c>
       <c r="I25">
         <v>24.76541269319689</v>
@@ -8573,25 +8573,25 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>72.7342808809252</v>
+        <v>72.73428088092521</v>
       </c>
       <c r="C26">
-        <v>4981.706382863919</v>
+        <v>4981.70638286392</v>
       </c>
       <c r="D26">
         <v>12.07343879018418</v>
       </c>
       <c r="E26">
-        <v>3229.483338114402</v>
+        <v>3229.483338114401</v>
       </c>
       <c r="F26">
         <v>18604790912.6727</v>
       </c>
       <c r="G26">
-        <v>16276.68893051212</v>
+        <v>16276.68893051213</v>
       </c>
       <c r="H26">
-        <v>31182795716.09121</v>
+        <v>31182795716.09122</v>
       </c>
       <c r="I26">
         <v>27.11936759706429</v>
@@ -8602,16 +8602,16 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>72.85882900133505</v>
+        <v>72.85882900133507</v>
       </c>
       <c r="C27">
-        <v>5034.304518984586</v>
+        <v>5034.304518984587</v>
       </c>
       <c r="D27">
         <v>12.20563521065967</v>
       </c>
       <c r="E27">
-        <v>3418.291655095758</v>
+        <v>3418.291655095759</v>
       </c>
       <c r="F27">
         <v>19541339702.61924</v>
@@ -8620,7 +8620,7 @@
         <v>16871.78205764934</v>
       </c>
       <c r="H27">
-        <v>32591543908.29739</v>
+        <v>32591543908.2974</v>
       </c>
       <c r="I27">
         <v>27.07676179820706</v>
@@ -8631,25 +8631,25 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>72.99315895796151</v>
+        <v>72.99315895796153</v>
       </c>
       <c r="C28">
         <v>5089.329971837844</v>
       </c>
       <c r="D28">
-        <v>12.79980888708195</v>
+        <v>12.79980888708194</v>
       </c>
       <c r="E28">
-        <v>3610.28919190044</v>
+        <v>3610.289191900439</v>
       </c>
       <c r="F28">
         <v>20651213885.03683</v>
       </c>
       <c r="G28">
-        <v>17582.77949495827</v>
+        <v>17582.77949495828</v>
       </c>
       <c r="H28">
-        <v>34222901621.69693</v>
+        <v>34222901621.69695</v>
       </c>
       <c r="I28">
         <v>26.57800598580277</v>
@@ -8692,19 +8692,19 @@
         <v>73.30928922305654</v>
       </c>
       <c r="C30">
-        <v>5220.721082191488</v>
+        <v>5220.721082191487</v>
       </c>
       <c r="D30">
         <v>13.09456252940331</v>
       </c>
       <c r="E30">
-        <v>3926.776681165677</v>
+        <v>3926.776681165676</v>
       </c>
       <c r="F30">
         <v>23048452457.8716</v>
       </c>
       <c r="G30">
-        <v>19325.32238853868</v>
+        <v>19325.32238853869</v>
       </c>
       <c r="H30">
         <v>38615303250.6825</v>
@@ -8721,22 +8721,22 @@
         <v>73.49446646576308</v>
       </c>
       <c r="C31">
-        <v>5293.882278321955</v>
+        <v>5293.882278321957</v>
       </c>
       <c r="D31">
         <v>13.05523890016238</v>
       </c>
       <c r="E31">
-        <v>4059.86109484414</v>
+        <v>4059.861094844138</v>
       </c>
       <c r="F31">
         <v>24178087162.88182</v>
       </c>
       <c r="G31">
-        <v>20078.3731995747</v>
+        <v>20078.37319957471</v>
       </c>
       <c r="H31">
-        <v>40789074490.3337</v>
+        <v>40789074490.33371</v>
       </c>
       <c r="I31">
         <v>20.27337642907351</v>
@@ -8756,16 +8756,16 @@
         <v>13.42932270578771</v>
       </c>
       <c r="E32">
-        <v>4174.227629100707</v>
+        <v>4174.227629100706</v>
       </c>
       <c r="F32">
         <v>25661005855.25714</v>
       </c>
       <c r="G32">
-        <v>21092.90173510034</v>
+        <v>21092.90173510035</v>
       </c>
       <c r="H32">
-        <v>43388799548.64495</v>
+        <v>43388799548.64496</v>
       </c>
       <c r="I32">
         <v>20.77383302531255</v>
@@ -8776,22 +8776,22 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>73.8691840949742</v>
+        <v>73.86918409497422</v>
       </c>
       <c r="C33">
         <v>5438.885047778478</v>
       </c>
       <c r="D33">
-        <v>13.58084076070384</v>
+        <v>13.58084076070383</v>
       </c>
       <c r="E33">
-        <v>4287.912933379525</v>
+        <v>4287.912933379524</v>
       </c>
       <c r="F33">
         <v>27293687699.53606</v>
       </c>
       <c r="G33">
-        <v>22285.45380610148</v>
+        <v>22285.4538061015</v>
       </c>
       <c r="H33">
         <v>46468599792.20615</v>
@@ -8805,7 +8805,7 @@
         <v>2012</v>
       </c>
       <c r="B34">
-        <v>74.03115331551267</v>
+        <v>74.03115331551265</v>
       </c>
       <c r="C34">
         <v>5512.77944633687</v>
@@ -8814,16 +8814,16 @@
         <v>13.76375263137036</v>
       </c>
       <c r="E34">
-        <v>4380.429501036874</v>
+        <v>4380.429501036873</v>
       </c>
       <c r="F34">
-        <v>28942595521.05588</v>
+        <v>28942595521.05587</v>
       </c>
       <c r="G34">
-        <v>23463.79714726256</v>
+        <v>23463.79714726258</v>
       </c>
       <c r="H34">
-        <v>49648370340.86934</v>
+        <v>49648370340.86936</v>
       </c>
       <c r="I34">
         <v>19.11682198006619</v>
@@ -8837,22 +8837,22 @@
         <v>74.18101370405006</v>
       </c>
       <c r="C35">
-        <v>5586.158806952897</v>
+        <v>5586.158806952898</v>
       </c>
       <c r="D35">
         <v>14.0114917353758</v>
       </c>
       <c r="E35">
-        <v>4448.825311095725</v>
+        <v>4448.825311095723</v>
       </c>
       <c r="F35">
         <v>30433774559.22569</v>
       </c>
       <c r="G35">
-        <v>24621.30283755035</v>
+        <v>24621.30283755037</v>
       </c>
       <c r="H35">
-        <v>52935725627.71219</v>
+        <v>52935725627.71221</v>
       </c>
       <c r="I35">
         <v>17.63840961487545</v>
@@ -8863,7 +8863,7 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>74.32214355880144</v>
+        <v>74.32214355880146</v>
       </c>
       <c r="C36">
         <v>5657.935136284997</v>
@@ -8872,16 +8872,16 @@
         <v>14.27477943224346</v>
       </c>
       <c r="E36">
-        <v>4502.87684203567</v>
+        <v>4502.876842035668</v>
       </c>
       <c r="F36">
-        <v>31973505896.82779</v>
+        <v>31973505896.82778</v>
       </c>
       <c r="G36">
-        <v>25732.10951147485</v>
+        <v>25732.10951147488</v>
       </c>
       <c r="H36">
-        <v>56163572707.60168</v>
+        <v>56163572707.60171</v>
       </c>
       <c r="I36">
         <v>17.99976889212852</v>
@@ -8892,7 +8892,7 @@
         <v>2015</v>
       </c>
       <c r="B37">
-        <v>74.45385193530649</v>
+        <v>74.4538519353065</v>
       </c>
       <c r="C37">
         <v>5728.716801070092</v>
@@ -8901,16 +8901,16 @@
         <v>14.55077930471201</v>
       </c>
       <c r="E37">
-        <v>4563.124967789247</v>
+        <v>4563.124967789245</v>
       </c>
       <c r="F37">
-        <v>33384457038.12408</v>
+        <v>33384457038.12407</v>
       </c>
       <c r="G37">
-        <v>26717.4788033553</v>
+        <v>26717.47880335533</v>
       </c>
       <c r="H37">
-        <v>59117366535.92649</v>
+        <v>59117366535.92651</v>
       </c>
       <c r="I37">
         <v>18.08932985487341</v>
@@ -8921,25 +8921,25 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>74.56618153827138</v>
+        <v>74.56618153827139</v>
       </c>
       <c r="C38">
         <v>5798.914756804919</v>
       </c>
       <c r="D38">
-        <v>14.74237358020609</v>
+        <v>14.74237358020608</v>
       </c>
       <c r="E38">
-        <v>4631.799256323042</v>
+        <v>4631.799256323039</v>
       </c>
       <c r="F38">
-        <v>34698472064.14433</v>
+        <v>34698472064.14432</v>
       </c>
       <c r="G38">
-        <v>27688.10658329666</v>
+        <v>27688.10658329669</v>
       </c>
       <c r="H38">
-        <v>62010823638.88224</v>
+        <v>62010823638.88226</v>
       </c>
       <c r="I38">
         <v>17.50825828041602</v>
@@ -8953,22 +8953,22 @@
         <v>74.64939152853269</v>
       </c>
       <c r="C39">
-        <v>5864.54692597278</v>
+        <v>5864.546925972781</v>
       </c>
       <c r="D39">
         <v>15.18861156932739</v>
       </c>
       <c r="E39">
-        <v>4645.382484049744</v>
+        <v>4645.382484049743</v>
       </c>
       <c r="F39">
         <v>36149218659.08892</v>
       </c>
       <c r="G39">
-        <v>28742.22864924553</v>
+        <v>28742.22864924556</v>
       </c>
       <c r="H39">
-        <v>64966169640.30684</v>
+        <v>64966169640.30687</v>
       </c>
       <c r="I39">
         <v>18.58334720710878</v>
@@ -8982,19 +8982,19 @@
         <v>74.69900885124268</v>
       </c>
       <c r="C40">
-        <v>5927.2339594633</v>
+        <v>5927.233959463299</v>
       </c>
       <c r="D40">
-        <v>15.38427494968141</v>
+        <v>15.3842749496814</v>
       </c>
       <c r="E40">
-        <v>4716.374129679197</v>
+        <v>4716.374129679192</v>
       </c>
       <c r="F40">
-        <v>37986013839.80851</v>
+        <v>37986013839.8085</v>
       </c>
       <c r="G40">
-        <v>29917.69964302632</v>
+        <v>29917.69964302634</v>
       </c>
       <c r="H40">
         <v>68125611911.93587</v>
@@ -9008,25 +9008,25 @@
         <v>2019</v>
       </c>
       <c r="B41">
-        <v>74.71642000969268</v>
+        <v>74.71642000969267</v>
       </c>
       <c r="C41">
-        <v>5988.819174167284</v>
+        <v>5988.819174167283</v>
       </c>
       <c r="D41">
-        <v>15.81644851756332</v>
+        <v>15.81644851756331</v>
       </c>
       <c r="E41">
-        <v>4767.59681965727</v>
+        <v>4767.596819657268</v>
       </c>
       <c r="F41">
-        <v>39573043711.04357</v>
+        <v>39573043711.04356</v>
       </c>
       <c r="G41">
-        <v>31002.60676855355</v>
+        <v>31002.60676855357</v>
       </c>
       <c r="H41">
-        <v>71263689365.37343</v>
+        <v>71263689365.37344</v>
       </c>
       <c r="I41">
         <v>19.43284515107672</v>
@@ -9040,22 +9040,22 @@
         <v>74.70548951208555</v>
       </c>
       <c r="C42">
-        <v>6045.971363672938</v>
+        <v>6045.971363672937</v>
       </c>
       <c r="D42">
-        <v>15.98913101243693</v>
+        <v>15.98913101243692</v>
       </c>
       <c r="E42">
-        <v>4715.84740302129</v>
+        <v>4715.847403021287</v>
       </c>
       <c r="F42">
         <v>40819182521.63868</v>
       </c>
       <c r="G42">
-        <v>31882.83367939769</v>
+        <v>31882.83367939772</v>
       </c>
       <c r="H42">
-        <v>73748836269.09467</v>
+        <v>73748836269.09468</v>
       </c>
       <c r="I42">
         <v>19.95498366095388</v>
@@ -9069,22 +9069,22 @@
         <v>74.66529282694991</v>
       </c>
       <c r="C43">
-        <v>6045.971363672938</v>
+        <v>6045.971363672937</v>
       </c>
       <c r="D43">
-        <v>15.98913101243693</v>
+        <v>15.98913101243692</v>
       </c>
       <c r="E43">
-        <v>4715.84740302129</v>
+        <v>4715.847403021287</v>
       </c>
       <c r="F43">
-        <v>42504790982.34432</v>
+        <v>42504790982.34431</v>
       </c>
       <c r="G43">
-        <v>33070.93487994357</v>
+        <v>33070.93487994359</v>
       </c>
       <c r="H43">
-        <v>76509216956.19745</v>
+        <v>76509216956.19746</v>
       </c>
       <c r="I43">
         <v>21.07415385601889</v>
@@ -9149,40 +9149,40 @@
         <v>1997</v>
       </c>
       <c r="B2">
-        <v>34.7400016784668</v>
+        <v>34.95442262455174</v>
       </c>
       <c r="C2">
-        <v>2.47983002662659</v>
+        <v>2.465787820715124</v>
       </c>
       <c r="D2">
-        <v>3242.75390625</v>
+        <v>3194.52246481275</v>
       </c>
       <c r="E2">
-        <v>65.44818444609892</v>
+        <v>65.59639629604357</v>
       </c>
       <c r="F2">
-        <v>29.76942796998786</v>
+        <v>27.92726149563431</v>
       </c>
       <c r="G2">
-        <v>1.424065572679814</v>
+        <v>0.9225159654062739</v>
       </c>
       <c r="H2">
-        <v>25478.80078125</v>
+        <v>16833.06187415829</v>
       </c>
       <c r="I2">
         <v>1984168572000</v>
       </c>
       <c r="J2">
-        <v>31459.13898047731</v>
+        <v>25023.10905343292</v>
       </c>
       <c r="K2">
-        <v>6757318000000</v>
+        <v>5143509781289.977</v>
       </c>
       <c r="L2">
-        <v>25.12999916076661</v>
+        <v>25.51899763886687</v>
       </c>
       <c r="M2">
-        <v>16.08717737576004</v>
+        <v>16.08717737576003</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9190,37 +9190,37 @@
         <v>1998</v>
       </c>
       <c r="B3">
-        <v>34.65534567454506</v>
+        <v>34.88649668985114</v>
       </c>
       <c r="C3">
-        <v>2.492623643269616</v>
+        <v>2.480038647070139</v>
       </c>
       <c r="D3">
-        <v>3330.02681671627</v>
+        <v>3274.003931655336</v>
       </c>
       <c r="E3">
-        <v>65.53403783771181</v>
+        <v>65.59813147615201</v>
       </c>
       <c r="F3">
-        <v>29.95411426532428</v>
+        <v>28.19785798451702</v>
       </c>
       <c r="G3">
-        <v>1.903316184460429</v>
+        <v>1.096309020836097</v>
       </c>
       <c r="H3">
-        <v>25626.47253224206</v>
+        <v>17935.1995093437</v>
       </c>
       <c r="I3">
         <v>2021429347132.275</v>
       </c>
       <c r="J3">
-        <v>32196.98975921992</v>
+        <v>25990.11406649771</v>
       </c>
       <c r="K3">
-        <v>6962364560846.561</v>
+        <v>5390658117319.43</v>
       </c>
       <c r="L3">
-        <v>25.01888853406146</v>
+        <v>25.4103298778135</v>
       </c>
       <c r="M3">
         <v>15.7743252610376</v>
@@ -9231,37 +9231,37 @@
         <v>1999</v>
       </c>
       <c r="B4">
-        <v>34.56759819846297</v>
+        <v>34.80750747546883</v>
       </c>
       <c r="C4">
-        <v>2.513885456987428</v>
+        <v>2.500590725215586</v>
       </c>
       <c r="D4">
-        <v>3380.362163378858</v>
+        <v>3330.402935733689</v>
       </c>
       <c r="E4">
-        <v>65.62892643128728</v>
+        <v>65.62133204288419</v>
       </c>
       <c r="F4">
-        <v>30.14509405403969</v>
+        <v>28.47426630499106</v>
       </c>
       <c r="G4">
-        <v>2.403232689272489</v>
+        <v>1.358016482730062</v>
       </c>
       <c r="H4">
-        <v>26247.52569450593</v>
+        <v>19075.32371486515</v>
       </c>
       <c r="I4">
-        <v>2077813733571.156</v>
+        <v>2077813733571.157</v>
       </c>
       <c r="J4">
-        <v>33061.3872343281</v>
+        <v>27028.89508727826</v>
       </c>
       <c r="K4">
-        <v>7213220397375.191</v>
+        <v>5664147431027.027</v>
       </c>
       <c r="L4">
-        <v>24.89626521651034</v>
+        <v>25.28836111176185</v>
       </c>
       <c r="M4">
         <v>15.45906690508512</v>
@@ -9272,37 +9272,37 @@
         <v>2000</v>
       </c>
       <c r="B5">
-        <v>34.4679253969267</v>
+        <v>34.71519788477443</v>
       </c>
       <c r="C5">
-        <v>2.547809904569089</v>
+        <v>2.53252482680526</v>
       </c>
       <c r="D5">
-        <v>3414.343552384335</v>
+        <v>3371.518115731686</v>
       </c>
       <c r="E5">
-        <v>65.72767084270964</v>
+        <v>65.66252171511756</v>
       </c>
       <c r="F5">
-        <v>30.33765206682672</v>
+        <v>28.75400746671309</v>
       </c>
       <c r="G5">
-        <v>2.699226033177284</v>
+        <v>1.604609606669598</v>
       </c>
       <c r="H5">
-        <v>27406.18213330126</v>
+        <v>20411.58859615482</v>
       </c>
       <c r="I5">
         <v>2143855104570.343</v>
       </c>
       <c r="J5">
-        <v>34026.40118544103</v>
+        <v>28148.93399218786</v>
       </c>
       <c r="K5">
-        <v>7505965128180.736</v>
+        <v>5970090243818.104</v>
       </c>
       <c r="L5">
-        <v>24.76155739613445</v>
+        <v>25.15275809545209</v>
       </c>
       <c r="M5">
         <v>15.11507499065894</v>
@@ -9313,37 +9313,37 @@
         <v>2001</v>
       </c>
       <c r="B6">
-        <v>34.27414573948866</v>
+        <v>34.55910844548595</v>
       </c>
       <c r="C6">
-        <v>2.572841724953722</v>
+        <v>2.557842496695782</v>
       </c>
       <c r="D6">
-        <v>3452.128283106313</v>
+        <v>3414.05393022067</v>
       </c>
       <c r="E6">
-        <v>65.83475695503047</v>
+        <v>65.72152055596167</v>
       </c>
       <c r="F6">
-        <v>30.52845489659525</v>
+        <v>29.03403210525633</v>
       </c>
       <c r="G6">
-        <v>2.432909263264349</v>
+        <v>1.607647475268709</v>
       </c>
       <c r="H6">
-        <v>27535.310785914</v>
+        <v>21306.97530425813</v>
       </c>
       <c r="I6">
         <v>2175734577300.279</v>
       </c>
       <c r="J6">
-        <v>34800.4025745724</v>
+        <v>29219.71707080106</v>
       </c>
       <c r="K6">
-        <v>7781463755245.742</v>
+        <v>6284943749195.887</v>
       </c>
       <c r="L6">
-        <v>24.50708988812794</v>
+        <v>24.9376617100806</v>
       </c>
       <c r="M6">
         <v>13.91930940251579</v>
@@ -9354,37 +9354,37 @@
         <v>2002</v>
       </c>
       <c r="B7">
-        <v>33.92991212688365</v>
+        <v>34.28752911097499</v>
       </c>
       <c r="C7">
-        <v>2.569871653161238</v>
+        <v>2.558122068439651</v>
       </c>
       <c r="D7">
-        <v>3495.600093562965</v>
+        <v>3460.774275317876</v>
       </c>
       <c r="E7">
-        <v>65.93916423451942</v>
+        <v>65.7912767512466</v>
       </c>
       <c r="F7">
-        <v>30.71763365330689</v>
+        <v>29.31267864590175</v>
       </c>
       <c r="G7">
-        <v>2.123090353723196</v>
+        <v>1.537793484270104</v>
       </c>
       <c r="H7">
-        <v>27976.90679329479</v>
+        <v>22280.98595572501</v>
       </c>
       <c r="I7">
         <v>2193534387876.062</v>
       </c>
       <c r="J7">
-        <v>35499.5997868839</v>
+        <v>30256.35734189829</v>
       </c>
       <c r="K7">
-        <v>8046787061366.788</v>
+        <v>6604958675664.363</v>
       </c>
       <c r="L7">
-        <v>24.12284993000923</v>
+        <v>24.6180870469578</v>
       </c>
       <c r="M7">
         <v>13.45287764024212</v>
@@ -9395,37 +9395,37 @@
         <v>2003</v>
       </c>
       <c r="B8">
-        <v>33.63011949166696</v>
+        <v>34.02280993685747</v>
       </c>
       <c r="C8">
-        <v>2.568821977105884</v>
+        <v>2.559288184298735</v>
       </c>
       <c r="D8">
-        <v>3573.841043877971</v>
+        <v>3539.05491973026</v>
       </c>
       <c r="E8">
-        <v>66.04074140716791</v>
+        <v>65.86892977271238</v>
       </c>
       <c r="F8">
-        <v>30.90440359989413</v>
+        <v>29.58819017984331</v>
       </c>
       <c r="G8">
-        <v>1.905944005533754</v>
+        <v>1.477391757596137</v>
       </c>
       <c r="H8">
-        <v>29205.46622080499</v>
+        <v>23677.90654676687</v>
       </c>
       <c r="I8">
         <v>2229525730444.568</v>
       </c>
       <c r="J8">
-        <v>36286.73404542769</v>
+        <v>31338.07783716585</v>
       </c>
       <c r="K8">
-        <v>8330884776370.103</v>
+        <v>6942594526379.027</v>
       </c>
       <c r="L8">
-        <v>23.79289150616501</v>
+        <v>24.31240125997212</v>
       </c>
       <c r="M8">
         <v>13.3165117541749</v>
@@ -9436,37 +9436,37 @@
         <v>2004</v>
       </c>
       <c r="B9">
-        <v>33.42146929397568</v>
+        <v>33.81182309612448</v>
       </c>
       <c r="C9">
-        <v>2.55677740118942</v>
+        <v>2.549660744774737</v>
       </c>
       <c r="D9">
-        <v>3612.427475837603</v>
+        <v>3580.95945655755</v>
       </c>
       <c r="E9">
-        <v>66.14537607160985</v>
+        <v>65.95600076639711</v>
       </c>
       <c r="F9">
-        <v>31.09571432879839</v>
+        <v>29.86394499166823</v>
       </c>
       <c r="G9">
-        <v>1.87741585173673</v>
+        <v>1.508948021346811</v>
       </c>
       <c r="H9">
-        <v>30701.17877707087</v>
+        <v>25279.82432556515</v>
       </c>
       <c r="I9">
         <v>2289389521630.679</v>
       </c>
       <c r="J9">
-        <v>37273.25584808779</v>
+        <v>32546.19184350106</v>
       </c>
       <c r="K9">
-        <v>8648906214171.693</v>
+        <v>7307973751743.39</v>
       </c>
       <c r="L9">
-        <v>23.53838438488986</v>
+        <v>24.04950343490375</v>
       </c>
       <c r="M9">
         <v>13.17418108165371</v>
@@ -9477,37 +9477,37 @@
         <v>2005</v>
       </c>
       <c r="B10">
-        <v>33.25020363422477</v>
+        <v>33.62511235698335</v>
       </c>
       <c r="C10">
-        <v>2.550037054569662</v>
+        <v>2.54443540230898</v>
       </c>
       <c r="D10">
-        <v>3633.983746483735</v>
+        <v>3606.338433318143</v>
       </c>
       <c r="E10">
-        <v>66.2574307473959</v>
+        <v>66.05438155735325</v>
       </c>
       <c r="F10">
-        <v>31.29198787067715</v>
+        <v>30.14030141821165</v>
       </c>
       <c r="G10">
-        <v>1.744369194177054</v>
+        <v>1.460715927745196</v>
       </c>
       <c r="H10">
-        <v>31828.27550934207</v>
+        <v>26675.84212755384</v>
       </c>
       <c r="I10">
         <v>2369943238852.363</v>
       </c>
       <c r="J10">
-        <v>38433.14819287536</v>
+        <v>33884.34715516987</v>
       </c>
       <c r="K10">
-        <v>9001469600847.463</v>
+        <v>7703635844547.401</v>
       </c>
       <c r="L10">
-        <v>23.32192376253722</v>
+        <v>23.81115707661736</v>
       </c>
       <c r="M10">
         <v>12.98331951941368</v>
@@ -9518,37 +9518,37 @@
         <v>2006</v>
       </c>
       <c r="B11">
-        <v>33.16545541699523</v>
+        <v>33.5072917961104</v>
       </c>
       <c r="C11">
-        <v>2.551252330978315</v>
+        <v>2.546445850567516</v>
       </c>
       <c r="D11">
-        <v>3660.978677260224</v>
+        <v>3636.260854623761</v>
       </c>
       <c r="E11">
-        <v>66.34440449337932</v>
+        <v>66.14026428661086</v>
       </c>
       <c r="F11">
-        <v>31.49585131681092</v>
+        <v>30.41928003069711</v>
       </c>
       <c r="G11">
-        <v>1.810857735025064</v>
+        <v>1.541132459669046</v>
       </c>
       <c r="H11">
-        <v>33115.57612637409</v>
+        <v>28193.78893354118</v>
       </c>
       <c r="I11">
-        <v>2467833575413.644</v>
+        <v>2467833575413.643</v>
       </c>
       <c r="J11">
-        <v>39690.91545282934</v>
+        <v>35311.67279073502</v>
       </c>
       <c r="K11">
-        <v>9376891848604.682</v>
+        <v>8122782562241.637</v>
       </c>
       <c r="L11">
-        <v>23.16657031312143</v>
+        <v>23.62095468660693</v>
       </c>
       <c r="M11">
         <v>12.99072266531401</v>
@@ -9559,37 +9559,37 @@
         <v>2007</v>
       </c>
       <c r="B12">
-        <v>33.04586780713417</v>
+        <v>33.36345118859256</v>
       </c>
       <c r="C12">
-        <v>2.563486996968529</v>
+        <v>2.558886657852708</v>
       </c>
       <c r="D12">
-        <v>3678.721528749189</v>
+        <v>3656.895204680043</v>
       </c>
       <c r="E12">
-        <v>66.41958988015293</v>
+        <v>66.22009542182245</v>
       </c>
       <c r="F12">
-        <v>31.70638038056141</v>
+        <v>30.70057309259207</v>
       </c>
       <c r="G12">
-        <v>1.899747964442142</v>
+        <v>1.638760654311575</v>
       </c>
       <c r="H12">
-        <v>34257.80129595214</v>
+        <v>29614.81379182362</v>
       </c>
       <c r="I12">
-        <v>2564225990312.375</v>
+        <v>2564225990312.376</v>
       </c>
       <c r="J12">
-        <v>40963.64340196886</v>
+        <v>36768.68102992715</v>
       </c>
       <c r="K12">
-        <v>9767912643341.947</v>
+        <v>8559974036200.575</v>
       </c>
       <c r="L12">
-        <v>23.01027203395847</v>
+        <v>23.43198701009625</v>
       </c>
       <c r="M12">
         <v>12.76975661036177</v>
@@ -9600,37 +9600,37 @@
         <v>2008</v>
       </c>
       <c r="B13">
-        <v>32.83903704184534</v>
+        <v>33.14609052947902</v>
       </c>
       <c r="C13">
-        <v>2.593349207015732</v>
+        <v>2.58835756333886</v>
       </c>
       <c r="D13">
-        <v>3715.834051712333</v>
+        <v>3695.792687754356</v>
       </c>
       <c r="E13">
-        <v>66.48685360475706</v>
+        <v>66.2952502005009</v>
       </c>
       <c r="F13">
-        <v>31.93095084135586</v>
+        <v>30.99018114552188</v>
       </c>
       <c r="G13">
-        <v>1.959587063988478</v>
+        <v>1.715130214472241</v>
       </c>
       <c r="H13">
-        <v>34996.35419099942</v>
+        <v>30719.30446540982</v>
       </c>
       <c r="I13">
-        <v>2638280830462.707</v>
+        <v>2638280830462.706</v>
       </c>
       <c r="J13">
-        <v>42074.79030845637</v>
+        <v>38112.61238581021</v>
       </c>
       <c r="K13">
-        <v>10152923857813.92</v>
+        <v>8997674759123.25</v>
       </c>
       <c r="L13">
-        <v>22.78380742414362</v>
+        <v>23.18471590688894</v>
       </c>
       <c r="M13">
         <v>12.21673020060782</v>
@@ -9641,37 +9641,37 @@
         <v>2009</v>
       </c>
       <c r="B14">
-        <v>32.43593171594947</v>
+        <v>32.75510664478202</v>
       </c>
       <c r="C14">
-        <v>2.624276218739692</v>
+        <v>2.619037489479298</v>
       </c>
       <c r="D14">
-        <v>3768.438337312003</v>
+        <v>3749.556355619466</v>
       </c>
       <c r="E14">
-        <v>66.54201454381686</v>
+        <v>66.3613664672795</v>
       </c>
       <c r="F14">
-        <v>32.15730841590375</v>
+        <v>31.2790222106493</v>
       </c>
       <c r="G14">
-        <v>1.840167553554757</v>
+        <v>1.646779678643914</v>
       </c>
       <c r="H14">
-        <v>35010.63914039294</v>
+        <v>31215.98303495951</v>
       </c>
       <c r="I14">
         <v>2659630303471.087</v>
       </c>
       <c r="J14">
-        <v>42796.69793038805</v>
+        <v>39142.9051843361</v>
       </c>
       <c r="K14">
-        <v>10459122417681.08</v>
+        <v>9375083989462.85</v>
       </c>
       <c r="L14">
-        <v>22.39130903995166</v>
+        <v>22.79143201140111</v>
       </c>
       <c r="M14">
         <v>11.69878959461227</v>
@@ -9682,37 +9682,37 @@
         <v>2010</v>
       </c>
       <c r="B15">
-        <v>32.02622352541318</v>
+        <v>32.35117025084269</v>
       </c>
       <c r="C15">
-        <v>2.639472932147355</v>
+        <v>2.634535964892601</v>
       </c>
       <c r="D15">
-        <v>3784.13662059177</v>
+        <v>3767.360494435493</v>
       </c>
       <c r="E15">
-        <v>66.57913146375799</v>
+        <v>66.41247206284157</v>
       </c>
       <c r="F15">
-        <v>32.38411249865136</v>
+        <v>31.56580380327064</v>
       </c>
       <c r="G15">
-        <v>1.82845656798621</v>
+        <v>1.65896120346208</v>
       </c>
       <c r="H15">
-        <v>35604.51317443843</v>
+        <v>32135.90533394295</v>
       </c>
       <c r="I15">
         <v>2693321704950.166</v>
       </c>
       <c r="J15">
-        <v>43597.25346685876</v>
+        <v>40217.7591406511</v>
       </c>
       <c r="K15">
-        <v>10775324244543.01</v>
+        <v>9759027929297.537</v>
       </c>
       <c r="L15">
-        <v>22.01505403608375</v>
+        <v>22.40743877364155</v>
       </c>
       <c r="M15">
         <v>11.90608509753218</v>
@@ -9723,37 +9723,37 @@
         <v>2011</v>
       </c>
       <c r="B16">
-        <v>31.65112677378041</v>
+        <v>31.97290868274576</v>
       </c>
       <c r="C16">
-        <v>2.656225346029248</v>
+        <v>2.651551330732965</v>
       </c>
       <c r="D16">
-        <v>3816.27099930675</v>
+        <v>3800.950314665451</v>
       </c>
       <c r="E16">
-        <v>66.59850725547979</v>
+        <v>66.44765149402737</v>
       </c>
       <c r="F16">
-        <v>32.60765173966161</v>
+        <v>31.84719171260086</v>
       </c>
       <c r="G16">
-        <v>1.809897178766296</v>
+        <v>1.662359485203717</v>
       </c>
       <c r="H16">
-        <v>36139.59617541144</v>
+        <v>32979.62812800255</v>
       </c>
       <c r="I16">
         <v>2737833709460.516</v>
       </c>
       <c r="J16">
-        <v>44458.83012682531</v>
+        <v>41327.71745354826</v>
       </c>
       <c r="K16">
-        <v>11099624385585.85</v>
+        <v>10147994313640.44</v>
       </c>
       <c r="L16">
-        <v>21.70804064179773</v>
+        <v>22.08261159529615</v>
       </c>
       <c r="M16">
         <v>11.94724683215558</v>
@@ -9764,37 +9764,37 @@
         <v>2012</v>
       </c>
       <c r="B17">
-        <v>31.32164383484102</v>
+        <v>31.63290299056759</v>
       </c>
       <c r="C17">
-        <v>2.659536229789733</v>
+        <v>2.655393143759309</v>
       </c>
       <c r="D17">
-        <v>3838.828561173247</v>
+        <v>3825.01672879332</v>
       </c>
       <c r="E17">
-        <v>66.60070597024215</v>
+        <v>66.46650660837936</v>
       </c>
       <c r="F17">
-        <v>32.82967302099993</v>
+        <v>32.12438200799589</v>
       </c>
       <c r="G17">
-        <v>1.774791085193364</v>
+        <v>1.648629378181688</v>
       </c>
       <c r="H17">
-        <v>36526.43548679419</v>
+        <v>33668.84731776672</v>
       </c>
       <c r="I17">
-        <v>2786889444319.624</v>
+        <v>2786889444319.623</v>
       </c>
       <c r="J17">
-        <v>45412.42013910151</v>
+        <v>42503.07578418909</v>
       </c>
       <c r="K17">
-        <v>11420262453385.14</v>
+        <v>10531827014878.49</v>
       </c>
       <c r="L17">
-        <v>21.45185588181645</v>
+        <v>21.80342229144406</v>
       </c>
       <c r="M17">
         <v>11.85756063027308</v>
@@ -9805,37 +9805,37 @@
         <v>2013</v>
       </c>
       <c r="B18">
-        <v>31.08410075458202</v>
+        <v>31.37629456424877</v>
       </c>
       <c r="C18">
-        <v>2.6661718308614</v>
+        <v>2.662433496737922</v>
       </c>
       <c r="D18">
-        <v>3870.996505153957</v>
+        <v>3858.360245954147</v>
       </c>
       <c r="E18">
-        <v>66.58503698957099</v>
+        <v>66.46778495450786</v>
       </c>
       <c r="F18">
-        <v>33.0494155255939</v>
+        <v>32.3965771827729</v>
       </c>
       <c r="G18">
-        <v>1.766609016152382</v>
+        <v>1.655585903576875</v>
       </c>
       <c r="H18">
-        <v>36601.35155720385</v>
+        <v>34055.1132125346</v>
       </c>
       <c r="I18">
         <v>2844820998391.466</v>
       </c>
       <c r="J18">
-        <v>46417.73141534033</v>
+        <v>43712.77256032258</v>
       </c>
       <c r="K18">
-        <v>11736184928697.52</v>
+        <v>10909081270591.81</v>
       </c>
       <c r="L18">
-        <v>21.26022141934975</v>
+        <v>21.58454303939756</v>
       </c>
       <c r="M18">
         <v>11.79811646038965</v>
@@ -9846,37 +9846,37 @@
         <v>2014</v>
       </c>
       <c r="B19">
-        <v>30.88045173296756</v>
+        <v>31.15180738749901</v>
       </c>
       <c r="C19">
-        <v>2.673110774809303</v>
+        <v>2.669728907647239</v>
       </c>
       <c r="D19">
-        <v>3912.986969266059</v>
+        <v>3901.274663411808</v>
       </c>
       <c r="E19">
-        <v>66.55130922886475</v>
+        <v>66.45080756435438</v>
       </c>
       <c r="F19">
-        <v>33.26969364354169</v>
+        <v>32.66619299038081</v>
       </c>
       <c r="G19">
-        <v>1.725030638508511</v>
+        <v>1.630905973189761</v>
       </c>
       <c r="H19">
-        <v>36804.96833577702</v>
+        <v>34521.72189154073</v>
       </c>
       <c r="I19">
         <v>2913534624065.372</v>
       </c>
       <c r="J19">
-        <v>47509.40721437414</v>
+        <v>44989.60753663757</v>
       </c>
       <c r="K19">
-        <v>12071958330536.97</v>
+        <v>11301259495351.39</v>
       </c>
       <c r="L19">
-        <v>21.09969210180645</v>
+        <v>21.39657649485819</v>
       </c>
       <c r="M19">
         <v>11.65547548994952</v>
@@ -9887,37 +9887,37 @@
         <v>2015</v>
       </c>
       <c r="B20">
-        <v>30.67663566715047</v>
+        <v>30.92827193753819</v>
       </c>
       <c r="C20">
-        <v>2.686565017112186</v>
+        <v>2.683416125389153</v>
       </c>
       <c r="D20">
-        <v>3957.059324545885</v>
+        <v>3946.187462979659</v>
       </c>
       <c r="E20">
-        <v>66.49969978577069</v>
+        <v>66.4153573440471</v>
       </c>
       <c r="F20">
-        <v>33.49119150814992</v>
+        <v>32.93391175945774</v>
       </c>
       <c r="G20">
-        <v>1.858909378619582</v>
+        <v>1.762495272724091</v>
       </c>
       <c r="H20">
-        <v>36936.02397003082</v>
+        <v>34895.24523024449</v>
       </c>
       <c r="I20">
         <v>2971630058900.723</v>
       </c>
       <c r="J20">
-        <v>48652.10964751363</v>
+        <v>46304.46248031194</v>
       </c>
       <c r="K20">
-        <v>12417795084835.92</v>
+        <v>11700100971507.98</v>
       </c>
       <c r="L20">
-        <v>20.94660130400315</v>
+        <v>21.21784937466831</v>
       </c>
       <c r="M20">
         <v>11.66231343029535</v>
@@ -9928,37 +9928,37 @@
         <v>2016</v>
       </c>
       <c r="B21">
-        <v>30.49549334026615</v>
+        <v>30.72735340345183</v>
       </c>
       <c r="C21">
-        <v>2.705973445002352</v>
+        <v>2.70297650125058</v>
       </c>
       <c r="D21">
-        <v>3992.895163074656</v>
+        <v>3982.912913665859</v>
       </c>
       <c r="E21">
-        <v>66.43186488913413</v>
+        <v>66.3626894214493</v>
       </c>
       <c r="F21">
-        <v>33.71382530406732</v>
+        <v>33.19976475205448</v>
       </c>
       <c r="G21">
-        <v>1.941593459873912</v>
+        <v>1.848904283994038</v>
       </c>
       <c r="H21">
-        <v>37145.83206137942</v>
+        <v>35314.76513030373</v>
       </c>
       <c r="I21">
-        <v>3020537478528.384</v>
+        <v>3020537478528.385</v>
       </c>
       <c r="J21">
-        <v>49774.88714688006</v>
+        <v>47593.60095561861</v>
       </c>
       <c r="K21">
-        <v>12775852694653.47</v>
+        <v>12107757699847.73</v>
       </c>
       <c r="L21">
-        <v>20.80445428644061</v>
+        <v>21.051655275141</v>
       </c>
       <c r="M21">
         <v>11.22363791652988</v>
@@ -9969,37 +9969,37 @@
         <v>2017</v>
       </c>
       <c r="B22">
-        <v>30.33105977641117</v>
+        <v>30.54374829493577</v>
       </c>
       <c r="C22">
-        <v>2.728822830641546</v>
+        <v>2.72594741093707</v>
       </c>
       <c r="D22">
-        <v>4043.327778947729</v>
+        <v>4034.015084662437</v>
       </c>
       <c r="E22">
-        <v>66.34639533405546</v>
+        <v>66.29137410345493</v>
       </c>
       <c r="F22">
-        <v>33.9340346983927</v>
+        <v>33.46057784868179</v>
       </c>
       <c r="G22">
-        <v>1.943205674622269</v>
+        <v>1.860713740780928</v>
       </c>
       <c r="H22">
-        <v>37681.18808564563</v>
+        <v>36013.55163559318</v>
       </c>
       <c r="I22">
-        <v>3089278640374.659</v>
+        <v>3089278640374.658</v>
       </c>
       <c r="J22">
-        <v>50995.93838366101</v>
+        <v>48965.3015732068</v>
       </c>
       <c r="K22">
-        <v>13160469714997.85</v>
+        <v>12537713965241.9</v>
       </c>
       <c r="L22">
-        <v>20.67506785225225</v>
+        <v>20.89973985289069</v>
       </c>
       <c r="M22">
         <v>11.25487168998816</v>
@@ -10010,37 +10010,37 @@
         <v>2018</v>
       </c>
       <c r="B23">
-        <v>30.21533026041827</v>
+        <v>30.40835376447402</v>
       </c>
       <c r="C23">
-        <v>2.76123907547605</v>
+        <v>2.758408396521546</v>
       </c>
       <c r="D23">
-        <v>4127.409983899511</v>
+        <v>4118.432327963907</v>
       </c>
       <c r="E23">
-        <v>66.24353351184551</v>
+        <v>66.20153229954005</v>
       </c>
       <c r="F23">
-        <v>34.14808690667574</v>
+        <v>33.7129051413608</v>
       </c>
       <c r="G23">
-        <v>1.836278468076208</v>
+        <v>1.770133586107265</v>
       </c>
       <c r="H23">
-        <v>38313.32491038369</v>
+        <v>36788.67737192274</v>
       </c>
       <c r="I23">
         <v>3176543168615.03</v>
       </c>
       <c r="J23">
-        <v>52403.35659281568</v>
+        <v>50504.04095232965</v>
       </c>
       <c r="K23">
-        <v>13592191769915.74</v>
+        <v>13009703224717.54</v>
       </c>
       <c r="L23">
-        <v>20.57912105620213</v>
+        <v>20.78196050508884</v>
       </c>
       <c r="M23">
         <v>11.34219756039769</v>
@@ -10051,37 +10051,37 @@
         <v>2019</v>
       </c>
       <c r="B24">
-        <v>30.11077744340745</v>
+        <v>30.28555156782814</v>
       </c>
       <c r="C24">
-        <v>2.809049823719548</v>
+        <v>2.806166842829467</v>
       </c>
       <c r="D24">
-        <v>4209.346157185111</v>
+        <v>4200.762278870647</v>
       </c>
       <c r="E24">
-        <v>66.12514868320392</v>
+        <v>66.09487387401828</v>
       </c>
       <c r="F24">
-        <v>34.35417263391121</v>
+        <v>33.95502380873734</v>
       </c>
       <c r="G24">
-        <v>1.793336323342798</v>
+        <v>1.737098506944837</v>
       </c>
       <c r="H24">
-        <v>38807.54386211565</v>
+        <v>37422.7258363978</v>
       </c>
       <c r="I24">
-        <v>3263188992652.462</v>
+        <v>3263188992652.463</v>
       </c>
       <c r="J24">
-        <v>53902.14867686527</v>
+        <v>52124.34217168541</v>
       </c>
       <c r="K24">
-        <v>14042180063075.43</v>
+        <v>13497532989782.1</v>
       </c>
       <c r="L24">
-        <v>20.50010139043479</v>
+        <v>20.68266222274097</v>
       </c>
       <c r="M24">
         <v>11.07164491768661</v>
@@ -10092,37 +10092,37 @@
         <v>2020</v>
       </c>
       <c r="B25">
-        <v>30.11077744340745</v>
+        <v>30.28555156782814</v>
       </c>
       <c r="C25">
-        <v>2.884155942154116</v>
+        <v>2.881075363590252</v>
       </c>
       <c r="D25">
-        <v>4209.346157185111</v>
+        <v>4200.762278870647</v>
       </c>
       <c r="E25">
-        <v>65.99302838199132</v>
+        <v>65.97311928873062</v>
       </c>
       <c r="F25">
-        <v>34.57507238439967</v>
+        <v>34.20848668082747</v>
       </c>
       <c r="G25">
-        <v>1.666744917204808</v>
+        <v>1.62345974599773</v>
       </c>
       <c r="H25">
-        <v>39040.14405246382</v>
+        <v>37796.61219843762</v>
       </c>
       <c r="I25">
         <v>3332230079569.946</v>
       </c>
       <c r="J25">
-        <v>54971.17204953689</v>
+        <v>53333.8860966108</v>
       </c>
       <c r="K25">
-        <v>14403386433260.07</v>
+        <v>13900001687123.68</v>
       </c>
       <c r="L25">
-        <v>20.50010139043479</v>
+        <v>20.68266222274097</v>
       </c>
       <c r="M25">
         <v>11.18777772755131</v>
@@ -10133,40 +10133,40 @@
         <v>2021</v>
       </c>
       <c r="B26">
-        <v>30.34971078112964</v>
+        <v>30.28555156782814</v>
       </c>
       <c r="C26">
-        <v>3.000267417503025</v>
+        <v>2.881075363590252</v>
       </c>
       <c r="D26">
-        <v>4039.521382983692</v>
+        <v>4200.762278870647</v>
       </c>
       <c r="E26">
-        <v>65.84887099317973</v>
+        <v>65.83408346279003</v>
       </c>
       <c r="F26">
-        <v>34.84003218292119</v>
+        <v>34.20848668082747</v>
       </c>
       <c r="G26">
-        <v>1.207045785819274</v>
+        <v>1.62345974599773</v>
       </c>
       <c r="H26">
-        <v>38908.74612618054</v>
+        <v>37796.61219843762</v>
       </c>
       <c r="I26">
-        <v>3367852388831.007</v>
+        <v>3332230079569.946</v>
       </c>
       <c r="J26">
-        <v>54986.67619464755</v>
+        <v>55102.02793708547</v>
       </c>
       <c r="K26">
-        <v>14551440506422.67</v>
+        <v>13900001687123.68</v>
       </c>
       <c r="L26">
-        <v>20.66534582190606</v>
+        <v>20.68266222274097</v>
       </c>
       <c r="M26">
-        <v>12.71094963783942</v>
+        <v>11.43055645042135</v>
       </c>
     </row>
   </sheetData>
